--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupocoomeva-my.sharepoint.com/personal/nalgmarin_coomeva_com_co/Documents/2025/Personal/Legendarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66404943-C196-4AD8-AB1F-FD16B33D06F7}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A67BB218-4A7A-468D-A3B3-73305C41CBD9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="77">
   <si>
     <t>jugador</t>
   </si>
@@ -1388,18 +1388,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L254"/>
+  <dimension ref="A1:L264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F257" sqref="F257"/>
+      <pane ySplit="1" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I266" sqref="I266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.140625" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -11063,6 +11063,386 @@
         <v>0</v>
       </c>
     </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A255" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B255" t="s">
+        <v>39</v>
+      </c>
+      <c r="C255" t="s">
+        <v>13</v>
+      </c>
+      <c r="D255" t="s">
+        <v>4</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+      <c r="G255" t="b">
+        <v>1</v>
+      </c>
+      <c r="H255">
+        <v>5</v>
+      </c>
+      <c r="I255">
+        <v>0</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="K255">
+        <v>0</v>
+      </c>
+      <c r="L255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A256" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B256" t="s">
+        <v>21</v>
+      </c>
+      <c r="C256" t="s">
+        <v>13</v>
+      </c>
+      <c r="D256" t="s">
+        <v>2</v>
+      </c>
+      <c r="E256">
+        <v>1</v>
+      </c>
+      <c r="F256">
+        <v>0</v>
+      </c>
+      <c r="G256" t="b">
+        <v>0</v>
+      </c>
+      <c r="H256">
+        <v>0</v>
+      </c>
+      <c r="I256">
+        <v>0</v>
+      </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
+      <c r="K256">
+        <v>1</v>
+      </c>
+      <c r="L256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A257" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B257" t="s">
+        <v>20</v>
+      </c>
+      <c r="C257" t="s">
+        <v>13</v>
+      </c>
+      <c r="D257" t="s">
+        <v>18</v>
+      </c>
+      <c r="E257">
+        <v>1</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+      <c r="G257" t="b">
+        <v>0</v>
+      </c>
+      <c r="H257">
+        <v>0</v>
+      </c>
+      <c r="I257">
+        <v>0</v>
+      </c>
+      <c r="J257">
+        <v>0</v>
+      </c>
+      <c r="K257">
+        <v>1</v>
+      </c>
+      <c r="L257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A258" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B258" t="s">
+        <v>30</v>
+      </c>
+      <c r="C258" t="s">
+        <v>13</v>
+      </c>
+      <c r="D258" t="s">
+        <v>2</v>
+      </c>
+      <c r="E258">
+        <v>1</v>
+      </c>
+      <c r="F258">
+        <v>0</v>
+      </c>
+      <c r="G258" t="b">
+        <v>0</v>
+      </c>
+      <c r="H258">
+        <v>0</v>
+      </c>
+      <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258">
+        <v>0</v>
+      </c>
+      <c r="K258">
+        <v>0</v>
+      </c>
+      <c r="L258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A259" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B259" t="s">
+        <v>35</v>
+      </c>
+      <c r="C259" t="s">
+        <v>14</v>
+      </c>
+      <c r="D259" t="s">
+        <v>4</v>
+      </c>
+      <c r="E259">
+        <v>0</v>
+      </c>
+      <c r="F259">
+        <v>0</v>
+      </c>
+      <c r="G259" t="b">
+        <v>1</v>
+      </c>
+      <c r="H259">
+        <v>3</v>
+      </c>
+      <c r="I259">
+        <v>0</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
+      <c r="K259">
+        <v>0</v>
+      </c>
+      <c r="L259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A260" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B260" t="s">
+        <v>24</v>
+      </c>
+      <c r="C260" t="s">
+        <v>14</v>
+      </c>
+      <c r="D260" t="s">
+        <v>2</v>
+      </c>
+      <c r="E260">
+        <v>1</v>
+      </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
+      <c r="G260" t="b">
+        <v>0</v>
+      </c>
+      <c r="H260">
+        <v>0</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="K260">
+        <v>0</v>
+      </c>
+      <c r="L260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A261" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B261" t="s">
+        <v>22</v>
+      </c>
+      <c r="C261" t="s">
+        <v>14</v>
+      </c>
+      <c r="D261" t="s">
+        <v>3</v>
+      </c>
+      <c r="E261">
+        <v>2</v>
+      </c>
+      <c r="F261">
+        <v>0</v>
+      </c>
+      <c r="G261" t="b">
+        <v>0</v>
+      </c>
+      <c r="H261">
+        <v>0</v>
+      </c>
+      <c r="I261">
+        <v>0</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="K261">
+        <v>0</v>
+      </c>
+      <c r="L261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A262" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B262" t="s">
+        <v>58</v>
+      </c>
+      <c r="C262" t="s">
+        <v>14</v>
+      </c>
+      <c r="D262" t="s">
+        <v>2</v>
+      </c>
+      <c r="E262">
+        <v>2</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+      <c r="G262" t="b">
+        <v>0</v>
+      </c>
+      <c r="H262">
+        <v>0</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+      <c r="K262">
+        <v>1</v>
+      </c>
+      <c r="L262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A263" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B263" t="s">
+        <v>36</v>
+      </c>
+      <c r="C263" t="s">
+        <v>14</v>
+      </c>
+      <c r="D263" t="s">
+        <v>3</v>
+      </c>
+      <c r="E263">
+        <v>0</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
+      <c r="G263" t="b">
+        <v>0</v>
+      </c>
+      <c r="H263">
+        <v>0</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="K263">
+        <v>1</v>
+      </c>
+      <c r="L263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A264" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B264" t="s">
+        <v>45</v>
+      </c>
+      <c r="C264" t="s">
+        <v>14</v>
+      </c>
+      <c r="D264" t="s">
+        <v>18</v>
+      </c>
+      <c r="E264">
+        <v>0</v>
+      </c>
+      <c r="F264">
+        <v>0</v>
+      </c>
+      <c r="G264" t="b">
+        <v>0</v>
+      </c>
+      <c r="H264">
+        <v>0</v>
+      </c>
+      <c r="I264">
+        <v>0</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="K264">
+        <v>1</v>
+      </c>
+      <c r="L264">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupocoomeva-my.sharepoint.com/personal/nalgmarin_coomeva_com_co/Documents/2025/Personal/Legendarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A67BB218-4A7A-468D-A3B3-73305C41CBD9}"/>
+  <xr:revisionPtr revIDLastSave="271" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAF0F2D9-EE3C-47B3-927B-6719EB8FF969}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Partidos" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Partidos!$A$1:$L$241</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Partidos!$B$1:$B$270</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="77">
   <si>
     <t>jugador</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>Azul</t>
-  </si>
-  <si>
-    <t>Hermes</t>
   </si>
   <si>
     <t>Hugo</t>
@@ -268,6 +265,9 @@
   </si>
   <si>
     <t>Penales_Atajados</t>
+  </si>
+  <si>
+    <t>Hermes Marquez</t>
   </si>
 </sst>
 </file>
@@ -845,7 +845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -880,10 +880,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
         <v>32875</v>
@@ -891,7 +891,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -913,7 +913,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -946,10 +946,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2">
         <v>32881</v>
@@ -957,10 +957,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2">
         <v>32882</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -979,7 +979,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -990,10 +990,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="2">
         <v>32885</v>
@@ -1001,7 +1001,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -1045,10 +1045,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2">
         <v>32890</v>
@@ -1056,10 +1056,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2">
         <v>32891</v>
@@ -1067,10 +1067,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2">
         <v>32892</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="2">
         <v>32894</v>
@@ -1100,7 +1100,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1122,10 +1122,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="2">
         <v>32897</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -1166,10 +1166,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C29" s="2">
         <v>32899</v>
@@ -1177,10 +1177,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30" s="2">
         <v>32900</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C31" s="2">
         <v>32901</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -1221,10 +1221,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="2">
         <v>32904</v>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C35" s="2">
         <v>32905</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -1254,10 +1254,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C37" s="2">
         <v>32907</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
         <v>4</v>
@@ -1298,10 +1298,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C41" s="2">
         <v>32911</v>
@@ -1309,7 +1309,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -1320,10 +1320,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C43" s="2">
         <v>32913</v>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
@@ -1342,10 +1342,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C45" s="2">
         <v>32915</v>
@@ -1353,10 +1353,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C46" s="2">
         <v>32916</v>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B47" t="s">
         <v>4</v>
@@ -1372,10 +1372,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1388,11 +1388,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L264"/>
+  <dimension ref="A1:L276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I266" sqref="I266"/>
+      <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B278" sqref="B278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,7 +1422,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -1443,10 +1443,10 @@
         <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1454,13 +1454,13 @@
         <v>45661</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -1492,7 +1492,7 @@
         <v>45661</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -1530,7 +1530,7 @@
         <v>45661</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -1568,7 +1568,7 @@
         <v>45661</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -1606,13 +1606,13 @@
         <v>45661</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1644,7 +1644,7 @@
         <v>45661</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1682,7 +1682,7 @@
         <v>45661</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -1720,7 +1720,7 @@
         <v>45661</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -1758,7 +1758,7 @@
         <v>45663</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -1796,13 +1796,13 @@
         <v>45663</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1834,7 +1834,7 @@
         <v>45663</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -1872,7 +1872,7 @@
         <v>45663</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1910,7 +1910,7 @@
         <v>45663</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -1948,13 +1948,13 @@
         <v>45663</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1986,13 +1986,13 @@
         <v>45663</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2024,7 +2024,7 @@
         <v>45663</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -2062,7 +2062,7 @@
         <v>45663</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
@@ -2100,7 +2100,7 @@
         <v>45668</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
@@ -2138,7 +2138,7 @@
         <v>45668</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -2176,7 +2176,7 @@
         <v>45668</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -2214,13 +2214,13 @@
         <v>45668</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2252,13 +2252,13 @@
         <v>45668</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -2290,13 +2290,13 @@
         <v>45668</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2328,7 +2328,7 @@
         <v>45668</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
@@ -2366,7 +2366,7 @@
         <v>45668</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
@@ -2404,7 +2404,7 @@
         <v>45675</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
@@ -2442,7 +2442,7 @@
         <v>45675</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
@@ -2480,7 +2480,7 @@
         <v>45675</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
@@ -2518,13 +2518,13 @@
         <v>45675</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2556,7 +2556,7 @@
         <v>45675</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
@@ -2594,7 +2594,7 @@
         <v>45675</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
@@ -2632,7 +2632,7 @@
         <v>45675</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
@@ -2670,7 +2670,7 @@
         <v>45675</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
@@ -2708,7 +2708,7 @@
         <v>45675</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
@@ -2746,13 +2746,13 @@
         <v>45675</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2784,13 +2784,13 @@
         <v>45675</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2822,7 +2822,7 @@
         <v>45675</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
         <v>13</v>
@@ -2860,7 +2860,7 @@
         <v>45675</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
@@ -2898,13 +2898,13 @@
         <v>45682</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2936,7 +2936,7 @@
         <v>45682</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
@@ -2974,13 +2974,13 @@
         <v>45682</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -3012,7 +3012,7 @@
         <v>45682</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
@@ -3050,7 +3050,7 @@
         <v>45682</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
@@ -3088,7 +3088,7 @@
         <v>45682</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
@@ -3126,13 +3126,13 @@
         <v>45682</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3164,13 +3164,13 @@
         <v>45682</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47" t="s">
         <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>45689</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C48" t="s">
         <v>13</v>
@@ -3240,7 +3240,7 @@
         <v>45689</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
@@ -3278,13 +3278,13 @@
         <v>45689</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3316,7 +3316,7 @@
         <v>45689</v>
       </c>
       <c r="B51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
@@ -3354,7 +3354,7 @@
         <v>45689</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C52" t="s">
         <v>13</v>
@@ -3392,7 +3392,7 @@
         <v>45689</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
@@ -3430,7 +3430,7 @@
         <v>45689</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C54" t="s">
         <v>13</v>
@@ -3468,13 +3468,13 @@
         <v>45696</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3506,7 +3506,7 @@
         <v>45696</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C56" t="s">
         <v>14</v>
@@ -3544,7 +3544,7 @@
         <v>45696</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
@@ -3582,7 +3582,7 @@
         <v>45696</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C58" t="s">
         <v>13</v>
@@ -3620,13 +3620,13 @@
         <v>45696</v>
       </c>
       <c r="B59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         <v>45696</v>
       </c>
       <c r="B60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
@@ -3696,7 +3696,7 @@
         <v>45696</v>
       </c>
       <c r="B61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C61" t="s">
         <v>13</v>
@@ -3734,13 +3734,13 @@
         <v>45703</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -3772,7 +3772,7 @@
         <v>45703</v>
       </c>
       <c r="B63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
@@ -3810,7 +3810,7 @@
         <v>45703</v>
       </c>
       <c r="B64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
@@ -3848,7 +3848,7 @@
         <v>45703</v>
       </c>
       <c r="B65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C65" t="s">
         <v>13</v>
@@ -3886,13 +3886,13 @@
         <v>45703</v>
       </c>
       <c r="B66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C66" t="s">
         <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -3924,13 +3924,13 @@
         <v>45703</v>
       </c>
       <c r="B67" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C67" t="s">
         <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -3962,13 +3962,13 @@
         <v>45703</v>
       </c>
       <c r="B68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C68" t="s">
         <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>45703</v>
       </c>
       <c r="B69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
@@ -4038,7 +4038,7 @@
         <v>45703</v>
       </c>
       <c r="B70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C70" t="s">
         <v>13</v>
@@ -4076,7 +4076,7 @@
         <v>45703</v>
       </c>
       <c r="B71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
@@ -4114,7 +4114,7 @@
         <v>45710</v>
       </c>
       <c r="B72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
@@ -4152,13 +4152,13 @@
         <v>45710</v>
       </c>
       <c r="B73" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -4190,13 +4190,13 @@
         <v>45710</v>
       </c>
       <c r="B74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C74" t="s">
         <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -4228,7 +4228,7 @@
         <v>45710</v>
       </c>
       <c r="B75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C75" t="s">
         <v>13</v>
@@ -4266,7 +4266,7 @@
         <v>45710</v>
       </c>
       <c r="B76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C76" t="s">
         <v>13</v>
@@ -4304,13 +4304,13 @@
         <v>45710</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C77" t="s">
         <v>13</v>
       </c>
       <c r="D77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -4342,7 +4342,7 @@
         <v>45710</v>
       </c>
       <c r="B78" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C78" t="s">
         <v>13</v>
@@ -4380,7 +4380,7 @@
         <v>45710</v>
       </c>
       <c r="B79" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
@@ -4418,7 +4418,7 @@
         <v>45710</v>
       </c>
       <c r="B80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C80" t="s">
         <v>13</v>
@@ -4456,13 +4456,13 @@
         <v>45710</v>
       </c>
       <c r="B81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C81" t="s">
         <v>13</v>
       </c>
       <c r="D81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -4494,13 +4494,13 @@
         <v>45710</v>
       </c>
       <c r="B82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C82" t="s">
         <v>13</v>
       </c>
       <c r="D82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -4532,13 +4532,13 @@
         <v>45710</v>
       </c>
       <c r="B83" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -4570,13 +4570,13 @@
         <v>45717</v>
       </c>
       <c r="B84" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
       </c>
       <c r="D84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E84">
         <v>4</v>
@@ -4608,13 +4608,13 @@
         <v>45717</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C85" t="s">
         <v>13</v>
       </c>
       <c r="D85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E85">
         <v>3</v>
@@ -4646,7 +4646,7 @@
         <v>45717</v>
       </c>
       <c r="B86" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C86" t="s">
         <v>13</v>
@@ -4684,7 +4684,7 @@
         <v>45717</v>
       </c>
       <c r="B87" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
@@ -4722,7 +4722,7 @@
         <v>45717</v>
       </c>
       <c r="B88" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
@@ -4760,13 +4760,13 @@
         <v>45717</v>
       </c>
       <c r="B89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -4798,7 +4798,7 @@
         <v>45717</v>
       </c>
       <c r="B90" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C90" t="s">
         <v>13</v>
@@ -4836,7 +4836,7 @@
         <v>45717</v>
       </c>
       <c r="B91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
@@ -4874,13 +4874,13 @@
         <v>45724</v>
       </c>
       <c r="B92" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C92" t="s">
         <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E92">
         <v>2</v>
@@ -4912,7 +4912,7 @@
         <v>45724</v>
       </c>
       <c r="B93" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
@@ -4950,7 +4950,7 @@
         <v>45724</v>
       </c>
       <c r="B94" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
@@ -4988,13 +4988,13 @@
         <v>45724</v>
       </c>
       <c r="B95" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C95" t="s">
         <v>13</v>
       </c>
       <c r="D95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -5026,13 +5026,13 @@
         <v>45724</v>
       </c>
       <c r="B96" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C96" t="s">
         <v>13</v>
       </c>
       <c r="D96" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -5064,7 +5064,7 @@
         <v>45724</v>
       </c>
       <c r="B97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C97" t="s">
         <v>13</v>
@@ -5102,7 +5102,7 @@
         <v>45724</v>
       </c>
       <c r="B98" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C98" t="s">
         <v>13</v>
@@ -5140,7 +5140,7 @@
         <v>45724</v>
       </c>
       <c r="B99" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
@@ -5178,7 +5178,7 @@
         <v>45724</v>
       </c>
       <c r="B100" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C100" t="s">
         <v>13</v>
@@ -5216,7 +5216,7 @@
         <v>45724</v>
       </c>
       <c r="B101" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C101" t="s">
         <v>13</v>
@@ -5254,7 +5254,7 @@
         <v>45731</v>
       </c>
       <c r="B102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C102" t="s">
         <v>14</v>
@@ -5292,7 +5292,7 @@
         <v>45731</v>
       </c>
       <c r="B103" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C103" t="s">
         <v>14</v>
@@ -5330,13 +5330,13 @@
         <v>45731</v>
       </c>
       <c r="B104" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C104" t="s">
         <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -5368,7 +5368,7 @@
         <v>45731</v>
       </c>
       <c r="B105" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C105" t="s">
         <v>13</v>
@@ -5406,13 +5406,13 @@
         <v>45731</v>
       </c>
       <c r="B106" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C106" t="s">
         <v>13</v>
       </c>
       <c r="D106" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -5444,13 +5444,13 @@
         <v>45731</v>
       </c>
       <c r="B107" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C107" t="s">
         <v>13</v>
       </c>
       <c r="D107" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -5482,7 +5482,7 @@
         <v>45731</v>
       </c>
       <c r="B108" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C108" t="s">
         <v>13</v>
@@ -5520,7 +5520,7 @@
         <v>45731</v>
       </c>
       <c r="B109" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C109" t="s">
         <v>14</v>
@@ -5558,7 +5558,7 @@
         <v>45731</v>
       </c>
       <c r="B110" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="C110" t="s">
         <v>14</v>
@@ -5596,7 +5596,7 @@
         <v>45731</v>
       </c>
       <c r="B111" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C111" t="s">
         <v>14</v>
@@ -5634,7 +5634,7 @@
         <v>45731</v>
       </c>
       <c r="B112" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C112" t="s">
         <v>13</v>
@@ -5672,7 +5672,7 @@
         <v>45738</v>
       </c>
       <c r="B113" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C113" t="s">
         <v>14</v>
@@ -5710,7 +5710,7 @@
         <v>45738</v>
       </c>
       <c r="B114" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C114" t="s">
         <v>14</v>
@@ -5748,7 +5748,7 @@
         <v>45738</v>
       </c>
       <c r="B115" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C115" t="s">
         <v>13</v>
@@ -5786,13 +5786,13 @@
         <v>45738</v>
       </c>
       <c r="B116" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C116" t="s">
         <v>14</v>
       </c>
       <c r="D116" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -5824,13 +5824,13 @@
         <v>45738</v>
       </c>
       <c r="B117" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C117" t="s">
         <v>14</v>
       </c>
       <c r="D117" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>45738</v>
       </c>
       <c r="B118" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C118" t="s">
         <v>13</v>
@@ -5900,13 +5900,13 @@
         <v>45738</v>
       </c>
       <c r="B119" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C119" t="s">
         <v>13</v>
       </c>
       <c r="D119" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -5938,7 +5938,7 @@
         <v>45738</v>
       </c>
       <c r="B120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C120" t="s">
         <v>13</v>
@@ -5976,7 +5976,7 @@
         <v>45738</v>
       </c>
       <c r="B121" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C121" t="s">
         <v>13</v>
@@ -6014,7 +6014,7 @@
         <v>45738</v>
       </c>
       <c r="B122" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C122" t="s">
         <v>13</v>
@@ -6052,7 +6052,7 @@
         <v>45738</v>
       </c>
       <c r="B123" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C123" t="s">
         <v>14</v>
@@ -6090,7 +6090,7 @@
         <v>45738</v>
       </c>
       <c r="B124" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C124" t="s">
         <v>13</v>
@@ -6128,13 +6128,13 @@
         <v>45740</v>
       </c>
       <c r="B125" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C125" t="s">
         <v>13</v>
       </c>
       <c r="D125" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E125">
         <v>2</v>
@@ -6166,13 +6166,13 @@
         <v>45740</v>
       </c>
       <c r="B126" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C126" t="s">
         <v>13</v>
       </c>
       <c r="D126" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E126">
         <v>2</v>
@@ -6204,13 +6204,13 @@
         <v>45740</v>
       </c>
       <c r="B127" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C127" t="s">
         <v>13</v>
       </c>
       <c r="D127" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -6242,7 +6242,7 @@
         <v>45740</v>
       </c>
       <c r="B128" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C128" t="s">
         <v>13</v>
@@ -6280,7 +6280,7 @@
         <v>45740</v>
       </c>
       <c r="B129" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C129" t="s">
         <v>14</v>
@@ -6318,13 +6318,13 @@
         <v>45740</v>
       </c>
       <c r="B130" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C130" t="s">
         <v>14</v>
       </c>
       <c r="D130" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E130">
         <v>2</v>
@@ -6356,13 +6356,13 @@
         <v>45740</v>
       </c>
       <c r="B131" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C131" t="s">
         <v>14</v>
       </c>
       <c r="D131" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -6394,7 +6394,7 @@
         <v>45740</v>
       </c>
       <c r="B132" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C132" t="s">
         <v>14</v>
@@ -6432,13 +6432,13 @@
         <v>45740</v>
       </c>
       <c r="B133" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C133" t="s">
         <v>14</v>
       </c>
       <c r="D133" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -6470,7 +6470,7 @@
         <v>45740</v>
       </c>
       <c r="B134" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C134" t="s">
         <v>13</v>
@@ -6508,7 +6508,7 @@
         <v>45740</v>
       </c>
       <c r="B135" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C135" t="s">
         <v>14</v>
@@ -6546,7 +6546,7 @@
         <v>45745</v>
       </c>
       <c r="B136" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C136" t="s">
         <v>13</v>
@@ -6584,7 +6584,7 @@
         <v>45745</v>
       </c>
       <c r="B137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C137" t="s">
         <v>13</v>
@@ -6622,7 +6622,7 @@
         <v>45745</v>
       </c>
       <c r="B138" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C138" t="s">
         <v>13</v>
@@ -6660,7 +6660,7 @@
         <v>45745</v>
       </c>
       <c r="B139" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C139" t="s">
         <v>13</v>
@@ -6698,7 +6698,7 @@
         <v>45745</v>
       </c>
       <c r="B140" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C140" t="s">
         <v>13</v>
@@ -6736,13 +6736,13 @@
         <v>45745</v>
       </c>
       <c r="B141" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C141" t="s">
         <v>13</v>
       </c>
       <c r="D141" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -6774,13 +6774,13 @@
         <v>45745</v>
       </c>
       <c r="B142" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C142" t="s">
         <v>13</v>
       </c>
       <c r="D142" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -6812,13 +6812,13 @@
         <v>45745</v>
       </c>
       <c r="B143" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C143" t="s">
         <v>13</v>
       </c>
       <c r="D143" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -6850,13 +6850,13 @@
         <v>45745</v>
       </c>
       <c r="B144" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C144" t="s">
         <v>13</v>
       </c>
       <c r="D144" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -6888,13 +6888,13 @@
         <v>45745</v>
       </c>
       <c r="B145" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C145" t="s">
         <v>13</v>
       </c>
       <c r="D145" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E145">
         <v>2</v>
@@ -6926,13 +6926,13 @@
         <v>45745</v>
       </c>
       <c r="B146" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C146" t="s">
         <v>13</v>
       </c>
       <c r="D146" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -6964,13 +6964,13 @@
         <v>45745</v>
       </c>
       <c r="B147" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C147" t="s">
         <v>13</v>
       </c>
       <c r="D147" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -7002,13 +7002,13 @@
         <v>45745</v>
       </c>
       <c r="B148" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C148" t="s">
         <v>13</v>
       </c>
       <c r="D148" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -7040,7 +7040,7 @@
         <v>45745</v>
       </c>
       <c r="B149" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C149" t="s">
         <v>13</v>
@@ -7078,7 +7078,7 @@
         <v>45745</v>
       </c>
       <c r="B150" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C150" t="s">
         <v>13</v>
@@ -7116,7 +7116,7 @@
         <v>45745</v>
       </c>
       <c r="B151" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C151" t="s">
         <v>13</v>
@@ -7154,7 +7154,7 @@
         <v>45745</v>
       </c>
       <c r="B152" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C152" t="s">
         <v>14</v>
@@ -7192,7 +7192,7 @@
         <v>45745</v>
       </c>
       <c r="B153" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C153" t="s">
         <v>14</v>
@@ -7230,7 +7230,7 @@
         <v>45745</v>
       </c>
       <c r="B154" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C154" t="s">
         <v>14</v>
@@ -7268,7 +7268,7 @@
         <v>45745</v>
       </c>
       <c r="B155" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C155" t="s">
         <v>14</v>
@@ -7306,7 +7306,7 @@
         <v>45745</v>
       </c>
       <c r="B156" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C156" t="s">
         <v>14</v>
@@ -7344,7 +7344,7 @@
         <v>45745</v>
       </c>
       <c r="B157" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C157" t="s">
         <v>14</v>
@@ -7382,13 +7382,13 @@
         <v>45745</v>
       </c>
       <c r="B158" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C158" t="s">
         <v>14</v>
       </c>
       <c r="D158" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -7420,13 +7420,13 @@
         <v>45745</v>
       </c>
       <c r="B159" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C159" t="s">
         <v>14</v>
       </c>
       <c r="D159" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -7458,13 +7458,13 @@
         <v>45745</v>
       </c>
       <c r="B160" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C160" t="s">
         <v>14</v>
       </c>
       <c r="D160" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -7496,13 +7496,13 @@
         <v>45745</v>
       </c>
       <c r="B161" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C161" t="s">
         <v>14</v>
       </c>
       <c r="D161" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -7534,13 +7534,13 @@
         <v>45745</v>
       </c>
       <c r="B162" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C162" t="s">
         <v>14</v>
       </c>
       <c r="D162" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -7572,13 +7572,13 @@
         <v>45745</v>
       </c>
       <c r="B163" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C163" t="s">
         <v>14</v>
       </c>
       <c r="D163" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -7610,7 +7610,7 @@
         <v>45745</v>
       </c>
       <c r="B164" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C164" t="s">
         <v>14</v>
@@ -7648,7 +7648,7 @@
         <v>45745</v>
       </c>
       <c r="B165" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C165" t="s">
         <v>14</v>
@@ -7686,7 +7686,7 @@
         <v>45745</v>
       </c>
       <c r="B166" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C166" t="s">
         <v>14</v>
@@ -7724,7 +7724,7 @@
         <v>45752</v>
       </c>
       <c r="B167" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C167" t="s">
         <v>14</v>
@@ -7762,13 +7762,13 @@
         <v>45752</v>
       </c>
       <c r="B168" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C168" t="s">
         <v>14</v>
       </c>
       <c r="D168" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E168">
         <v>1</v>
@@ -7800,7 +7800,7 @@
         <v>45752</v>
       </c>
       <c r="B169" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C169" t="s">
         <v>14</v>
@@ -7838,13 +7838,13 @@
         <v>45752</v>
       </c>
       <c r="B170" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C170" t="s">
         <v>14</v>
       </c>
       <c r="D170" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E170">
         <v>2</v>
@@ -7876,13 +7876,13 @@
         <v>45752</v>
       </c>
       <c r="B171" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C171" t="s">
         <v>14</v>
       </c>
       <c r="D171" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -7914,7 +7914,7 @@
         <v>45752</v>
       </c>
       <c r="B172" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C172" t="s">
         <v>14</v>
@@ -7952,13 +7952,13 @@
         <v>45752</v>
       </c>
       <c r="B173" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C173" t="s">
         <v>14</v>
       </c>
       <c r="D173" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -7990,7 +7990,7 @@
         <v>45752</v>
       </c>
       <c r="B174" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C174" t="s">
         <v>14</v>
@@ -8028,7 +8028,7 @@
         <v>45752</v>
       </c>
       <c r="B175" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C175" t="s">
         <v>13</v>
@@ -8066,7 +8066,7 @@
         <v>45752</v>
       </c>
       <c r="B176" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C176" t="s">
         <v>13</v>
@@ -8104,13 +8104,13 @@
         <v>45752</v>
       </c>
       <c r="B177" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C177" t="s">
         <v>13</v>
       </c>
       <c r="D177" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E177">
         <v>1</v>
@@ -8142,13 +8142,13 @@
         <v>45752</v>
       </c>
       <c r="B178" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C178" t="s">
         <v>13</v>
       </c>
       <c r="D178" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -8180,7 +8180,7 @@
         <v>45752</v>
       </c>
       <c r="B179" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C179" t="s">
         <v>13</v>
@@ -8218,7 +8218,7 @@
         <v>45752</v>
       </c>
       <c r="B180" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C180" t="s">
         <v>13</v>
@@ -8256,7 +8256,7 @@
         <v>45752</v>
       </c>
       <c r="B181" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C181" t="s">
         <v>13</v>
@@ -8294,7 +8294,7 @@
         <v>45759</v>
       </c>
       <c r="B182" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C182" t="s">
         <v>14</v>
@@ -8332,13 +8332,13 @@
         <v>45759</v>
       </c>
       <c r="B183" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C183" t="s">
         <v>14</v>
       </c>
       <c r="D183" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E183">
         <v>1</v>
@@ -8370,13 +8370,13 @@
         <v>45759</v>
       </c>
       <c r="B184" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C184" t="s">
         <v>14</v>
       </c>
       <c r="D184" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E184">
         <v>2</v>
@@ -8408,7 +8408,7 @@
         <v>45759</v>
       </c>
       <c r="B185" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C185" t="s">
         <v>14</v>
@@ -8446,7 +8446,7 @@
         <v>45759</v>
       </c>
       <c r="B186" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C186" t="s">
         <v>14</v>
@@ -8484,7 +8484,7 @@
         <v>45759</v>
       </c>
       <c r="B187" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C187" t="s">
         <v>13</v>
@@ -8522,7 +8522,7 @@
         <v>45759</v>
       </c>
       <c r="B188" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C188" t="s">
         <v>13</v>
@@ -8560,7 +8560,7 @@
         <v>45759</v>
       </c>
       <c r="B189" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C189" t="s">
         <v>13</v>
@@ -8598,13 +8598,13 @@
         <v>45759</v>
       </c>
       <c r="B190" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C190" t="s">
         <v>13</v>
       </c>
       <c r="D190" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E190">
         <v>1</v>
@@ -8636,13 +8636,13 @@
         <v>45759</v>
       </c>
       <c r="B191" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C191" t="s">
         <v>14</v>
       </c>
       <c r="D191" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -8674,7 +8674,7 @@
         <v>45759</v>
       </c>
       <c r="B192" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="C192" t="s">
         <v>14</v>
@@ -8712,7 +8712,7 @@
         <v>45759</v>
       </c>
       <c r="B193" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C193" t="s">
         <v>13</v>
@@ -8750,13 +8750,13 @@
         <v>45759</v>
       </c>
       <c r="B194" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C194" t="s">
         <v>13</v>
       </c>
       <c r="D194" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -8788,7 +8788,7 @@
         <v>45766</v>
       </c>
       <c r="B195" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C195" t="s">
         <v>14</v>
@@ -8826,13 +8826,13 @@
         <v>45766</v>
       </c>
       <c r="B196" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C196" t="s">
         <v>14</v>
       </c>
       <c r="D196" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E196">
         <v>3</v>
@@ -8864,7 +8864,7 @@
         <v>45766</v>
       </c>
       <c r="B197" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C197" t="s">
         <v>14</v>
@@ -8902,7 +8902,7 @@
         <v>45766</v>
       </c>
       <c r="B198" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C198" t="s">
         <v>14</v>
@@ -8940,13 +8940,13 @@
         <v>45766</v>
       </c>
       <c r="B199" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C199" t="s">
         <v>14</v>
       </c>
       <c r="D199" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E199">
         <v>1</v>
@@ -8978,7 +8978,7 @@
         <v>45766</v>
       </c>
       <c r="B200" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C200" t="s">
         <v>14</v>
@@ -9016,7 +9016,7 @@
         <v>45766</v>
       </c>
       <c r="B201" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="C201" t="s">
         <v>14</v>
@@ -9054,13 +9054,13 @@
         <v>45766</v>
       </c>
       <c r="B202" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C202" t="s">
         <v>14</v>
       </c>
       <c r="D202" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E202">
         <v>0</v>
@@ -9092,7 +9092,7 @@
         <v>45766</v>
       </c>
       <c r="B203" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C203" t="s">
         <v>13</v>
@@ -9130,7 +9130,7 @@
         <v>45766</v>
       </c>
       <c r="B204" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C204" t="s">
         <v>13</v>
@@ -9168,13 +9168,13 @@
         <v>45766</v>
       </c>
       <c r="B205" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C205" t="s">
         <v>13</v>
       </c>
       <c r="D205" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E205">
         <v>1</v>
@@ -9206,7 +9206,7 @@
         <v>45766</v>
       </c>
       <c r="B206" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C206" t="s">
         <v>13</v>
@@ -9244,7 +9244,7 @@
         <v>45766</v>
       </c>
       <c r="B207" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C207" t="s">
         <v>13</v>
@@ -9282,7 +9282,7 @@
         <v>45766</v>
       </c>
       <c r="B208" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C208" t="s">
         <v>13</v>
@@ -9320,7 +9320,7 @@
         <v>45766</v>
       </c>
       <c r="B209" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C209" t="s">
         <v>13</v>
@@ -9358,7 +9358,7 @@
         <v>45766</v>
       </c>
       <c r="B210" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C210" t="s">
         <v>13</v>
@@ -9396,7 +9396,7 @@
         <v>45778</v>
       </c>
       <c r="B211" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C211" t="s">
         <v>13</v>
@@ -9434,7 +9434,7 @@
         <v>45778</v>
       </c>
       <c r="B212" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C212" t="s">
         <v>13</v>
@@ -9472,7 +9472,7 @@
         <v>45778</v>
       </c>
       <c r="B213" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C213" t="s">
         <v>13</v>
@@ -9510,13 +9510,13 @@
         <v>45778</v>
       </c>
       <c r="B214" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C214" t="s">
         <v>13</v>
       </c>
       <c r="D214" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E214">
         <v>1</v>
@@ -9548,13 +9548,13 @@
         <v>45778</v>
       </c>
       <c r="B215" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C215" t="s">
         <v>13</v>
       </c>
       <c r="D215" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E215">
         <v>0</v>
@@ -9586,7 +9586,7 @@
         <v>45778</v>
       </c>
       <c r="B216" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C216" t="s">
         <v>13</v>
@@ -9624,7 +9624,7 @@
         <v>45778</v>
       </c>
       <c r="B217" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C217" t="s">
         <v>14</v>
@@ -9662,7 +9662,7 @@
         <v>45778</v>
       </c>
       <c r="B218" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C218" t="s">
         <v>14</v>
@@ -9700,7 +9700,7 @@
         <v>45778</v>
       </c>
       <c r="B219" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C219" t="s">
         <v>14</v>
@@ -9738,7 +9738,7 @@
         <v>45778</v>
       </c>
       <c r="B220" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C220" t="s">
         <v>14</v>
@@ -9776,13 +9776,13 @@
         <v>45778</v>
       </c>
       <c r="B221" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C221" t="s">
         <v>14</v>
       </c>
       <c r="D221" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E221">
         <v>0</v>
@@ -9814,7 +9814,7 @@
         <v>45778</v>
       </c>
       <c r="B222" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C222" t="s">
         <v>14</v>
@@ -9852,7 +9852,7 @@
         <v>45780</v>
       </c>
       <c r="B223" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C223" t="s">
         <v>14</v>
@@ -9890,7 +9890,7 @@
         <v>45780</v>
       </c>
       <c r="B224" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C224" t="s">
         <v>14</v>
@@ -9928,13 +9928,13 @@
         <v>45780</v>
       </c>
       <c r="B225" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C225" t="s">
         <v>14</v>
       </c>
       <c r="D225" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E225">
         <v>1</v>
@@ -9966,7 +9966,7 @@
         <v>45780</v>
       </c>
       <c r="B226" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="C226" t="s">
         <v>14</v>
@@ -10004,7 +10004,7 @@
         <v>45780</v>
       </c>
       <c r="B227" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C227" t="s">
         <v>14</v>
@@ -10042,7 +10042,7 @@
         <v>45780</v>
       </c>
       <c r="B228" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C228" t="s">
         <v>13</v>
@@ -10080,7 +10080,7 @@
         <v>45780</v>
       </c>
       <c r="B229" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C229" t="s">
         <v>13</v>
@@ -10118,7 +10118,7 @@
         <v>45787</v>
       </c>
       <c r="B230" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C230" t="s">
         <v>14</v>
@@ -10156,7 +10156,7 @@
         <v>45787</v>
       </c>
       <c r="B231" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C231" t="s">
         <v>14</v>
@@ -10194,7 +10194,7 @@
         <v>45787</v>
       </c>
       <c r="B232" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C232" t="s">
         <v>14</v>
@@ -10232,13 +10232,13 @@
         <v>45787</v>
       </c>
       <c r="B233" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C233" t="s">
         <v>14</v>
       </c>
       <c r="D233" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E233">
         <v>2</v>
@@ -10270,13 +10270,13 @@
         <v>45787</v>
       </c>
       <c r="B234" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C234" t="s">
         <v>14</v>
       </c>
       <c r="D234" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E234">
         <v>0</v>
@@ -10308,7 +10308,7 @@
         <v>45787</v>
       </c>
       <c r="B235" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C235" t="s">
         <v>14</v>
@@ -10346,7 +10346,7 @@
         <v>45787</v>
       </c>
       <c r="B236" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="C236" t="s">
         <v>14</v>
@@ -10384,7 +10384,7 @@
         <v>45787</v>
       </c>
       <c r="B237" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C237" t="s">
         <v>14</v>
@@ -10422,7 +10422,7 @@
         <v>45787</v>
       </c>
       <c r="B238" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C238" t="s">
         <v>14</v>
@@ -10460,7 +10460,7 @@
         <v>45787</v>
       </c>
       <c r="B239" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C239" t="s">
         <v>13</v>
@@ -10498,13 +10498,13 @@
         <v>45787</v>
       </c>
       <c r="B240" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C240" t="s">
         <v>13</v>
       </c>
       <c r="D240" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E240">
         <v>1</v>
@@ -10536,7 +10536,7 @@
         <v>45787</v>
       </c>
       <c r="B241" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C241" t="s">
         <v>13</v>
@@ -10574,7 +10574,7 @@
         <v>45801</v>
       </c>
       <c r="B242" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C242" t="s">
         <v>13</v>
@@ -10612,7 +10612,7 @@
         <v>45801</v>
       </c>
       <c r="B243" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C243" t="s">
         <v>13</v>
@@ -10650,7 +10650,7 @@
         <v>45801</v>
       </c>
       <c r="B244" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C244" t="s">
         <v>13</v>
@@ -10688,13 +10688,13 @@
         <v>45801</v>
       </c>
       <c r="B245" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C245" t="s">
         <v>13</v>
       </c>
       <c r="D245" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -10726,13 +10726,13 @@
         <v>45801</v>
       </c>
       <c r="B246" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C246" t="s">
         <v>13</v>
       </c>
       <c r="D246" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E246">
         <v>0</v>
@@ -10764,7 +10764,7 @@
         <v>45801</v>
       </c>
       <c r="B247" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C247" t="s">
         <v>13</v>
@@ -10802,7 +10802,7 @@
         <v>45801</v>
       </c>
       <c r="B248" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C248" t="s">
         <v>13</v>
@@ -10840,7 +10840,7 @@
         <v>45801</v>
       </c>
       <c r="B249" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C249" t="s">
         <v>14</v>
@@ -10878,7 +10878,7 @@
         <v>45801</v>
       </c>
       <c r="B250" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C250" t="s">
         <v>14</v>
@@ -10916,13 +10916,13 @@
         <v>45801</v>
       </c>
       <c r="B251" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C251" t="s">
         <v>14</v>
       </c>
       <c r="D251" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E251">
         <v>1</v>
@@ -10954,7 +10954,7 @@
         <v>45801</v>
       </c>
       <c r="B252" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C252" t="s">
         <v>14</v>
@@ -10992,13 +10992,13 @@
         <v>45801</v>
       </c>
       <c r="B253" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C253" t="s">
         <v>14</v>
       </c>
       <c r="D253" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E253">
         <v>0</v>
@@ -11030,13 +11030,13 @@
         <v>45801</v>
       </c>
       <c r="B254" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C254" t="s">
         <v>14</v>
       </c>
       <c r="D254" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E254">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>45808</v>
       </c>
       <c r="B255" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C255" t="s">
         <v>13</v>
@@ -11106,7 +11106,7 @@
         <v>45808</v>
       </c>
       <c r="B256" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C256" t="s">
         <v>13</v>
@@ -11144,13 +11144,13 @@
         <v>45808</v>
       </c>
       <c r="B257" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C257" t="s">
         <v>13</v>
       </c>
       <c r="D257" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E257">
         <v>1</v>
@@ -11182,7 +11182,7 @@
         <v>45808</v>
       </c>
       <c r="B258" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C258" t="s">
         <v>13</v>
@@ -11220,7 +11220,7 @@
         <v>45808</v>
       </c>
       <c r="B259" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C259" t="s">
         <v>14</v>
@@ -11258,7 +11258,7 @@
         <v>45808</v>
       </c>
       <c r="B260" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C260" t="s">
         <v>14</v>
@@ -11296,7 +11296,7 @@
         <v>45808</v>
       </c>
       <c r="B261" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C261" t="s">
         <v>14</v>
@@ -11334,7 +11334,7 @@
         <v>45808</v>
       </c>
       <c r="B262" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C262" t="s">
         <v>14</v>
@@ -11372,7 +11372,7 @@
         <v>45808</v>
       </c>
       <c r="B263" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C263" t="s">
         <v>14</v>
@@ -11410,13 +11410,13 @@
         <v>45808</v>
       </c>
       <c r="B264" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C264" t="s">
         <v>14</v>
       </c>
       <c r="D264" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E264">
         <v>0</v>
@@ -11440,6 +11440,462 @@
         <v>1</v>
       </c>
       <c r="L264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A265" s="2">
+        <v>45815</v>
+      </c>
+      <c r="B265" t="s">
+        <v>34</v>
+      </c>
+      <c r="C265" t="s">
+        <v>13</v>
+      </c>
+      <c r="D265" t="s">
+        <v>4</v>
+      </c>
+      <c r="E265">
+        <v>0</v>
+      </c>
+      <c r="F265">
+        <v>0</v>
+      </c>
+      <c r="G265" t="b">
+        <v>1</v>
+      </c>
+      <c r="H265">
+        <v>3</v>
+      </c>
+      <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+      <c r="K265">
+        <v>0</v>
+      </c>
+      <c r="L265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A266" s="2">
+        <v>45815</v>
+      </c>
+      <c r="B266" t="s">
+        <v>59</v>
+      </c>
+      <c r="C266" t="s">
+        <v>13</v>
+      </c>
+      <c r="D266" t="s">
+        <v>2</v>
+      </c>
+      <c r="E266">
+        <v>1</v>
+      </c>
+      <c r="F266">
+        <v>0</v>
+      </c>
+      <c r="G266" t="b">
+        <v>0</v>
+      </c>
+      <c r="H266">
+        <v>0</v>
+      </c>
+      <c r="I266">
+        <v>0</v>
+      </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
+      <c r="K266">
+        <v>0</v>
+      </c>
+      <c r="L266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A267" s="2">
+        <v>45815</v>
+      </c>
+      <c r="B267" t="s">
+        <v>55</v>
+      </c>
+      <c r="C267" t="s">
+        <v>13</v>
+      </c>
+      <c r="D267" t="s">
+        <v>17</v>
+      </c>
+      <c r="E267">
+        <v>2</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+      <c r="G267" t="b">
+        <v>0</v>
+      </c>
+      <c r="H267">
+        <v>0</v>
+      </c>
+      <c r="I267">
+        <v>1</v>
+      </c>
+      <c r="J267">
+        <v>0</v>
+      </c>
+      <c r="K267">
+        <v>0</v>
+      </c>
+      <c r="L267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A268" s="2">
+        <v>45815</v>
+      </c>
+      <c r="B268" t="s">
+        <v>29</v>
+      </c>
+      <c r="C268" t="s">
+        <v>13</v>
+      </c>
+      <c r="D268" t="s">
+        <v>2</v>
+      </c>
+      <c r="E268">
+        <v>2</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+      <c r="G268" t="b">
+        <v>0</v>
+      </c>
+      <c r="H268">
+        <v>0</v>
+      </c>
+      <c r="I268">
+        <v>0</v>
+      </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
+      <c r="K268">
+        <v>0</v>
+      </c>
+      <c r="L268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A269" s="2">
+        <v>45815</v>
+      </c>
+      <c r="B269" t="s">
+        <v>22</v>
+      </c>
+      <c r="C269" t="s">
+        <v>13</v>
+      </c>
+      <c r="D269" t="s">
+        <v>3</v>
+      </c>
+      <c r="E269">
+        <v>0</v>
+      </c>
+      <c r="F269">
+        <v>0</v>
+      </c>
+      <c r="G269" t="b">
+        <v>0</v>
+      </c>
+      <c r="H269">
+        <v>0</v>
+      </c>
+      <c r="I269">
+        <v>0</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="K269">
+        <v>2</v>
+      </c>
+      <c r="L269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A270" s="2">
+        <v>45815</v>
+      </c>
+      <c r="B270" t="s">
+        <v>57</v>
+      </c>
+      <c r="C270" t="s">
+        <v>13</v>
+      </c>
+      <c r="D270" t="s">
+        <v>2</v>
+      </c>
+      <c r="E270">
+        <v>0</v>
+      </c>
+      <c r="F270">
+        <v>0</v>
+      </c>
+      <c r="G270" t="b">
+        <v>0</v>
+      </c>
+      <c r="H270">
+        <v>0</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
+      <c r="K270">
+        <v>3</v>
+      </c>
+      <c r="L270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A271" s="2">
+        <v>45815</v>
+      </c>
+      <c r="B271" t="s">
+        <v>74</v>
+      </c>
+      <c r="C271" t="s">
+        <v>14</v>
+      </c>
+      <c r="D271" t="s">
+        <v>4</v>
+      </c>
+      <c r="E271">
+        <v>0</v>
+      </c>
+      <c r="F271">
+        <v>0</v>
+      </c>
+      <c r="G271" t="b">
+        <v>1</v>
+      </c>
+      <c r="H271">
+        <v>5</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="K271">
+        <v>0</v>
+      </c>
+      <c r="L271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A272" s="2">
+        <v>45815</v>
+      </c>
+      <c r="B272" t="s">
+        <v>19</v>
+      </c>
+      <c r="C272" t="s">
+        <v>14</v>
+      </c>
+      <c r="D272" t="s">
+        <v>17</v>
+      </c>
+      <c r="E272">
+        <v>1</v>
+      </c>
+      <c r="F272">
+        <v>0</v>
+      </c>
+      <c r="G272" t="b">
+        <v>0</v>
+      </c>
+      <c r="H272">
+        <v>0</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
+      <c r="K272">
+        <v>0</v>
+      </c>
+      <c r="L272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A273" s="2">
+        <v>45815</v>
+      </c>
+      <c r="B273" t="s">
+        <v>21</v>
+      </c>
+      <c r="C273" t="s">
+        <v>14</v>
+      </c>
+      <c r="D273" t="s">
+        <v>3</v>
+      </c>
+      <c r="E273">
+        <v>1</v>
+      </c>
+      <c r="F273">
+        <v>0</v>
+      </c>
+      <c r="G273" t="b">
+        <v>0</v>
+      </c>
+      <c r="H273">
+        <v>0</v>
+      </c>
+      <c r="I273">
+        <v>0</v>
+      </c>
+      <c r="J273">
+        <v>0</v>
+      </c>
+      <c r="K273">
+        <v>1</v>
+      </c>
+      <c r="L273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A274" s="2">
+        <v>45815</v>
+      </c>
+      <c r="B274" t="s">
+        <v>20</v>
+      </c>
+      <c r="C274" t="s">
+        <v>14</v>
+      </c>
+      <c r="D274" t="s">
+        <v>2</v>
+      </c>
+      <c r="E274">
+        <v>1</v>
+      </c>
+      <c r="F274">
+        <v>0</v>
+      </c>
+      <c r="G274" t="b">
+        <v>0</v>
+      </c>
+      <c r="H274">
+        <v>0</v>
+      </c>
+      <c r="I274">
+        <v>0</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="K274">
+        <v>0</v>
+      </c>
+      <c r="L274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A275" s="2">
+        <v>45815</v>
+      </c>
+      <c r="B275" t="s">
+        <v>41</v>
+      </c>
+      <c r="C275" t="s">
+        <v>14</v>
+      </c>
+      <c r="D275" t="s">
+        <v>17</v>
+      </c>
+      <c r="E275">
+        <v>0</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
+      </c>
+      <c r="G275" t="b">
+        <v>0</v>
+      </c>
+      <c r="H275">
+        <v>0</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="J275">
+        <v>0</v>
+      </c>
+      <c r="K275">
+        <v>1</v>
+      </c>
+      <c r="L275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A276" s="2">
+        <v>45815</v>
+      </c>
+      <c r="B276" t="s">
+        <v>26</v>
+      </c>
+      <c r="C276" t="s">
+        <v>14</v>
+      </c>
+      <c r="D276" t="s">
+        <v>3</v>
+      </c>
+      <c r="E276">
+        <v>0</v>
+      </c>
+      <c r="F276">
+        <v>0</v>
+      </c>
+      <c r="G276" t="b">
+        <v>0</v>
+      </c>
+      <c r="H276">
+        <v>0</v>
+      </c>
+      <c r="I276">
+        <v>0</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="K276">
+        <v>1</v>
+      </c>
+      <c r="L276">
         <v>0</v>
       </c>
     </row>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupocoomeva-my.sharepoint.com/personal/nalgmarin_coomeva_com_co/Documents/2025/Personal/Legendarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="271" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAF0F2D9-EE3C-47B3-927B-6719EB8FF969}"/>
+  <xr:revisionPtr revIDLastSave="273" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63DE12C2-C262-4538-925D-F64637E27081}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1392,7 +1392,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B278" sqref="B278"/>
+      <selection pane="bottomLeft" activeCell="J279" sqref="J279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11887,13 +11887,13 @@
         <v>0</v>
       </c>
       <c r="I276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J276">
         <v>0</v>
       </c>
       <c r="K276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L276">
         <v>0</v>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupocoomeva-my.sharepoint.com/personal/nalgmarin_coomeva_com_co/Documents/2025/Personal/Legendarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="273" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63DE12C2-C262-4538-925D-F64637E27081}"/>
+  <xr:revisionPtr revIDLastSave="441" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F25BF8A1-8909-46D0-909E-F0F57988A567}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="77">
   <si>
     <t>jugador</t>
   </si>
@@ -553,6 +553,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>279</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B09B602B-CB4A-658B-E320-E4C950FD91BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8734425" y="52959000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9273CCFA-A37D-2B8E-F0FD-EA1487A475EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6619875" y="52768500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -845,7 +941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
@@ -1388,11 +1484,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L276"/>
+  <dimension ref="A1:L291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J279" sqref="J279"/>
+      <pane ySplit="1" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A293" sqref="A293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11899,6 +11995,576 @@
         <v>0</v>
       </c>
     </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A277" s="2">
+        <v>45822</v>
+      </c>
+      <c r="B277" t="s">
+        <v>34</v>
+      </c>
+      <c r="C277" t="s">
+        <v>13</v>
+      </c>
+      <c r="D277" t="s">
+        <v>4</v>
+      </c>
+      <c r="E277">
+        <v>0</v>
+      </c>
+      <c r="F277">
+        <v>0</v>
+      </c>
+      <c r="G277" t="b">
+        <v>1</v>
+      </c>
+      <c r="H277">
+        <v>6</v>
+      </c>
+      <c r="I277">
+        <v>0</v>
+      </c>
+      <c r="J277">
+        <v>0</v>
+      </c>
+      <c r="K277">
+        <v>0</v>
+      </c>
+      <c r="L277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A278" s="2">
+        <v>45822</v>
+      </c>
+      <c r="B278" t="s">
+        <v>59</v>
+      </c>
+      <c r="C278" t="s">
+        <v>13</v>
+      </c>
+      <c r="D278" t="s">
+        <v>2</v>
+      </c>
+      <c r="E278">
+        <v>1</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+      <c r="G278" t="b">
+        <v>0</v>
+      </c>
+      <c r="H278">
+        <v>0</v>
+      </c>
+      <c r="I278">
+        <v>0</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+      <c r="K278">
+        <v>2</v>
+      </c>
+      <c r="L278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A279" s="2">
+        <v>45822</v>
+      </c>
+      <c r="B279" t="s">
+        <v>19</v>
+      </c>
+      <c r="C279" t="s">
+        <v>13</v>
+      </c>
+      <c r="D279" t="s">
+        <v>17</v>
+      </c>
+      <c r="E279">
+        <v>2</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279" t="b">
+        <v>0</v>
+      </c>
+      <c r="H279">
+        <v>0</v>
+      </c>
+      <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
+      <c r="K279">
+        <v>1</v>
+      </c>
+      <c r="L279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A280" s="2">
+        <v>45822</v>
+      </c>
+      <c r="B280" t="s">
+        <v>24</v>
+      </c>
+      <c r="C280" t="s">
+        <v>13</v>
+      </c>
+      <c r="D280" t="s">
+        <v>17</v>
+      </c>
+      <c r="E280">
+        <v>1</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280" t="b">
+        <v>0</v>
+      </c>
+      <c r="H280">
+        <v>0</v>
+      </c>
+      <c r="I280">
+        <v>0</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="K280">
+        <v>0</v>
+      </c>
+      <c r="L280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A281" s="2">
+        <v>45822</v>
+      </c>
+      <c r="B281" t="s">
+        <v>55</v>
+      </c>
+      <c r="C281" t="s">
+        <v>13</v>
+      </c>
+      <c r="D281" t="s">
+        <v>17</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="F281">
+        <v>0</v>
+      </c>
+      <c r="G281" t="b">
+        <v>0</v>
+      </c>
+      <c r="H281">
+        <v>0</v>
+      </c>
+      <c r="I281">
+        <v>0</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="K281">
+        <v>1</v>
+      </c>
+      <c r="L281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A282" s="2">
+        <v>45822</v>
+      </c>
+      <c r="B282" t="s">
+        <v>56</v>
+      </c>
+      <c r="C282" t="s">
+        <v>13</v>
+      </c>
+      <c r="D282" t="s">
+        <v>3</v>
+      </c>
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282" t="b">
+        <v>0</v>
+      </c>
+      <c r="H282">
+        <v>0</v>
+      </c>
+      <c r="I282">
+        <v>1</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="K282">
+        <v>0</v>
+      </c>
+      <c r="L282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A283" s="2">
+        <v>45822</v>
+      </c>
+      <c r="B283" t="s">
+        <v>38</v>
+      </c>
+      <c r="C283" t="s">
+        <v>14</v>
+      </c>
+      <c r="D283" t="s">
+        <v>4</v>
+      </c>
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+      <c r="G283" t="b">
+        <v>1</v>
+      </c>
+      <c r="H283">
+        <v>1</v>
+      </c>
+      <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="K283">
+        <v>0</v>
+      </c>
+      <c r="L283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A284" s="2">
+        <v>45822</v>
+      </c>
+      <c r="B284" t="s">
+        <v>22</v>
+      </c>
+      <c r="C284" t="s">
+        <v>14</v>
+      </c>
+      <c r="D284" t="s">
+        <v>4</v>
+      </c>
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284">
+        <v>0</v>
+      </c>
+      <c r="G284" t="b">
+        <v>1</v>
+      </c>
+      <c r="H284">
+        <v>3</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284">
+        <v>0</v>
+      </c>
+      <c r="K284">
+        <v>0</v>
+      </c>
+      <c r="L284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A285" s="2">
+        <v>45822</v>
+      </c>
+      <c r="B285" t="s">
+        <v>22</v>
+      </c>
+      <c r="C285" t="s">
+        <v>14</v>
+      </c>
+      <c r="D285" t="s">
+        <v>3</v>
+      </c>
+      <c r="E285">
+        <v>1</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285" t="b">
+        <v>0</v>
+      </c>
+      <c r="H285">
+        <v>0</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="K285">
+        <v>1</v>
+      </c>
+      <c r="L285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A286" s="2">
+        <v>45822</v>
+      </c>
+      <c r="B286" t="s">
+        <v>20</v>
+      </c>
+      <c r="C286" t="s">
+        <v>14</v>
+      </c>
+      <c r="D286" t="s">
+        <v>2</v>
+      </c>
+      <c r="E286">
+        <v>1</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="G286" t="b">
+        <v>0</v>
+      </c>
+      <c r="H286">
+        <v>0</v>
+      </c>
+      <c r="I286">
+        <v>0</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+      <c r="K286">
+        <v>0</v>
+      </c>
+      <c r="L286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A287" s="2">
+        <v>45822</v>
+      </c>
+      <c r="B287" t="s">
+        <v>55</v>
+      </c>
+      <c r="C287" t="s">
+        <v>14</v>
+      </c>
+      <c r="D287" t="s">
+        <v>17</v>
+      </c>
+      <c r="E287">
+        <v>2</v>
+      </c>
+      <c r="F287">
+        <v>0</v>
+      </c>
+      <c r="G287" t="b">
+        <v>0</v>
+      </c>
+      <c r="H287">
+        <v>0</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>0</v>
+      </c>
+      <c r="K287">
+        <v>1</v>
+      </c>
+      <c r="L287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A288" s="2">
+        <v>45822</v>
+      </c>
+      <c r="B288" t="s">
+        <v>28</v>
+      </c>
+      <c r="C288" t="s">
+        <v>14</v>
+      </c>
+      <c r="D288" t="s">
+        <v>2</v>
+      </c>
+      <c r="E288">
+        <v>1</v>
+      </c>
+      <c r="F288">
+        <v>0</v>
+      </c>
+      <c r="G288" t="b">
+        <v>0</v>
+      </c>
+      <c r="H288">
+        <v>0</v>
+      </c>
+      <c r="I288">
+        <v>0</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="K288">
+        <v>0</v>
+      </c>
+      <c r="L288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A289" s="2">
+        <v>45822</v>
+      </c>
+      <c r="B289" t="s">
+        <v>21</v>
+      </c>
+      <c r="C289" t="s">
+        <v>14</v>
+      </c>
+      <c r="D289" t="s">
+        <v>3</v>
+      </c>
+      <c r="E289">
+        <v>1</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+      <c r="G289" t="b">
+        <v>0</v>
+      </c>
+      <c r="H289">
+        <v>0</v>
+      </c>
+      <c r="I289">
+        <v>0</v>
+      </c>
+      <c r="J289">
+        <v>0</v>
+      </c>
+      <c r="K289">
+        <v>1</v>
+      </c>
+      <c r="L289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A290" s="2">
+        <v>45822</v>
+      </c>
+      <c r="B290" t="s">
+        <v>50</v>
+      </c>
+      <c r="C290" t="s">
+        <v>14</v>
+      </c>
+      <c r="D290" t="s">
+        <v>17</v>
+      </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+      <c r="G290" t="b">
+        <v>0</v>
+      </c>
+      <c r="H290">
+        <v>0</v>
+      </c>
+      <c r="I290">
+        <v>1</v>
+      </c>
+      <c r="J290">
+        <v>0</v>
+      </c>
+      <c r="K290">
+        <v>1</v>
+      </c>
+      <c r="L290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A291" s="2">
+        <v>45822</v>
+      </c>
+      <c r="B291" t="s">
+        <v>44</v>
+      </c>
+      <c r="C291" t="s">
+        <v>14</v>
+      </c>
+      <c r="D291" t="s">
+        <v>17</v>
+      </c>
+      <c r="E291">
+        <v>0</v>
+      </c>
+      <c r="F291">
+        <v>0</v>
+      </c>
+      <c r="G291" t="b">
+        <v>0</v>
+      </c>
+      <c r="H291">
+        <v>0</v>
+      </c>
+      <c r="I291">
+        <v>1</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="K291">
+        <v>0</v>
+      </c>
+      <c r="L291">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupocoomeva-my.sharepoint.com/personal/nalgmarin_coomeva_com_co/Documents/2025/Personal/Legendarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="441" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F25BF8A1-8909-46D0-909E-F0F57988A567}"/>
+  <xr:revisionPtr revIDLastSave="580" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08E37BA1-46D0-46AD-A8AD-A2F01BD27BBA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="77">
   <si>
     <t>jugador</t>
   </si>
@@ -1484,11 +1484,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L291"/>
+  <dimension ref="A1:L303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A293" sqref="A293"/>
+      <pane ySplit="1" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B305" sqref="B305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12565,6 +12565,462 @@
         <v>0</v>
       </c>
     </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A292" s="2">
+        <v>45829</v>
+      </c>
+      <c r="B292" t="s">
+        <v>38</v>
+      </c>
+      <c r="C292" t="s">
+        <v>13</v>
+      </c>
+      <c r="D292" t="s">
+        <v>4</v>
+      </c>
+      <c r="E292">
+        <v>0</v>
+      </c>
+      <c r="F292">
+        <v>1</v>
+      </c>
+      <c r="G292" t="b">
+        <v>1</v>
+      </c>
+      <c r="H292">
+        <v>4</v>
+      </c>
+      <c r="I292">
+        <v>0</v>
+      </c>
+      <c r="J292">
+        <v>0</v>
+      </c>
+      <c r="K292">
+        <v>0</v>
+      </c>
+      <c r="L292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A293" s="2">
+        <v>45829</v>
+      </c>
+      <c r="B293" t="s">
+        <v>57</v>
+      </c>
+      <c r="C293" t="s">
+        <v>13</v>
+      </c>
+      <c r="D293" t="s">
+        <v>2</v>
+      </c>
+      <c r="E293">
+        <v>1</v>
+      </c>
+      <c r="F293">
+        <v>0</v>
+      </c>
+      <c r="G293" t="b">
+        <v>0</v>
+      </c>
+      <c r="H293">
+        <v>0</v>
+      </c>
+      <c r="I293">
+        <v>0</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="K293">
+        <v>0</v>
+      </c>
+      <c r="L293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A294" s="2">
+        <v>45829</v>
+      </c>
+      <c r="B294" t="s">
+        <v>54</v>
+      </c>
+      <c r="C294" t="s">
+        <v>13</v>
+      </c>
+      <c r="D294" t="s">
+        <v>17</v>
+      </c>
+      <c r="E294">
+        <v>2</v>
+      </c>
+      <c r="F294">
+        <v>0</v>
+      </c>
+      <c r="G294" t="b">
+        <v>0</v>
+      </c>
+      <c r="H294">
+        <v>0</v>
+      </c>
+      <c r="I294">
+        <v>0</v>
+      </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
+      <c r="K294">
+        <v>0</v>
+      </c>
+      <c r="L294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A295" s="2">
+        <v>45829</v>
+      </c>
+      <c r="B295" t="s">
+        <v>21</v>
+      </c>
+      <c r="C295" t="s">
+        <v>13</v>
+      </c>
+      <c r="D295" t="s">
+        <v>3</v>
+      </c>
+      <c r="E295">
+        <v>0</v>
+      </c>
+      <c r="F295">
+        <v>0</v>
+      </c>
+      <c r="G295" t="b">
+        <v>0</v>
+      </c>
+      <c r="H295">
+        <v>0</v>
+      </c>
+      <c r="I295">
+        <v>0</v>
+      </c>
+      <c r="J295">
+        <v>0</v>
+      </c>
+      <c r="K295">
+        <v>2</v>
+      </c>
+      <c r="L295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A296" s="2">
+        <v>45829</v>
+      </c>
+      <c r="B296" t="s">
+        <v>23</v>
+      </c>
+      <c r="C296" t="s">
+        <v>13</v>
+      </c>
+      <c r="D296" t="s">
+        <v>2</v>
+      </c>
+      <c r="E296">
+        <v>0</v>
+      </c>
+      <c r="F296">
+        <v>0</v>
+      </c>
+      <c r="G296" t="b">
+        <v>0</v>
+      </c>
+      <c r="H296">
+        <v>0</v>
+      </c>
+      <c r="I296">
+        <v>1</v>
+      </c>
+      <c r="J296">
+        <v>0</v>
+      </c>
+      <c r="K296">
+        <v>0</v>
+      </c>
+      <c r="L296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A297" s="2">
+        <v>45829</v>
+      </c>
+      <c r="B297" t="s">
+        <v>34</v>
+      </c>
+      <c r="C297" t="s">
+        <v>14</v>
+      </c>
+      <c r="D297" t="s">
+        <v>4</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297">
+        <v>0</v>
+      </c>
+      <c r="G297" t="b">
+        <v>1</v>
+      </c>
+      <c r="H297">
+        <v>3</v>
+      </c>
+      <c r="I297">
+        <v>0</v>
+      </c>
+      <c r="J297">
+        <v>0</v>
+      </c>
+      <c r="K297">
+        <v>0</v>
+      </c>
+      <c r="L297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A298" s="2">
+        <v>45829</v>
+      </c>
+      <c r="B298" t="s">
+        <v>40</v>
+      </c>
+      <c r="C298" t="s">
+        <v>14</v>
+      </c>
+      <c r="D298" t="s">
+        <v>3</v>
+      </c>
+      <c r="E298">
+        <v>1</v>
+      </c>
+      <c r="F298">
+        <v>0</v>
+      </c>
+      <c r="G298" t="b">
+        <v>0</v>
+      </c>
+      <c r="H298">
+        <v>0</v>
+      </c>
+      <c r="I298">
+        <v>0</v>
+      </c>
+      <c r="J298">
+        <v>0</v>
+      </c>
+      <c r="K298">
+        <v>0</v>
+      </c>
+      <c r="L298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A299" s="2">
+        <v>45829</v>
+      </c>
+      <c r="B299" t="s">
+        <v>62</v>
+      </c>
+      <c r="C299" t="s">
+        <v>14</v>
+      </c>
+      <c r="D299" t="s">
+        <v>17</v>
+      </c>
+      <c r="E299">
+        <v>1</v>
+      </c>
+      <c r="F299">
+        <v>0</v>
+      </c>
+      <c r="G299" t="b">
+        <v>0</v>
+      </c>
+      <c r="H299">
+        <v>0</v>
+      </c>
+      <c r="I299">
+        <v>0</v>
+      </c>
+      <c r="J299">
+        <v>0</v>
+      </c>
+      <c r="K299">
+        <v>0</v>
+      </c>
+      <c r="L299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A300" s="2">
+        <v>45829</v>
+      </c>
+      <c r="B300" t="s">
+        <v>50</v>
+      </c>
+      <c r="C300" t="s">
+        <v>14</v>
+      </c>
+      <c r="D300" t="s">
+        <v>17</v>
+      </c>
+      <c r="E300">
+        <v>1</v>
+      </c>
+      <c r="F300">
+        <v>0</v>
+      </c>
+      <c r="G300" t="b">
+        <v>0</v>
+      </c>
+      <c r="H300">
+        <v>0</v>
+      </c>
+      <c r="I300">
+        <v>0</v>
+      </c>
+      <c r="J300">
+        <v>0</v>
+      </c>
+      <c r="K300">
+        <v>0</v>
+      </c>
+      <c r="L300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A301" s="2">
+        <v>45829</v>
+      </c>
+      <c r="B301" t="s">
+        <v>56</v>
+      </c>
+      <c r="C301" t="s">
+        <v>14</v>
+      </c>
+      <c r="D301" t="s">
+        <v>17</v>
+      </c>
+      <c r="E301">
+        <v>0</v>
+      </c>
+      <c r="F301">
+        <v>0</v>
+      </c>
+      <c r="G301" t="b">
+        <v>0</v>
+      </c>
+      <c r="H301">
+        <v>0</v>
+      </c>
+      <c r="I301">
+        <v>1</v>
+      </c>
+      <c r="J301">
+        <v>0</v>
+      </c>
+      <c r="K301">
+        <v>0</v>
+      </c>
+      <c r="L301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A302" s="2">
+        <v>45829</v>
+      </c>
+      <c r="B302" t="s">
+        <v>76</v>
+      </c>
+      <c r="C302" t="s">
+        <v>14</v>
+      </c>
+      <c r="D302" t="s">
+        <v>3</v>
+      </c>
+      <c r="E302">
+        <v>0</v>
+      </c>
+      <c r="F302">
+        <v>0</v>
+      </c>
+      <c r="G302" t="b">
+        <v>0</v>
+      </c>
+      <c r="H302">
+        <v>0</v>
+      </c>
+      <c r="I302">
+        <v>0</v>
+      </c>
+      <c r="J302">
+        <v>0</v>
+      </c>
+      <c r="K302">
+        <v>1</v>
+      </c>
+      <c r="L302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A303" s="2">
+        <v>45829</v>
+      </c>
+      <c r="B303" t="s">
+        <v>20</v>
+      </c>
+      <c r="C303" t="s">
+        <v>14</v>
+      </c>
+      <c r="D303" t="s">
+        <v>2</v>
+      </c>
+      <c r="E303">
+        <v>0</v>
+      </c>
+      <c r="F303">
+        <v>0</v>
+      </c>
+      <c r="G303" t="b">
+        <v>0</v>
+      </c>
+      <c r="H303">
+        <v>0</v>
+      </c>
+      <c r="I303">
+        <v>0</v>
+      </c>
+      <c r="J303">
+        <v>0</v>
+      </c>
+      <c r="K303">
+        <v>1</v>
+      </c>
+      <c r="L303">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupocoomeva-my.sharepoint.com/personal/nalgmarin_coomeva_com_co/Documents/2025/Personal/Legendarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="580" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08E37BA1-46D0-46AD-A8AD-A2F01BD27BBA}"/>
+  <xr:revisionPtr revIDLastSave="752" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AC63EE6-A88C-4DF0-9F8F-245D9305CAD8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="78">
   <si>
     <t>jugador</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>Hermes Marquez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dylan Burgos </t>
   </si>
 </sst>
 </file>
@@ -649,6 +652,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>307</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>308</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B88836F-F086-6938-2EC1-4F406FBE60A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7610475" y="58483500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1484,11 +1535,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L303"/>
+  <dimension ref="A1:L318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B305" sqref="B305"/>
+      <pane ySplit="1" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C322" sqref="C322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13021,6 +13072,576 @@
         <v>0</v>
       </c>
     </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A304" s="2">
+        <v>45836</v>
+      </c>
+      <c r="B304" t="s">
+        <v>38</v>
+      </c>
+      <c r="C304" t="s">
+        <v>13</v>
+      </c>
+      <c r="D304" t="s">
+        <v>4</v>
+      </c>
+      <c r="E304">
+        <v>0</v>
+      </c>
+      <c r="F304">
+        <v>0</v>
+      </c>
+      <c r="G304" t="b">
+        <v>1</v>
+      </c>
+      <c r="H304">
+        <v>5</v>
+      </c>
+      <c r="I304">
+        <v>0</v>
+      </c>
+      <c r="J304">
+        <v>0</v>
+      </c>
+      <c r="K304">
+        <v>0</v>
+      </c>
+      <c r="L304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A305" s="2">
+        <v>45836</v>
+      </c>
+      <c r="B305" t="s">
+        <v>19</v>
+      </c>
+      <c r="C305" t="s">
+        <v>13</v>
+      </c>
+      <c r="D305" t="s">
+        <v>17</v>
+      </c>
+      <c r="E305">
+        <v>3</v>
+      </c>
+      <c r="F305">
+        <v>0</v>
+      </c>
+      <c r="G305" t="b">
+        <v>0</v>
+      </c>
+      <c r="H305">
+        <v>0</v>
+      </c>
+      <c r="I305">
+        <v>0</v>
+      </c>
+      <c r="J305">
+        <v>0</v>
+      </c>
+      <c r="K305">
+        <v>0</v>
+      </c>
+      <c r="L305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A306" s="2">
+        <v>45836</v>
+      </c>
+      <c r="B306" t="s">
+        <v>50</v>
+      </c>
+      <c r="C306" t="s">
+        <v>13</v>
+      </c>
+      <c r="D306" t="s">
+        <v>17</v>
+      </c>
+      <c r="E306">
+        <v>2</v>
+      </c>
+      <c r="F306">
+        <v>0</v>
+      </c>
+      <c r="G306" t="b">
+        <v>0</v>
+      </c>
+      <c r="H306">
+        <v>0</v>
+      </c>
+      <c r="I306">
+        <v>0</v>
+      </c>
+      <c r="J306">
+        <v>0</v>
+      </c>
+      <c r="K306">
+        <v>1</v>
+      </c>
+      <c r="L306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A307" s="2">
+        <v>45836</v>
+      </c>
+      <c r="B307" t="s">
+        <v>59</v>
+      </c>
+      <c r="C307" t="s">
+        <v>13</v>
+      </c>
+      <c r="D307" t="s">
+        <v>2</v>
+      </c>
+      <c r="E307">
+        <v>1</v>
+      </c>
+      <c r="F307">
+        <v>0</v>
+      </c>
+      <c r="G307" t="b">
+        <v>0</v>
+      </c>
+      <c r="H307">
+        <v>0</v>
+      </c>
+      <c r="I307">
+        <v>0</v>
+      </c>
+      <c r="J307">
+        <v>0</v>
+      </c>
+      <c r="K307">
+        <v>1</v>
+      </c>
+      <c r="L307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A308" s="2">
+        <v>45836</v>
+      </c>
+      <c r="B308" t="s">
+        <v>57</v>
+      </c>
+      <c r="C308" t="s">
+        <v>13</v>
+      </c>
+      <c r="D308" t="s">
+        <v>2</v>
+      </c>
+      <c r="E308">
+        <v>0</v>
+      </c>
+      <c r="F308">
+        <v>0</v>
+      </c>
+      <c r="G308" t="b">
+        <v>0</v>
+      </c>
+      <c r="H308">
+        <v>0</v>
+      </c>
+      <c r="I308">
+        <v>0</v>
+      </c>
+      <c r="J308">
+        <v>0</v>
+      </c>
+      <c r="K308">
+        <v>1</v>
+      </c>
+      <c r="L308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A309" s="2">
+        <v>45836</v>
+      </c>
+      <c r="B309" t="s">
+        <v>41</v>
+      </c>
+      <c r="C309" t="s">
+        <v>13</v>
+      </c>
+      <c r="D309" t="s">
+        <v>17</v>
+      </c>
+      <c r="E309">
+        <v>0</v>
+      </c>
+      <c r="F309">
+        <v>0</v>
+      </c>
+      <c r="G309" t="b">
+        <v>0</v>
+      </c>
+      <c r="H309">
+        <v>0</v>
+      </c>
+      <c r="I309">
+        <v>0</v>
+      </c>
+      <c r="J309">
+        <v>0</v>
+      </c>
+      <c r="K309">
+        <v>1</v>
+      </c>
+      <c r="L309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A310" s="2">
+        <v>45836</v>
+      </c>
+      <c r="B310" t="s">
+        <v>26</v>
+      </c>
+      <c r="C310" t="s">
+        <v>13</v>
+      </c>
+      <c r="D310" t="s">
+        <v>3</v>
+      </c>
+      <c r="E310">
+        <v>0</v>
+      </c>
+      <c r="F310">
+        <v>0</v>
+      </c>
+      <c r="G310" t="b">
+        <v>0</v>
+      </c>
+      <c r="H310">
+        <v>0</v>
+      </c>
+      <c r="I310">
+        <v>0</v>
+      </c>
+      <c r="J310">
+        <v>0</v>
+      </c>
+      <c r="K310">
+        <v>1</v>
+      </c>
+      <c r="L310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A311" s="2">
+        <v>45836</v>
+      </c>
+      <c r="B311" t="s">
+        <v>43</v>
+      </c>
+      <c r="C311" t="s">
+        <v>13</v>
+      </c>
+      <c r="D311" t="s">
+        <v>3</v>
+      </c>
+      <c r="E311">
+        <v>0</v>
+      </c>
+      <c r="F311">
+        <v>0</v>
+      </c>
+      <c r="G311" t="b">
+        <v>0</v>
+      </c>
+      <c r="H311">
+        <v>0</v>
+      </c>
+      <c r="I311">
+        <v>0</v>
+      </c>
+      <c r="J311">
+        <v>1</v>
+      </c>
+      <c r="K311">
+        <v>0</v>
+      </c>
+      <c r="L311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A312" s="2">
+        <v>45836</v>
+      </c>
+      <c r="B312" t="s">
+        <v>22</v>
+      </c>
+      <c r="C312" t="s">
+        <v>13</v>
+      </c>
+      <c r="D312" t="s">
+        <v>4</v>
+      </c>
+      <c r="E312">
+        <v>0</v>
+      </c>
+      <c r="F312">
+        <v>0</v>
+      </c>
+      <c r="G312" t="b">
+        <v>1</v>
+      </c>
+      <c r="H312">
+        <v>1</v>
+      </c>
+      <c r="I312">
+        <v>0</v>
+      </c>
+      <c r="J312">
+        <v>0</v>
+      </c>
+      <c r="K312">
+        <v>0</v>
+      </c>
+      <c r="L312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A313" s="2">
+        <v>45836</v>
+      </c>
+      <c r="B313" t="s">
+        <v>34</v>
+      </c>
+      <c r="C313" t="s">
+        <v>14</v>
+      </c>
+      <c r="D313" t="s">
+        <v>4</v>
+      </c>
+      <c r="E313">
+        <v>0</v>
+      </c>
+      <c r="F313">
+        <v>0</v>
+      </c>
+      <c r="G313" t="b">
+        <v>1</v>
+      </c>
+      <c r="H313">
+        <v>6</v>
+      </c>
+      <c r="I313">
+        <v>0</v>
+      </c>
+      <c r="J313">
+        <v>0</v>
+      </c>
+      <c r="K313">
+        <v>0</v>
+      </c>
+      <c r="L313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A314" s="2">
+        <v>45836</v>
+      </c>
+      <c r="B314" t="s">
+        <v>20</v>
+      </c>
+      <c r="C314" t="s">
+        <v>14</v>
+      </c>
+      <c r="D314" t="s">
+        <v>2</v>
+      </c>
+      <c r="E314">
+        <v>3</v>
+      </c>
+      <c r="F314">
+        <v>0</v>
+      </c>
+      <c r="G314" t="b">
+        <v>0</v>
+      </c>
+      <c r="H314">
+        <v>0</v>
+      </c>
+      <c r="I314">
+        <v>0</v>
+      </c>
+      <c r="J314">
+        <v>0</v>
+      </c>
+      <c r="K314">
+        <v>0</v>
+      </c>
+      <c r="L314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A315" s="2">
+        <v>45836</v>
+      </c>
+      <c r="B315" t="s">
+        <v>77</v>
+      </c>
+      <c r="C315" t="s">
+        <v>14</v>
+      </c>
+      <c r="D315" t="s">
+        <v>17</v>
+      </c>
+      <c r="E315">
+        <v>1</v>
+      </c>
+      <c r="F315">
+        <v>0</v>
+      </c>
+      <c r="G315" t="b">
+        <v>0</v>
+      </c>
+      <c r="H315">
+        <v>0</v>
+      </c>
+      <c r="I315">
+        <v>0</v>
+      </c>
+      <c r="J315">
+        <v>0</v>
+      </c>
+      <c r="K315">
+        <v>0</v>
+      </c>
+      <c r="L315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A316" s="2">
+        <v>45836</v>
+      </c>
+      <c r="B316" t="s">
+        <v>29</v>
+      </c>
+      <c r="C316" t="s">
+        <v>14</v>
+      </c>
+      <c r="D316" t="s">
+        <v>2</v>
+      </c>
+      <c r="E316">
+        <v>1</v>
+      </c>
+      <c r="F316">
+        <v>0</v>
+      </c>
+      <c r="G316" t="b">
+        <v>0</v>
+      </c>
+      <c r="H316">
+        <v>0</v>
+      </c>
+      <c r="I316">
+        <v>0</v>
+      </c>
+      <c r="J316">
+        <v>0</v>
+      </c>
+      <c r="K316">
+        <v>1</v>
+      </c>
+      <c r="L316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A317" s="2">
+        <v>45836</v>
+      </c>
+      <c r="B317" t="s">
+        <v>55</v>
+      </c>
+      <c r="C317" t="s">
+        <v>14</v>
+      </c>
+      <c r="D317" t="s">
+        <v>17</v>
+      </c>
+      <c r="E317">
+        <v>1</v>
+      </c>
+      <c r="F317">
+        <v>0</v>
+      </c>
+      <c r="G317" t="b">
+        <v>0</v>
+      </c>
+      <c r="H317">
+        <v>0</v>
+      </c>
+      <c r="I317">
+        <v>0</v>
+      </c>
+      <c r="J317">
+        <v>0</v>
+      </c>
+      <c r="K317">
+        <v>1</v>
+      </c>
+      <c r="L317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A318" s="2">
+        <v>45836</v>
+      </c>
+      <c r="B318" t="s">
+        <v>24</v>
+      </c>
+      <c r="C318" t="s">
+        <v>14</v>
+      </c>
+      <c r="D318" t="s">
+        <v>17</v>
+      </c>
+      <c r="E318">
+        <v>0</v>
+      </c>
+      <c r="F318">
+        <v>0</v>
+      </c>
+      <c r="G318" t="b">
+        <v>0</v>
+      </c>
+      <c r="H318">
+        <v>0</v>
+      </c>
+      <c r="I318">
+        <v>0</v>
+      </c>
+      <c r="J318">
+        <v>0</v>
+      </c>
+      <c r="K318">
+        <v>1</v>
+      </c>
+      <c r="L318">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupocoomeva-my.sharepoint.com/personal/nalgmarin_coomeva_com_co/Documents/2025/Personal/Legendarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="752" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AC63EE6-A88C-4DF0-9F8F-245D9305CAD8}"/>
+  <xr:revisionPtr revIDLastSave="905" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D686795-0F76-4709-8B06-F6E945948D0C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="78">
   <si>
     <t>jugador</t>
   </si>
@@ -1535,11 +1535,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L318"/>
+  <dimension ref="A1:L331"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C322" sqref="C322"/>
+      <pane ySplit="1" topLeftCell="A313" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B333" sqref="B333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13642,6 +13642,500 @@
         <v>0</v>
       </c>
     </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A319" s="2">
+        <v>45843</v>
+      </c>
+      <c r="B319" t="s">
+        <v>38</v>
+      </c>
+      <c r="C319" t="s">
+        <v>14</v>
+      </c>
+      <c r="D319" t="s">
+        <v>4</v>
+      </c>
+      <c r="E319">
+        <v>0</v>
+      </c>
+      <c r="F319">
+        <v>0</v>
+      </c>
+      <c r="G319" t="b">
+        <v>1</v>
+      </c>
+      <c r="H319">
+        <v>6</v>
+      </c>
+      <c r="I319">
+        <v>0</v>
+      </c>
+      <c r="J319">
+        <v>0</v>
+      </c>
+      <c r="K319">
+        <v>0</v>
+      </c>
+      <c r="L319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A320" s="2">
+        <v>45843</v>
+      </c>
+      <c r="B320" t="s">
+        <v>41</v>
+      </c>
+      <c r="C320" t="s">
+        <v>14</v>
+      </c>
+      <c r="D320" t="s">
+        <v>17</v>
+      </c>
+      <c r="E320">
+        <v>1</v>
+      </c>
+      <c r="F320">
+        <v>0</v>
+      </c>
+      <c r="G320" t="b">
+        <v>0</v>
+      </c>
+      <c r="H320">
+        <v>0</v>
+      </c>
+      <c r="I320">
+        <v>0</v>
+      </c>
+      <c r="J320">
+        <v>0</v>
+      </c>
+      <c r="K320">
+        <v>0</v>
+      </c>
+      <c r="L320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A321" s="2">
+        <v>45843</v>
+      </c>
+      <c r="B321" t="s">
+        <v>20</v>
+      </c>
+      <c r="C321" t="s">
+        <v>14</v>
+      </c>
+      <c r="D321" t="s">
+        <v>2</v>
+      </c>
+      <c r="E321">
+        <v>1</v>
+      </c>
+      <c r="F321">
+        <v>0</v>
+      </c>
+      <c r="G321" t="b">
+        <v>0</v>
+      </c>
+      <c r="H321">
+        <v>0</v>
+      </c>
+      <c r="I321">
+        <v>0</v>
+      </c>
+      <c r="J321">
+        <v>0</v>
+      </c>
+      <c r="K321">
+        <v>0</v>
+      </c>
+      <c r="L321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A322" s="2">
+        <v>45843</v>
+      </c>
+      <c r="B322" t="s">
+        <v>57</v>
+      </c>
+      <c r="C322" t="s">
+        <v>14</v>
+      </c>
+      <c r="D322" t="s">
+        <v>2</v>
+      </c>
+      <c r="E322">
+        <v>1</v>
+      </c>
+      <c r="F322">
+        <v>0</v>
+      </c>
+      <c r="G322" t="b">
+        <v>0</v>
+      </c>
+      <c r="H322">
+        <v>0</v>
+      </c>
+      <c r="I322">
+        <v>0</v>
+      </c>
+      <c r="J322">
+        <v>0</v>
+      </c>
+      <c r="K322">
+        <v>1</v>
+      </c>
+      <c r="L322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A323" s="2">
+        <v>45843</v>
+      </c>
+      <c r="B323" t="s">
+        <v>28</v>
+      </c>
+      <c r="C323" t="s">
+        <v>14</v>
+      </c>
+      <c r="D323" t="s">
+        <v>2</v>
+      </c>
+      <c r="E323">
+        <v>2</v>
+      </c>
+      <c r="F323">
+        <v>0</v>
+      </c>
+      <c r="G323" t="b">
+        <v>0</v>
+      </c>
+      <c r="H323">
+        <v>0</v>
+      </c>
+      <c r="I323">
+        <v>0</v>
+      </c>
+      <c r="J323">
+        <v>0</v>
+      </c>
+      <c r="K323">
+        <v>0</v>
+      </c>
+      <c r="L323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A324" s="2">
+        <v>45843</v>
+      </c>
+      <c r="B324" t="s">
+        <v>54</v>
+      </c>
+      <c r="C324" t="s">
+        <v>14</v>
+      </c>
+      <c r="D324" t="s">
+        <v>17</v>
+      </c>
+      <c r="E324">
+        <v>0</v>
+      </c>
+      <c r="F324">
+        <v>0</v>
+      </c>
+      <c r="G324" t="b">
+        <v>0</v>
+      </c>
+      <c r="H324">
+        <v>0</v>
+      </c>
+      <c r="I324">
+        <v>0</v>
+      </c>
+      <c r="J324">
+        <v>0</v>
+      </c>
+      <c r="K324">
+        <v>1</v>
+      </c>
+      <c r="L324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A325" s="2">
+        <v>45843</v>
+      </c>
+      <c r="B325" t="s">
+        <v>22</v>
+      </c>
+      <c r="C325" t="s">
+        <v>13</v>
+      </c>
+      <c r="D325" t="s">
+        <v>4</v>
+      </c>
+      <c r="E325">
+        <v>1</v>
+      </c>
+      <c r="F325">
+        <v>0</v>
+      </c>
+      <c r="G325" t="b">
+        <v>1</v>
+      </c>
+      <c r="H325">
+        <v>3</v>
+      </c>
+      <c r="I325">
+        <v>0</v>
+      </c>
+      <c r="J325">
+        <v>0</v>
+      </c>
+      <c r="K325">
+        <v>0</v>
+      </c>
+      <c r="L325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A326" s="2">
+        <v>45843</v>
+      </c>
+      <c r="B326" t="s">
+        <v>73</v>
+      </c>
+      <c r="C326" t="s">
+        <v>13</v>
+      </c>
+      <c r="D326" t="s">
+        <v>4</v>
+      </c>
+      <c r="E326">
+        <v>0</v>
+      </c>
+      <c r="F326">
+        <v>0</v>
+      </c>
+      <c r="G326" t="b">
+        <v>1</v>
+      </c>
+      <c r="H326">
+        <v>2</v>
+      </c>
+      <c r="I326">
+        <v>0</v>
+      </c>
+      <c r="J326">
+        <v>0</v>
+      </c>
+      <c r="K326">
+        <v>0</v>
+      </c>
+      <c r="L326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A327" s="2">
+        <v>45843</v>
+      </c>
+      <c r="B327" t="s">
+        <v>59</v>
+      </c>
+      <c r="C327" t="s">
+        <v>13</v>
+      </c>
+      <c r="D327" t="s">
+        <v>2</v>
+      </c>
+      <c r="E327">
+        <v>1</v>
+      </c>
+      <c r="F327">
+        <v>0</v>
+      </c>
+      <c r="G327" t="b">
+        <v>0</v>
+      </c>
+      <c r="H327">
+        <v>0</v>
+      </c>
+      <c r="I327">
+        <v>0</v>
+      </c>
+      <c r="J327">
+        <v>0</v>
+      </c>
+      <c r="K327">
+        <v>1</v>
+      </c>
+      <c r="L327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A328" s="2">
+        <v>45843</v>
+      </c>
+      <c r="B328" t="s">
+        <v>76</v>
+      </c>
+      <c r="C328" t="s">
+        <v>13</v>
+      </c>
+      <c r="D328" t="s">
+        <v>3</v>
+      </c>
+      <c r="E328">
+        <v>1</v>
+      </c>
+      <c r="F328">
+        <v>0</v>
+      </c>
+      <c r="G328" t="b">
+        <v>0</v>
+      </c>
+      <c r="H328">
+        <v>0</v>
+      </c>
+      <c r="I328">
+        <v>0</v>
+      </c>
+      <c r="J328">
+        <v>0</v>
+      </c>
+      <c r="K328">
+        <v>0</v>
+      </c>
+      <c r="L328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A329" s="2">
+        <v>45843</v>
+      </c>
+      <c r="B329" t="s">
+        <v>33</v>
+      </c>
+      <c r="C329" t="s">
+        <v>13</v>
+      </c>
+      <c r="D329" t="s">
+        <v>17</v>
+      </c>
+      <c r="E329">
+        <v>1</v>
+      </c>
+      <c r="F329">
+        <v>0</v>
+      </c>
+      <c r="G329" t="b">
+        <v>0</v>
+      </c>
+      <c r="H329">
+        <v>0</v>
+      </c>
+      <c r="I329">
+        <v>0</v>
+      </c>
+      <c r="J329">
+        <v>0</v>
+      </c>
+      <c r="K329">
+        <v>1</v>
+      </c>
+      <c r="L329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A330" s="2">
+        <v>45843</v>
+      </c>
+      <c r="B330" t="s">
+        <v>63</v>
+      </c>
+      <c r="C330" t="s">
+        <v>13</v>
+      </c>
+      <c r="D330" t="s">
+        <v>17</v>
+      </c>
+      <c r="E330">
+        <v>2</v>
+      </c>
+      <c r="F330">
+        <v>0</v>
+      </c>
+      <c r="G330" t="b">
+        <v>0</v>
+      </c>
+      <c r="H330">
+        <v>0</v>
+      </c>
+      <c r="I330">
+        <v>0</v>
+      </c>
+      <c r="J330">
+        <v>0</v>
+      </c>
+      <c r="K330">
+        <v>0</v>
+      </c>
+      <c r="L330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A331" s="2">
+        <v>45843</v>
+      </c>
+      <c r="B331" t="s">
+        <v>26</v>
+      </c>
+      <c r="C331" t="s">
+        <v>13</v>
+      </c>
+      <c r="D331" t="s">
+        <v>3</v>
+      </c>
+      <c r="E331">
+        <v>0</v>
+      </c>
+      <c r="F331">
+        <v>0</v>
+      </c>
+      <c r="G331" t="b">
+        <v>0</v>
+      </c>
+      <c r="H331">
+        <v>0</v>
+      </c>
+      <c r="I331">
+        <v>0</v>
+      </c>
+      <c r="J331">
+        <v>0</v>
+      </c>
+      <c r="K331">
+        <v>1</v>
+      </c>
+      <c r="L331">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupocoomeva-my.sharepoint.com/personal/nalgmarin_coomeva_com_co/Documents/2025/Personal/Legendarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="905" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D686795-0F76-4709-8B06-F6E945948D0C}"/>
+  <xr:revisionPtr revIDLastSave="982" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84F34D6C-9ACF-441D-B95D-3CE2D4818EE2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jugadores" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="79">
   <si>
     <t>jugador</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t xml:space="preserve">Dylan Burgos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esteban </t>
   </si>
 </sst>
 </file>
@@ -1535,11 +1538,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L331"/>
+  <dimension ref="A1:L341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A313" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B333" sqref="B333"/>
+      <pane ySplit="1" topLeftCell="A374" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A342" sqref="A342:XFD408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14136,6 +14139,386 @@
         <v>0</v>
       </c>
     </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A332" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B332" t="s">
+        <v>34</v>
+      </c>
+      <c r="C332" t="s">
+        <v>13</v>
+      </c>
+      <c r="D332" t="s">
+        <v>4</v>
+      </c>
+      <c r="E332">
+        <v>0</v>
+      </c>
+      <c r="F332">
+        <v>0</v>
+      </c>
+      <c r="G332" t="b">
+        <v>1</v>
+      </c>
+      <c r="H332">
+        <v>3</v>
+      </c>
+      <c r="I332">
+        <v>0</v>
+      </c>
+      <c r="J332">
+        <v>0</v>
+      </c>
+      <c r="K332">
+        <v>0</v>
+      </c>
+      <c r="L332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A333" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B333" t="s">
+        <v>28</v>
+      </c>
+      <c r="C333" t="s">
+        <v>13</v>
+      </c>
+      <c r="D333" t="s">
+        <v>2</v>
+      </c>
+      <c r="E333">
+        <v>1</v>
+      </c>
+      <c r="F333">
+        <v>0</v>
+      </c>
+      <c r="G333" t="b">
+        <v>0</v>
+      </c>
+      <c r="H333">
+        <v>0</v>
+      </c>
+      <c r="I333">
+        <v>0</v>
+      </c>
+      <c r="J333">
+        <v>0</v>
+      </c>
+      <c r="K333">
+        <v>0</v>
+      </c>
+      <c r="L333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A334" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B334" t="s">
+        <v>59</v>
+      </c>
+      <c r="C334" t="s">
+        <v>13</v>
+      </c>
+      <c r="D334" t="s">
+        <v>2</v>
+      </c>
+      <c r="E334">
+        <v>2</v>
+      </c>
+      <c r="F334">
+        <v>0</v>
+      </c>
+      <c r="G334" t="b">
+        <v>0</v>
+      </c>
+      <c r="H334">
+        <v>0</v>
+      </c>
+      <c r="I334">
+        <v>0</v>
+      </c>
+      <c r="J334">
+        <v>0</v>
+      </c>
+      <c r="K334">
+        <v>0</v>
+      </c>
+      <c r="L334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A335" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B335" t="s">
+        <v>20</v>
+      </c>
+      <c r="C335" t="s">
+        <v>13</v>
+      </c>
+      <c r="D335" t="s">
+        <v>2</v>
+      </c>
+      <c r="E335">
+        <v>0</v>
+      </c>
+      <c r="F335">
+        <v>0</v>
+      </c>
+      <c r="G335" t="b">
+        <v>0</v>
+      </c>
+      <c r="H335">
+        <v>0</v>
+      </c>
+      <c r="I335">
+        <v>0</v>
+      </c>
+      <c r="J335">
+        <v>0</v>
+      </c>
+      <c r="K335">
+        <v>1</v>
+      </c>
+      <c r="L335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A336" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B336" t="s">
+        <v>21</v>
+      </c>
+      <c r="C336" t="s">
+        <v>13</v>
+      </c>
+      <c r="D336" t="s">
+        <v>3</v>
+      </c>
+      <c r="E336">
+        <v>0</v>
+      </c>
+      <c r="F336">
+        <v>0</v>
+      </c>
+      <c r="G336" t="b">
+        <v>0</v>
+      </c>
+      <c r="H336">
+        <v>0</v>
+      </c>
+      <c r="I336">
+        <v>0</v>
+      </c>
+      <c r="J336">
+        <v>0</v>
+      </c>
+      <c r="K336">
+        <v>1</v>
+      </c>
+      <c r="L336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A337" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B337" t="s">
+        <v>38</v>
+      </c>
+      <c r="C337" t="s">
+        <v>14</v>
+      </c>
+      <c r="D337" t="s">
+        <v>4</v>
+      </c>
+      <c r="E337">
+        <v>0</v>
+      </c>
+      <c r="F337">
+        <v>0</v>
+      </c>
+      <c r="G337" t="b">
+        <v>1</v>
+      </c>
+      <c r="H337">
+        <v>3</v>
+      </c>
+      <c r="I337">
+        <v>0</v>
+      </c>
+      <c r="J337">
+        <v>0</v>
+      </c>
+      <c r="K337">
+        <v>0</v>
+      </c>
+      <c r="L337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A338" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B338" t="s">
+        <v>19</v>
+      </c>
+      <c r="C338" t="s">
+        <v>14</v>
+      </c>
+      <c r="D338" t="s">
+        <v>17</v>
+      </c>
+      <c r="E338">
+        <v>1</v>
+      </c>
+      <c r="F338">
+        <v>0</v>
+      </c>
+      <c r="G338" t="b">
+        <v>0</v>
+      </c>
+      <c r="H338">
+        <v>0</v>
+      </c>
+      <c r="I338">
+        <v>0</v>
+      </c>
+      <c r="J338">
+        <v>0</v>
+      </c>
+      <c r="K338">
+        <v>2</v>
+      </c>
+      <c r="L338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A339" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B339" t="s">
+        <v>29</v>
+      </c>
+      <c r="C339" t="s">
+        <v>14</v>
+      </c>
+      <c r="D339" t="s">
+        <v>2</v>
+      </c>
+      <c r="E339">
+        <v>2</v>
+      </c>
+      <c r="F339">
+        <v>0</v>
+      </c>
+      <c r="G339" t="b">
+        <v>0</v>
+      </c>
+      <c r="H339">
+        <v>0</v>
+      </c>
+      <c r="I339">
+        <v>0</v>
+      </c>
+      <c r="J339">
+        <v>0</v>
+      </c>
+      <c r="K339">
+        <v>0</v>
+      </c>
+      <c r="L339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A340" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B340" t="s">
+        <v>57</v>
+      </c>
+      <c r="C340" t="s">
+        <v>14</v>
+      </c>
+      <c r="D340" t="s">
+        <v>2</v>
+      </c>
+      <c r="E340">
+        <v>0</v>
+      </c>
+      <c r="F340">
+        <v>0</v>
+      </c>
+      <c r="G340" t="b">
+        <v>0</v>
+      </c>
+      <c r="H340">
+        <v>0</v>
+      </c>
+      <c r="I340">
+        <v>0</v>
+      </c>
+      <c r="J340">
+        <v>0</v>
+      </c>
+      <c r="K340">
+        <v>1</v>
+      </c>
+      <c r="L340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A341" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B341" t="s">
+        <v>78</v>
+      </c>
+      <c r="C341" t="s">
+        <v>14</v>
+      </c>
+      <c r="D341" t="s">
+        <v>17</v>
+      </c>
+      <c r="E341">
+        <v>0</v>
+      </c>
+      <c r="F341">
+        <v>0</v>
+      </c>
+      <c r="G341" t="b">
+        <v>0</v>
+      </c>
+      <c r="H341">
+        <v>0</v>
+      </c>
+      <c r="I341">
+        <v>1</v>
+      </c>
+      <c r="J341">
+        <v>0</v>
+      </c>
+      <c r="K341">
+        <v>0</v>
+      </c>
+      <c r="L341">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupocoomeva-my.sharepoint.com/personal/nalgmarin_coomeva_com_co/Documents/2025/Personal/Legendarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="982" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84F34D6C-9ACF-441D-B95D-3CE2D4818EE2}"/>
+  <xr:revisionPtr revIDLastSave="1070" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F99F3662-C901-45CB-9566-BF96BFA340CD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jugadores" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="79">
   <si>
     <t>jugador</t>
   </si>
@@ -1538,11 +1538,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L341"/>
+  <dimension ref="A1:L350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A374" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A342" sqref="A342:XFD408"/>
+      <pane ySplit="1" topLeftCell="A334" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A352" sqref="A352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14519,6 +14519,348 @@
         <v>0</v>
       </c>
     </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A342" s="2">
+        <v>45857</v>
+      </c>
+      <c r="B342" t="s">
+        <v>74</v>
+      </c>
+      <c r="C342" t="s">
+        <v>13</v>
+      </c>
+      <c r="D342" t="s">
+        <v>4</v>
+      </c>
+      <c r="E342">
+        <v>0</v>
+      </c>
+      <c r="F342">
+        <v>0</v>
+      </c>
+      <c r="G342" t="b">
+        <v>1</v>
+      </c>
+      <c r="H342">
+        <v>0</v>
+      </c>
+      <c r="I342">
+        <v>0</v>
+      </c>
+      <c r="J342">
+        <v>0</v>
+      </c>
+      <c r="K342">
+        <v>0</v>
+      </c>
+      <c r="L342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A343" s="2">
+        <v>45857</v>
+      </c>
+      <c r="B343" t="s">
+        <v>19</v>
+      </c>
+      <c r="C343" t="s">
+        <v>13</v>
+      </c>
+      <c r="D343" t="s">
+        <v>17</v>
+      </c>
+      <c r="E343">
+        <v>3</v>
+      </c>
+      <c r="F343">
+        <v>0</v>
+      </c>
+      <c r="G343" t="b">
+        <v>0</v>
+      </c>
+      <c r="H343">
+        <v>0</v>
+      </c>
+      <c r="I343">
+        <v>0</v>
+      </c>
+      <c r="J343">
+        <v>0</v>
+      </c>
+      <c r="K343">
+        <v>2</v>
+      </c>
+      <c r="L343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A344" s="2">
+        <v>45857</v>
+      </c>
+      <c r="B344" t="s">
+        <v>29</v>
+      </c>
+      <c r="C344" t="s">
+        <v>13</v>
+      </c>
+      <c r="D344" t="s">
+        <v>2</v>
+      </c>
+      <c r="E344">
+        <v>1</v>
+      </c>
+      <c r="F344">
+        <v>0</v>
+      </c>
+      <c r="G344" t="b">
+        <v>0</v>
+      </c>
+      <c r="H344">
+        <v>0</v>
+      </c>
+      <c r="I344">
+        <v>0</v>
+      </c>
+      <c r="J344">
+        <v>0</v>
+      </c>
+      <c r="K344">
+        <v>0</v>
+      </c>
+      <c r="L344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A345" s="2">
+        <v>45857</v>
+      </c>
+      <c r="B345" t="s">
+        <v>55</v>
+      </c>
+      <c r="C345" t="s">
+        <v>13</v>
+      </c>
+      <c r="D345" t="s">
+        <v>17</v>
+      </c>
+      <c r="E345">
+        <v>1</v>
+      </c>
+      <c r="F345">
+        <v>0</v>
+      </c>
+      <c r="G345" t="b">
+        <v>0</v>
+      </c>
+      <c r="H345">
+        <v>0</v>
+      </c>
+      <c r="I345">
+        <v>0</v>
+      </c>
+      <c r="J345">
+        <v>0</v>
+      </c>
+      <c r="K345">
+        <v>0</v>
+      </c>
+      <c r="L345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A346" s="2">
+        <v>45857</v>
+      </c>
+      <c r="B346" t="s">
+        <v>50</v>
+      </c>
+      <c r="C346" t="s">
+        <v>13</v>
+      </c>
+      <c r="D346" t="s">
+        <v>17</v>
+      </c>
+      <c r="E346">
+        <v>1</v>
+      </c>
+      <c r="F346">
+        <v>0</v>
+      </c>
+      <c r="G346" t="b">
+        <v>0</v>
+      </c>
+      <c r="H346">
+        <v>0</v>
+      </c>
+      <c r="I346">
+        <v>0</v>
+      </c>
+      <c r="J346">
+        <v>0</v>
+      </c>
+      <c r="K346">
+        <v>0</v>
+      </c>
+      <c r="L346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A347" s="2">
+        <v>45857</v>
+      </c>
+      <c r="B347" t="s">
+        <v>44</v>
+      </c>
+      <c r="C347" t="s">
+        <v>13</v>
+      </c>
+      <c r="D347" t="s">
+        <v>17</v>
+      </c>
+      <c r="E347">
+        <v>1</v>
+      </c>
+      <c r="F347">
+        <v>0</v>
+      </c>
+      <c r="G347" t="b">
+        <v>0</v>
+      </c>
+      <c r="H347">
+        <v>0</v>
+      </c>
+      <c r="I347">
+        <v>0</v>
+      </c>
+      <c r="J347">
+        <v>0</v>
+      </c>
+      <c r="K347">
+        <v>0</v>
+      </c>
+      <c r="L347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A348" s="2">
+        <v>45857</v>
+      </c>
+      <c r="B348" t="s">
+        <v>23</v>
+      </c>
+      <c r="C348" t="s">
+        <v>13</v>
+      </c>
+      <c r="D348" t="s">
+        <v>2</v>
+      </c>
+      <c r="E348">
+        <v>0</v>
+      </c>
+      <c r="F348">
+        <v>0</v>
+      </c>
+      <c r="G348" t="b">
+        <v>0</v>
+      </c>
+      <c r="H348">
+        <v>0</v>
+      </c>
+      <c r="I348">
+        <v>0</v>
+      </c>
+      <c r="J348">
+        <v>0</v>
+      </c>
+      <c r="K348">
+        <v>2</v>
+      </c>
+      <c r="L348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A349" s="2">
+        <v>45857</v>
+      </c>
+      <c r="B349" t="s">
+        <v>34</v>
+      </c>
+      <c r="C349" t="s">
+        <v>14</v>
+      </c>
+      <c r="D349" t="s">
+        <v>4</v>
+      </c>
+      <c r="E349">
+        <v>0</v>
+      </c>
+      <c r="F349">
+        <v>0</v>
+      </c>
+      <c r="G349" t="b">
+        <v>1</v>
+      </c>
+      <c r="H349">
+        <v>7</v>
+      </c>
+      <c r="I349">
+        <v>0</v>
+      </c>
+      <c r="J349">
+        <v>0</v>
+      </c>
+      <c r="K349">
+        <v>0</v>
+      </c>
+      <c r="L349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A350" s="2">
+        <v>45857</v>
+      </c>
+      <c r="B350" t="s">
+        <v>52</v>
+      </c>
+      <c r="C350" t="s">
+        <v>14</v>
+      </c>
+      <c r="D350" t="s">
+        <v>17</v>
+      </c>
+      <c r="E350">
+        <v>0</v>
+      </c>
+      <c r="F350">
+        <v>0</v>
+      </c>
+      <c r="G350" t="b">
+        <v>0</v>
+      </c>
+      <c r="H350">
+        <v>0</v>
+      </c>
+      <c r="I350">
+        <v>0</v>
+      </c>
+      <c r="J350">
+        <v>1</v>
+      </c>
+      <c r="K350">
+        <v>0</v>
+      </c>
+      <c r="L350">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupocoomeva-my.sharepoint.com/personal/nalgmarin_coomeva_com_co/Documents/2025/Personal/Legendarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1070" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F99F3662-C901-45CB-9566-BF96BFA340CD}"/>
+  <xr:revisionPtr revIDLastSave="1174" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4A3150F-DC23-4FAF-B662-A8C738AA5C36}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="79">
   <si>
     <t>jugador</t>
   </si>
@@ -1538,11 +1538,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L350"/>
+  <dimension ref="A1:L360"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A334" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A352" sqref="A352"/>
+      <pane ySplit="1" topLeftCell="A352" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B362" sqref="B362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -2917,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -3183,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -3297,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -3335,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -4627,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -4665,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -5083,7 +5083,7 @@
         <v>0</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -5349,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -5387,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101">
         <v>0</v>
@@ -5539,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105">
         <v>0</v>
@@ -5729,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -5767,7 +5767,7 @@
         <v>0</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111">
         <v>0</v>
@@ -5805,7 +5805,7 @@
         <v>0</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -5957,7 +5957,7 @@
         <v>0</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -5995,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -6033,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -6071,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119">
         <v>0</v>
@@ -6109,7 +6109,7 @@
         <v>0</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -6147,7 +6147,7 @@
         <v>0</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121">
         <v>0</v>
@@ -6188,7 +6188,7 @@
         <v>0</v>
       </c>
       <c r="J122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K122">
         <v>0</v>
@@ -7135,7 +7135,7 @@
         <v>0</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147">
         <v>0</v>
@@ -7477,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156">
         <v>0</v>
@@ -7667,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161">
         <v>0</v>
@@ -8047,7 +8047,7 @@
         <v>0</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171">
         <v>0</v>
@@ -8427,7 +8427,7 @@
         <v>0</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J181">
         <v>0</v>
@@ -8617,7 +8617,7 @@
         <v>0</v>
       </c>
       <c r="I186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J186">
         <v>0</v>
@@ -9757,7 +9757,7 @@
         <v>0</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216">
         <v>0</v>
@@ -9985,7 +9985,7 @@
         <v>0</v>
       </c>
       <c r="I222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222">
         <v>0</v>
@@ -10175,7 +10175,7 @@
         <v>0</v>
       </c>
       <c r="I227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227">
         <v>0</v>
@@ -10251,7 +10251,7 @@
         <v>0</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J229">
         <v>0</v>
@@ -10517,7 +10517,7 @@
         <v>0</v>
       </c>
       <c r="I236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J236">
         <v>0</v>
@@ -10558,7 +10558,7 @@
         <v>0</v>
       </c>
       <c r="J237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K237">
         <v>0</v>
@@ -10596,7 +10596,7 @@
         <v>0</v>
       </c>
       <c r="J238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K238">
         <v>0</v>
@@ -10973,7 +10973,7 @@
         <v>0</v>
       </c>
       <c r="I248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J248">
         <v>0</v>
@@ -11695,7 +11695,7 @@
         <v>0</v>
       </c>
       <c r="I267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J267">
         <v>0</v>
@@ -12037,7 +12037,7 @@
         <v>0</v>
       </c>
       <c r="I276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J276">
         <v>0</v>
@@ -12265,7 +12265,7 @@
         <v>0</v>
       </c>
       <c r="I282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J282">
         <v>0</v>
@@ -12569,7 +12569,7 @@
         <v>0</v>
       </c>
       <c r="I290">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J290">
         <v>0</v>
@@ -12607,7 +12607,7 @@
         <v>0</v>
       </c>
       <c r="I291">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J291">
         <v>0</v>
@@ -12797,7 +12797,7 @@
         <v>0</v>
       </c>
       <c r="I296">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J296">
         <v>0</v>
@@ -12987,7 +12987,7 @@
         <v>0</v>
       </c>
       <c r="I301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J301">
         <v>0</v>
@@ -13370,7 +13370,7 @@
         <v>0</v>
       </c>
       <c r="J311">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K311">
         <v>0</v>
@@ -14858,6 +14858,386 @@
         <v>0</v>
       </c>
       <c r="L350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A351" s="2">
+        <v>45864</v>
+      </c>
+      <c r="B351" t="s">
+        <v>38</v>
+      </c>
+      <c r="C351" t="s">
+        <v>14</v>
+      </c>
+      <c r="D351" t="s">
+        <v>4</v>
+      </c>
+      <c r="E351">
+        <v>0</v>
+      </c>
+      <c r="F351">
+        <v>0</v>
+      </c>
+      <c r="G351" t="b">
+        <v>1</v>
+      </c>
+      <c r="H351">
+        <v>2</v>
+      </c>
+      <c r="I351">
+        <v>0</v>
+      </c>
+      <c r="J351">
+        <v>0</v>
+      </c>
+      <c r="K351">
+        <v>0</v>
+      </c>
+      <c r="L351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A352" s="2">
+        <v>45864</v>
+      </c>
+      <c r="B352" t="s">
+        <v>74</v>
+      </c>
+      <c r="C352" t="s">
+        <v>13</v>
+      </c>
+      <c r="D352" t="s">
+        <v>4</v>
+      </c>
+      <c r="E352">
+        <v>0</v>
+      </c>
+      <c r="F352">
+        <v>0</v>
+      </c>
+      <c r="G352" t="b">
+        <v>1</v>
+      </c>
+      <c r="H352">
+        <v>2</v>
+      </c>
+      <c r="I352">
+        <v>0</v>
+      </c>
+      <c r="J352">
+        <v>0</v>
+      </c>
+      <c r="K352">
+        <v>0</v>
+      </c>
+      <c r="L352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A353" s="2">
+        <v>45864</v>
+      </c>
+      <c r="B353" t="s">
+        <v>23</v>
+      </c>
+      <c r="C353" t="s">
+        <v>14</v>
+      </c>
+      <c r="D353" t="s">
+        <v>2</v>
+      </c>
+      <c r="E353">
+        <v>1</v>
+      </c>
+      <c r="F353">
+        <v>0</v>
+      </c>
+      <c r="G353" t="b">
+        <v>0</v>
+      </c>
+      <c r="H353">
+        <v>0</v>
+      </c>
+      <c r="I353">
+        <v>0</v>
+      </c>
+      <c r="J353">
+        <v>1</v>
+      </c>
+      <c r="K353">
+        <v>0</v>
+      </c>
+      <c r="L353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A354" s="2">
+        <v>45864</v>
+      </c>
+      <c r="B354" t="s">
+        <v>41</v>
+      </c>
+      <c r="C354" t="s">
+        <v>14</v>
+      </c>
+      <c r="D354" t="s">
+        <v>17</v>
+      </c>
+      <c r="E354">
+        <v>0</v>
+      </c>
+      <c r="F354">
+        <v>0</v>
+      </c>
+      <c r="G354" t="b">
+        <v>0</v>
+      </c>
+      <c r="H354">
+        <v>0</v>
+      </c>
+      <c r="I354">
+        <v>0</v>
+      </c>
+      <c r="J354">
+        <v>0</v>
+      </c>
+      <c r="K354">
+        <v>1</v>
+      </c>
+      <c r="L354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A355" s="2">
+        <v>45864</v>
+      </c>
+      <c r="B355" t="s">
+        <v>28</v>
+      </c>
+      <c r="C355" t="s">
+        <v>14</v>
+      </c>
+      <c r="D355" t="s">
+        <v>2</v>
+      </c>
+      <c r="E355">
+        <v>1</v>
+      </c>
+      <c r="F355">
+        <v>0</v>
+      </c>
+      <c r="G355" t="b">
+        <v>0</v>
+      </c>
+      <c r="H355">
+        <v>0</v>
+      </c>
+      <c r="I355">
+        <v>0</v>
+      </c>
+      <c r="J355">
+        <v>0</v>
+      </c>
+      <c r="K355">
+        <v>0</v>
+      </c>
+      <c r="L355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A356" s="2">
+        <v>45864</v>
+      </c>
+      <c r="B356" t="s">
+        <v>20</v>
+      </c>
+      <c r="C356" t="s">
+        <v>14</v>
+      </c>
+      <c r="D356" t="s">
+        <v>2</v>
+      </c>
+      <c r="E356">
+        <v>0</v>
+      </c>
+      <c r="F356">
+        <v>0</v>
+      </c>
+      <c r="G356" t="b">
+        <v>0</v>
+      </c>
+      <c r="H356">
+        <v>0</v>
+      </c>
+      <c r="I356">
+        <v>0</v>
+      </c>
+      <c r="J356">
+        <v>0</v>
+      </c>
+      <c r="K356">
+        <v>1</v>
+      </c>
+      <c r="L356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A357" s="2">
+        <v>45864</v>
+      </c>
+      <c r="B357" t="s">
+        <v>54</v>
+      </c>
+      <c r="C357" t="s">
+        <v>13</v>
+      </c>
+      <c r="D357" t="s">
+        <v>17</v>
+      </c>
+      <c r="E357">
+        <v>1</v>
+      </c>
+      <c r="F357">
+        <v>0</v>
+      </c>
+      <c r="G357" t="b">
+        <v>0</v>
+      </c>
+      <c r="H357">
+        <v>0</v>
+      </c>
+      <c r="I357">
+        <v>0</v>
+      </c>
+      <c r="J357">
+        <v>0</v>
+      </c>
+      <c r="K357">
+        <v>1</v>
+      </c>
+      <c r="L357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A358" s="2">
+        <v>45864</v>
+      </c>
+      <c r="B358" t="s">
+        <v>59</v>
+      </c>
+      <c r="C358" t="s">
+        <v>13</v>
+      </c>
+      <c r="D358" t="s">
+        <v>2</v>
+      </c>
+      <c r="E358">
+        <v>1</v>
+      </c>
+      <c r="F358">
+        <v>0</v>
+      </c>
+      <c r="G358" t="b">
+        <v>0</v>
+      </c>
+      <c r="H358">
+        <v>0</v>
+      </c>
+      <c r="I358">
+        <v>0</v>
+      </c>
+      <c r="J358">
+        <v>0</v>
+      </c>
+      <c r="K358">
+        <v>0</v>
+      </c>
+      <c r="L358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A359" s="2">
+        <v>45864</v>
+      </c>
+      <c r="B359" t="s">
+        <v>43</v>
+      </c>
+      <c r="C359" t="s">
+        <v>13</v>
+      </c>
+      <c r="D359" t="s">
+        <v>3</v>
+      </c>
+      <c r="E359">
+        <v>0</v>
+      </c>
+      <c r="F359">
+        <v>0</v>
+      </c>
+      <c r="G359" t="b">
+        <v>0</v>
+      </c>
+      <c r="H359">
+        <v>0</v>
+      </c>
+      <c r="I359">
+        <v>1</v>
+      </c>
+      <c r="J359">
+        <v>0</v>
+      </c>
+      <c r="K359">
+        <v>0</v>
+      </c>
+      <c r="L359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A360" s="2">
+        <v>45864</v>
+      </c>
+      <c r="B360" t="s">
+        <v>46</v>
+      </c>
+      <c r="C360" t="s">
+        <v>13</v>
+      </c>
+      <c r="D360" t="s">
+        <v>17</v>
+      </c>
+      <c r="E360">
+        <v>0</v>
+      </c>
+      <c r="F360">
+        <v>0</v>
+      </c>
+      <c r="G360" t="b">
+        <v>0</v>
+      </c>
+      <c r="H360">
+        <v>0</v>
+      </c>
+      <c r="I360">
+        <v>0</v>
+      </c>
+      <c r="J360">
+        <v>0</v>
+      </c>
+      <c r="K360">
+        <v>1</v>
+      </c>
+      <c r="L360">
         <v>0</v>
       </c>
     </row>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupocoomeva-my.sharepoint.com/personal/nalgmarin_coomeva_com_co/Documents/2025/Personal/Legendarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1174" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4A3150F-DC23-4FAF-B662-A8C738AA5C36}"/>
+  <xr:revisionPtr revIDLastSave="1326" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4A6F80A-B71D-424B-B3D5-362CDDD99367}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="82">
   <si>
     <t>jugador</t>
   </si>
@@ -222,9 +222,6 @@
     <t>Victor Varela</t>
   </si>
   <si>
-    <t>Guerrero</t>
-  </si>
-  <si>
     <t>Edwin Hinestroza</t>
   </si>
   <si>
@@ -275,6 +272,18 @@
   <si>
     <t xml:space="preserve">Esteban </t>
   </si>
+  <si>
+    <t># camiseta</t>
+  </si>
+  <si>
+    <t>Andres Guerrero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adolfo Leon Munera </t>
+  </si>
+  <si>
+    <t>23-2</t>
+  </si>
 </sst>
 </file>
 
@@ -310,7 +319,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -333,12 +342,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -347,6 +367,10 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -993,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,20 +1028,24 @@
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1027,8 +1055,11 @@
       <c r="C2" s="2">
         <v>32874</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1039,7 +1070,7 @@
         <v>32875</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -1049,8 +1080,11 @@
       <c r="C4" s="2">
         <v>32876</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1060,8 +1094,11 @@
       <c r="C5" s="2">
         <v>32877</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1071,8 +1108,11 @@
       <c r="C6" s="2">
         <v>32878</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1083,7 +1123,7 @@
         <v>32879</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1094,7 +1134,7 @@
         <v>32880</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1105,7 +1145,7 @@
         <v>32881</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1116,7 +1156,7 @@
         <v>32882</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -1126,8 +1166,11 @@
       <c r="C11" s="2">
         <v>32883</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1138,18 +1181,18 @@
         <v>32884</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="2">
         <v>32885</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1159,8 +1202,11 @@
       <c r="C14" s="2">
         <v>32886</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1171,7 +1217,7 @@
         <v>32887</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -1182,7 +1228,7 @@
         <v>32888</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1193,7 +1239,7 @@
         <v>32889</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -1204,7 +1250,7 @@
         <v>32890</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1214,8 +1260,11 @@
       <c r="C19" s="2">
         <v>32891</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1226,7 +1275,7 @@
         <v>32892</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -1237,7 +1286,7 @@
         <v>32893</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -1248,7 +1297,7 @@
         <v>32894</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1259,7 +1308,7 @@
         <v>32895</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -1270,7 +1319,7 @@
         <v>32896</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -1281,7 +1330,7 @@
         <v>32897</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -1291,10 +1340,13 @@
       <c r="C26" s="2">
         <v>26930</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -1303,9 +1355,9 @@
         <v>32897</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -1313,8 +1365,11 @@
       <c r="C28" s="2">
         <v>32898</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1325,7 +1380,7 @@
         <v>32899</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -1336,7 +1391,7 @@
         <v>32900</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -1347,7 +1402,7 @@
         <v>32901</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -1514,7 +1569,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B47" t="s">
         <v>4</v>
@@ -1522,10 +1577,21 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B48" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1533,16 +1599,17 @@
     <sortCondition ref="A2:A46"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L360"/>
+  <dimension ref="A1:L372"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A352" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B362" sqref="B362"/>
+      <pane ySplit="1" topLeftCell="A361" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H377" sqref="H377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1572,7 +1639,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -1593,10 +1660,10 @@
         <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1794,7 +1861,7 @@
         <v>45661</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1832,7 +1899,7 @@
         <v>45661</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -2630,7 +2697,7 @@
         <v>45675</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
@@ -2706,7 +2773,7 @@
         <v>45675</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
@@ -4530,7 +4597,7 @@
         <v>45710</v>
       </c>
       <c r="B79" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
@@ -5252,7 +5319,7 @@
         <v>45724</v>
       </c>
       <c r="B98" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C98" t="s">
         <v>13</v>
@@ -5708,7 +5775,7 @@
         <v>45731</v>
       </c>
       <c r="B110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C110" t="s">
         <v>14</v>
@@ -5974,7 +6041,7 @@
         <v>45738</v>
       </c>
       <c r="B117" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C117" t="s">
         <v>14</v>
@@ -6126,7 +6193,7 @@
         <v>45738</v>
       </c>
       <c r="B121" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C121" t="s">
         <v>13</v>
@@ -6316,7 +6383,7 @@
         <v>45740</v>
       </c>
       <c r="B126" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C126" t="s">
         <v>13</v>
@@ -6430,7 +6497,7 @@
         <v>45740</v>
       </c>
       <c r="B129" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C129" t="s">
         <v>14</v>
@@ -6582,7 +6649,7 @@
         <v>45740</v>
       </c>
       <c r="B133" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C133" t="s">
         <v>14</v>
@@ -6772,7 +6839,7 @@
         <v>45745</v>
       </c>
       <c r="B138" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C138" t="s">
         <v>13</v>
@@ -6848,7 +6915,7 @@
         <v>45745</v>
       </c>
       <c r="B140" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C140" t="s">
         <v>13</v>
@@ -7304,7 +7371,7 @@
         <v>45745</v>
       </c>
       <c r="B152" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C152" t="s">
         <v>14</v>
@@ -7874,7 +7941,7 @@
         <v>45752</v>
       </c>
       <c r="B167" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C167" t="s">
         <v>14</v>
@@ -7912,7 +7979,7 @@
         <v>45752</v>
       </c>
       <c r="B168" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C168" t="s">
         <v>14</v>
@@ -8824,7 +8891,7 @@
         <v>45759</v>
       </c>
       <c r="B192" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C192" t="s">
         <v>14</v>
@@ -9128,7 +9195,7 @@
         <v>45766</v>
       </c>
       <c r="B200" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C200" t="s">
         <v>14</v>
@@ -9166,7 +9233,7 @@
         <v>45766</v>
       </c>
       <c r="B201" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C201" t="s">
         <v>14</v>
@@ -9242,7 +9309,7 @@
         <v>45766</v>
       </c>
       <c r="B203" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C203" t="s">
         <v>13</v>
@@ -9318,7 +9385,7 @@
         <v>45766</v>
       </c>
       <c r="B205" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C205" t="s">
         <v>13</v>
@@ -9508,7 +9575,7 @@
         <v>45766</v>
       </c>
       <c r="B210" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C210" t="s">
         <v>13</v>
@@ -9546,7 +9613,7 @@
         <v>45778</v>
       </c>
       <c r="B211" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C211" t="s">
         <v>13</v>
@@ -9774,7 +9841,7 @@
         <v>45778</v>
       </c>
       <c r="B217" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C217" t="s">
         <v>14</v>
@@ -9812,7 +9879,7 @@
         <v>45778</v>
       </c>
       <c r="B218" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C218" t="s">
         <v>14</v>
@@ -10116,7 +10183,7 @@
         <v>45780</v>
       </c>
       <c r="B226" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C226" t="s">
         <v>14</v>
@@ -10496,7 +10563,7 @@
         <v>45787</v>
       </c>
       <c r="B236" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C236" t="s">
         <v>14</v>
@@ -10610,7 +10677,7 @@
         <v>45787</v>
       </c>
       <c r="B239" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C239" t="s">
         <v>13</v>
@@ -10838,7 +10905,7 @@
         <v>45801</v>
       </c>
       <c r="B245" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C245" t="s">
         <v>13</v>
@@ -11826,7 +11893,7 @@
         <v>45815</v>
       </c>
       <c r="B271" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C271" t="s">
         <v>14</v>
@@ -12890,7 +12957,7 @@
         <v>45829</v>
       </c>
       <c r="B299" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C299" t="s">
         <v>14</v>
@@ -13004,7 +13071,7 @@
         <v>45829</v>
       </c>
       <c r="B302" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C302" t="s">
         <v>14</v>
@@ -13498,7 +13565,7 @@
         <v>45836</v>
       </c>
       <c r="B315" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C315" t="s">
         <v>14</v>
@@ -13916,7 +13983,7 @@
         <v>45843</v>
       </c>
       <c r="B326" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C326" t="s">
         <v>13</v>
@@ -13992,7 +14059,7 @@
         <v>45843</v>
       </c>
       <c r="B328" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C328" t="s">
         <v>13</v>
@@ -14068,7 +14135,7 @@
         <v>45843</v>
       </c>
       <c r="B330" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C330" t="s">
         <v>13</v>
@@ -14486,7 +14553,7 @@
         <v>45850</v>
       </c>
       <c r="B341" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C341" t="s">
         <v>14</v>
@@ -14524,7 +14591,7 @@
         <v>45857</v>
       </c>
       <c r="B342" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C342" t="s">
         <v>13</v>
@@ -14904,7 +14971,7 @@
         <v>45864</v>
       </c>
       <c r="B352" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C352" t="s">
         <v>13</v>
@@ -15238,6 +15305,462 @@
         <v>1</v>
       </c>
       <c r="L360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A361" s="2">
+        <v>45871</v>
+      </c>
+      <c r="B361" t="s">
+        <v>38</v>
+      </c>
+      <c r="C361" t="s">
+        <v>14</v>
+      </c>
+      <c r="D361" t="s">
+        <v>4</v>
+      </c>
+      <c r="E361">
+        <v>0</v>
+      </c>
+      <c r="F361">
+        <v>0</v>
+      </c>
+      <c r="G361" t="b">
+        <v>1</v>
+      </c>
+      <c r="H361">
+        <v>0</v>
+      </c>
+      <c r="I361">
+        <v>0</v>
+      </c>
+      <c r="J361">
+        <v>0</v>
+      </c>
+      <c r="K361">
+        <v>0</v>
+      </c>
+      <c r="L361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A362" s="2">
+        <v>45871</v>
+      </c>
+      <c r="B362" t="s">
+        <v>22</v>
+      </c>
+      <c r="C362" t="s">
+        <v>14</v>
+      </c>
+      <c r="D362" t="s">
+        <v>4</v>
+      </c>
+      <c r="E362">
+        <v>0</v>
+      </c>
+      <c r="F362">
+        <v>0</v>
+      </c>
+      <c r="G362" t="b">
+        <v>1</v>
+      </c>
+      <c r="H362">
+        <v>4</v>
+      </c>
+      <c r="I362">
+        <v>0</v>
+      </c>
+      <c r="J362">
+        <v>0</v>
+      </c>
+      <c r="K362">
+        <v>0</v>
+      </c>
+      <c r="L362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A363" s="2">
+        <v>45871</v>
+      </c>
+      <c r="B363" t="s">
+        <v>72</v>
+      </c>
+      <c r="C363" t="s">
+        <v>13</v>
+      </c>
+      <c r="D363" t="s">
+        <v>4</v>
+      </c>
+      <c r="E363">
+        <v>0</v>
+      </c>
+      <c r="F363">
+        <v>0</v>
+      </c>
+      <c r="G363" t="b">
+        <v>1</v>
+      </c>
+      <c r="H363">
+        <v>6</v>
+      </c>
+      <c r="I363">
+        <v>0</v>
+      </c>
+      <c r="J363">
+        <v>0</v>
+      </c>
+      <c r="K363">
+        <v>1</v>
+      </c>
+      <c r="L363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A364" s="2">
+        <v>45871</v>
+      </c>
+      <c r="B364" t="s">
+        <v>80</v>
+      </c>
+      <c r="C364" t="s">
+        <v>14</v>
+      </c>
+      <c r="D364" t="s">
+        <v>17</v>
+      </c>
+      <c r="E364">
+        <v>2</v>
+      </c>
+      <c r="F364">
+        <v>0</v>
+      </c>
+      <c r="G364" t="b">
+        <v>0</v>
+      </c>
+      <c r="H364">
+        <v>0</v>
+      </c>
+      <c r="I364">
+        <v>0</v>
+      </c>
+      <c r="J364">
+        <v>0</v>
+      </c>
+      <c r="K364">
+        <v>0</v>
+      </c>
+      <c r="L364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A365" s="2">
+        <v>45871</v>
+      </c>
+      <c r="B365" t="s">
+        <v>70</v>
+      </c>
+      <c r="C365" t="s">
+        <v>14</v>
+      </c>
+      <c r="D365" t="s">
+        <v>3</v>
+      </c>
+      <c r="E365">
+        <v>2</v>
+      </c>
+      <c r="F365">
+        <v>0</v>
+      </c>
+      <c r="G365" t="b">
+        <v>0</v>
+      </c>
+      <c r="H365">
+        <v>0</v>
+      </c>
+      <c r="I365">
+        <v>0</v>
+      </c>
+      <c r="J365">
+        <v>0</v>
+      </c>
+      <c r="K365">
+        <v>1</v>
+      </c>
+      <c r="L365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A366" s="2">
+        <v>45871</v>
+      </c>
+      <c r="B366" t="s">
+        <v>57</v>
+      </c>
+      <c r="C366" t="s">
+        <v>14</v>
+      </c>
+      <c r="D366" t="s">
+        <v>2</v>
+      </c>
+      <c r="E366">
+        <v>1</v>
+      </c>
+      <c r="F366">
+        <v>0</v>
+      </c>
+      <c r="G366" t="b">
+        <v>0</v>
+      </c>
+      <c r="H366">
+        <v>0</v>
+      </c>
+      <c r="I366">
+        <v>0</v>
+      </c>
+      <c r="J366">
+        <v>0</v>
+      </c>
+      <c r="K366">
+        <v>1</v>
+      </c>
+      <c r="L366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A367" s="2">
+        <v>45871</v>
+      </c>
+      <c r="B367" t="s">
+        <v>59</v>
+      </c>
+      <c r="C367" t="s">
+        <v>14</v>
+      </c>
+      <c r="D367" t="s">
+        <v>2</v>
+      </c>
+      <c r="E367">
+        <v>1</v>
+      </c>
+      <c r="F367">
+        <v>0</v>
+      </c>
+      <c r="G367" t="b">
+        <v>0</v>
+      </c>
+      <c r="H367">
+        <v>0</v>
+      </c>
+      <c r="I367">
+        <v>0</v>
+      </c>
+      <c r="J367">
+        <v>0</v>
+      </c>
+      <c r="K367">
+        <v>1</v>
+      </c>
+      <c r="L367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A368" s="2">
+        <v>45871</v>
+      </c>
+      <c r="B368" t="s">
+        <v>75</v>
+      </c>
+      <c r="C368" t="s">
+        <v>14</v>
+      </c>
+      <c r="D368" t="s">
+        <v>3</v>
+      </c>
+      <c r="E368">
+        <v>0</v>
+      </c>
+      <c r="F368">
+        <v>0</v>
+      </c>
+      <c r="G368" t="b">
+        <v>0</v>
+      </c>
+      <c r="H368">
+        <v>0</v>
+      </c>
+      <c r="I368">
+        <v>0</v>
+      </c>
+      <c r="J368">
+        <v>0</v>
+      </c>
+      <c r="K368">
+        <v>2</v>
+      </c>
+      <c r="L368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A369" s="2">
+        <v>45871</v>
+      </c>
+      <c r="B369" t="s">
+        <v>28</v>
+      </c>
+      <c r="C369" t="s">
+        <v>13</v>
+      </c>
+      <c r="D369" t="s">
+        <v>2</v>
+      </c>
+      <c r="E369">
+        <v>1</v>
+      </c>
+      <c r="F369">
+        <v>0</v>
+      </c>
+      <c r="G369" t="b">
+        <v>0</v>
+      </c>
+      <c r="H369">
+        <v>0</v>
+      </c>
+      <c r="I369">
+        <v>0</v>
+      </c>
+      <c r="J369">
+        <v>0</v>
+      </c>
+      <c r="K369">
+        <v>0</v>
+      </c>
+      <c r="L369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A370" s="2">
+        <v>45871</v>
+      </c>
+      <c r="B370" t="s">
+        <v>21</v>
+      </c>
+      <c r="C370" t="s">
+        <v>13</v>
+      </c>
+      <c r="D370" t="s">
+        <v>3</v>
+      </c>
+      <c r="E370">
+        <v>1</v>
+      </c>
+      <c r="F370">
+        <v>0</v>
+      </c>
+      <c r="G370" t="b">
+        <v>0</v>
+      </c>
+      <c r="H370">
+        <v>0</v>
+      </c>
+      <c r="I370">
+        <v>0</v>
+      </c>
+      <c r="J370">
+        <v>0</v>
+      </c>
+      <c r="K370">
+        <v>1</v>
+      </c>
+      <c r="L370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A371" s="2">
+        <v>45871</v>
+      </c>
+      <c r="B371" t="s">
+        <v>20</v>
+      </c>
+      <c r="C371" t="s">
+        <v>13</v>
+      </c>
+      <c r="D371" t="s">
+        <v>2</v>
+      </c>
+      <c r="E371">
+        <v>1</v>
+      </c>
+      <c r="F371">
+        <v>0</v>
+      </c>
+      <c r="G371" t="b">
+        <v>0</v>
+      </c>
+      <c r="H371">
+        <v>0</v>
+      </c>
+      <c r="I371">
+        <v>0</v>
+      </c>
+      <c r="J371">
+        <v>0</v>
+      </c>
+      <c r="K371">
+        <v>1</v>
+      </c>
+      <c r="L371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A372" s="2">
+        <v>45871</v>
+      </c>
+      <c r="B372" t="s">
+        <v>61</v>
+      </c>
+      <c r="C372" t="s">
+        <v>13</v>
+      </c>
+      <c r="D372" t="s">
+        <v>17</v>
+      </c>
+      <c r="E372">
+        <v>1</v>
+      </c>
+      <c r="F372">
+        <v>0</v>
+      </c>
+      <c r="G372" t="b">
+        <v>0</v>
+      </c>
+      <c r="H372">
+        <v>0</v>
+      </c>
+      <c r="I372">
+        <v>0</v>
+      </c>
+      <c r="J372">
+        <v>0</v>
+      </c>
+      <c r="K372">
+        <v>0</v>
+      </c>
+      <c r="L372">
         <v>0</v>
       </c>
     </row>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupocoomeva-my.sharepoint.com/personal/nalgmarin_coomeva_com_co/Documents/2025/Personal/Legendarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1326" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4A6F80A-B71D-424B-B3D5-362CDDD99367}"/>
+  <xr:revisionPtr revIDLastSave="1416" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8089D4B4-CC32-4232-8E97-06009EC0C2A4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="82">
   <si>
     <t>jugador</t>
   </si>
@@ -367,7 +367,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1605,11 +1605,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L372"/>
+  <dimension ref="A1:L380"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A361" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H377" sqref="H377"/>
+      <pane ySplit="1" topLeftCell="A364" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B382" sqref="B382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15764,6 +15764,310 @@
         <v>0</v>
       </c>
     </row>
+    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A373" s="2">
+        <v>45878</v>
+      </c>
+      <c r="B373" t="s">
+        <v>34</v>
+      </c>
+      <c r="C373" t="s">
+        <v>13</v>
+      </c>
+      <c r="D373" t="s">
+        <v>4</v>
+      </c>
+      <c r="E373">
+        <v>0</v>
+      </c>
+      <c r="F373">
+        <v>0</v>
+      </c>
+      <c r="G373" t="b">
+        <v>1</v>
+      </c>
+      <c r="H373">
+        <v>1</v>
+      </c>
+      <c r="I373">
+        <v>0</v>
+      </c>
+      <c r="J373">
+        <v>0</v>
+      </c>
+      <c r="K373">
+        <v>0</v>
+      </c>
+      <c r="L373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A374" s="2">
+        <v>45878</v>
+      </c>
+      <c r="B374" t="s">
+        <v>72</v>
+      </c>
+      <c r="C374" t="s">
+        <v>14</v>
+      </c>
+      <c r="D374" t="s">
+        <v>4</v>
+      </c>
+      <c r="E374">
+        <v>0</v>
+      </c>
+      <c r="F374">
+        <v>0</v>
+      </c>
+      <c r="G374" t="b">
+        <v>1</v>
+      </c>
+      <c r="H374">
+        <v>5</v>
+      </c>
+      <c r="I374">
+        <v>0</v>
+      </c>
+      <c r="J374">
+        <v>0</v>
+      </c>
+      <c r="K374">
+        <v>0</v>
+      </c>
+      <c r="L374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A375" s="2">
+        <v>45878</v>
+      </c>
+      <c r="B375" t="s">
+        <v>57</v>
+      </c>
+      <c r="C375" t="s">
+        <v>13</v>
+      </c>
+      <c r="D375" t="s">
+        <v>2</v>
+      </c>
+      <c r="E375">
+        <v>4</v>
+      </c>
+      <c r="F375">
+        <v>0</v>
+      </c>
+      <c r="G375" t="b">
+        <v>0</v>
+      </c>
+      <c r="H375">
+        <v>0</v>
+      </c>
+      <c r="I375">
+        <v>0</v>
+      </c>
+      <c r="J375">
+        <v>0</v>
+      </c>
+      <c r="K375">
+        <v>0</v>
+      </c>
+      <c r="L375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A376" s="2">
+        <v>45878</v>
+      </c>
+      <c r="B376" t="s">
+        <v>21</v>
+      </c>
+      <c r="C376" t="s">
+        <v>13</v>
+      </c>
+      <c r="D376" t="s">
+        <v>3</v>
+      </c>
+      <c r="E376">
+        <v>1</v>
+      </c>
+      <c r="F376">
+        <v>0</v>
+      </c>
+      <c r="G376" t="b">
+        <v>0</v>
+      </c>
+      <c r="H376">
+        <v>0</v>
+      </c>
+      <c r="I376">
+        <v>0</v>
+      </c>
+      <c r="J376">
+        <v>0</v>
+      </c>
+      <c r="K376">
+        <v>1</v>
+      </c>
+      <c r="L376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A377" s="2">
+        <v>45878</v>
+      </c>
+      <c r="B377" t="s">
+        <v>45</v>
+      </c>
+      <c r="C377" t="s">
+        <v>13</v>
+      </c>
+      <c r="D377" t="s">
+        <v>3</v>
+      </c>
+      <c r="E377">
+        <v>0</v>
+      </c>
+      <c r="F377">
+        <v>0</v>
+      </c>
+      <c r="G377" t="b">
+        <v>0</v>
+      </c>
+      <c r="H377">
+        <v>0</v>
+      </c>
+      <c r="I377">
+        <v>0</v>
+      </c>
+      <c r="J377">
+        <v>0</v>
+      </c>
+      <c r="K377">
+        <v>1</v>
+      </c>
+      <c r="L377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A378" s="2">
+        <v>45878</v>
+      </c>
+      <c r="B378" t="s">
+        <v>39</v>
+      </c>
+      <c r="C378" t="s">
+        <v>13</v>
+      </c>
+      <c r="D378" t="s">
+        <v>17</v>
+      </c>
+      <c r="E378">
+        <v>0</v>
+      </c>
+      <c r="F378">
+        <v>0</v>
+      </c>
+      <c r="G378" t="b">
+        <v>0</v>
+      </c>
+      <c r="H378">
+        <v>0</v>
+      </c>
+      <c r="I378">
+        <v>0</v>
+      </c>
+      <c r="J378">
+        <v>0</v>
+      </c>
+      <c r="K378">
+        <v>1</v>
+      </c>
+      <c r="L378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A379" s="2">
+        <v>45878</v>
+      </c>
+      <c r="B379" t="s">
+        <v>55</v>
+      </c>
+      <c r="C379" t="s">
+        <v>14</v>
+      </c>
+      <c r="D379" t="s">
+        <v>17</v>
+      </c>
+      <c r="E379">
+        <v>1</v>
+      </c>
+      <c r="F379">
+        <v>0</v>
+      </c>
+      <c r="G379" t="b">
+        <v>0</v>
+      </c>
+      <c r="H379">
+        <v>0</v>
+      </c>
+      <c r="I379">
+        <v>0</v>
+      </c>
+      <c r="J379">
+        <v>0</v>
+      </c>
+      <c r="K379">
+        <v>0</v>
+      </c>
+      <c r="L379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A380" s="2">
+        <v>45878</v>
+      </c>
+      <c r="B380" t="s">
+        <v>19</v>
+      </c>
+      <c r="C380" t="s">
+        <v>14</v>
+      </c>
+      <c r="D380" t="s">
+        <v>17</v>
+      </c>
+      <c r="E380">
+        <v>0</v>
+      </c>
+      <c r="F380">
+        <v>0</v>
+      </c>
+      <c r="G380" t="b">
+        <v>0</v>
+      </c>
+      <c r="H380">
+        <v>0</v>
+      </c>
+      <c r="I380">
+        <v>0</v>
+      </c>
+      <c r="J380">
+        <v>0</v>
+      </c>
+      <c r="K380">
+        <v>1</v>
+      </c>
+      <c r="L380">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupocoomeva-my.sharepoint.com/personal/nalgmarin_coomeva_com_co/Documents/2025/Personal/Legendarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1416" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8089D4B4-CC32-4232-8E97-06009EC0C2A4}"/>
+  <xr:revisionPtr revIDLastSave="1554" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68D0B749-4BB8-484E-8035-45260CE83E68}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="82">
   <si>
     <t>jugador</t>
   </si>
@@ -1019,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,6 +1069,9 @@
       <c r="C3" s="2">
         <v>32875</v>
       </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1133,6 +1136,9 @@
       <c r="C8" s="2">
         <v>32880</v>
       </c>
+      <c r="D8">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1227,6 +1233,9 @@
       <c r="C16" s="2">
         <v>32888</v>
       </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1390,6 +1399,9 @@
       <c r="C30" s="2">
         <v>32900</v>
       </c>
+      <c r="D30">
+        <v>80</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -1413,7 +1425,7 @@
         <v>32902</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -1424,7 +1436,7 @@
         <v>32903</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -1435,7 +1447,7 @@
         <v>32904</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -1445,8 +1457,11 @@
       <c r="C35" s="2">
         <v>32905</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -1457,7 +1472,7 @@
         <v>32906</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -1468,7 +1483,7 @@
         <v>32907</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -1479,7 +1494,7 @@
         <v>32908</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -1490,7 +1505,7 @@
         <v>32909</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -1501,7 +1516,7 @@
         <v>32910</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -1512,7 +1527,7 @@
         <v>32911</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -1523,7 +1538,7 @@
         <v>32912</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -1534,7 +1549,7 @@
         <v>32913</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -1545,7 +1560,7 @@
         <v>32914</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -1556,7 +1571,7 @@
         <v>32915</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -1567,7 +1582,7 @@
         <v>32916</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>68</v>
       </c>
@@ -1575,7 +1590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>71</v>
       </c>
@@ -1605,11 +1620,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L380"/>
+  <dimension ref="A1:L391"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A364" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B382" sqref="B382"/>
+      <pane ySplit="1" topLeftCell="A374" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B393" sqref="B393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16068,6 +16083,424 @@
         <v>0</v>
       </c>
     </row>
+    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A381" s="2">
+        <v>45885</v>
+      </c>
+      <c r="B381" t="s">
+        <v>34</v>
+      </c>
+      <c r="C381" t="s">
+        <v>13</v>
+      </c>
+      <c r="D381" t="s">
+        <v>4</v>
+      </c>
+      <c r="E381">
+        <v>0</v>
+      </c>
+      <c r="F381">
+        <v>0</v>
+      </c>
+      <c r="G381" t="b">
+        <v>1</v>
+      </c>
+      <c r="H381">
+        <v>3</v>
+      </c>
+      <c r="I381">
+        <v>1</v>
+      </c>
+      <c r="J381">
+        <v>0</v>
+      </c>
+      <c r="K381">
+        <v>0</v>
+      </c>
+      <c r="L381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A382" s="2">
+        <v>45885</v>
+      </c>
+      <c r="B382" t="s">
+        <v>72</v>
+      </c>
+      <c r="C382" t="s">
+        <v>14</v>
+      </c>
+      <c r="D382" t="s">
+        <v>4</v>
+      </c>
+      <c r="E382">
+        <v>0</v>
+      </c>
+      <c r="F382">
+        <v>0</v>
+      </c>
+      <c r="G382" t="b">
+        <v>1</v>
+      </c>
+      <c r="H382">
+        <v>2</v>
+      </c>
+      <c r="I382">
+        <v>0</v>
+      </c>
+      <c r="J382">
+        <v>0</v>
+      </c>
+      <c r="K382">
+        <v>0</v>
+      </c>
+      <c r="L382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A383" s="2">
+        <v>45885</v>
+      </c>
+      <c r="B383" t="s">
+        <v>57</v>
+      </c>
+      <c r="C383" t="s">
+        <v>13</v>
+      </c>
+      <c r="D383" t="s">
+        <v>2</v>
+      </c>
+      <c r="E383">
+        <v>1</v>
+      </c>
+      <c r="F383">
+        <v>0</v>
+      </c>
+      <c r="G383" t="b">
+        <v>0</v>
+      </c>
+      <c r="H383">
+        <v>0</v>
+      </c>
+      <c r="I383">
+        <v>0</v>
+      </c>
+      <c r="J383">
+        <v>0</v>
+      </c>
+      <c r="K383">
+        <v>1</v>
+      </c>
+      <c r="L383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A384" s="2">
+        <v>45885</v>
+      </c>
+      <c r="B384" t="s">
+        <v>23</v>
+      </c>
+      <c r="C384" t="s">
+        <v>13</v>
+      </c>
+      <c r="D384" t="s">
+        <v>2</v>
+      </c>
+      <c r="E384">
+        <v>1</v>
+      </c>
+      <c r="F384">
+        <v>0</v>
+      </c>
+      <c r="G384" t="b">
+        <v>0</v>
+      </c>
+      <c r="H384">
+        <v>0</v>
+      </c>
+      <c r="I384">
+        <v>0</v>
+      </c>
+      <c r="J384">
+        <v>0</v>
+      </c>
+      <c r="K384">
+        <v>0</v>
+      </c>
+      <c r="L384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A385" s="2">
+        <v>45885</v>
+      </c>
+      <c r="B385" t="s">
+        <v>28</v>
+      </c>
+      <c r="C385" t="s">
+        <v>13</v>
+      </c>
+      <c r="D385" t="s">
+        <v>2</v>
+      </c>
+      <c r="E385">
+        <v>0</v>
+      </c>
+      <c r="F385">
+        <v>0</v>
+      </c>
+      <c r="G385" t="b">
+        <v>0</v>
+      </c>
+      <c r="H385">
+        <v>0</v>
+      </c>
+      <c r="I385">
+        <v>0</v>
+      </c>
+      <c r="J385">
+        <v>0</v>
+      </c>
+      <c r="K385">
+        <v>1</v>
+      </c>
+      <c r="L385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A386" s="2">
+        <v>45885</v>
+      </c>
+      <c r="B386" t="s">
+        <v>40</v>
+      </c>
+      <c r="C386" t="s">
+        <v>13</v>
+      </c>
+      <c r="D386" t="s">
+        <v>3</v>
+      </c>
+      <c r="E386">
+        <v>0</v>
+      </c>
+      <c r="F386">
+        <v>0</v>
+      </c>
+      <c r="G386" t="b">
+        <v>0</v>
+      </c>
+      <c r="H386">
+        <v>0</v>
+      </c>
+      <c r="I386">
+        <v>1</v>
+      </c>
+      <c r="J386">
+        <v>0</v>
+      </c>
+      <c r="K386">
+        <v>0</v>
+      </c>
+      <c r="L386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A387" s="2">
+        <v>45885</v>
+      </c>
+      <c r="B387" t="s">
+        <v>50</v>
+      </c>
+      <c r="C387" t="s">
+        <v>13</v>
+      </c>
+      <c r="D387" t="s">
+        <v>17</v>
+      </c>
+      <c r="E387">
+        <v>0</v>
+      </c>
+      <c r="F387">
+        <v>0</v>
+      </c>
+      <c r="G387" t="b">
+        <v>0</v>
+      </c>
+      <c r="H387">
+        <v>0</v>
+      </c>
+      <c r="I387">
+        <v>0</v>
+      </c>
+      <c r="J387">
+        <v>1</v>
+      </c>
+      <c r="K387">
+        <v>0</v>
+      </c>
+      <c r="L387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A388" s="2">
+        <v>45885</v>
+      </c>
+      <c r="B388" t="s">
+        <v>19</v>
+      </c>
+      <c r="C388" t="s">
+        <v>14</v>
+      </c>
+      <c r="D388" t="s">
+        <v>17</v>
+      </c>
+      <c r="E388">
+        <v>1</v>
+      </c>
+      <c r="F388">
+        <v>0</v>
+      </c>
+      <c r="G388" t="b">
+        <v>0</v>
+      </c>
+      <c r="H388">
+        <v>0</v>
+      </c>
+      <c r="I388">
+        <v>0</v>
+      </c>
+      <c r="J388">
+        <v>0</v>
+      </c>
+      <c r="K388">
+        <v>1</v>
+      </c>
+      <c r="L388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A389" s="2">
+        <v>45885</v>
+      </c>
+      <c r="B389" t="s">
+        <v>20</v>
+      </c>
+      <c r="C389" t="s">
+        <v>14</v>
+      </c>
+      <c r="D389" t="s">
+        <v>2</v>
+      </c>
+      <c r="E389">
+        <v>1</v>
+      </c>
+      <c r="F389">
+        <v>0</v>
+      </c>
+      <c r="G389" t="b">
+        <v>0</v>
+      </c>
+      <c r="H389">
+        <v>0</v>
+      </c>
+      <c r="I389">
+        <v>1</v>
+      </c>
+      <c r="J389">
+        <v>0</v>
+      </c>
+      <c r="K389">
+        <v>0</v>
+      </c>
+      <c r="L389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A390" s="2">
+        <v>45885</v>
+      </c>
+      <c r="B390" t="s">
+        <v>59</v>
+      </c>
+      <c r="C390" t="s">
+        <v>14</v>
+      </c>
+      <c r="D390" t="s">
+        <v>2</v>
+      </c>
+      <c r="E390">
+        <v>0</v>
+      </c>
+      <c r="F390">
+        <v>0</v>
+      </c>
+      <c r="G390" t="b">
+        <v>0</v>
+      </c>
+      <c r="H390">
+        <v>0</v>
+      </c>
+      <c r="I390">
+        <v>1</v>
+      </c>
+      <c r="J390">
+        <v>1</v>
+      </c>
+      <c r="K390">
+        <v>1</v>
+      </c>
+      <c r="L390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A391" s="2">
+        <v>45885</v>
+      </c>
+      <c r="B391" t="s">
+        <v>58</v>
+      </c>
+      <c r="C391" t="s">
+        <v>14</v>
+      </c>
+      <c r="D391" t="s">
+        <v>3</v>
+      </c>
+      <c r="E391">
+        <v>0</v>
+      </c>
+      <c r="F391">
+        <v>0</v>
+      </c>
+      <c r="G391" t="b">
+        <v>0</v>
+      </c>
+      <c r="H391">
+        <v>0</v>
+      </c>
+      <c r="I391">
+        <v>1</v>
+      </c>
+      <c r="J391">
+        <v>0</v>
+      </c>
+      <c r="K391">
+        <v>0</v>
+      </c>
+      <c r="L391">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupocoomeva-my.sharepoint.com/personal/nalgmarin_coomeva_com_co/Documents/2025/Personal/Legendarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1554" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68D0B749-4BB8-484E-8035-45260CE83E68}"/>
+  <xr:revisionPtr revIDLastSave="1566" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{373CCCA0-2CFF-4549-A711-1B0AFE3B13CB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="82">
   <si>
     <t>jugador</t>
   </si>
@@ -1019,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1620,11 +1620,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L391"/>
+  <dimension ref="A1:L392"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A374" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B393" sqref="B393"/>
+      <selection pane="bottomLeft" activeCell="M392" sqref="M392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16501,6 +16501,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A392" s="2">
+        <v>45885</v>
+      </c>
+      <c r="B392" t="s">
+        <v>55</v>
+      </c>
+      <c r="C392" t="s">
+        <v>14</v>
+      </c>
+      <c r="D392" t="s">
+        <v>17</v>
+      </c>
+      <c r="E392">
+        <v>1</v>
+      </c>
+      <c r="F392">
+        <v>0</v>
+      </c>
+      <c r="G392" t="b">
+        <v>0</v>
+      </c>
+      <c r="H392">
+        <v>0</v>
+      </c>
+      <c r="I392">
+        <v>0</v>
+      </c>
+      <c r="J392">
+        <v>0</v>
+      </c>
+      <c r="K392">
+        <v>0</v>
+      </c>
+      <c r="L392">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupocoomeva-my.sharepoint.com/personal/nalgmarin_coomeva_com_co/Documents/2025/Personal/Legendarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1566" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{373CCCA0-2CFF-4549-A711-1B0AFE3B13CB}"/>
+  <xr:revisionPtr revIDLastSave="1661" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{519D02C0-1A3D-471D-9D6C-C2D5E7B4EE2C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="82">
   <si>
     <t>jugador</t>
   </si>
@@ -1620,11 +1620,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L392"/>
+  <dimension ref="A1:L402"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A374" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M392" sqref="M392"/>
+      <pane ySplit="1" topLeftCell="A387" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B404" sqref="B404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16539,6 +16539,386 @@
         <v>0</v>
       </c>
     </row>
+    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A393" s="2">
+        <v>45892</v>
+      </c>
+      <c r="B393" t="s">
+        <v>34</v>
+      </c>
+      <c r="C393" t="s">
+        <v>13</v>
+      </c>
+      <c r="D393" t="s">
+        <v>4</v>
+      </c>
+      <c r="E393">
+        <v>0</v>
+      </c>
+      <c r="F393">
+        <v>0</v>
+      </c>
+      <c r="G393" t="b">
+        <v>1</v>
+      </c>
+      <c r="H393">
+        <v>2</v>
+      </c>
+      <c r="I393">
+        <v>1</v>
+      </c>
+      <c r="J393">
+        <v>0</v>
+      </c>
+      <c r="K393">
+        <v>0</v>
+      </c>
+      <c r="L393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A394" s="2">
+        <v>45892</v>
+      </c>
+      <c r="B394" t="s">
+        <v>72</v>
+      </c>
+      <c r="C394" t="s">
+        <v>14</v>
+      </c>
+      <c r="D394" t="s">
+        <v>4</v>
+      </c>
+      <c r="E394">
+        <v>0</v>
+      </c>
+      <c r="F394">
+        <v>0</v>
+      </c>
+      <c r="G394" t="b">
+        <v>1</v>
+      </c>
+      <c r="H394">
+        <v>4</v>
+      </c>
+      <c r="I394">
+        <v>0</v>
+      </c>
+      <c r="J394">
+        <v>0</v>
+      </c>
+      <c r="K394">
+        <v>0</v>
+      </c>
+      <c r="L394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A395" s="2">
+        <v>45892</v>
+      </c>
+      <c r="B395" t="s">
+        <v>19</v>
+      </c>
+      <c r="C395" t="s">
+        <v>13</v>
+      </c>
+      <c r="D395" t="s">
+        <v>17</v>
+      </c>
+      <c r="E395">
+        <v>2</v>
+      </c>
+      <c r="F395">
+        <v>0</v>
+      </c>
+      <c r="G395" t="b">
+        <v>0</v>
+      </c>
+      <c r="H395">
+        <v>0</v>
+      </c>
+      <c r="I395">
+        <v>0</v>
+      </c>
+      <c r="J395">
+        <v>0</v>
+      </c>
+      <c r="K395">
+        <v>1</v>
+      </c>
+      <c r="L395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A396" s="2">
+        <v>45892</v>
+      </c>
+      <c r="B396" t="s">
+        <v>20</v>
+      </c>
+      <c r="C396" t="s">
+        <v>13</v>
+      </c>
+      <c r="D396" t="s">
+        <v>2</v>
+      </c>
+      <c r="E396">
+        <v>2</v>
+      </c>
+      <c r="F396">
+        <v>0</v>
+      </c>
+      <c r="G396" t="b">
+        <v>0</v>
+      </c>
+      <c r="H396">
+        <v>0</v>
+      </c>
+      <c r="I396">
+        <v>0</v>
+      </c>
+      <c r="J396">
+        <v>0</v>
+      </c>
+      <c r="K396">
+        <v>0</v>
+      </c>
+      <c r="L396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A397" s="2">
+        <v>45892</v>
+      </c>
+      <c r="B397" t="s">
+        <v>54</v>
+      </c>
+      <c r="C397" t="s">
+        <v>13</v>
+      </c>
+      <c r="D397" t="s">
+        <v>17</v>
+      </c>
+      <c r="E397">
+        <v>0</v>
+      </c>
+      <c r="F397">
+        <v>0</v>
+      </c>
+      <c r="G397" t="b">
+        <v>0</v>
+      </c>
+      <c r="H397">
+        <v>0</v>
+      </c>
+      <c r="I397">
+        <v>0</v>
+      </c>
+      <c r="J397">
+        <v>0</v>
+      </c>
+      <c r="K397">
+        <v>2</v>
+      </c>
+      <c r="L397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A398" s="2">
+        <v>45892</v>
+      </c>
+      <c r="B398" t="s">
+        <v>70</v>
+      </c>
+      <c r="C398" t="s">
+        <v>13</v>
+      </c>
+      <c r="D398" t="s">
+        <v>3</v>
+      </c>
+      <c r="E398">
+        <v>0</v>
+      </c>
+      <c r="F398">
+        <v>0</v>
+      </c>
+      <c r="G398" t="b">
+        <v>0</v>
+      </c>
+      <c r="H398">
+        <v>0</v>
+      </c>
+      <c r="I398">
+        <v>0</v>
+      </c>
+      <c r="J398">
+        <v>0</v>
+      </c>
+      <c r="K398">
+        <v>1</v>
+      </c>
+      <c r="L398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A399" s="2">
+        <v>45892</v>
+      </c>
+      <c r="B399" t="s">
+        <v>73</v>
+      </c>
+      <c r="C399" t="s">
+        <v>14</v>
+      </c>
+      <c r="D399" t="s">
+        <v>17</v>
+      </c>
+      <c r="E399">
+        <v>0</v>
+      </c>
+      <c r="F399">
+        <v>0</v>
+      </c>
+      <c r="G399" t="b">
+        <v>0</v>
+      </c>
+      <c r="H399">
+        <v>0</v>
+      </c>
+      <c r="I399">
+        <v>1</v>
+      </c>
+      <c r="J399">
+        <v>0</v>
+      </c>
+      <c r="K399">
+        <v>0</v>
+      </c>
+      <c r="L399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A400" s="2">
+        <v>45892</v>
+      </c>
+      <c r="B400" t="s">
+        <v>23</v>
+      </c>
+      <c r="C400" t="s">
+        <v>14</v>
+      </c>
+      <c r="D400" t="s">
+        <v>2</v>
+      </c>
+      <c r="E400">
+        <v>1</v>
+      </c>
+      <c r="F400">
+        <v>0</v>
+      </c>
+      <c r="G400" t="b">
+        <v>0</v>
+      </c>
+      <c r="H400">
+        <v>0</v>
+      </c>
+      <c r="I400">
+        <v>0</v>
+      </c>
+      <c r="J400">
+        <v>0</v>
+      </c>
+      <c r="K400">
+        <v>1</v>
+      </c>
+      <c r="L400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A401" s="2">
+        <v>45892</v>
+      </c>
+      <c r="B401" t="s">
+        <v>35</v>
+      </c>
+      <c r="C401" t="s">
+        <v>14</v>
+      </c>
+      <c r="D401" t="s">
+        <v>3</v>
+      </c>
+      <c r="E401">
+        <v>1</v>
+      </c>
+      <c r="F401">
+        <v>0</v>
+      </c>
+      <c r="G401" t="b">
+        <v>0</v>
+      </c>
+      <c r="H401">
+        <v>0</v>
+      </c>
+      <c r="I401">
+        <v>0</v>
+      </c>
+      <c r="J401">
+        <v>0</v>
+      </c>
+      <c r="K401">
+        <v>0</v>
+      </c>
+      <c r="L401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A402" s="2">
+        <v>45892</v>
+      </c>
+      <c r="B402" t="s">
+        <v>57</v>
+      </c>
+      <c r="C402" t="s">
+        <v>14</v>
+      </c>
+      <c r="D402" t="s">
+        <v>2</v>
+      </c>
+      <c r="E402">
+        <v>0</v>
+      </c>
+      <c r="F402">
+        <v>0</v>
+      </c>
+      <c r="G402" t="b">
+        <v>0</v>
+      </c>
+      <c r="H402">
+        <v>0</v>
+      </c>
+      <c r="I402">
+        <v>0</v>
+      </c>
+      <c r="J402">
+        <v>0</v>
+      </c>
+      <c r="K402">
+        <v>1</v>
+      </c>
+      <c r="L402">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupocoomeva-my.sharepoint.com/personal/nalgmarin_coomeva_com_co/Documents/2025/Personal/Legendarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1661" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{519D02C0-1A3D-471D-9D6C-C2D5E7B4EE2C}"/>
+  <xr:revisionPtr revIDLastSave="1811" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93D02669-D4D2-4C0C-876E-A518C5DFB421}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="83">
   <si>
     <t>jugador</t>
   </si>
@@ -283,6 +283,9 @@
   </si>
   <si>
     <t>23-2</t>
+  </si>
+  <si>
+    <t>Luis David</t>
   </si>
 </sst>
 </file>
@@ -1620,11 +1623,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L402"/>
+  <dimension ref="A1:L415"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A387" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B404" sqref="B404"/>
+      <pane ySplit="1" topLeftCell="A401" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F418" sqref="F418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16919,6 +16922,500 @@
         <v>0</v>
       </c>
     </row>
+    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A403" s="2">
+        <v>45899</v>
+      </c>
+      <c r="B403" t="s">
+        <v>42</v>
+      </c>
+      <c r="C403" t="s">
+        <v>13</v>
+      </c>
+      <c r="D403" t="s">
+        <v>4</v>
+      </c>
+      <c r="E403">
+        <v>0</v>
+      </c>
+      <c r="F403">
+        <v>0</v>
+      </c>
+      <c r="G403" t="b">
+        <v>1</v>
+      </c>
+      <c r="H403">
+        <v>3</v>
+      </c>
+      <c r="I403">
+        <v>0</v>
+      </c>
+      <c r="J403">
+        <v>0</v>
+      </c>
+      <c r="K403">
+        <v>0</v>
+      </c>
+      <c r="L403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A404" s="2">
+        <v>45899</v>
+      </c>
+      <c r="B404" t="s">
+        <v>34</v>
+      </c>
+      <c r="C404" t="s">
+        <v>14</v>
+      </c>
+      <c r="D404" t="s">
+        <v>4</v>
+      </c>
+      <c r="E404">
+        <v>0</v>
+      </c>
+      <c r="F404">
+        <v>0</v>
+      </c>
+      <c r="G404" t="b">
+        <v>1</v>
+      </c>
+      <c r="H404">
+        <v>6</v>
+      </c>
+      <c r="I404">
+        <v>1</v>
+      </c>
+      <c r="J404">
+        <v>0</v>
+      </c>
+      <c r="K404">
+        <v>0</v>
+      </c>
+      <c r="L404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A405" s="2">
+        <v>45899</v>
+      </c>
+      <c r="B405" t="s">
+        <v>33</v>
+      </c>
+      <c r="C405" t="s">
+        <v>13</v>
+      </c>
+      <c r="D405" t="s">
+        <v>17</v>
+      </c>
+      <c r="E405">
+        <v>1</v>
+      </c>
+      <c r="F405">
+        <v>0</v>
+      </c>
+      <c r="G405" t="b">
+        <v>0</v>
+      </c>
+      <c r="H405">
+        <v>0</v>
+      </c>
+      <c r="I405">
+        <v>0</v>
+      </c>
+      <c r="J405">
+        <v>0</v>
+      </c>
+      <c r="K405">
+        <v>2</v>
+      </c>
+      <c r="L405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A406" s="2">
+        <v>45899</v>
+      </c>
+      <c r="B406" t="s">
+        <v>57</v>
+      </c>
+      <c r="C406" t="s">
+        <v>13</v>
+      </c>
+      <c r="D406" t="s">
+        <v>2</v>
+      </c>
+      <c r="E406">
+        <v>3</v>
+      </c>
+      <c r="F406">
+        <v>0</v>
+      </c>
+      <c r="G406" t="b">
+        <v>0</v>
+      </c>
+      <c r="H406">
+        <v>0</v>
+      </c>
+      <c r="I406">
+        <v>0</v>
+      </c>
+      <c r="J406">
+        <v>0</v>
+      </c>
+      <c r="K406">
+        <v>0</v>
+      </c>
+      <c r="L406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A407" s="2">
+        <v>45899</v>
+      </c>
+      <c r="B407" t="s">
+        <v>22</v>
+      </c>
+      <c r="C407" t="s">
+        <v>13</v>
+      </c>
+      <c r="D407" t="s">
+        <v>3</v>
+      </c>
+      <c r="E407">
+        <v>1</v>
+      </c>
+      <c r="F407">
+        <v>0</v>
+      </c>
+      <c r="G407" t="b">
+        <v>0</v>
+      </c>
+      <c r="H407">
+        <v>0</v>
+      </c>
+      <c r="I407">
+        <v>0</v>
+      </c>
+      <c r="J407">
+        <v>0</v>
+      </c>
+      <c r="K407">
+        <v>0</v>
+      </c>
+      <c r="L407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A408" s="2">
+        <v>45899</v>
+      </c>
+      <c r="B408" t="s">
+        <v>44</v>
+      </c>
+      <c r="C408" t="s">
+        <v>13</v>
+      </c>
+      <c r="D408" t="s">
+        <v>17</v>
+      </c>
+      <c r="E408">
+        <v>1</v>
+      </c>
+      <c r="F408">
+        <v>0</v>
+      </c>
+      <c r="G408" t="b">
+        <v>0</v>
+      </c>
+      <c r="H408">
+        <v>0</v>
+      </c>
+      <c r="I408">
+        <v>0</v>
+      </c>
+      <c r="J408">
+        <v>0</v>
+      </c>
+      <c r="K408">
+        <v>0</v>
+      </c>
+      <c r="L408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A409" s="2">
+        <v>45899</v>
+      </c>
+      <c r="B409" t="s">
+        <v>16</v>
+      </c>
+      <c r="C409" t="s">
+        <v>13</v>
+      </c>
+      <c r="D409" t="s">
+        <v>3</v>
+      </c>
+      <c r="E409">
+        <v>0</v>
+      </c>
+      <c r="F409">
+        <v>0</v>
+      </c>
+      <c r="G409" t="b">
+        <v>0</v>
+      </c>
+      <c r="H409">
+        <v>0</v>
+      </c>
+      <c r="I409">
+        <v>0</v>
+      </c>
+      <c r="J409">
+        <v>0</v>
+      </c>
+      <c r="K409">
+        <v>1</v>
+      </c>
+      <c r="L409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A410" s="2">
+        <v>45899</v>
+      </c>
+      <c r="B410" t="s">
+        <v>55</v>
+      </c>
+      <c r="C410" t="s">
+        <v>13</v>
+      </c>
+      <c r="D410" t="s">
+        <v>17</v>
+      </c>
+      <c r="E410">
+        <v>0</v>
+      </c>
+      <c r="F410">
+        <v>0</v>
+      </c>
+      <c r="G410" t="b">
+        <v>0</v>
+      </c>
+      <c r="H410">
+        <v>0</v>
+      </c>
+      <c r="I410">
+        <v>0</v>
+      </c>
+      <c r="J410">
+        <v>0</v>
+      </c>
+      <c r="K410">
+        <v>1</v>
+      </c>
+      <c r="L410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A411" s="2">
+        <v>45899</v>
+      </c>
+      <c r="B411" t="s">
+        <v>19</v>
+      </c>
+      <c r="C411" t="s">
+        <v>14</v>
+      </c>
+      <c r="D411" t="s">
+        <v>17</v>
+      </c>
+      <c r="E411">
+        <v>2</v>
+      </c>
+      <c r="F411">
+        <v>0</v>
+      </c>
+      <c r="G411" t="b">
+        <v>0</v>
+      </c>
+      <c r="H411">
+        <v>0</v>
+      </c>
+      <c r="I411">
+        <v>0</v>
+      </c>
+      <c r="J411">
+        <v>0</v>
+      </c>
+      <c r="K411">
+        <v>0</v>
+      </c>
+      <c r="L411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A412" s="2">
+        <v>45899</v>
+      </c>
+      <c r="B412" t="s">
+        <v>28</v>
+      </c>
+      <c r="C412" t="s">
+        <v>14</v>
+      </c>
+      <c r="D412" t="s">
+        <v>2</v>
+      </c>
+      <c r="E412">
+        <v>1</v>
+      </c>
+      <c r="F412">
+        <v>0</v>
+      </c>
+      <c r="G412" t="b">
+        <v>0</v>
+      </c>
+      <c r="H412">
+        <v>0</v>
+      </c>
+      <c r="I412">
+        <v>0</v>
+      </c>
+      <c r="J412">
+        <v>0</v>
+      </c>
+      <c r="K412">
+        <v>0</v>
+      </c>
+      <c r="L412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A413" s="2">
+        <v>45899</v>
+      </c>
+      <c r="B413" t="s">
+        <v>51</v>
+      </c>
+      <c r="C413" t="s">
+        <v>14</v>
+      </c>
+      <c r="D413" t="s">
+        <v>3</v>
+      </c>
+      <c r="E413">
+        <v>0</v>
+      </c>
+      <c r="F413">
+        <v>0</v>
+      </c>
+      <c r="G413" t="b">
+        <v>0</v>
+      </c>
+      <c r="H413">
+        <v>0</v>
+      </c>
+      <c r="I413">
+        <v>0</v>
+      </c>
+      <c r="J413">
+        <v>0</v>
+      </c>
+      <c r="K413">
+        <v>1</v>
+      </c>
+      <c r="L413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A414" s="2">
+        <v>45899</v>
+      </c>
+      <c r="B414" t="s">
+        <v>72</v>
+      </c>
+      <c r="C414" t="s">
+        <v>13</v>
+      </c>
+      <c r="D414" t="s">
+        <v>3</v>
+      </c>
+      <c r="E414">
+        <v>0</v>
+      </c>
+      <c r="F414">
+        <v>0</v>
+      </c>
+      <c r="G414" t="b">
+        <v>0</v>
+      </c>
+      <c r="H414">
+        <v>0</v>
+      </c>
+      <c r="I414">
+        <v>1</v>
+      </c>
+      <c r="J414">
+        <v>0</v>
+      </c>
+      <c r="K414">
+        <v>0</v>
+      </c>
+      <c r="L414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A415" s="2">
+        <v>45899</v>
+      </c>
+      <c r="B415" t="s">
+        <v>82</v>
+      </c>
+      <c r="C415" t="s">
+        <v>13</v>
+      </c>
+      <c r="D415" t="s">
+        <v>17</v>
+      </c>
+      <c r="E415">
+        <v>0</v>
+      </c>
+      <c r="F415">
+        <v>0</v>
+      </c>
+      <c r="G415" t="b">
+        <v>0</v>
+      </c>
+      <c r="H415">
+        <v>0</v>
+      </c>
+      <c r="I415">
+        <v>1</v>
+      </c>
+      <c r="J415">
+        <v>0</v>
+      </c>
+      <c r="K415">
+        <v>0</v>
+      </c>
+      <c r="L415">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupocoomeva-my.sharepoint.com/personal/nalgmarin_coomeva_com_co/Documents/2025/Personal/Legendarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1811" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93D02669-D4D2-4C0C-876E-A518C5DFB421}"/>
+  <xr:revisionPtr revIDLastSave="1930" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D54C923-5BD2-4A5F-BCEC-176A6AC8DB17}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="83">
   <si>
     <t>jugador</t>
   </si>
@@ -1623,11 +1623,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L415"/>
+  <dimension ref="A1:L428"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A401" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F418" sqref="F418"/>
+      <pane ySplit="1" topLeftCell="A412" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B431" sqref="B431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17416,6 +17416,500 @@
         <v>0</v>
       </c>
     </row>
+    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A416" s="2">
+        <v>45906</v>
+      </c>
+      <c r="B416" t="s">
+        <v>72</v>
+      </c>
+      <c r="C416" t="s">
+        <v>13</v>
+      </c>
+      <c r="D416" t="s">
+        <v>4</v>
+      </c>
+      <c r="E416">
+        <v>0</v>
+      </c>
+      <c r="F416">
+        <v>0</v>
+      </c>
+      <c r="G416" t="b">
+        <v>1</v>
+      </c>
+      <c r="H416">
+        <v>4</v>
+      </c>
+      <c r="I416">
+        <v>0</v>
+      </c>
+      <c r="J416">
+        <v>0</v>
+      </c>
+      <c r="K416">
+        <v>0</v>
+      </c>
+      <c r="L416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A417" s="2">
+        <v>45906</v>
+      </c>
+      <c r="B417" t="s">
+        <v>34</v>
+      </c>
+      <c r="C417" t="s">
+        <v>14</v>
+      </c>
+      <c r="D417" t="s">
+        <v>4</v>
+      </c>
+      <c r="E417">
+        <v>0</v>
+      </c>
+      <c r="F417">
+        <v>1</v>
+      </c>
+      <c r="G417" t="b">
+        <v>1</v>
+      </c>
+      <c r="H417">
+        <v>6</v>
+      </c>
+      <c r="I417">
+        <v>0</v>
+      </c>
+      <c r="J417">
+        <v>0</v>
+      </c>
+      <c r="K417">
+        <v>0</v>
+      </c>
+      <c r="L417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A418" s="2">
+        <v>45906</v>
+      </c>
+      <c r="B418" t="s">
+        <v>57</v>
+      </c>
+      <c r="C418" t="s">
+        <v>13</v>
+      </c>
+      <c r="D418" t="s">
+        <v>2</v>
+      </c>
+      <c r="E418">
+        <v>6</v>
+      </c>
+      <c r="F418">
+        <v>0</v>
+      </c>
+      <c r="G418" t="b">
+        <v>0</v>
+      </c>
+      <c r="H418">
+        <v>0</v>
+      </c>
+      <c r="I418">
+        <v>0</v>
+      </c>
+      <c r="J418">
+        <v>0</v>
+      </c>
+      <c r="K418">
+        <v>0</v>
+      </c>
+      <c r="L418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A419" s="2">
+        <v>45906</v>
+      </c>
+      <c r="B419" t="s">
+        <v>23</v>
+      </c>
+      <c r="C419" t="s">
+        <v>13</v>
+      </c>
+      <c r="D419" t="s">
+        <v>2</v>
+      </c>
+      <c r="E419">
+        <v>0</v>
+      </c>
+      <c r="F419">
+        <v>0</v>
+      </c>
+      <c r="G419" t="b">
+        <v>0</v>
+      </c>
+      <c r="H419">
+        <v>0</v>
+      </c>
+      <c r="I419">
+        <v>0</v>
+      </c>
+      <c r="J419">
+        <v>0</v>
+      </c>
+      <c r="K419">
+        <v>1</v>
+      </c>
+      <c r="L419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A420" s="2">
+        <v>45906</v>
+      </c>
+      <c r="B420" t="s">
+        <v>73</v>
+      </c>
+      <c r="C420" t="s">
+        <v>13</v>
+      </c>
+      <c r="D420" t="s">
+        <v>17</v>
+      </c>
+      <c r="E420">
+        <v>0</v>
+      </c>
+      <c r="F420">
+        <v>0</v>
+      </c>
+      <c r="G420" t="b">
+        <v>0</v>
+      </c>
+      <c r="H420">
+        <v>0</v>
+      </c>
+      <c r="I420">
+        <v>0</v>
+      </c>
+      <c r="J420">
+        <v>0</v>
+      </c>
+      <c r="K420">
+        <v>1</v>
+      </c>
+      <c r="L420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A421" s="2">
+        <v>45906</v>
+      </c>
+      <c r="B421" t="s">
+        <v>22</v>
+      </c>
+      <c r="C421" t="s">
+        <v>13</v>
+      </c>
+      <c r="D421" t="s">
+        <v>3</v>
+      </c>
+      <c r="E421">
+        <v>0</v>
+      </c>
+      <c r="F421">
+        <v>0</v>
+      </c>
+      <c r="G421" t="b">
+        <v>0</v>
+      </c>
+      <c r="H421">
+        <v>0</v>
+      </c>
+      <c r="I421">
+        <v>0</v>
+      </c>
+      <c r="J421">
+        <v>0</v>
+      </c>
+      <c r="K421">
+        <v>1</v>
+      </c>
+      <c r="L421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A422" s="2">
+        <v>45906</v>
+      </c>
+      <c r="B422" t="s">
+        <v>77</v>
+      </c>
+      <c r="C422" t="s">
+        <v>13</v>
+      </c>
+      <c r="D422" t="s">
+        <v>17</v>
+      </c>
+      <c r="E422">
+        <v>0</v>
+      </c>
+      <c r="F422">
+        <v>0</v>
+      </c>
+      <c r="G422" t="b">
+        <v>0</v>
+      </c>
+      <c r="H422">
+        <v>0</v>
+      </c>
+      <c r="I422">
+        <v>0</v>
+      </c>
+      <c r="J422">
+        <v>0</v>
+      </c>
+      <c r="K422">
+        <v>1</v>
+      </c>
+      <c r="L422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A423" s="2">
+        <v>45906</v>
+      </c>
+      <c r="B423" t="s">
+        <v>26</v>
+      </c>
+      <c r="C423" t="s">
+        <v>13</v>
+      </c>
+      <c r="D423" t="s">
+        <v>3</v>
+      </c>
+      <c r="E423">
+        <v>0</v>
+      </c>
+      <c r="F423">
+        <v>0</v>
+      </c>
+      <c r="G423" t="b">
+        <v>0</v>
+      </c>
+      <c r="H423">
+        <v>0</v>
+      </c>
+      <c r="I423">
+        <v>0</v>
+      </c>
+      <c r="J423">
+        <v>0</v>
+      </c>
+      <c r="K423">
+        <v>1</v>
+      </c>
+      <c r="L423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A424" s="2">
+        <v>45906</v>
+      </c>
+      <c r="B424" t="s">
+        <v>43</v>
+      </c>
+      <c r="C424" t="s">
+        <v>13</v>
+      </c>
+      <c r="D424" t="s">
+        <v>3</v>
+      </c>
+      <c r="E424">
+        <v>0</v>
+      </c>
+      <c r="F424">
+        <v>0</v>
+      </c>
+      <c r="G424" t="b">
+        <v>0</v>
+      </c>
+      <c r="H424">
+        <v>0</v>
+      </c>
+      <c r="I424">
+        <v>1</v>
+      </c>
+      <c r="J424">
+        <v>0</v>
+      </c>
+      <c r="K424">
+        <v>0</v>
+      </c>
+      <c r="L424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A425" s="2">
+        <v>45906</v>
+      </c>
+      <c r="B425" t="s">
+        <v>29</v>
+      </c>
+      <c r="C425" t="s">
+        <v>14</v>
+      </c>
+      <c r="D425" t="s">
+        <v>2</v>
+      </c>
+      <c r="E425">
+        <v>1</v>
+      </c>
+      <c r="F425">
+        <v>0</v>
+      </c>
+      <c r="G425" t="b">
+        <v>0</v>
+      </c>
+      <c r="H425">
+        <v>0</v>
+      </c>
+      <c r="I425">
+        <v>0</v>
+      </c>
+      <c r="J425">
+        <v>0</v>
+      </c>
+      <c r="K425">
+        <v>0</v>
+      </c>
+      <c r="L425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A426" s="2">
+        <v>45906</v>
+      </c>
+      <c r="B426" t="s">
+        <v>20</v>
+      </c>
+      <c r="C426" t="s">
+        <v>14</v>
+      </c>
+      <c r="D426" t="s">
+        <v>2</v>
+      </c>
+      <c r="E426">
+        <v>1</v>
+      </c>
+      <c r="F426">
+        <v>0</v>
+      </c>
+      <c r="G426" t="b">
+        <v>0</v>
+      </c>
+      <c r="H426">
+        <v>0</v>
+      </c>
+      <c r="I426">
+        <v>0</v>
+      </c>
+      <c r="J426">
+        <v>0</v>
+      </c>
+      <c r="K426">
+        <v>1</v>
+      </c>
+      <c r="L426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A427" s="2">
+        <v>45906</v>
+      </c>
+      <c r="B427" t="s">
+        <v>54</v>
+      </c>
+      <c r="C427" t="s">
+        <v>14</v>
+      </c>
+      <c r="D427" t="s">
+        <v>17</v>
+      </c>
+      <c r="E427">
+        <v>1</v>
+      </c>
+      <c r="F427">
+        <v>0</v>
+      </c>
+      <c r="G427" t="b">
+        <v>0</v>
+      </c>
+      <c r="H427">
+        <v>0</v>
+      </c>
+      <c r="I427">
+        <v>0</v>
+      </c>
+      <c r="J427">
+        <v>0</v>
+      </c>
+      <c r="K427">
+        <v>0</v>
+      </c>
+      <c r="L427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A428" s="2">
+        <v>45906</v>
+      </c>
+      <c r="B428" t="s">
+        <v>21</v>
+      </c>
+      <c r="C428" t="s">
+        <v>14</v>
+      </c>
+      <c r="D428" t="s">
+        <v>3</v>
+      </c>
+      <c r="E428">
+        <v>0</v>
+      </c>
+      <c r="F428">
+        <v>0</v>
+      </c>
+      <c r="G428" t="b">
+        <v>0</v>
+      </c>
+      <c r="H428">
+        <v>0</v>
+      </c>
+      <c r="I428">
+        <v>0</v>
+      </c>
+      <c r="J428">
+        <v>0</v>
+      </c>
+      <c r="K428">
+        <v>1</v>
+      </c>
+      <c r="L428">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupocoomeva-my.sharepoint.com/personal/nalgmarin_coomeva_com_co/Documents/2025/Personal/Legendarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1930" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D54C923-5BD2-4A5F-BCEC-176A6AC8DB17}"/>
+  <xr:revisionPtr revIDLastSave="2109" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D49EE8E-CEED-4055-A573-6BEA2A237BAF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jugadores" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="83">
   <si>
     <t>jugador</t>
   </si>
@@ -1623,11 +1623,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L428"/>
+  <dimension ref="A1:L443"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A412" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B431" sqref="B431"/>
+      <selection pane="bottomLeft" activeCell="O418" sqref="O418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17910,6 +17910,576 @@
         <v>0</v>
       </c>
     </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A429" s="2">
+        <v>45913</v>
+      </c>
+      <c r="B429" t="s">
+        <v>54</v>
+      </c>
+      <c r="C429" t="s">
+        <v>13</v>
+      </c>
+      <c r="D429" t="s">
+        <v>17</v>
+      </c>
+      <c r="E429">
+        <v>1</v>
+      </c>
+      <c r="F429">
+        <v>0</v>
+      </c>
+      <c r="G429" t="b">
+        <v>0</v>
+      </c>
+      <c r="H429">
+        <v>0</v>
+      </c>
+      <c r="I429">
+        <v>0</v>
+      </c>
+      <c r="J429">
+        <v>0</v>
+      </c>
+      <c r="K429">
+        <v>0</v>
+      </c>
+      <c r="L429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A430" s="2">
+        <v>45913</v>
+      </c>
+      <c r="B430" t="s">
+        <v>57</v>
+      </c>
+      <c r="C430" t="s">
+        <v>13</v>
+      </c>
+      <c r="D430" t="s">
+        <v>2</v>
+      </c>
+      <c r="E430">
+        <v>2</v>
+      </c>
+      <c r="F430">
+        <v>0</v>
+      </c>
+      <c r="G430" t="b">
+        <v>0</v>
+      </c>
+      <c r="H430">
+        <v>0</v>
+      </c>
+      <c r="I430">
+        <v>0</v>
+      </c>
+      <c r="J430">
+        <v>0</v>
+      </c>
+      <c r="K430">
+        <v>0</v>
+      </c>
+      <c r="L430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A431" s="2">
+        <v>45913</v>
+      </c>
+      <c r="B431" t="s">
+        <v>23</v>
+      </c>
+      <c r="C431" t="s">
+        <v>13</v>
+      </c>
+      <c r="D431" t="s">
+        <v>2</v>
+      </c>
+      <c r="E431">
+        <v>1</v>
+      </c>
+      <c r="F431">
+        <v>0</v>
+      </c>
+      <c r="G431" t="b">
+        <v>0</v>
+      </c>
+      <c r="H431">
+        <v>0</v>
+      </c>
+      <c r="I431">
+        <v>0</v>
+      </c>
+      <c r="J431">
+        <v>0</v>
+      </c>
+      <c r="K431">
+        <v>1</v>
+      </c>
+      <c r="L431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A432" s="2">
+        <v>45913</v>
+      </c>
+      <c r="B432" t="s">
+        <v>52</v>
+      </c>
+      <c r="C432" t="s">
+        <v>13</v>
+      </c>
+      <c r="D432" t="s">
+        <v>17</v>
+      </c>
+      <c r="E432">
+        <v>1</v>
+      </c>
+      <c r="F432">
+        <v>0</v>
+      </c>
+      <c r="G432" t="b">
+        <v>0</v>
+      </c>
+      <c r="H432">
+        <v>0</v>
+      </c>
+      <c r="I432">
+        <v>1</v>
+      </c>
+      <c r="J432">
+        <v>0</v>
+      </c>
+      <c r="K432">
+        <v>0</v>
+      </c>
+      <c r="L432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A433" s="2">
+        <v>45913</v>
+      </c>
+      <c r="B433" t="s">
+        <v>35</v>
+      </c>
+      <c r="C433" t="s">
+        <v>13</v>
+      </c>
+      <c r="D433" t="s">
+        <v>3</v>
+      </c>
+      <c r="E433">
+        <v>0</v>
+      </c>
+      <c r="F433">
+        <v>0</v>
+      </c>
+      <c r="G433" t="b">
+        <v>0</v>
+      </c>
+      <c r="H433">
+        <v>0</v>
+      </c>
+      <c r="I433">
+        <v>0</v>
+      </c>
+      <c r="J433">
+        <v>0</v>
+      </c>
+      <c r="K433">
+        <v>1</v>
+      </c>
+      <c r="L433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A434" s="2">
+        <v>45913</v>
+      </c>
+      <c r="B434" t="s">
+        <v>33</v>
+      </c>
+      <c r="C434" t="s">
+        <v>13</v>
+      </c>
+      <c r="D434" t="s">
+        <v>17</v>
+      </c>
+      <c r="E434">
+        <v>0</v>
+      </c>
+      <c r="F434">
+        <v>0</v>
+      </c>
+      <c r="G434" t="b">
+        <v>0</v>
+      </c>
+      <c r="H434">
+        <v>0</v>
+      </c>
+      <c r="I434">
+        <v>0</v>
+      </c>
+      <c r="J434">
+        <v>0</v>
+      </c>
+      <c r="K434">
+        <v>1</v>
+      </c>
+      <c r="L434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A435" s="2">
+        <v>45913</v>
+      </c>
+      <c r="B435" t="s">
+        <v>59</v>
+      </c>
+      <c r="C435" t="s">
+        <v>13</v>
+      </c>
+      <c r="D435" t="s">
+        <v>2</v>
+      </c>
+      <c r="E435">
+        <v>0</v>
+      </c>
+      <c r="F435">
+        <v>0</v>
+      </c>
+      <c r="G435" t="b">
+        <v>0</v>
+      </c>
+      <c r="H435">
+        <v>0</v>
+      </c>
+      <c r="I435">
+        <v>0</v>
+      </c>
+      <c r="J435">
+        <v>0</v>
+      </c>
+      <c r="K435">
+        <v>1</v>
+      </c>
+      <c r="L435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A436" s="2">
+        <v>45913</v>
+      </c>
+      <c r="B436" t="s">
+        <v>19</v>
+      </c>
+      <c r="C436" t="s">
+        <v>14</v>
+      </c>
+      <c r="D436" t="s">
+        <v>17</v>
+      </c>
+      <c r="E436">
+        <v>4</v>
+      </c>
+      <c r="F436">
+        <v>0</v>
+      </c>
+      <c r="G436" t="b">
+        <v>0</v>
+      </c>
+      <c r="H436">
+        <v>0</v>
+      </c>
+      <c r="I436">
+        <v>0</v>
+      </c>
+      <c r="J436">
+        <v>0</v>
+      </c>
+      <c r="K436">
+        <v>1</v>
+      </c>
+      <c r="L436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A437" s="2">
+        <v>45913</v>
+      </c>
+      <c r="B437" t="s">
+        <v>20</v>
+      </c>
+      <c r="C437" t="s">
+        <v>14</v>
+      </c>
+      <c r="D437" t="s">
+        <v>2</v>
+      </c>
+      <c r="E437">
+        <v>1</v>
+      </c>
+      <c r="F437">
+        <v>0</v>
+      </c>
+      <c r="G437" t="b">
+        <v>0</v>
+      </c>
+      <c r="H437">
+        <v>0</v>
+      </c>
+      <c r="I437">
+        <v>0</v>
+      </c>
+      <c r="J437">
+        <v>0</v>
+      </c>
+      <c r="K437">
+        <v>1</v>
+      </c>
+      <c r="L437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A438" s="2">
+        <v>45913</v>
+      </c>
+      <c r="B438" t="s">
+        <v>55</v>
+      </c>
+      <c r="C438" t="s">
+        <v>14</v>
+      </c>
+      <c r="D438" t="s">
+        <v>17</v>
+      </c>
+      <c r="E438">
+        <v>1</v>
+      </c>
+      <c r="F438">
+        <v>0</v>
+      </c>
+      <c r="G438" t="b">
+        <v>0</v>
+      </c>
+      <c r="H438">
+        <v>0</v>
+      </c>
+      <c r="I438">
+        <v>0</v>
+      </c>
+      <c r="J438">
+        <v>0</v>
+      </c>
+      <c r="K438">
+        <v>0</v>
+      </c>
+      <c r="L438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A439" s="2">
+        <v>45913</v>
+      </c>
+      <c r="B439" t="s">
+        <v>41</v>
+      </c>
+      <c r="C439" t="s">
+        <v>14</v>
+      </c>
+      <c r="D439" t="s">
+        <v>17</v>
+      </c>
+      <c r="E439">
+        <v>0</v>
+      </c>
+      <c r="F439">
+        <v>0</v>
+      </c>
+      <c r="G439" t="b">
+        <v>0</v>
+      </c>
+      <c r="H439">
+        <v>0</v>
+      </c>
+      <c r="I439">
+        <v>0</v>
+      </c>
+      <c r="J439">
+        <v>0</v>
+      </c>
+      <c r="K439">
+        <v>1</v>
+      </c>
+      <c r="L439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A440" s="2">
+        <v>45913</v>
+      </c>
+      <c r="B440" t="s">
+        <v>56</v>
+      </c>
+      <c r="C440" t="s">
+        <v>14</v>
+      </c>
+      <c r="D440" t="s">
+        <v>17</v>
+      </c>
+      <c r="E440">
+        <v>0</v>
+      </c>
+      <c r="F440">
+        <v>0</v>
+      </c>
+      <c r="G440" t="b">
+        <v>0</v>
+      </c>
+      <c r="H440">
+        <v>0</v>
+      </c>
+      <c r="I440">
+        <v>0</v>
+      </c>
+      <c r="J440">
+        <v>0</v>
+      </c>
+      <c r="K440">
+        <v>1</v>
+      </c>
+      <c r="L440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A441" s="2">
+        <v>45913</v>
+      </c>
+      <c r="B441" t="s">
+        <v>70</v>
+      </c>
+      <c r="C441" t="s">
+        <v>14</v>
+      </c>
+      <c r="D441" t="s">
+        <v>3</v>
+      </c>
+      <c r="E441">
+        <v>0</v>
+      </c>
+      <c r="F441">
+        <v>0</v>
+      </c>
+      <c r="G441" t="b">
+        <v>0</v>
+      </c>
+      <c r="H441">
+        <v>0</v>
+      </c>
+      <c r="I441">
+        <v>0</v>
+      </c>
+      <c r="J441">
+        <v>0</v>
+      </c>
+      <c r="K441">
+        <v>1</v>
+      </c>
+      <c r="L441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A442" s="2">
+        <v>45913</v>
+      </c>
+      <c r="B442" t="s">
+        <v>34</v>
+      </c>
+      <c r="C442" t="s">
+        <v>13</v>
+      </c>
+      <c r="D442" t="s">
+        <v>4</v>
+      </c>
+      <c r="E442">
+        <v>0</v>
+      </c>
+      <c r="F442">
+        <v>0</v>
+      </c>
+      <c r="G442" t="b">
+        <v>1</v>
+      </c>
+      <c r="H442">
+        <v>6</v>
+      </c>
+      <c r="I442">
+        <v>0</v>
+      </c>
+      <c r="J442">
+        <v>0</v>
+      </c>
+      <c r="K442">
+        <v>0</v>
+      </c>
+      <c r="L442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A443" s="2">
+        <v>45913</v>
+      </c>
+      <c r="B443" t="s">
+        <v>42</v>
+      </c>
+      <c r="C443" t="s">
+        <v>14</v>
+      </c>
+      <c r="D443" t="s">
+        <v>4</v>
+      </c>
+      <c r="E443">
+        <v>0</v>
+      </c>
+      <c r="F443">
+        <v>0</v>
+      </c>
+      <c r="G443" t="b">
+        <v>1</v>
+      </c>
+      <c r="H443">
+        <v>5</v>
+      </c>
+      <c r="I443">
+        <v>0</v>
+      </c>
+      <c r="J443">
+        <v>0</v>
+      </c>
+      <c r="K443">
+        <v>0</v>
+      </c>
+      <c r="L443">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupocoomeva-my.sharepoint.com/personal/nalgmarin_coomeva_com_co/Documents/2025/Personal/Legendarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2109" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D49EE8E-CEED-4055-A573-6BEA2A237BAF}"/>
+  <xr:revisionPtr revIDLastSave="2185" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B075BF1A-39FE-4B5E-B24F-88F3E165F6F9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="82">
   <si>
     <t>jugador</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>Hugo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quintero </t>
   </si>
   <si>
     <t>Mediocampista</t>
@@ -249,9 +246,6 @@
     <t>Fede</t>
   </si>
   <si>
-    <t xml:space="preserve">Andres Guerrero </t>
-  </si>
-  <si>
     <t>Kevin Torres</t>
   </si>
   <si>
@@ -267,25 +261,28 @@
     <t>Hermes Marquez</t>
   </si>
   <si>
-    <t xml:space="preserve">Dylan Burgos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esteban </t>
-  </si>
-  <si>
     <t># camiseta</t>
   </si>
   <si>
     <t>Andres Guerrero</t>
   </si>
   <si>
-    <t xml:space="preserve">Adolfo Leon Munera </t>
-  </si>
-  <si>
     <t>23-2</t>
   </si>
   <si>
     <t>Luis David</t>
+  </si>
+  <si>
+    <t>Julio Castillo</t>
+  </si>
+  <si>
+    <t>Quintero</t>
+  </si>
+  <si>
+    <t>Esteban</t>
+  </si>
+  <si>
+    <t>Adolfo Leon Munera</t>
   </si>
 </sst>
 </file>
@@ -1022,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,18 +1036,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1064,10 +1061,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2">
         <v>32875</v>
@@ -1078,7 +1075,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -1092,7 +1089,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -1106,7 +1103,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1120,7 +1117,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1131,7 +1128,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -1145,10 +1142,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2">
         <v>32881</v>
@@ -1156,10 +1153,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2">
         <v>32882</v>
@@ -1167,7 +1164,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -1181,7 +1178,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1192,10 +1189,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" s="2">
         <v>32885</v>
@@ -1203,7 +1200,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -1217,7 +1214,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
@@ -1228,7 +1225,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1242,7 +1239,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -1253,10 +1250,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="2">
         <v>32890</v>
@@ -1264,24 +1261,24 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="2">
         <v>32891</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="2">
         <v>32892</v>
@@ -1289,7 +1286,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
@@ -1300,10 +1297,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="2">
         <v>32894</v>
@@ -1311,7 +1308,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -1322,7 +1319,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1333,10 +1330,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="2">
         <v>32897</v>
@@ -1344,7 +1341,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
@@ -1358,7 +1355,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -1369,7 +1366,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -1383,10 +1380,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" s="2">
         <v>32899</v>
@@ -1394,10 +1391,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" s="2">
         <v>32900</v>
@@ -1408,10 +1405,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C31" s="2">
         <v>32901</v>
@@ -1419,7 +1416,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
@@ -1430,7 +1427,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -1441,10 +1438,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34" s="2">
         <v>32904</v>
@@ -1452,10 +1449,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C35" s="2">
         <v>32905</v>
@@ -1466,7 +1463,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -1477,10 +1474,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C37" s="2">
         <v>32907</v>
@@ -1488,7 +1485,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -1499,7 +1496,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -1510,7 +1507,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
         <v>4</v>
@@ -1521,10 +1518,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C41" s="2">
         <v>32911</v>
@@ -1532,7 +1529,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -1543,10 +1540,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C43" s="2">
         <v>32913</v>
@@ -1554,7 +1551,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
@@ -1565,10 +1562,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C45" s="2">
         <v>32915</v>
@@ -1576,10 +1573,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C46" s="2">
         <v>32916</v>
@@ -1587,7 +1584,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B47" t="s">
         <v>4</v>
@@ -1595,15 +1592,15 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -1623,11 +1620,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L443"/>
+  <dimension ref="A1:L455"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A412" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O418" sqref="O418"/>
+      <pane ySplit="1" topLeftCell="A425" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O435" sqref="O435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1657,7 +1654,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -1678,10 +1675,10 @@
         <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1689,13 +1686,13 @@
         <v>45661</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -1727,7 +1724,7 @@
         <v>45661</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -1765,7 +1762,7 @@
         <v>45661</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -1803,7 +1800,7 @@
         <v>45661</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -1841,13 +1838,13 @@
         <v>45661</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1879,7 +1876,7 @@
         <v>45661</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1917,7 +1914,7 @@
         <v>45661</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -1955,7 +1952,7 @@
         <v>45661</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -1993,7 +1990,7 @@
         <v>45663</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -2031,13 +2028,13 @@
         <v>45663</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2069,7 +2066,7 @@
         <v>45663</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -2107,7 +2104,7 @@
         <v>45663</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -2145,7 +2142,7 @@
         <v>45663</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -2183,13 +2180,13 @@
         <v>45663</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2227,7 +2224,7 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2259,7 +2256,7 @@
         <v>45663</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -2297,7 +2294,7 @@
         <v>45663</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
@@ -2335,7 +2332,7 @@
         <v>45668</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
@@ -2373,7 +2370,7 @@
         <v>45668</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -2411,7 +2408,7 @@
         <v>45668</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -2449,13 +2446,13 @@
         <v>45668</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2487,13 +2484,13 @@
         <v>45668</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -2525,13 +2522,13 @@
         <v>45668</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2563,7 +2560,7 @@
         <v>45668</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
@@ -2601,7 +2598,7 @@
         <v>45668</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
@@ -2639,7 +2636,7 @@
         <v>45675</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
@@ -2677,7 +2674,7 @@
         <v>45675</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
@@ -2715,7 +2712,7 @@
         <v>45675</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
@@ -2753,13 +2750,13 @@
         <v>45675</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2791,7 +2788,7 @@
         <v>45675</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
@@ -2829,7 +2826,7 @@
         <v>45675</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
@@ -2867,7 +2864,7 @@
         <v>45675</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
@@ -2905,7 +2902,7 @@
         <v>45675</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
@@ -2943,7 +2940,7 @@
         <v>45675</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
@@ -2981,13 +2978,13 @@
         <v>45675</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -3019,13 +3016,13 @@
         <v>45675</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -3057,7 +3054,7 @@
         <v>45675</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
         <v>13</v>
@@ -3095,7 +3092,7 @@
         <v>45675</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
@@ -3133,13 +3130,13 @@
         <v>45682</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -3171,7 +3168,7 @@
         <v>45682</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
@@ -3209,13 +3206,13 @@
         <v>45682</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -3247,7 +3244,7 @@
         <v>45682</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
@@ -3285,7 +3282,7 @@
         <v>45682</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
@@ -3323,7 +3320,7 @@
         <v>45682</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
@@ -3361,13 +3358,13 @@
         <v>45682</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3399,13 +3396,13 @@
         <v>45682</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C47" t="s">
         <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3437,7 +3434,7 @@
         <v>45689</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C48" t="s">
         <v>13</v>
@@ -3475,7 +3472,7 @@
         <v>45689</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
@@ -3513,13 +3510,13 @@
         <v>45689</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3551,7 +3548,7 @@
         <v>45689</v>
       </c>
       <c r="B51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
@@ -3589,7 +3586,7 @@
         <v>45689</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s">
         <v>13</v>
@@ -3627,7 +3624,7 @@
         <v>45689</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
@@ -3665,7 +3662,7 @@
         <v>45689</v>
       </c>
       <c r="B54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C54" t="s">
         <v>13</v>
@@ -3703,13 +3700,13 @@
         <v>45696</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3741,7 +3738,7 @@
         <v>45696</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C56" t="s">
         <v>14</v>
@@ -3779,7 +3776,7 @@
         <v>45696</v>
       </c>
       <c r="B57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
@@ -3817,7 +3814,7 @@
         <v>45696</v>
       </c>
       <c r="B58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C58" t="s">
         <v>13</v>
@@ -3855,13 +3852,13 @@
         <v>45696</v>
       </c>
       <c r="B59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3893,7 +3890,7 @@
         <v>45696</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
@@ -3931,7 +3928,7 @@
         <v>45696</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C61" t="s">
         <v>13</v>
@@ -3969,13 +3966,13 @@
         <v>45703</v>
       </c>
       <c r="B62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -4007,7 +4004,7 @@
         <v>45703</v>
       </c>
       <c r="B63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
@@ -4045,7 +4042,7 @@
         <v>45703</v>
       </c>
       <c r="B64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
@@ -4083,7 +4080,7 @@
         <v>45703</v>
       </c>
       <c r="B65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C65" t="s">
         <v>13</v>
@@ -4121,13 +4118,13 @@
         <v>45703</v>
       </c>
       <c r="B66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C66" t="s">
         <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -4159,13 +4156,13 @@
         <v>45703</v>
       </c>
       <c r="B67" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C67" t="s">
         <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -4197,13 +4194,13 @@
         <v>45703</v>
       </c>
       <c r="B68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C68" t="s">
         <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -4235,7 +4232,7 @@
         <v>45703</v>
       </c>
       <c r="B69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
@@ -4273,7 +4270,7 @@
         <v>45703</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C70" t="s">
         <v>13</v>
@@ -4311,7 +4308,7 @@
         <v>45703</v>
       </c>
       <c r="B71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
@@ -4349,7 +4346,7 @@
         <v>45710</v>
       </c>
       <c r="B72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
@@ -4387,13 +4384,13 @@
         <v>45710</v>
       </c>
       <c r="B73" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -4425,13 +4422,13 @@
         <v>45710</v>
       </c>
       <c r="B74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C74" t="s">
         <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -4463,7 +4460,7 @@
         <v>45710</v>
       </c>
       <c r="B75" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C75" t="s">
         <v>13</v>
@@ -4501,7 +4498,7 @@
         <v>45710</v>
       </c>
       <c r="B76" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C76" t="s">
         <v>13</v>
@@ -4539,13 +4536,13 @@
         <v>45710</v>
       </c>
       <c r="B77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C77" t="s">
         <v>13</v>
       </c>
       <c r="D77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -4577,7 +4574,7 @@
         <v>45710</v>
       </c>
       <c r="B78" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C78" t="s">
         <v>13</v>
@@ -4615,7 +4612,7 @@
         <v>45710</v>
       </c>
       <c r="B79" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
@@ -4653,7 +4650,7 @@
         <v>45710</v>
       </c>
       <c r="B80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C80" t="s">
         <v>13</v>
@@ -4691,13 +4688,13 @@
         <v>45710</v>
       </c>
       <c r="B81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C81" t="s">
         <v>13</v>
       </c>
       <c r="D81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -4729,13 +4726,13 @@
         <v>45710</v>
       </c>
       <c r="B82" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C82" t="s">
         <v>13</v>
       </c>
       <c r="D82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -4767,13 +4764,13 @@
         <v>45710</v>
       </c>
       <c r="B83" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -4805,13 +4802,13 @@
         <v>45717</v>
       </c>
       <c r="B84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
       </c>
       <c r="D84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E84">
         <v>4</v>
@@ -4843,13 +4840,13 @@
         <v>45717</v>
       </c>
       <c r="B85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C85" t="s">
         <v>13</v>
       </c>
       <c r="D85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E85">
         <v>3</v>
@@ -4881,7 +4878,7 @@
         <v>45717</v>
       </c>
       <c r="B86" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C86" t="s">
         <v>13</v>
@@ -4919,7 +4916,7 @@
         <v>45717</v>
       </c>
       <c r="B87" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
@@ -4957,7 +4954,7 @@
         <v>45717</v>
       </c>
       <c r="B88" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
@@ -4995,13 +4992,13 @@
         <v>45717</v>
       </c>
       <c r="B89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -5033,7 +5030,7 @@
         <v>45717</v>
       </c>
       <c r="B90" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="C90" t="s">
         <v>13</v>
@@ -5071,7 +5068,7 @@
         <v>45717</v>
       </c>
       <c r="B91" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
@@ -5109,13 +5106,13 @@
         <v>45724</v>
       </c>
       <c r="B92" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C92" t="s">
         <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E92">
         <v>2</v>
@@ -5147,7 +5144,7 @@
         <v>45724</v>
       </c>
       <c r="B93" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
@@ -5185,7 +5182,7 @@
         <v>45724</v>
       </c>
       <c r="B94" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
@@ -5223,13 +5220,13 @@
         <v>45724</v>
       </c>
       <c r="B95" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C95" t="s">
         <v>13</v>
       </c>
       <c r="D95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -5261,13 +5258,13 @@
         <v>45724</v>
       </c>
       <c r="B96" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C96" t="s">
         <v>13</v>
       </c>
       <c r="D96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -5299,7 +5296,7 @@
         <v>45724</v>
       </c>
       <c r="B97" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C97" t="s">
         <v>13</v>
@@ -5337,7 +5334,7 @@
         <v>45724</v>
       </c>
       <c r="B98" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C98" t="s">
         <v>13</v>
@@ -5375,7 +5372,7 @@
         <v>45724</v>
       </c>
       <c r="B99" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
@@ -5413,7 +5410,7 @@
         <v>45724</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C100" t="s">
         <v>13</v>
@@ -5451,7 +5448,7 @@
         <v>45724</v>
       </c>
       <c r="B101" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C101" t="s">
         <v>13</v>
@@ -5489,7 +5486,7 @@
         <v>45731</v>
       </c>
       <c r="B102" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C102" t="s">
         <v>14</v>
@@ -5527,7 +5524,7 @@
         <v>45731</v>
       </c>
       <c r="B103" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C103" t="s">
         <v>14</v>
@@ -5565,13 +5562,13 @@
         <v>45731</v>
       </c>
       <c r="B104" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C104" t="s">
         <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -5603,7 +5600,7 @@
         <v>45731</v>
       </c>
       <c r="B105" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C105" t="s">
         <v>13</v>
@@ -5641,13 +5638,13 @@
         <v>45731</v>
       </c>
       <c r="B106" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C106" t="s">
         <v>13</v>
       </c>
       <c r="D106" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -5679,13 +5676,13 @@
         <v>45731</v>
       </c>
       <c r="B107" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C107" t="s">
         <v>13</v>
       </c>
       <c r="D107" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -5717,7 +5714,7 @@
         <v>45731</v>
       </c>
       <c r="B108" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C108" t="s">
         <v>13</v>
@@ -5755,7 +5752,7 @@
         <v>45731</v>
       </c>
       <c r="B109" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C109" t="s">
         <v>14</v>
@@ -5793,7 +5790,7 @@
         <v>45731</v>
       </c>
       <c r="B110" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C110" t="s">
         <v>14</v>
@@ -5831,7 +5828,7 @@
         <v>45731</v>
       </c>
       <c r="B111" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C111" t="s">
         <v>14</v>
@@ -5869,7 +5866,7 @@
         <v>45731</v>
       </c>
       <c r="B112" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C112" t="s">
         <v>13</v>
@@ -5907,7 +5904,7 @@
         <v>45738</v>
       </c>
       <c r="B113" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C113" t="s">
         <v>14</v>
@@ -5945,7 +5942,7 @@
         <v>45738</v>
       </c>
       <c r="B114" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C114" t="s">
         <v>14</v>
@@ -5983,7 +5980,7 @@
         <v>45738</v>
       </c>
       <c r="B115" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C115" t="s">
         <v>13</v>
@@ -6021,13 +6018,13 @@
         <v>45738</v>
       </c>
       <c r="B116" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C116" t="s">
         <v>14</v>
       </c>
       <c r="D116" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -6059,13 +6056,13 @@
         <v>45738</v>
       </c>
       <c r="B117" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C117" t="s">
         <v>14</v>
       </c>
       <c r="D117" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -6097,7 +6094,7 @@
         <v>45738</v>
       </c>
       <c r="B118" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C118" t="s">
         <v>13</v>
@@ -6135,13 +6132,13 @@
         <v>45738</v>
       </c>
       <c r="B119" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C119" t="s">
         <v>13</v>
       </c>
       <c r="D119" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -6173,7 +6170,7 @@
         <v>45738</v>
       </c>
       <c r="B120" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C120" t="s">
         <v>13</v>
@@ -6211,7 +6208,7 @@
         <v>45738</v>
       </c>
       <c r="B121" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C121" t="s">
         <v>13</v>
@@ -6249,7 +6246,7 @@
         <v>45738</v>
       </c>
       <c r="B122" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C122" t="s">
         <v>13</v>
@@ -6287,7 +6284,7 @@
         <v>45738</v>
       </c>
       <c r="B123" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="C123" t="s">
         <v>14</v>
@@ -6325,7 +6322,7 @@
         <v>45738</v>
       </c>
       <c r="B124" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C124" t="s">
         <v>13</v>
@@ -6363,13 +6360,13 @@
         <v>45740</v>
       </c>
       <c r="B125" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C125" t="s">
         <v>13</v>
       </c>
       <c r="D125" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E125">
         <v>2</v>
@@ -6401,13 +6398,13 @@
         <v>45740</v>
       </c>
       <c r="B126" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C126" t="s">
         <v>13</v>
       </c>
       <c r="D126" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E126">
         <v>2</v>
@@ -6439,13 +6436,13 @@
         <v>45740</v>
       </c>
       <c r="B127" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C127" t="s">
         <v>13</v>
       </c>
       <c r="D127" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -6477,7 +6474,7 @@
         <v>45740</v>
       </c>
       <c r="B128" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C128" t="s">
         <v>13</v>
@@ -6515,7 +6512,7 @@
         <v>45740</v>
       </c>
       <c r="B129" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C129" t="s">
         <v>14</v>
@@ -6553,13 +6550,13 @@
         <v>45740</v>
       </c>
       <c r="B130" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C130" t="s">
         <v>14</v>
       </c>
       <c r="D130" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E130">
         <v>2</v>
@@ -6591,13 +6588,13 @@
         <v>45740</v>
       </c>
       <c r="B131" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C131" t="s">
         <v>14</v>
       </c>
       <c r="D131" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -6629,7 +6626,7 @@
         <v>45740</v>
       </c>
       <c r="B132" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C132" t="s">
         <v>14</v>
@@ -6667,13 +6664,13 @@
         <v>45740</v>
       </c>
       <c r="B133" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C133" t="s">
         <v>14</v>
       </c>
       <c r="D133" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -6705,7 +6702,7 @@
         <v>45740</v>
       </c>
       <c r="B134" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C134" t="s">
         <v>13</v>
@@ -6743,7 +6740,7 @@
         <v>45740</v>
       </c>
       <c r="B135" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C135" t="s">
         <v>14</v>
@@ -6781,7 +6778,7 @@
         <v>45745</v>
       </c>
       <c r="B136" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C136" t="s">
         <v>13</v>
@@ -6819,7 +6816,7 @@
         <v>45745</v>
       </c>
       <c r="B137" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C137" t="s">
         <v>13</v>
@@ -6857,7 +6854,7 @@
         <v>45745</v>
       </c>
       <c r="B138" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C138" t="s">
         <v>13</v>
@@ -6895,7 +6892,7 @@
         <v>45745</v>
       </c>
       <c r="B139" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C139" t="s">
         <v>13</v>
@@ -6933,7 +6930,7 @@
         <v>45745</v>
       </c>
       <c r="B140" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C140" t="s">
         <v>13</v>
@@ -6971,13 +6968,13 @@
         <v>45745</v>
       </c>
       <c r="B141" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C141" t="s">
         <v>13</v>
       </c>
       <c r="D141" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -7009,13 +7006,13 @@
         <v>45745</v>
       </c>
       <c r="B142" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C142" t="s">
         <v>13</v>
       </c>
       <c r="D142" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -7047,13 +7044,13 @@
         <v>45745</v>
       </c>
       <c r="B143" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C143" t="s">
         <v>13</v>
       </c>
       <c r="D143" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -7085,13 +7082,13 @@
         <v>45745</v>
       </c>
       <c r="B144" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C144" t="s">
         <v>13</v>
       </c>
       <c r="D144" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -7123,13 +7120,13 @@
         <v>45745</v>
       </c>
       <c r="B145" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C145" t="s">
         <v>13</v>
       </c>
       <c r="D145" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E145">
         <v>2</v>
@@ -7161,13 +7158,13 @@
         <v>45745</v>
       </c>
       <c r="B146" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C146" t="s">
         <v>13</v>
       </c>
       <c r="D146" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -7199,13 +7196,13 @@
         <v>45745</v>
       </c>
       <c r="B147" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C147" t="s">
         <v>13</v>
       </c>
       <c r="D147" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -7237,13 +7234,13 @@
         <v>45745</v>
       </c>
       <c r="B148" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C148" t="s">
         <v>13</v>
       </c>
       <c r="D148" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -7275,7 +7272,7 @@
         <v>45745</v>
       </c>
       <c r="B149" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C149" t="s">
         <v>13</v>
@@ -7313,7 +7310,7 @@
         <v>45745</v>
       </c>
       <c r="B150" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C150" t="s">
         <v>13</v>
@@ -7351,7 +7348,7 @@
         <v>45745</v>
       </c>
       <c r="B151" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C151" t="s">
         <v>13</v>
@@ -7389,7 +7386,7 @@
         <v>45745</v>
       </c>
       <c r="B152" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C152" t="s">
         <v>14</v>
@@ -7427,7 +7424,7 @@
         <v>45745</v>
       </c>
       <c r="B153" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C153" t="s">
         <v>14</v>
@@ -7465,7 +7462,7 @@
         <v>45745</v>
       </c>
       <c r="B154" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C154" t="s">
         <v>14</v>
@@ -7503,7 +7500,7 @@
         <v>45745</v>
       </c>
       <c r="B155" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C155" t="s">
         <v>14</v>
@@ -7541,7 +7538,7 @@
         <v>45745</v>
       </c>
       <c r="B156" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C156" t="s">
         <v>14</v>
@@ -7579,7 +7576,7 @@
         <v>45745</v>
       </c>
       <c r="B157" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C157" t="s">
         <v>14</v>
@@ -7617,13 +7614,13 @@
         <v>45745</v>
       </c>
       <c r="B158" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C158" t="s">
         <v>14</v>
       </c>
       <c r="D158" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -7655,13 +7652,13 @@
         <v>45745</v>
       </c>
       <c r="B159" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C159" t="s">
         <v>14</v>
       </c>
       <c r="D159" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -7693,13 +7690,13 @@
         <v>45745</v>
       </c>
       <c r="B160" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C160" t="s">
         <v>14</v>
       </c>
       <c r="D160" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -7731,13 +7728,13 @@
         <v>45745</v>
       </c>
       <c r="B161" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C161" t="s">
         <v>14</v>
       </c>
       <c r="D161" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -7769,13 +7766,13 @@
         <v>45745</v>
       </c>
       <c r="B162" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C162" t="s">
         <v>14</v>
       </c>
       <c r="D162" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -7807,13 +7804,13 @@
         <v>45745</v>
       </c>
       <c r="B163" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C163" t="s">
         <v>14</v>
       </c>
       <c r="D163" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -7845,7 +7842,7 @@
         <v>45745</v>
       </c>
       <c r="B164" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C164" t="s">
         <v>14</v>
@@ -7883,7 +7880,7 @@
         <v>45745</v>
       </c>
       <c r="B165" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C165" t="s">
         <v>14</v>
@@ -7921,7 +7918,7 @@
         <v>45745</v>
       </c>
       <c r="B166" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C166" t="s">
         <v>14</v>
@@ -7959,7 +7956,7 @@
         <v>45752</v>
       </c>
       <c r="B167" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C167" t="s">
         <v>14</v>
@@ -7997,13 +7994,13 @@
         <v>45752</v>
       </c>
       <c r="B168" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C168" t="s">
         <v>14</v>
       </c>
       <c r="D168" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E168">
         <v>1</v>
@@ -8035,7 +8032,7 @@
         <v>45752</v>
       </c>
       <c r="B169" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C169" t="s">
         <v>14</v>
@@ -8073,13 +8070,13 @@
         <v>45752</v>
       </c>
       <c r="B170" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C170" t="s">
         <v>14</v>
       </c>
       <c r="D170" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E170">
         <v>2</v>
@@ -8111,13 +8108,13 @@
         <v>45752</v>
       </c>
       <c r="B171" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C171" t="s">
         <v>14</v>
       </c>
       <c r="D171" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -8149,7 +8146,7 @@
         <v>45752</v>
       </c>
       <c r="B172" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C172" t="s">
         <v>14</v>
@@ -8187,13 +8184,13 @@
         <v>45752</v>
       </c>
       <c r="B173" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C173" t="s">
         <v>14</v>
       </c>
       <c r="D173" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -8225,7 +8222,7 @@
         <v>45752</v>
       </c>
       <c r="B174" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C174" t="s">
         <v>14</v>
@@ -8263,7 +8260,7 @@
         <v>45752</v>
       </c>
       <c r="B175" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C175" t="s">
         <v>13</v>
@@ -8301,7 +8298,7 @@
         <v>45752</v>
       </c>
       <c r="B176" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C176" t="s">
         <v>13</v>
@@ -8339,13 +8336,13 @@
         <v>45752</v>
       </c>
       <c r="B177" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C177" t="s">
         <v>13</v>
       </c>
       <c r="D177" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E177">
         <v>1</v>
@@ -8377,13 +8374,13 @@
         <v>45752</v>
       </c>
       <c r="B178" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C178" t="s">
         <v>13</v>
       </c>
       <c r="D178" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -8415,7 +8412,7 @@
         <v>45752</v>
       </c>
       <c r="B179" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C179" t="s">
         <v>13</v>
@@ -8453,7 +8450,7 @@
         <v>45752</v>
       </c>
       <c r="B180" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C180" t="s">
         <v>13</v>
@@ -8491,7 +8488,7 @@
         <v>45752</v>
       </c>
       <c r="B181" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C181" t="s">
         <v>13</v>
@@ -8529,7 +8526,7 @@
         <v>45759</v>
       </c>
       <c r="B182" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C182" t="s">
         <v>14</v>
@@ -8567,13 +8564,13 @@
         <v>45759</v>
       </c>
       <c r="B183" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C183" t="s">
         <v>14</v>
       </c>
       <c r="D183" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E183">
         <v>1</v>
@@ -8605,13 +8602,13 @@
         <v>45759</v>
       </c>
       <c r="B184" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C184" t="s">
         <v>14</v>
       </c>
       <c r="D184" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E184">
         <v>2</v>
@@ -8643,7 +8640,7 @@
         <v>45759</v>
       </c>
       <c r="B185" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C185" t="s">
         <v>14</v>
@@ -8681,7 +8678,7 @@
         <v>45759</v>
       </c>
       <c r="B186" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C186" t="s">
         <v>14</v>
@@ -8719,7 +8716,7 @@
         <v>45759</v>
       </c>
       <c r="B187" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C187" t="s">
         <v>13</v>
@@ -8757,7 +8754,7 @@
         <v>45759</v>
       </c>
       <c r="B188" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C188" t="s">
         <v>13</v>
@@ -8795,7 +8792,7 @@
         <v>45759</v>
       </c>
       <c r="B189" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C189" t="s">
         <v>13</v>
@@ -8833,13 +8830,13 @@
         <v>45759</v>
       </c>
       <c r="B190" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C190" t="s">
         <v>13</v>
       </c>
       <c r="D190" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E190">
         <v>1</v>
@@ -8871,13 +8868,13 @@
         <v>45759</v>
       </c>
       <c r="B191" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C191" t="s">
         <v>14</v>
       </c>
       <c r="D191" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -8909,7 +8906,7 @@
         <v>45759</v>
       </c>
       <c r="B192" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C192" t="s">
         <v>14</v>
@@ -8947,7 +8944,7 @@
         <v>45759</v>
       </c>
       <c r="B193" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C193" t="s">
         <v>13</v>
@@ -8985,13 +8982,13 @@
         <v>45759</v>
       </c>
       <c r="B194" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C194" t="s">
         <v>13</v>
       </c>
       <c r="D194" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -9023,7 +9020,7 @@
         <v>45766</v>
       </c>
       <c r="B195" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C195" t="s">
         <v>14</v>
@@ -9061,13 +9058,13 @@
         <v>45766</v>
       </c>
       <c r="B196" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C196" t="s">
         <v>14</v>
       </c>
       <c r="D196" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E196">
         <v>3</v>
@@ -9099,7 +9096,7 @@
         <v>45766</v>
       </c>
       <c r="B197" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C197" t="s">
         <v>14</v>
@@ -9137,7 +9134,7 @@
         <v>45766</v>
       </c>
       <c r="B198" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C198" t="s">
         <v>14</v>
@@ -9175,13 +9172,13 @@
         <v>45766</v>
       </c>
       <c r="B199" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C199" t="s">
         <v>14</v>
       </c>
       <c r="D199" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E199">
         <v>1</v>
@@ -9213,7 +9210,7 @@
         <v>45766</v>
       </c>
       <c r="B200" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C200" t="s">
         <v>14</v>
@@ -9251,7 +9248,7 @@
         <v>45766</v>
       </c>
       <c r="B201" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C201" t="s">
         <v>14</v>
@@ -9289,13 +9286,13 @@
         <v>45766</v>
       </c>
       <c r="B202" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C202" t="s">
         <v>14</v>
       </c>
       <c r="D202" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E202">
         <v>0</v>
@@ -9327,7 +9324,7 @@
         <v>45766</v>
       </c>
       <c r="B203" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C203" t="s">
         <v>13</v>
@@ -9365,7 +9362,7 @@
         <v>45766</v>
       </c>
       <c r="B204" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C204" t="s">
         <v>13</v>
@@ -9403,13 +9400,13 @@
         <v>45766</v>
       </c>
       <c r="B205" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C205" t="s">
         <v>13</v>
       </c>
       <c r="D205" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E205">
         <v>1</v>
@@ -9441,7 +9438,7 @@
         <v>45766</v>
       </c>
       <c r="B206" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C206" t="s">
         <v>13</v>
@@ -9479,7 +9476,7 @@
         <v>45766</v>
       </c>
       <c r="B207" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C207" t="s">
         <v>13</v>
@@ -9517,7 +9514,7 @@
         <v>45766</v>
       </c>
       <c r="B208" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C208" t="s">
         <v>13</v>
@@ -9555,7 +9552,7 @@
         <v>45766</v>
       </c>
       <c r="B209" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C209" t="s">
         <v>13</v>
@@ -9593,7 +9590,7 @@
         <v>45766</v>
       </c>
       <c r="B210" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C210" t="s">
         <v>13</v>
@@ -9631,7 +9628,7 @@
         <v>45778</v>
       </c>
       <c r="B211" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C211" t="s">
         <v>13</v>
@@ -9669,7 +9666,7 @@
         <v>45778</v>
       </c>
       <c r="B212" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C212" t="s">
         <v>13</v>
@@ -9707,7 +9704,7 @@
         <v>45778</v>
       </c>
       <c r="B213" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C213" t="s">
         <v>13</v>
@@ -9745,13 +9742,13 @@
         <v>45778</v>
       </c>
       <c r="B214" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C214" t="s">
         <v>13</v>
       </c>
       <c r="D214" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E214">
         <v>1</v>
@@ -9783,13 +9780,13 @@
         <v>45778</v>
       </c>
       <c r="B215" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C215" t="s">
         <v>13</v>
       </c>
       <c r="D215" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E215">
         <v>0</v>
@@ -9821,7 +9818,7 @@
         <v>45778</v>
       </c>
       <c r="B216" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C216" t="s">
         <v>13</v>
@@ -9859,7 +9856,7 @@
         <v>45778</v>
       </c>
       <c r="B217" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C217" t="s">
         <v>14</v>
@@ -9897,7 +9894,7 @@
         <v>45778</v>
       </c>
       <c r="B218" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C218" t="s">
         <v>14</v>
@@ -9935,7 +9932,7 @@
         <v>45778</v>
       </c>
       <c r="B219" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C219" t="s">
         <v>14</v>
@@ -9973,7 +9970,7 @@
         <v>45778</v>
       </c>
       <c r="B220" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C220" t="s">
         <v>14</v>
@@ -10011,13 +10008,13 @@
         <v>45778</v>
       </c>
       <c r="B221" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C221" t="s">
         <v>14</v>
       </c>
       <c r="D221" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E221">
         <v>0</v>
@@ -10049,7 +10046,7 @@
         <v>45778</v>
       </c>
       <c r="B222" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C222" t="s">
         <v>14</v>
@@ -10087,7 +10084,7 @@
         <v>45780</v>
       </c>
       <c r="B223" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C223" t="s">
         <v>14</v>
@@ -10125,7 +10122,7 @@
         <v>45780</v>
       </c>
       <c r="B224" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C224" t="s">
         <v>14</v>
@@ -10163,13 +10160,13 @@
         <v>45780</v>
       </c>
       <c r="B225" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C225" t="s">
         <v>14</v>
       </c>
       <c r="D225" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E225">
         <v>1</v>
@@ -10201,7 +10198,7 @@
         <v>45780</v>
       </c>
       <c r="B226" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C226" t="s">
         <v>14</v>
@@ -10239,7 +10236,7 @@
         <v>45780</v>
       </c>
       <c r="B227" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C227" t="s">
         <v>14</v>
@@ -10277,7 +10274,7 @@
         <v>45780</v>
       </c>
       <c r="B228" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C228" t="s">
         <v>13</v>
@@ -10315,7 +10312,7 @@
         <v>45780</v>
       </c>
       <c r="B229" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C229" t="s">
         <v>13</v>
@@ -10353,7 +10350,7 @@
         <v>45787</v>
       </c>
       <c r="B230" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C230" t="s">
         <v>14</v>
@@ -10391,7 +10388,7 @@
         <v>45787</v>
       </c>
       <c r="B231" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C231" t="s">
         <v>14</v>
@@ -10429,7 +10426,7 @@
         <v>45787</v>
       </c>
       <c r="B232" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C232" t="s">
         <v>14</v>
@@ -10467,13 +10464,13 @@
         <v>45787</v>
       </c>
       <c r="B233" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C233" t="s">
         <v>14</v>
       </c>
       <c r="D233" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E233">
         <v>2</v>
@@ -10505,13 +10502,13 @@
         <v>45787</v>
       </c>
       <c r="B234" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C234" t="s">
         <v>14</v>
       </c>
       <c r="D234" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E234">
         <v>0</v>
@@ -10543,7 +10540,7 @@
         <v>45787</v>
       </c>
       <c r="B235" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C235" t="s">
         <v>14</v>
@@ -10581,7 +10578,7 @@
         <v>45787</v>
       </c>
       <c r="B236" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C236" t="s">
         <v>14</v>
@@ -10619,7 +10616,7 @@
         <v>45787</v>
       </c>
       <c r="B237" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C237" t="s">
         <v>14</v>
@@ -10657,7 +10654,7 @@
         <v>45787</v>
       </c>
       <c r="B238" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C238" t="s">
         <v>14</v>
@@ -10695,7 +10692,7 @@
         <v>45787</v>
       </c>
       <c r="B239" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C239" t="s">
         <v>13</v>
@@ -10733,13 +10730,13 @@
         <v>45787</v>
       </c>
       <c r="B240" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C240" t="s">
         <v>13</v>
       </c>
       <c r="D240" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E240">
         <v>1</v>
@@ -10771,7 +10768,7 @@
         <v>45787</v>
       </c>
       <c r="B241" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C241" t="s">
         <v>13</v>
@@ -10809,7 +10806,7 @@
         <v>45801</v>
       </c>
       <c r="B242" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C242" t="s">
         <v>13</v>
@@ -10847,7 +10844,7 @@
         <v>45801</v>
       </c>
       <c r="B243" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C243" t="s">
         <v>13</v>
@@ -10885,7 +10882,7 @@
         <v>45801</v>
       </c>
       <c r="B244" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C244" t="s">
         <v>13</v>
@@ -10923,13 +10920,13 @@
         <v>45801</v>
       </c>
       <c r="B245" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C245" t="s">
         <v>13</v>
       </c>
       <c r="D245" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -10961,13 +10958,13 @@
         <v>45801</v>
       </c>
       <c r="B246" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C246" t="s">
         <v>13</v>
       </c>
       <c r="D246" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E246">
         <v>0</v>
@@ -10999,7 +10996,7 @@
         <v>45801</v>
       </c>
       <c r="B247" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C247" t="s">
         <v>13</v>
@@ -11037,7 +11034,7 @@
         <v>45801</v>
       </c>
       <c r="B248" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C248" t="s">
         <v>13</v>
@@ -11075,7 +11072,7 @@
         <v>45801</v>
       </c>
       <c r="B249" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C249" t="s">
         <v>14</v>
@@ -11113,7 +11110,7 @@
         <v>45801</v>
       </c>
       <c r="B250" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C250" t="s">
         <v>14</v>
@@ -11151,13 +11148,13 @@
         <v>45801</v>
       </c>
       <c r="B251" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C251" t="s">
         <v>14</v>
       </c>
       <c r="D251" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E251">
         <v>1</v>
@@ -11189,7 +11186,7 @@
         <v>45801</v>
       </c>
       <c r="B252" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C252" t="s">
         <v>14</v>
@@ -11227,13 +11224,13 @@
         <v>45801</v>
       </c>
       <c r="B253" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C253" t="s">
         <v>14</v>
       </c>
       <c r="D253" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E253">
         <v>0</v>
@@ -11265,13 +11262,13 @@
         <v>45801</v>
       </c>
       <c r="B254" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C254" t="s">
         <v>14</v>
       </c>
       <c r="D254" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E254">
         <v>0</v>
@@ -11303,7 +11300,7 @@
         <v>45808</v>
       </c>
       <c r="B255" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C255" t="s">
         <v>13</v>
@@ -11341,7 +11338,7 @@
         <v>45808</v>
       </c>
       <c r="B256" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C256" t="s">
         <v>13</v>
@@ -11379,13 +11376,13 @@
         <v>45808</v>
       </c>
       <c r="B257" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C257" t="s">
         <v>13</v>
       </c>
       <c r="D257" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E257">
         <v>1</v>
@@ -11417,7 +11414,7 @@
         <v>45808</v>
       </c>
       <c r="B258" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C258" t="s">
         <v>13</v>
@@ -11455,7 +11452,7 @@
         <v>45808</v>
       </c>
       <c r="B259" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C259" t="s">
         <v>14</v>
@@ -11493,7 +11490,7 @@
         <v>45808</v>
       </c>
       <c r="B260" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C260" t="s">
         <v>14</v>
@@ -11531,7 +11528,7 @@
         <v>45808</v>
       </c>
       <c r="B261" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C261" t="s">
         <v>14</v>
@@ -11569,7 +11566,7 @@
         <v>45808</v>
       </c>
       <c r="B262" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C262" t="s">
         <v>14</v>
@@ -11607,7 +11604,7 @@
         <v>45808</v>
       </c>
       <c r="B263" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C263" t="s">
         <v>14</v>
@@ -11645,13 +11642,13 @@
         <v>45808</v>
       </c>
       <c r="B264" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C264" t="s">
         <v>14</v>
       </c>
       <c r="D264" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E264">
         <v>0</v>
@@ -11683,7 +11680,7 @@
         <v>45815</v>
       </c>
       <c r="B265" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C265" t="s">
         <v>13</v>
@@ -11721,7 +11718,7 @@
         <v>45815</v>
       </c>
       <c r="B266" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C266" t="s">
         <v>13</v>
@@ -11759,13 +11756,13 @@
         <v>45815</v>
       </c>
       <c r="B267" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C267" t="s">
         <v>13</v>
       </c>
       <c r="D267" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E267">
         <v>2</v>
@@ -11797,7 +11794,7 @@
         <v>45815</v>
       </c>
       <c r="B268" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C268" t="s">
         <v>13</v>
@@ -11835,7 +11832,7 @@
         <v>45815</v>
       </c>
       <c r="B269" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C269" t="s">
         <v>13</v>
@@ -11873,7 +11870,7 @@
         <v>45815</v>
       </c>
       <c r="B270" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C270" t="s">
         <v>13</v>
@@ -11911,7 +11908,7 @@
         <v>45815</v>
       </c>
       <c r="B271" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C271" t="s">
         <v>14</v>
@@ -11949,13 +11946,13 @@
         <v>45815</v>
       </c>
       <c r="B272" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C272" t="s">
         <v>14</v>
       </c>
       <c r="D272" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E272">
         <v>1</v>
@@ -11987,7 +11984,7 @@
         <v>45815</v>
       </c>
       <c r="B273" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C273" t="s">
         <v>14</v>
@@ -12025,7 +12022,7 @@
         <v>45815</v>
       </c>
       <c r="B274" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C274" t="s">
         <v>14</v>
@@ -12063,13 +12060,13 @@
         <v>45815</v>
       </c>
       <c r="B275" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C275" t="s">
         <v>14</v>
       </c>
       <c r="D275" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E275">
         <v>0</v>
@@ -12101,7 +12098,7 @@
         <v>45815</v>
       </c>
       <c r="B276" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C276" t="s">
         <v>14</v>
@@ -12139,7 +12136,7 @@
         <v>45822</v>
       </c>
       <c r="B277" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C277" t="s">
         <v>13</v>
@@ -12177,7 +12174,7 @@
         <v>45822</v>
       </c>
       <c r="B278" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C278" t="s">
         <v>13</v>
@@ -12215,13 +12212,13 @@
         <v>45822</v>
       </c>
       <c r="B279" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C279" t="s">
         <v>13</v>
       </c>
       <c r="D279" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E279">
         <v>2</v>
@@ -12253,13 +12250,13 @@
         <v>45822</v>
       </c>
       <c r="B280" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C280" t="s">
         <v>13</v>
       </c>
       <c r="D280" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E280">
         <v>1</v>
@@ -12291,13 +12288,13 @@
         <v>45822</v>
       </c>
       <c r="B281" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C281" t="s">
         <v>13</v>
       </c>
       <c r="D281" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -12329,7 +12326,7 @@
         <v>45822</v>
       </c>
       <c r="B282" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C282" t="s">
         <v>13</v>
@@ -12367,7 +12364,7 @@
         <v>45822</v>
       </c>
       <c r="B283" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C283" t="s">
         <v>14</v>
@@ -12405,7 +12402,7 @@
         <v>45822</v>
       </c>
       <c r="B284" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C284" t="s">
         <v>14</v>
@@ -12443,7 +12440,7 @@
         <v>45822</v>
       </c>
       <c r="B285" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C285" t="s">
         <v>14</v>
@@ -12481,7 +12478,7 @@
         <v>45822</v>
       </c>
       <c r="B286" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C286" t="s">
         <v>14</v>
@@ -12519,13 +12516,13 @@
         <v>45822</v>
       </c>
       <c r="B287" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C287" t="s">
         <v>14</v>
       </c>
       <c r="D287" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E287">
         <v>2</v>
@@ -12557,7 +12554,7 @@
         <v>45822</v>
       </c>
       <c r="B288" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C288" t="s">
         <v>14</v>
@@ -12595,7 +12592,7 @@
         <v>45822</v>
       </c>
       <c r="B289" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C289" t="s">
         <v>14</v>
@@ -12633,13 +12630,13 @@
         <v>45822</v>
       </c>
       <c r="B290" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C290" t="s">
         <v>14</v>
       </c>
       <c r="D290" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E290">
         <v>0</v>
@@ -12671,13 +12668,13 @@
         <v>45822</v>
       </c>
       <c r="B291" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C291" t="s">
         <v>14</v>
       </c>
       <c r="D291" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E291">
         <v>0</v>
@@ -12709,7 +12706,7 @@
         <v>45829</v>
       </c>
       <c r="B292" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C292" t="s">
         <v>13</v>
@@ -12747,7 +12744,7 @@
         <v>45829</v>
       </c>
       <c r="B293" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C293" t="s">
         <v>13</v>
@@ -12785,13 +12782,13 @@
         <v>45829</v>
       </c>
       <c r="B294" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C294" t="s">
         <v>13</v>
       </c>
       <c r="D294" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E294">
         <v>2</v>
@@ -12823,7 +12820,7 @@
         <v>45829</v>
       </c>
       <c r="B295" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C295" t="s">
         <v>13</v>
@@ -12861,7 +12858,7 @@
         <v>45829</v>
       </c>
       <c r="B296" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C296" t="s">
         <v>13</v>
@@ -12899,7 +12896,7 @@
         <v>45829</v>
       </c>
       <c r="B297" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C297" t="s">
         <v>14</v>
@@ -12937,7 +12934,7 @@
         <v>45829</v>
       </c>
       <c r="B298" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C298" t="s">
         <v>14</v>
@@ -12975,13 +12972,13 @@
         <v>45829</v>
       </c>
       <c r="B299" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C299" t="s">
         <v>14</v>
       </c>
       <c r="D299" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E299">
         <v>1</v>
@@ -13013,13 +13010,13 @@
         <v>45829</v>
       </c>
       <c r="B300" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C300" t="s">
         <v>14</v>
       </c>
       <c r="D300" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E300">
         <v>1</v>
@@ -13051,13 +13048,13 @@
         <v>45829</v>
       </c>
       <c r="B301" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C301" t="s">
         <v>14</v>
       </c>
       <c r="D301" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E301">
         <v>0</v>
@@ -13089,7 +13086,7 @@
         <v>45829</v>
       </c>
       <c r="B302" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C302" t="s">
         <v>14</v>
@@ -13127,7 +13124,7 @@
         <v>45829</v>
       </c>
       <c r="B303" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C303" t="s">
         <v>14</v>
@@ -13165,7 +13162,7 @@
         <v>45836</v>
       </c>
       <c r="B304" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C304" t="s">
         <v>13</v>
@@ -13203,13 +13200,13 @@
         <v>45836</v>
       </c>
       <c r="B305" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C305" t="s">
         <v>13</v>
       </c>
       <c r="D305" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E305">
         <v>3</v>
@@ -13241,13 +13238,13 @@
         <v>45836</v>
       </c>
       <c r="B306" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C306" t="s">
         <v>13</v>
       </c>
       <c r="D306" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E306">
         <v>2</v>
@@ -13279,7 +13276,7 @@
         <v>45836</v>
       </c>
       <c r="B307" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C307" t="s">
         <v>13</v>
@@ -13317,7 +13314,7 @@
         <v>45836</v>
       </c>
       <c r="B308" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C308" t="s">
         <v>13</v>
@@ -13355,13 +13352,13 @@
         <v>45836</v>
       </c>
       <c r="B309" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C309" t="s">
         <v>13</v>
       </c>
       <c r="D309" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E309">
         <v>0</v>
@@ -13393,7 +13390,7 @@
         <v>45836</v>
       </c>
       <c r="B310" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C310" t="s">
         <v>13</v>
@@ -13431,7 +13428,7 @@
         <v>45836</v>
       </c>
       <c r="B311" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C311" t="s">
         <v>13</v>
@@ -13469,7 +13466,7 @@
         <v>45836</v>
       </c>
       <c r="B312" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C312" t="s">
         <v>13</v>
@@ -13507,7 +13504,7 @@
         <v>45836</v>
       </c>
       <c r="B313" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C313" t="s">
         <v>14</v>
@@ -13545,7 +13542,7 @@
         <v>45836</v>
       </c>
       <c r="B314" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C314" t="s">
         <v>14</v>
@@ -13583,13 +13580,13 @@
         <v>45836</v>
       </c>
       <c r="B315" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="C315" t="s">
         <v>14</v>
       </c>
       <c r="D315" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E315">
         <v>1</v>
@@ -13621,7 +13618,7 @@
         <v>45836</v>
       </c>
       <c r="B316" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C316" t="s">
         <v>14</v>
@@ -13659,13 +13656,13 @@
         <v>45836</v>
       </c>
       <c r="B317" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C317" t="s">
         <v>14</v>
       </c>
       <c r="D317" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E317">
         <v>1</v>
@@ -13697,13 +13694,13 @@
         <v>45836</v>
       </c>
       <c r="B318" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C318" t="s">
         <v>14</v>
       </c>
       <c r="D318" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E318">
         <v>0</v>
@@ -13735,7 +13732,7 @@
         <v>45843</v>
       </c>
       <c r="B319" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C319" t="s">
         <v>14</v>
@@ -13773,13 +13770,13 @@
         <v>45843</v>
       </c>
       <c r="B320" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C320" t="s">
         <v>14</v>
       </c>
       <c r="D320" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E320">
         <v>1</v>
@@ -13811,7 +13808,7 @@
         <v>45843</v>
       </c>
       <c r="B321" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C321" t="s">
         <v>14</v>
@@ -13849,7 +13846,7 @@
         <v>45843</v>
       </c>
       <c r="B322" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C322" t="s">
         <v>14</v>
@@ -13887,7 +13884,7 @@
         <v>45843</v>
       </c>
       <c r="B323" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C323" t="s">
         <v>14</v>
@@ -13925,13 +13922,13 @@
         <v>45843</v>
       </c>
       <c r="B324" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C324" t="s">
         <v>14</v>
       </c>
       <c r="D324" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E324">
         <v>0</v>
@@ -13963,7 +13960,7 @@
         <v>45843</v>
       </c>
       <c r="B325" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C325" t="s">
         <v>13</v>
@@ -14001,7 +13998,7 @@
         <v>45843</v>
       </c>
       <c r="B326" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C326" t="s">
         <v>13</v>
@@ -14039,7 +14036,7 @@
         <v>45843</v>
       </c>
       <c r="B327" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C327" t="s">
         <v>13</v>
@@ -14077,7 +14074,7 @@
         <v>45843</v>
       </c>
       <c r="B328" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C328" t="s">
         <v>13</v>
@@ -14115,13 +14112,13 @@
         <v>45843</v>
       </c>
       <c r="B329" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C329" t="s">
         <v>13</v>
       </c>
       <c r="D329" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E329">
         <v>1</v>
@@ -14153,13 +14150,13 @@
         <v>45843</v>
       </c>
       <c r="B330" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C330" t="s">
         <v>13</v>
       </c>
       <c r="D330" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E330">
         <v>2</v>
@@ -14191,7 +14188,7 @@
         <v>45843</v>
       </c>
       <c r="B331" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C331" t="s">
         <v>13</v>
@@ -14229,7 +14226,7 @@
         <v>45850</v>
       </c>
       <c r="B332" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C332" t="s">
         <v>13</v>
@@ -14267,7 +14264,7 @@
         <v>45850</v>
       </c>
       <c r="B333" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C333" t="s">
         <v>13</v>
@@ -14305,7 +14302,7 @@
         <v>45850</v>
       </c>
       <c r="B334" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C334" t="s">
         <v>13</v>
@@ -14343,7 +14340,7 @@
         <v>45850</v>
       </c>
       <c r="B335" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C335" t="s">
         <v>13</v>
@@ -14381,7 +14378,7 @@
         <v>45850</v>
       </c>
       <c r="B336" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C336" t="s">
         <v>13</v>
@@ -14419,7 +14416,7 @@
         <v>45850</v>
       </c>
       <c r="B337" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C337" t="s">
         <v>14</v>
@@ -14457,13 +14454,13 @@
         <v>45850</v>
       </c>
       <c r="B338" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C338" t="s">
         <v>14</v>
       </c>
       <c r="D338" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E338">
         <v>1</v>
@@ -14495,7 +14492,7 @@
         <v>45850</v>
       </c>
       <c r="B339" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C339" t="s">
         <v>14</v>
@@ -14533,7 +14530,7 @@
         <v>45850</v>
       </c>
       <c r="B340" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C340" t="s">
         <v>14</v>
@@ -14571,13 +14568,13 @@
         <v>45850</v>
       </c>
       <c r="B341" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C341" t="s">
         <v>14</v>
       </c>
       <c r="D341" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E341">
         <v>0</v>
@@ -14609,7 +14606,7 @@
         <v>45857</v>
       </c>
       <c r="B342" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C342" t="s">
         <v>13</v>
@@ -14647,13 +14644,13 @@
         <v>45857</v>
       </c>
       <c r="B343" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C343" t="s">
         <v>13</v>
       </c>
       <c r="D343" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E343">
         <v>3</v>
@@ -14685,7 +14682,7 @@
         <v>45857</v>
       </c>
       <c r="B344" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C344" t="s">
         <v>13</v>
@@ -14723,13 +14720,13 @@
         <v>45857</v>
       </c>
       <c r="B345" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C345" t="s">
         <v>13</v>
       </c>
       <c r="D345" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E345">
         <v>1</v>
@@ -14761,13 +14758,13 @@
         <v>45857</v>
       </c>
       <c r="B346" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C346" t="s">
         <v>13</v>
       </c>
       <c r="D346" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E346">
         <v>1</v>
@@ -14799,13 +14796,13 @@
         <v>45857</v>
       </c>
       <c r="B347" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C347" t="s">
         <v>13</v>
       </c>
       <c r="D347" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E347">
         <v>1</v>
@@ -14837,7 +14834,7 @@
         <v>45857</v>
       </c>
       <c r="B348" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C348" t="s">
         <v>13</v>
@@ -14875,7 +14872,7 @@
         <v>45857</v>
       </c>
       <c r="B349" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C349" t="s">
         <v>14</v>
@@ -14913,13 +14910,13 @@
         <v>45857</v>
       </c>
       <c r="B350" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C350" t="s">
         <v>14</v>
       </c>
       <c r="D350" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E350">
         <v>0</v>
@@ -14951,7 +14948,7 @@
         <v>45864</v>
       </c>
       <c r="B351" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C351" t="s">
         <v>14</v>
@@ -14989,7 +14986,7 @@
         <v>45864</v>
       </c>
       <c r="B352" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C352" t="s">
         <v>13</v>
@@ -15027,7 +15024,7 @@
         <v>45864</v>
       </c>
       <c r="B353" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C353" t="s">
         <v>14</v>
@@ -15065,13 +15062,13 @@
         <v>45864</v>
       </c>
       <c r="B354" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C354" t="s">
         <v>14</v>
       </c>
       <c r="D354" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E354">
         <v>0</v>
@@ -15103,7 +15100,7 @@
         <v>45864</v>
       </c>
       <c r="B355" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C355" t="s">
         <v>14</v>
@@ -15141,7 +15138,7 @@
         <v>45864</v>
       </c>
       <c r="B356" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C356" t="s">
         <v>14</v>
@@ -15179,13 +15176,13 @@
         <v>45864</v>
       </c>
       <c r="B357" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C357" t="s">
         <v>13</v>
       </c>
       <c r="D357" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E357">
         <v>1</v>
@@ -15217,7 +15214,7 @@
         <v>45864</v>
       </c>
       <c r="B358" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C358" t="s">
         <v>13</v>
@@ -15255,7 +15252,7 @@
         <v>45864</v>
       </c>
       <c r="B359" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C359" t="s">
         <v>13</v>
@@ -15293,13 +15290,13 @@
         <v>45864</v>
       </c>
       <c r="B360" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C360" t="s">
         <v>13</v>
       </c>
       <c r="D360" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E360">
         <v>0</v>
@@ -15331,7 +15328,7 @@
         <v>45871</v>
       </c>
       <c r="B361" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C361" t="s">
         <v>14</v>
@@ -15369,7 +15366,7 @@
         <v>45871</v>
       </c>
       <c r="B362" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C362" t="s">
         <v>14</v>
@@ -15407,7 +15404,7 @@
         <v>45871</v>
       </c>
       <c r="B363" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C363" t="s">
         <v>13</v>
@@ -15445,13 +15442,13 @@
         <v>45871</v>
       </c>
       <c r="B364" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C364" t="s">
         <v>14</v>
       </c>
       <c r="D364" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E364">
         <v>2</v>
@@ -15483,7 +15480,7 @@
         <v>45871</v>
       </c>
       <c r="B365" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C365" t="s">
         <v>14</v>
@@ -15521,7 +15518,7 @@
         <v>45871</v>
       </c>
       <c r="B366" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C366" t="s">
         <v>14</v>
@@ -15559,7 +15556,7 @@
         <v>45871</v>
       </c>
       <c r="B367" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C367" t="s">
         <v>14</v>
@@ -15597,7 +15594,7 @@
         <v>45871</v>
       </c>
       <c r="B368" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C368" t="s">
         <v>14</v>
@@ -15635,7 +15632,7 @@
         <v>45871</v>
       </c>
       <c r="B369" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C369" t="s">
         <v>13</v>
@@ -15673,7 +15670,7 @@
         <v>45871</v>
       </c>
       <c r="B370" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C370" t="s">
         <v>13</v>
@@ -15711,7 +15708,7 @@
         <v>45871</v>
       </c>
       <c r="B371" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C371" t="s">
         <v>13</v>
@@ -15749,13 +15746,13 @@
         <v>45871</v>
       </c>
       <c r="B372" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C372" t="s">
         <v>13</v>
       </c>
       <c r="D372" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E372">
         <v>1</v>
@@ -15787,7 +15784,7 @@
         <v>45878</v>
       </c>
       <c r="B373" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C373" t="s">
         <v>13</v>
@@ -15825,7 +15822,7 @@
         <v>45878</v>
       </c>
       <c r="B374" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C374" t="s">
         <v>14</v>
@@ -15863,7 +15860,7 @@
         <v>45878</v>
       </c>
       <c r="B375" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C375" t="s">
         <v>13</v>
@@ -15901,7 +15898,7 @@
         <v>45878</v>
       </c>
       <c r="B376" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C376" t="s">
         <v>13</v>
@@ -15939,7 +15936,7 @@
         <v>45878</v>
       </c>
       <c r="B377" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C377" t="s">
         <v>13</v>
@@ -15977,13 +15974,13 @@
         <v>45878</v>
       </c>
       <c r="B378" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C378" t="s">
         <v>13</v>
       </c>
       <c r="D378" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E378">
         <v>0</v>
@@ -16015,13 +16012,13 @@
         <v>45878</v>
       </c>
       <c r="B379" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C379" t="s">
         <v>14</v>
       </c>
       <c r="D379" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E379">
         <v>1</v>
@@ -16053,13 +16050,13 @@
         <v>45878</v>
       </c>
       <c r="B380" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C380" t="s">
         <v>14</v>
       </c>
       <c r="D380" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E380">
         <v>0</v>
@@ -16091,7 +16088,7 @@
         <v>45885</v>
       </c>
       <c r="B381" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C381" t="s">
         <v>13</v>
@@ -16129,7 +16126,7 @@
         <v>45885</v>
       </c>
       <c r="B382" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C382" t="s">
         <v>14</v>
@@ -16167,7 +16164,7 @@
         <v>45885</v>
       </c>
       <c r="B383" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C383" t="s">
         <v>13</v>
@@ -16205,7 +16202,7 @@
         <v>45885</v>
       </c>
       <c r="B384" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C384" t="s">
         <v>13</v>
@@ -16243,7 +16240,7 @@
         <v>45885</v>
       </c>
       <c r="B385" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C385" t="s">
         <v>13</v>
@@ -16281,7 +16278,7 @@
         <v>45885</v>
       </c>
       <c r="B386" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C386" t="s">
         <v>13</v>
@@ -16319,13 +16316,13 @@
         <v>45885</v>
       </c>
       <c r="B387" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C387" t="s">
         <v>13</v>
       </c>
       <c r="D387" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E387">
         <v>0</v>
@@ -16357,13 +16354,13 @@
         <v>45885</v>
       </c>
       <c r="B388" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C388" t="s">
         <v>14</v>
       </c>
       <c r="D388" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E388">
         <v>1</v>
@@ -16395,7 +16392,7 @@
         <v>45885</v>
       </c>
       <c r="B389" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C389" t="s">
         <v>14</v>
@@ -16433,7 +16430,7 @@
         <v>45885</v>
       </c>
       <c r="B390" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C390" t="s">
         <v>14</v>
@@ -16471,7 +16468,7 @@
         <v>45885</v>
       </c>
       <c r="B391" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C391" t="s">
         <v>14</v>
@@ -16509,13 +16506,13 @@
         <v>45885</v>
       </c>
       <c r="B392" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C392" t="s">
         <v>14</v>
       </c>
       <c r="D392" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E392">
         <v>1</v>
@@ -16547,7 +16544,7 @@
         <v>45892</v>
       </c>
       <c r="B393" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C393" t="s">
         <v>13</v>
@@ -16585,7 +16582,7 @@
         <v>45892</v>
       </c>
       <c r="B394" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C394" t="s">
         <v>14</v>
@@ -16623,13 +16620,13 @@
         <v>45892</v>
       </c>
       <c r="B395" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C395" t="s">
         <v>13</v>
       </c>
       <c r="D395" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E395">
         <v>2</v>
@@ -16661,7 +16658,7 @@
         <v>45892</v>
       </c>
       <c r="B396" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C396" t="s">
         <v>13</v>
@@ -16699,13 +16696,13 @@
         <v>45892</v>
       </c>
       <c r="B397" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C397" t="s">
         <v>13</v>
       </c>
       <c r="D397" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E397">
         <v>0</v>
@@ -16737,7 +16734,7 @@
         <v>45892</v>
       </c>
       <c r="B398" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C398" t="s">
         <v>13</v>
@@ -16775,13 +16772,13 @@
         <v>45892</v>
       </c>
       <c r="B399" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C399" t="s">
         <v>14</v>
       </c>
       <c r="D399" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E399">
         <v>0</v>
@@ -16813,7 +16810,7 @@
         <v>45892</v>
       </c>
       <c r="B400" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C400" t="s">
         <v>14</v>
@@ -16851,7 +16848,7 @@
         <v>45892</v>
       </c>
       <c r="B401" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C401" t="s">
         <v>14</v>
@@ -16889,7 +16886,7 @@
         <v>45892</v>
       </c>
       <c r="B402" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C402" t="s">
         <v>14</v>
@@ -16927,7 +16924,7 @@
         <v>45899</v>
       </c>
       <c r="B403" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C403" t="s">
         <v>13</v>
@@ -16965,7 +16962,7 @@
         <v>45899</v>
       </c>
       <c r="B404" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C404" t="s">
         <v>14</v>
@@ -17003,13 +17000,13 @@
         <v>45899</v>
       </c>
       <c r="B405" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C405" t="s">
         <v>13</v>
       </c>
       <c r="D405" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E405">
         <v>1</v>
@@ -17041,7 +17038,7 @@
         <v>45899</v>
       </c>
       <c r="B406" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C406" t="s">
         <v>13</v>
@@ -17079,7 +17076,7 @@
         <v>45899</v>
       </c>
       <c r="B407" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C407" t="s">
         <v>13</v>
@@ -17117,13 +17114,13 @@
         <v>45899</v>
       </c>
       <c r="B408" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C408" t="s">
         <v>13</v>
       </c>
       <c r="D408" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E408">
         <v>1</v>
@@ -17155,7 +17152,7 @@
         <v>45899</v>
       </c>
       <c r="B409" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C409" t="s">
         <v>13</v>
@@ -17193,13 +17190,13 @@
         <v>45899</v>
       </c>
       <c r="B410" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C410" t="s">
         <v>13</v>
       </c>
       <c r="D410" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E410">
         <v>0</v>
@@ -17231,13 +17228,13 @@
         <v>45899</v>
       </c>
       <c r="B411" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C411" t="s">
         <v>14</v>
       </c>
       <c r="D411" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E411">
         <v>2</v>
@@ -17269,7 +17266,7 @@
         <v>45899</v>
       </c>
       <c r="B412" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C412" t="s">
         <v>14</v>
@@ -17307,7 +17304,7 @@
         <v>45899</v>
       </c>
       <c r="B413" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C413" t="s">
         <v>14</v>
@@ -17345,7 +17342,7 @@
         <v>45899</v>
       </c>
       <c r="B414" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C414" t="s">
         <v>13</v>
@@ -17383,13 +17380,13 @@
         <v>45899</v>
       </c>
       <c r="B415" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C415" t="s">
         <v>13</v>
       </c>
       <c r="D415" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E415">
         <v>0</v>
@@ -17421,7 +17418,7 @@
         <v>45906</v>
       </c>
       <c r="B416" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C416" t="s">
         <v>13</v>
@@ -17459,7 +17456,7 @@
         <v>45906</v>
       </c>
       <c r="B417" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C417" t="s">
         <v>14</v>
@@ -17497,7 +17494,7 @@
         <v>45906</v>
       </c>
       <c r="B418" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C418" t="s">
         <v>13</v>
@@ -17535,7 +17532,7 @@
         <v>45906</v>
       </c>
       <c r="B419" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C419" t="s">
         <v>13</v>
@@ -17573,13 +17570,13 @@
         <v>45906</v>
       </c>
       <c r="B420" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C420" t="s">
         <v>13</v>
       </c>
       <c r="D420" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E420">
         <v>0</v>
@@ -17611,7 +17608,7 @@
         <v>45906</v>
       </c>
       <c r="B421" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C421" t="s">
         <v>13</v>
@@ -17649,13 +17646,13 @@
         <v>45906</v>
       </c>
       <c r="B422" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C422" t="s">
         <v>13</v>
       </c>
       <c r="D422" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E422">
         <v>0</v>
@@ -17687,7 +17684,7 @@
         <v>45906</v>
       </c>
       <c r="B423" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C423" t="s">
         <v>13</v>
@@ -17725,7 +17722,7 @@
         <v>45906</v>
       </c>
       <c r="B424" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C424" t="s">
         <v>13</v>
@@ -17763,7 +17760,7 @@
         <v>45906</v>
       </c>
       <c r="B425" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C425" t="s">
         <v>14</v>
@@ -17801,7 +17798,7 @@
         <v>45906</v>
       </c>
       <c r="B426" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C426" t="s">
         <v>14</v>
@@ -17839,13 +17836,13 @@
         <v>45906</v>
       </c>
       <c r="B427" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C427" t="s">
         <v>14</v>
       </c>
       <c r="D427" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E427">
         <v>1</v>
@@ -17877,7 +17874,7 @@
         <v>45906</v>
       </c>
       <c r="B428" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C428" t="s">
         <v>14</v>
@@ -17915,13 +17912,13 @@
         <v>45913</v>
       </c>
       <c r="B429" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C429" t="s">
         <v>13</v>
       </c>
       <c r="D429" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E429">
         <v>1</v>
@@ -17953,7 +17950,7 @@
         <v>45913</v>
       </c>
       <c r="B430" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C430" t="s">
         <v>13</v>
@@ -17991,7 +17988,7 @@
         <v>45913</v>
       </c>
       <c r="B431" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C431" t="s">
         <v>13</v>
@@ -18029,13 +18026,13 @@
         <v>45913</v>
       </c>
       <c r="B432" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C432" t="s">
         <v>13</v>
       </c>
       <c r="D432" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E432">
         <v>1</v>
@@ -18067,7 +18064,7 @@
         <v>45913</v>
       </c>
       <c r="B433" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C433" t="s">
         <v>13</v>
@@ -18105,13 +18102,13 @@
         <v>45913</v>
       </c>
       <c r="B434" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C434" t="s">
         <v>13</v>
       </c>
       <c r="D434" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E434">
         <v>0</v>
@@ -18143,7 +18140,7 @@
         <v>45913</v>
       </c>
       <c r="B435" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C435" t="s">
         <v>13</v>
@@ -18181,13 +18178,13 @@
         <v>45913</v>
       </c>
       <c r="B436" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C436" t="s">
         <v>14</v>
       </c>
       <c r="D436" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E436">
         <v>4</v>
@@ -18219,7 +18216,7 @@
         <v>45913</v>
       </c>
       <c r="B437" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C437" t="s">
         <v>14</v>
@@ -18257,13 +18254,13 @@
         <v>45913</v>
       </c>
       <c r="B438" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C438" t="s">
         <v>14</v>
       </c>
       <c r="D438" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E438">
         <v>1</v>
@@ -18295,13 +18292,13 @@
         <v>45913</v>
       </c>
       <c r="B439" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C439" t="s">
         <v>14</v>
       </c>
       <c r="D439" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E439">
         <v>0</v>
@@ -18333,13 +18330,13 @@
         <v>45913</v>
       </c>
       <c r="B440" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C440" t="s">
         <v>14</v>
       </c>
       <c r="D440" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E440">
         <v>0</v>
@@ -18371,7 +18368,7 @@
         <v>45913</v>
       </c>
       <c r="B441" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C441" t="s">
         <v>14</v>
@@ -18409,7 +18406,7 @@
         <v>45913</v>
       </c>
       <c r="B442" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C442" t="s">
         <v>13</v>
@@ -18447,7 +18444,7 @@
         <v>45913</v>
       </c>
       <c r="B443" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C443" t="s">
         <v>14</v>
@@ -18477,6 +18474,462 @@
         <v>0</v>
       </c>
       <c r="L443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A444" s="2">
+        <v>45927</v>
+      </c>
+      <c r="B444" t="s">
+        <v>33</v>
+      </c>
+      <c r="C444" t="s">
+        <v>13</v>
+      </c>
+      <c r="D444" t="s">
+        <v>4</v>
+      </c>
+      <c r="E444">
+        <v>0</v>
+      </c>
+      <c r="F444">
+        <v>0</v>
+      </c>
+      <c r="G444" t="b">
+        <v>1</v>
+      </c>
+      <c r="H444">
+        <v>5</v>
+      </c>
+      <c r="I444">
+        <v>0</v>
+      </c>
+      <c r="J444">
+        <v>0</v>
+      </c>
+      <c r="K444">
+        <v>0</v>
+      </c>
+      <c r="L444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A445" s="2">
+        <v>45927</v>
+      </c>
+      <c r="B445" t="s">
+        <v>70</v>
+      </c>
+      <c r="C445" t="s">
+        <v>14</v>
+      </c>
+      <c r="D445" t="s">
+        <v>4</v>
+      </c>
+      <c r="E445">
+        <v>0</v>
+      </c>
+      <c r="F445">
+        <v>0</v>
+      </c>
+      <c r="G445" t="b">
+        <v>1</v>
+      </c>
+      <c r="H445">
+        <v>4</v>
+      </c>
+      <c r="I445">
+        <v>0</v>
+      </c>
+      <c r="J445">
+        <v>0</v>
+      </c>
+      <c r="K445">
+        <v>0</v>
+      </c>
+      <c r="L445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A446" s="2">
+        <v>45927</v>
+      </c>
+      <c r="B446" t="s">
+        <v>56</v>
+      </c>
+      <c r="C446" t="s">
+        <v>13</v>
+      </c>
+      <c r="D446" t="s">
+        <v>2</v>
+      </c>
+      <c r="E446">
+        <v>2</v>
+      </c>
+      <c r="F446">
+        <v>0</v>
+      </c>
+      <c r="G446" t="b">
+        <v>0</v>
+      </c>
+      <c r="H446">
+        <v>0</v>
+      </c>
+      <c r="I446">
+        <v>0</v>
+      </c>
+      <c r="J446">
+        <v>0</v>
+      </c>
+      <c r="K446">
+        <v>0</v>
+      </c>
+      <c r="L446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A447" s="2">
+        <v>45927</v>
+      </c>
+      <c r="B447" t="s">
+        <v>45</v>
+      </c>
+      <c r="C447" t="s">
+        <v>13</v>
+      </c>
+      <c r="D447" t="s">
+        <v>16</v>
+      </c>
+      <c r="E447">
+        <v>2</v>
+      </c>
+      <c r="F447">
+        <v>0</v>
+      </c>
+      <c r="G447" t="b">
+        <v>0</v>
+      </c>
+      <c r="H447">
+        <v>0</v>
+      </c>
+      <c r="I447">
+        <v>0</v>
+      </c>
+      <c r="J447">
+        <v>0</v>
+      </c>
+      <c r="K447">
+        <v>0</v>
+      </c>
+      <c r="L447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A448" s="2">
+        <v>45927</v>
+      </c>
+      <c r="B448" t="s">
+        <v>54</v>
+      </c>
+      <c r="C448" t="s">
+        <v>13</v>
+      </c>
+      <c r="D448" t="s">
+        <v>16</v>
+      </c>
+      <c r="E448">
+        <v>0</v>
+      </c>
+      <c r="F448">
+        <v>0</v>
+      </c>
+      <c r="G448" t="b">
+        <v>0</v>
+      </c>
+      <c r="H448">
+        <v>0</v>
+      </c>
+      <c r="I448">
+        <v>0</v>
+      </c>
+      <c r="J448">
+        <v>0</v>
+      </c>
+      <c r="K448">
+        <v>1</v>
+      </c>
+      <c r="L448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A449" s="2">
+        <v>45927</v>
+      </c>
+      <c r="B449" t="s">
+        <v>22</v>
+      </c>
+      <c r="C449" t="s">
+        <v>13</v>
+      </c>
+      <c r="D449" t="s">
+        <v>2</v>
+      </c>
+      <c r="E449">
+        <v>0</v>
+      </c>
+      <c r="F449">
+        <v>0</v>
+      </c>
+      <c r="G449" t="b">
+        <v>0</v>
+      </c>
+      <c r="H449">
+        <v>0</v>
+      </c>
+      <c r="I449">
+        <v>0</v>
+      </c>
+      <c r="J449">
+        <v>0</v>
+      </c>
+      <c r="K449">
+        <v>1</v>
+      </c>
+      <c r="L449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A450" s="2">
+        <v>45927</v>
+      </c>
+      <c r="B450" t="s">
+        <v>21</v>
+      </c>
+      <c r="C450" t="s">
+        <v>13</v>
+      </c>
+      <c r="D450" t="s">
+        <v>3</v>
+      </c>
+      <c r="E450">
+        <v>0</v>
+      </c>
+      <c r="F450">
+        <v>0</v>
+      </c>
+      <c r="G450" t="b">
+        <v>0</v>
+      </c>
+      <c r="H450">
+        <v>0</v>
+      </c>
+      <c r="I450">
+        <v>1</v>
+      </c>
+      <c r="J450">
+        <v>0</v>
+      </c>
+      <c r="K450">
+        <v>0</v>
+      </c>
+      <c r="L450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A451" s="2">
+        <v>45927</v>
+      </c>
+      <c r="B451" t="s">
+        <v>50</v>
+      </c>
+      <c r="C451" t="s">
+        <v>13</v>
+      </c>
+      <c r="D451" t="s">
+        <v>3</v>
+      </c>
+      <c r="E451">
+        <v>0</v>
+      </c>
+      <c r="F451">
+        <v>0</v>
+      </c>
+      <c r="G451" t="b">
+        <v>0</v>
+      </c>
+      <c r="H451">
+        <v>0</v>
+      </c>
+      <c r="I451">
+        <v>1</v>
+      </c>
+      <c r="J451">
+        <v>0</v>
+      </c>
+      <c r="K451">
+        <v>0</v>
+      </c>
+      <c r="L451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A452" s="2">
+        <v>45927</v>
+      </c>
+      <c r="B452" t="s">
+        <v>28</v>
+      </c>
+      <c r="C452" t="s">
+        <v>14</v>
+      </c>
+      <c r="D452" t="s">
+        <v>2</v>
+      </c>
+      <c r="E452">
+        <v>2</v>
+      </c>
+      <c r="F452">
+        <v>0</v>
+      </c>
+      <c r="G452" t="b">
+        <v>0</v>
+      </c>
+      <c r="H452">
+        <v>0</v>
+      </c>
+      <c r="I452">
+        <v>0</v>
+      </c>
+      <c r="J452">
+        <v>0</v>
+      </c>
+      <c r="K452">
+        <v>0</v>
+      </c>
+      <c r="L452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A453" s="2">
+        <v>45927</v>
+      </c>
+      <c r="B453" t="s">
+        <v>19</v>
+      </c>
+      <c r="C453" t="s">
+        <v>14</v>
+      </c>
+      <c r="D453" t="s">
+        <v>2</v>
+      </c>
+      <c r="E453">
+        <v>2</v>
+      </c>
+      <c r="F453">
+        <v>0</v>
+      </c>
+      <c r="G453" t="b">
+        <v>0</v>
+      </c>
+      <c r="H453">
+        <v>0</v>
+      </c>
+      <c r="I453">
+        <v>0</v>
+      </c>
+      <c r="J453">
+        <v>0</v>
+      </c>
+      <c r="K453">
+        <v>2</v>
+      </c>
+      <c r="L453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A454" s="2">
+        <v>45927</v>
+      </c>
+      <c r="B454" t="s">
+        <v>58</v>
+      </c>
+      <c r="C454" t="s">
+        <v>14</v>
+      </c>
+      <c r="D454" t="s">
+        <v>2</v>
+      </c>
+      <c r="E454">
+        <v>1</v>
+      </c>
+      <c r="F454">
+        <v>0</v>
+      </c>
+      <c r="G454" t="b">
+        <v>0</v>
+      </c>
+      <c r="H454">
+        <v>0</v>
+      </c>
+      <c r="I454">
+        <v>0</v>
+      </c>
+      <c r="J454">
+        <v>0</v>
+      </c>
+      <c r="K454">
+        <v>0</v>
+      </c>
+      <c r="L454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A455" s="2">
+        <v>45927</v>
+      </c>
+      <c r="B455" t="s">
+        <v>40</v>
+      </c>
+      <c r="C455" t="s">
+        <v>14</v>
+      </c>
+      <c r="D455" t="s">
+        <v>16</v>
+      </c>
+      <c r="E455">
+        <v>0</v>
+      </c>
+      <c r="F455">
+        <v>0</v>
+      </c>
+      <c r="G455" t="b">
+        <v>0</v>
+      </c>
+      <c r="H455">
+        <v>0</v>
+      </c>
+      <c r="I455">
+        <v>0</v>
+      </c>
+      <c r="J455">
+        <v>0</v>
+      </c>
+      <c r="K455">
+        <v>3</v>
+      </c>
+      <c r="L455">
         <v>0</v>
       </c>
     </row>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupocoomeva-my.sharepoint.com/personal/nalgmarin_coomeva_com_co/Documents/2025/Personal/Legendarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2185" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B075BF1A-39FE-4B5E-B24F-88F3E165F6F9}"/>
+  <xr:revisionPtr revIDLastSave="2349" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F46F0DF1-0448-4441-AB62-5FBD5D310A6C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jugadores" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="82">
   <si>
     <t>jugador</t>
   </si>
@@ -1620,11 +1620,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L455"/>
+  <dimension ref="A1:L470"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A425" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O435" sqref="O435"/>
+      <pane ySplit="1" topLeftCell="A452" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B471" sqref="B471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18933,6 +18933,576 @@
         <v>0</v>
       </c>
     </row>
+    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A456" s="2">
+        <v>45934</v>
+      </c>
+      <c r="B456" t="s">
+        <v>70</v>
+      </c>
+      <c r="C456" t="s">
+        <v>14</v>
+      </c>
+      <c r="D456" t="s">
+        <v>4</v>
+      </c>
+      <c r="E456">
+        <v>0</v>
+      </c>
+      <c r="F456">
+        <v>0</v>
+      </c>
+      <c r="G456" t="b">
+        <v>1</v>
+      </c>
+      <c r="H456">
+        <v>5</v>
+      </c>
+      <c r="I456">
+        <v>0</v>
+      </c>
+      <c r="J456">
+        <v>0</v>
+      </c>
+      <c r="K456">
+        <v>0</v>
+      </c>
+      <c r="L456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A457" s="2">
+        <v>45934</v>
+      </c>
+      <c r="B457" t="s">
+        <v>37</v>
+      </c>
+      <c r="C457" t="s">
+        <v>13</v>
+      </c>
+      <c r="D457" t="s">
+        <v>4</v>
+      </c>
+      <c r="E457">
+        <v>0</v>
+      </c>
+      <c r="F457">
+        <v>0</v>
+      </c>
+      <c r="G457" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457">
+        <v>4</v>
+      </c>
+      <c r="I457">
+        <v>0</v>
+      </c>
+      <c r="J457">
+        <v>0</v>
+      </c>
+      <c r="K457">
+        <v>0</v>
+      </c>
+      <c r="L457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A458" s="2">
+        <v>45934</v>
+      </c>
+      <c r="B458" t="s">
+        <v>68</v>
+      </c>
+      <c r="C458" t="s">
+        <v>13</v>
+      </c>
+      <c r="D458" t="s">
+        <v>4</v>
+      </c>
+      <c r="E458">
+        <v>0</v>
+      </c>
+      <c r="F458">
+        <v>0</v>
+      </c>
+      <c r="G458" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458">
+        <v>1</v>
+      </c>
+      <c r="I458">
+        <v>0</v>
+      </c>
+      <c r="J458">
+        <v>0</v>
+      </c>
+      <c r="K458">
+        <v>0</v>
+      </c>
+      <c r="L458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A459" s="2">
+        <v>45934</v>
+      </c>
+      <c r="B459" t="s">
+        <v>54</v>
+      </c>
+      <c r="C459" t="s">
+        <v>14</v>
+      </c>
+      <c r="D459" t="s">
+        <v>16</v>
+      </c>
+      <c r="E459">
+        <v>1</v>
+      </c>
+      <c r="F459">
+        <v>0</v>
+      </c>
+      <c r="G459" t="b">
+        <v>0</v>
+      </c>
+      <c r="H459">
+        <v>0</v>
+      </c>
+      <c r="I459">
+        <v>0</v>
+      </c>
+      <c r="J459">
+        <v>0</v>
+      </c>
+      <c r="K459">
+        <v>0</v>
+      </c>
+      <c r="L459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A460" s="2">
+        <v>45934</v>
+      </c>
+      <c r="B460" t="s">
+        <v>45</v>
+      </c>
+      <c r="C460" t="s">
+        <v>14</v>
+      </c>
+      <c r="D460" t="s">
+        <v>16</v>
+      </c>
+      <c r="E460">
+        <v>1</v>
+      </c>
+      <c r="F460">
+        <v>0</v>
+      </c>
+      <c r="G460" t="b">
+        <v>0</v>
+      </c>
+      <c r="H460">
+        <v>0</v>
+      </c>
+      <c r="I460">
+        <v>0</v>
+      </c>
+      <c r="J460">
+        <v>0</v>
+      </c>
+      <c r="K460">
+        <v>1</v>
+      </c>
+      <c r="L460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A461" s="2">
+        <v>45934</v>
+      </c>
+      <c r="B461" t="s">
+        <v>27</v>
+      </c>
+      <c r="C461" t="s">
+        <v>14</v>
+      </c>
+      <c r="D461" t="s">
+        <v>2</v>
+      </c>
+      <c r="E461">
+        <v>1</v>
+      </c>
+      <c r="F461">
+        <v>0</v>
+      </c>
+      <c r="G461" t="b">
+        <v>0</v>
+      </c>
+      <c r="H461">
+        <v>0</v>
+      </c>
+      <c r="I461">
+        <v>0</v>
+      </c>
+      <c r="J461">
+        <v>0</v>
+      </c>
+      <c r="K461">
+        <v>0</v>
+      </c>
+      <c r="L461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A462" s="2">
+        <v>45934</v>
+      </c>
+      <c r="B462" t="s">
+        <v>20</v>
+      </c>
+      <c r="C462" t="s">
+        <v>14</v>
+      </c>
+      <c r="D462" t="s">
+        <v>3</v>
+      </c>
+      <c r="E462">
+        <v>1</v>
+      </c>
+      <c r="F462">
+        <v>0</v>
+      </c>
+      <c r="G462" t="b">
+        <v>0</v>
+      </c>
+      <c r="H462">
+        <v>0</v>
+      </c>
+      <c r="I462">
+        <v>0</v>
+      </c>
+      <c r="J462">
+        <v>0</v>
+      </c>
+      <c r="K462">
+        <v>0</v>
+      </c>
+      <c r="L462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A463" s="2">
+        <v>45934</v>
+      </c>
+      <c r="B463" t="s">
+        <v>22</v>
+      </c>
+      <c r="C463" t="s">
+        <v>14</v>
+      </c>
+      <c r="D463" t="s">
+        <v>2</v>
+      </c>
+      <c r="E463">
+        <v>1</v>
+      </c>
+      <c r="F463">
+        <v>0</v>
+      </c>
+      <c r="G463" t="b">
+        <v>0</v>
+      </c>
+      <c r="H463">
+        <v>0</v>
+      </c>
+      <c r="I463">
+        <v>0</v>
+      </c>
+      <c r="J463">
+        <v>0</v>
+      </c>
+      <c r="K463">
+        <v>0</v>
+      </c>
+      <c r="L463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A464" s="2">
+        <v>45934</v>
+      </c>
+      <c r="B464" t="s">
+        <v>55</v>
+      </c>
+      <c r="C464" t="s">
+        <v>14</v>
+      </c>
+      <c r="D464" t="s">
+        <v>16</v>
+      </c>
+      <c r="E464">
+        <v>0</v>
+      </c>
+      <c r="F464">
+        <v>0</v>
+      </c>
+      <c r="G464" t="b">
+        <v>0</v>
+      </c>
+      <c r="H464">
+        <v>0</v>
+      </c>
+      <c r="I464">
+        <v>0</v>
+      </c>
+      <c r="J464">
+        <v>0</v>
+      </c>
+      <c r="K464">
+        <v>1</v>
+      </c>
+      <c r="L464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A465" s="2">
+        <v>45934</v>
+      </c>
+      <c r="B465" t="s">
+        <v>43</v>
+      </c>
+      <c r="C465" t="s">
+        <v>14</v>
+      </c>
+      <c r="D465" t="s">
+        <v>16</v>
+      </c>
+      <c r="E465">
+        <v>0</v>
+      </c>
+      <c r="F465">
+        <v>0</v>
+      </c>
+      <c r="G465" t="b">
+        <v>0</v>
+      </c>
+      <c r="H465">
+        <v>0</v>
+      </c>
+      <c r="I465">
+        <v>0</v>
+      </c>
+      <c r="J465">
+        <v>0</v>
+      </c>
+      <c r="K465">
+        <v>1</v>
+      </c>
+      <c r="L465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A466" s="2">
+        <v>45934</v>
+      </c>
+      <c r="B466" t="s">
+        <v>18</v>
+      </c>
+      <c r="C466" t="s">
+        <v>13</v>
+      </c>
+      <c r="D466" t="s">
+        <v>16</v>
+      </c>
+      <c r="E466">
+        <v>2</v>
+      </c>
+      <c r="F466">
+        <v>0</v>
+      </c>
+      <c r="G466" t="b">
+        <v>0</v>
+      </c>
+      <c r="H466">
+        <v>0</v>
+      </c>
+      <c r="I466">
+        <v>0</v>
+      </c>
+      <c r="J466">
+        <v>0</v>
+      </c>
+      <c r="K466">
+        <v>0</v>
+      </c>
+      <c r="L466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A467" s="2">
+        <v>45934</v>
+      </c>
+      <c r="B467" t="s">
+        <v>19</v>
+      </c>
+      <c r="C467" t="s">
+        <v>13</v>
+      </c>
+      <c r="D467" t="s">
+        <v>2</v>
+      </c>
+      <c r="E467">
+        <v>3</v>
+      </c>
+      <c r="F467">
+        <v>0</v>
+      </c>
+      <c r="G467" t="b">
+        <v>0</v>
+      </c>
+      <c r="H467">
+        <v>0</v>
+      </c>
+      <c r="I467">
+        <v>0</v>
+      </c>
+      <c r="J467">
+        <v>0</v>
+      </c>
+      <c r="K467">
+        <v>0</v>
+      </c>
+      <c r="L467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A468" s="2">
+        <v>45934</v>
+      </c>
+      <c r="B468" t="s">
+        <v>58</v>
+      </c>
+      <c r="C468" t="s">
+        <v>13</v>
+      </c>
+      <c r="D468" t="s">
+        <v>2</v>
+      </c>
+      <c r="E468">
+        <v>0</v>
+      </c>
+      <c r="F468">
+        <v>0</v>
+      </c>
+      <c r="G468" t="b">
+        <v>0</v>
+      </c>
+      <c r="H468">
+        <v>0</v>
+      </c>
+      <c r="I468">
+        <v>0</v>
+      </c>
+      <c r="J468">
+        <v>0</v>
+      </c>
+      <c r="K468">
+        <v>3</v>
+      </c>
+      <c r="L468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A469" s="2">
+        <v>45934</v>
+      </c>
+      <c r="B469" t="s">
+        <v>24</v>
+      </c>
+      <c r="C469" t="s">
+        <v>13</v>
+      </c>
+      <c r="D469" t="s">
+        <v>16</v>
+      </c>
+      <c r="E469">
+        <v>0</v>
+      </c>
+      <c r="F469">
+        <v>0</v>
+      </c>
+      <c r="G469" t="b">
+        <v>0</v>
+      </c>
+      <c r="H469">
+        <v>0</v>
+      </c>
+      <c r="I469">
+        <v>0</v>
+      </c>
+      <c r="J469">
+        <v>0</v>
+      </c>
+      <c r="K469">
+        <v>1</v>
+      </c>
+      <c r="L469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A470" s="2">
+        <v>45934</v>
+      </c>
+      <c r="B470" t="s">
+        <v>21</v>
+      </c>
+      <c r="C470" t="s">
+        <v>13</v>
+      </c>
+      <c r="D470" t="s">
+        <v>3</v>
+      </c>
+      <c r="E470">
+        <v>0</v>
+      </c>
+      <c r="F470">
+        <v>0</v>
+      </c>
+      <c r="G470" t="b">
+        <v>0</v>
+      </c>
+      <c r="H470">
+        <v>0</v>
+      </c>
+      <c r="I470">
+        <v>0</v>
+      </c>
+      <c r="J470">
+        <v>0</v>
+      </c>
+      <c r="K470">
+        <v>1</v>
+      </c>
+      <c r="L470">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupocoomeva-my.sharepoint.com/personal/nalgmarin_coomeva_com_co/Documents/2025/Personal/Legendarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2349" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F46F0DF1-0448-4441-AB62-5FBD5D310A6C}"/>
+  <xr:revisionPtr revIDLastSave="2502" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C47AF8A9-54AD-41D4-8E9E-07DCA7B9C282}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="83">
   <si>
     <t>jugador</t>
   </si>
@@ -283,6 +283,9 @@
   </si>
   <si>
     <t>Adolfo Leon Munera</t>
+  </si>
+  <si>
+    <t>Sombra</t>
   </si>
 </sst>
 </file>
@@ -1620,11 +1623,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L470"/>
+  <dimension ref="A1:L484"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A452" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B471" sqref="B471"/>
+      <pane ySplit="1" topLeftCell="A465" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F478" sqref="F478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19503,6 +19506,538 @@
         <v>0</v>
       </c>
     </row>
+    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A471" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B471" t="s">
+        <v>37</v>
+      </c>
+      <c r="C471" t="s">
+        <v>13</v>
+      </c>
+      <c r="D471" t="s">
+        <v>4</v>
+      </c>
+      <c r="E471">
+        <v>0</v>
+      </c>
+      <c r="F471">
+        <v>0</v>
+      </c>
+      <c r="G471" t="b">
+        <v>1</v>
+      </c>
+      <c r="H471">
+        <v>3</v>
+      </c>
+      <c r="I471">
+        <v>0</v>
+      </c>
+      <c r="J471">
+        <v>0</v>
+      </c>
+      <c r="K471">
+        <v>0</v>
+      </c>
+      <c r="L471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A472" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B472" t="s">
+        <v>70</v>
+      </c>
+      <c r="C472" t="s">
+        <v>14</v>
+      </c>
+      <c r="D472" t="s">
+        <v>4</v>
+      </c>
+      <c r="E472">
+        <v>0</v>
+      </c>
+      <c r="F472">
+        <v>0</v>
+      </c>
+      <c r="G472" t="b">
+        <v>1</v>
+      </c>
+      <c r="H472">
+        <v>5</v>
+      </c>
+      <c r="I472">
+        <v>0</v>
+      </c>
+      <c r="J472">
+        <v>0</v>
+      </c>
+      <c r="K472">
+        <v>0</v>
+      </c>
+      <c r="L472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A473" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B473" t="s">
+        <v>82</v>
+      </c>
+      <c r="C473" t="s">
+        <v>13</v>
+      </c>
+      <c r="D473" t="s">
+        <v>4</v>
+      </c>
+      <c r="E473">
+        <v>0</v>
+      </c>
+      <c r="F473">
+        <v>0</v>
+      </c>
+      <c r="G473" t="b">
+        <v>1</v>
+      </c>
+      <c r="H473">
+        <v>2</v>
+      </c>
+      <c r="I473">
+        <v>0</v>
+      </c>
+      <c r="J473">
+        <v>0</v>
+      </c>
+      <c r="K473">
+        <v>0</v>
+      </c>
+      <c r="L473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A474" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B474" t="s">
+        <v>79</v>
+      </c>
+      <c r="C474" t="s">
+        <v>13</v>
+      </c>
+      <c r="D474" t="s">
+        <v>3</v>
+      </c>
+      <c r="E474">
+        <v>1</v>
+      </c>
+      <c r="F474">
+        <v>0</v>
+      </c>
+      <c r="G474" t="b">
+        <v>0</v>
+      </c>
+      <c r="H474">
+        <v>0</v>
+      </c>
+      <c r="I474">
+        <v>0</v>
+      </c>
+      <c r="J474">
+        <v>0</v>
+      </c>
+      <c r="K474">
+        <v>0</v>
+      </c>
+      <c r="L474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A475" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B475" t="s">
+        <v>22</v>
+      </c>
+      <c r="C475" t="s">
+        <v>13</v>
+      </c>
+      <c r="D475" t="s">
+        <v>2</v>
+      </c>
+      <c r="E475">
+        <v>2</v>
+      </c>
+      <c r="F475">
+        <v>0</v>
+      </c>
+      <c r="G475" t="b">
+        <v>0</v>
+      </c>
+      <c r="H475">
+        <v>0</v>
+      </c>
+      <c r="I475">
+        <v>0</v>
+      </c>
+      <c r="J475">
+        <v>0</v>
+      </c>
+      <c r="K475">
+        <v>0</v>
+      </c>
+      <c r="L475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A476" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B476" t="s">
+        <v>28</v>
+      </c>
+      <c r="C476" t="s">
+        <v>13</v>
+      </c>
+      <c r="D476" t="s">
+        <v>2</v>
+      </c>
+      <c r="E476">
+        <v>1</v>
+      </c>
+      <c r="F476">
+        <v>0</v>
+      </c>
+      <c r="G476" t="b">
+        <v>0</v>
+      </c>
+      <c r="H476">
+        <v>0</v>
+      </c>
+      <c r="I476">
+        <v>0</v>
+      </c>
+      <c r="J476">
+        <v>0</v>
+      </c>
+      <c r="K476">
+        <v>1</v>
+      </c>
+      <c r="L476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A477" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B477" t="s">
+        <v>20</v>
+      </c>
+      <c r="C477" t="s">
+        <v>13</v>
+      </c>
+      <c r="D477" t="s">
+        <v>3</v>
+      </c>
+      <c r="E477">
+        <v>1</v>
+      </c>
+      <c r="F477">
+        <v>0</v>
+      </c>
+      <c r="G477" t="b">
+        <v>0</v>
+      </c>
+      <c r="H477">
+        <v>0</v>
+      </c>
+      <c r="I477">
+        <v>0</v>
+      </c>
+      <c r="J477">
+        <v>0</v>
+      </c>
+      <c r="K477">
+        <v>0</v>
+      </c>
+      <c r="L477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A478" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B478" t="s">
+        <v>32</v>
+      </c>
+      <c r="C478" t="s">
+        <v>13</v>
+      </c>
+      <c r="D478" t="s">
+        <v>16</v>
+      </c>
+      <c r="E478">
+        <v>0</v>
+      </c>
+      <c r="F478">
+        <v>0</v>
+      </c>
+      <c r="G478" t="b">
+        <v>0</v>
+      </c>
+      <c r="H478">
+        <v>0</v>
+      </c>
+      <c r="I478">
+        <v>0</v>
+      </c>
+      <c r="J478">
+        <v>0</v>
+      </c>
+      <c r="K478">
+        <v>3</v>
+      </c>
+      <c r="L478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A479" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B479" t="s">
+        <v>54</v>
+      </c>
+      <c r="C479" t="s">
+        <v>13</v>
+      </c>
+      <c r="D479" t="s">
+        <v>16</v>
+      </c>
+      <c r="E479">
+        <v>0</v>
+      </c>
+      <c r="F479">
+        <v>0</v>
+      </c>
+      <c r="G479" t="b">
+        <v>0</v>
+      </c>
+      <c r="H479">
+        <v>0</v>
+      </c>
+      <c r="I479">
+        <v>0</v>
+      </c>
+      <c r="J479">
+        <v>0</v>
+      </c>
+      <c r="K479">
+        <v>1</v>
+      </c>
+      <c r="L479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A480" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B480" t="s">
+        <v>19</v>
+      </c>
+      <c r="C480" t="s">
+        <v>14</v>
+      </c>
+      <c r="D480" t="s">
+        <v>2</v>
+      </c>
+      <c r="E480">
+        <v>1</v>
+      </c>
+      <c r="F480">
+        <v>0</v>
+      </c>
+      <c r="G480" t="b">
+        <v>0</v>
+      </c>
+      <c r="H480">
+        <v>0</v>
+      </c>
+      <c r="I480">
+        <v>0</v>
+      </c>
+      <c r="J480">
+        <v>0</v>
+      </c>
+      <c r="K480">
+        <v>0</v>
+      </c>
+      <c r="L480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A481" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B481" t="s">
+        <v>56</v>
+      </c>
+      <c r="C481" t="s">
+        <v>14</v>
+      </c>
+      <c r="D481" t="s">
+        <v>2</v>
+      </c>
+      <c r="E481">
+        <v>3</v>
+      </c>
+      <c r="F481">
+        <v>0</v>
+      </c>
+      <c r="G481" t="b">
+        <v>0</v>
+      </c>
+      <c r="H481">
+        <v>0</v>
+      </c>
+      <c r="I481">
+        <v>0</v>
+      </c>
+      <c r="J481">
+        <v>0</v>
+      </c>
+      <c r="K481">
+        <v>0</v>
+      </c>
+      <c r="L481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A482" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B482" t="s">
+        <v>53</v>
+      </c>
+      <c r="C482" t="s">
+        <v>14</v>
+      </c>
+      <c r="D482" t="s">
+        <v>16</v>
+      </c>
+      <c r="E482">
+        <v>1</v>
+      </c>
+      <c r="F482">
+        <v>0</v>
+      </c>
+      <c r="G482" t="b">
+        <v>0</v>
+      </c>
+      <c r="H482">
+        <v>0</v>
+      </c>
+      <c r="I482">
+        <v>0</v>
+      </c>
+      <c r="J482">
+        <v>0</v>
+      </c>
+      <c r="K482">
+        <v>1</v>
+      </c>
+      <c r="L482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A483" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B483" t="s">
+        <v>44</v>
+      </c>
+      <c r="C483" t="s">
+        <v>14</v>
+      </c>
+      <c r="D483" t="s">
+        <v>16</v>
+      </c>
+      <c r="E483">
+        <v>0</v>
+      </c>
+      <c r="F483">
+        <v>0</v>
+      </c>
+      <c r="G483" t="b">
+        <v>0</v>
+      </c>
+      <c r="H483">
+        <v>0</v>
+      </c>
+      <c r="I483">
+        <v>0</v>
+      </c>
+      <c r="J483">
+        <v>0</v>
+      </c>
+      <c r="K483">
+        <v>2</v>
+      </c>
+      <c r="L483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A484" s="2">
+        <v>45941</v>
+      </c>
+      <c r="B484" t="s">
+        <v>24</v>
+      </c>
+      <c r="C484" t="s">
+        <v>14</v>
+      </c>
+      <c r="D484" t="s">
+        <v>16</v>
+      </c>
+      <c r="E484">
+        <v>0</v>
+      </c>
+      <c r="F484">
+        <v>0</v>
+      </c>
+      <c r="G484" t="b">
+        <v>0</v>
+      </c>
+      <c r="H484">
+        <v>0</v>
+      </c>
+      <c r="I484">
+        <v>0</v>
+      </c>
+      <c r="J484">
+        <v>0</v>
+      </c>
+      <c r="K484">
+        <v>2</v>
+      </c>
+      <c r="L484">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupocoomeva-my.sharepoint.com/personal/nalgmarin_coomeva_com_co/Documents/2025/Personal/Legendarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2502" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C47AF8A9-54AD-41D4-8E9E-07DCA7B9C282}"/>
+  <xr:revisionPtr revIDLastSave="2618" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{472ECD91-16ED-418E-854C-4BB66B6A0888}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="84">
   <si>
     <t>jugador</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>Sombra</t>
+  </si>
+  <si>
+    <t>Montaño</t>
   </si>
 </sst>
 </file>
@@ -1623,11 +1626,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L484"/>
+  <dimension ref="A1:L495"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A465" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F478" sqref="F478"/>
+      <pane ySplit="1" topLeftCell="A480" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H498" sqref="H498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15407,7 +15410,7 @@
         <v>45871</v>
       </c>
       <c r="B363" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C363" t="s">
         <v>13</v>
@@ -15825,7 +15828,7 @@
         <v>45878</v>
       </c>
       <c r="B374" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C374" t="s">
         <v>14</v>
@@ -16129,7 +16132,7 @@
         <v>45885</v>
       </c>
       <c r="B382" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C382" t="s">
         <v>14</v>
@@ -18523,7 +18526,7 @@
         <v>45927</v>
       </c>
       <c r="B445" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C445" t="s">
         <v>14</v>
@@ -18941,7 +18944,7 @@
         <v>45934</v>
       </c>
       <c r="B456" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C456" t="s">
         <v>14</v>
@@ -19549,7 +19552,7 @@
         <v>45941</v>
       </c>
       <c r="B472" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C472" t="s">
         <v>14</v>
@@ -20035,6 +20038,424 @@
         <v>2</v>
       </c>
       <c r="L484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A485" s="2">
+        <v>45948</v>
+      </c>
+      <c r="B485" t="s">
+        <v>18</v>
+      </c>
+      <c r="C485" t="s">
+        <v>13</v>
+      </c>
+      <c r="D485" t="s">
+        <v>16</v>
+      </c>
+      <c r="E485">
+        <v>2</v>
+      </c>
+      <c r="F485">
+        <v>0</v>
+      </c>
+      <c r="G485" t="b">
+        <v>0</v>
+      </c>
+      <c r="H485">
+        <v>0</v>
+      </c>
+      <c r="I485">
+        <v>0</v>
+      </c>
+      <c r="J485">
+        <v>0</v>
+      </c>
+      <c r="K485">
+        <v>0</v>
+      </c>
+      <c r="L485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A486" s="2">
+        <v>45948</v>
+      </c>
+      <c r="B486" t="s">
+        <v>19</v>
+      </c>
+      <c r="C486" t="s">
+        <v>13</v>
+      </c>
+      <c r="D486" t="s">
+        <v>2</v>
+      </c>
+      <c r="E486">
+        <v>1</v>
+      </c>
+      <c r="F486">
+        <v>0</v>
+      </c>
+      <c r="G486" t="b">
+        <v>0</v>
+      </c>
+      <c r="H486">
+        <v>0</v>
+      </c>
+      <c r="I486">
+        <v>0</v>
+      </c>
+      <c r="J486">
+        <v>0</v>
+      </c>
+      <c r="K486">
+        <v>0</v>
+      </c>
+      <c r="L486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A487" s="2">
+        <v>45948</v>
+      </c>
+      <c r="B487" t="s">
+        <v>40</v>
+      </c>
+      <c r="C487" t="s">
+        <v>13</v>
+      </c>
+      <c r="D487" t="s">
+        <v>16</v>
+      </c>
+      <c r="E487">
+        <v>1</v>
+      </c>
+      <c r="F487">
+        <v>0</v>
+      </c>
+      <c r="G487" t="b">
+        <v>0</v>
+      </c>
+      <c r="H487">
+        <v>0</v>
+      </c>
+      <c r="I487">
+        <v>0</v>
+      </c>
+      <c r="J487">
+        <v>0</v>
+      </c>
+      <c r="K487">
+        <v>2</v>
+      </c>
+      <c r="L487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A488" s="2">
+        <v>45948</v>
+      </c>
+      <c r="B488" t="s">
+        <v>34</v>
+      </c>
+      <c r="C488" t="s">
+        <v>13</v>
+      </c>
+      <c r="D488" t="s">
+        <v>3</v>
+      </c>
+      <c r="E488">
+        <v>0</v>
+      </c>
+      <c r="F488">
+        <v>0</v>
+      </c>
+      <c r="G488" t="b">
+        <v>0</v>
+      </c>
+      <c r="H488">
+        <v>0</v>
+      </c>
+      <c r="I488">
+        <v>0</v>
+      </c>
+      <c r="J488">
+        <v>0</v>
+      </c>
+      <c r="K488">
+        <v>1</v>
+      </c>
+      <c r="L488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A489" s="2">
+        <v>45948</v>
+      </c>
+      <c r="B489" t="s">
+        <v>83</v>
+      </c>
+      <c r="C489" t="s">
+        <v>13</v>
+      </c>
+      <c r="D489" t="s">
+        <v>4</v>
+      </c>
+      <c r="E489">
+        <v>0</v>
+      </c>
+      <c r="F489">
+        <v>0</v>
+      </c>
+      <c r="G489" t="b">
+        <v>1</v>
+      </c>
+      <c r="H489">
+        <v>6</v>
+      </c>
+      <c r="I489">
+        <v>0</v>
+      </c>
+      <c r="J489">
+        <v>0</v>
+      </c>
+      <c r="K489">
+        <v>0</v>
+      </c>
+      <c r="L489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A490" s="2">
+        <v>45948</v>
+      </c>
+      <c r="B490" t="s">
+        <v>20</v>
+      </c>
+      <c r="C490" t="s">
+        <v>14</v>
+      </c>
+      <c r="D490" t="s">
+        <v>3</v>
+      </c>
+      <c r="E490">
+        <v>2</v>
+      </c>
+      <c r="F490">
+        <v>0</v>
+      </c>
+      <c r="G490" t="b">
+        <v>0</v>
+      </c>
+      <c r="H490">
+        <v>0</v>
+      </c>
+      <c r="I490">
+        <v>0</v>
+      </c>
+      <c r="J490">
+        <v>0</v>
+      </c>
+      <c r="K490">
+        <v>0</v>
+      </c>
+      <c r="L490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A491" s="2">
+        <v>45948</v>
+      </c>
+      <c r="B491" t="s">
+        <v>56</v>
+      </c>
+      <c r="C491" t="s">
+        <v>14</v>
+      </c>
+      <c r="D491" t="s">
+        <v>2</v>
+      </c>
+      <c r="E491">
+        <v>2</v>
+      </c>
+      <c r="F491">
+        <v>0</v>
+      </c>
+      <c r="G491" t="b">
+        <v>0</v>
+      </c>
+      <c r="H491">
+        <v>0</v>
+      </c>
+      <c r="I491">
+        <v>0</v>
+      </c>
+      <c r="J491">
+        <v>0</v>
+      </c>
+      <c r="K491">
+        <v>1</v>
+      </c>
+      <c r="L491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A492" s="2">
+        <v>45948</v>
+      </c>
+      <c r="B492" t="s">
+        <v>54</v>
+      </c>
+      <c r="C492" t="s">
+        <v>14</v>
+      </c>
+      <c r="D492" t="s">
+        <v>16</v>
+      </c>
+      <c r="E492">
+        <v>2</v>
+      </c>
+      <c r="F492">
+        <v>0</v>
+      </c>
+      <c r="G492" t="b">
+        <v>0</v>
+      </c>
+      <c r="H492">
+        <v>0</v>
+      </c>
+      <c r="I492">
+        <v>0</v>
+      </c>
+      <c r="J492">
+        <v>0</v>
+      </c>
+      <c r="K492">
+        <v>0</v>
+      </c>
+      <c r="L492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A493" s="2">
+        <v>45948</v>
+      </c>
+      <c r="B493" t="s">
+        <v>24</v>
+      </c>
+      <c r="C493" t="s">
+        <v>14</v>
+      </c>
+      <c r="D493" t="s">
+        <v>16</v>
+      </c>
+      <c r="E493">
+        <v>0</v>
+      </c>
+      <c r="F493">
+        <v>0</v>
+      </c>
+      <c r="G493" t="b">
+        <v>0</v>
+      </c>
+      <c r="H493">
+        <v>0</v>
+      </c>
+      <c r="I493">
+        <v>0</v>
+      </c>
+      <c r="J493">
+        <v>0</v>
+      </c>
+      <c r="K493">
+        <v>3</v>
+      </c>
+      <c r="L493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A494" s="2">
+        <v>45948</v>
+      </c>
+      <c r="B494" t="s">
+        <v>71</v>
+      </c>
+      <c r="C494" t="s">
+        <v>14</v>
+      </c>
+      <c r="D494" t="s">
+        <v>16</v>
+      </c>
+      <c r="E494">
+        <v>0</v>
+      </c>
+      <c r="F494">
+        <v>0</v>
+      </c>
+      <c r="G494" t="b">
+        <v>0</v>
+      </c>
+      <c r="H494">
+        <v>0</v>
+      </c>
+      <c r="I494">
+        <v>0</v>
+      </c>
+      <c r="J494">
+        <v>0</v>
+      </c>
+      <c r="K494">
+        <v>1</v>
+      </c>
+      <c r="L494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A495" s="2">
+        <v>45948</v>
+      </c>
+      <c r="B495" t="s">
+        <v>37</v>
+      </c>
+      <c r="C495" t="s">
+        <v>14</v>
+      </c>
+      <c r="D495" t="s">
+        <v>4</v>
+      </c>
+      <c r="E495">
+        <v>0</v>
+      </c>
+      <c r="F495">
+        <v>0</v>
+      </c>
+      <c r="G495" t="b">
+        <v>1</v>
+      </c>
+      <c r="H495">
+        <v>4</v>
+      </c>
+      <c r="I495">
+        <v>0</v>
+      </c>
+      <c r="J495">
+        <v>0</v>
+      </c>
+      <c r="K495">
+        <v>0</v>
+      </c>
+      <c r="L495">
         <v>0</v>
       </c>
     </row>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupocoomeva-my.sharepoint.com/personal/nalgmarin_coomeva_com_co/Documents/2025/Personal/Legendarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2618" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{472ECD91-16ED-418E-854C-4BB66B6A0888}"/>
+  <xr:revisionPtr revIDLastSave="2694" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5871E639-8A9E-4FD5-B961-2A587DB4711C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="84">
   <si>
     <t>jugador</t>
   </si>
@@ -1626,11 +1626,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L495"/>
+  <dimension ref="A1:L501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A480" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H498" sqref="H498"/>
+      <pane ySplit="1" topLeftCell="A483" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A502" sqref="A502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20459,6 +20459,234 @@
         <v>0</v>
       </c>
     </row>
+    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A496" s="2">
+        <v>45955</v>
+      </c>
+      <c r="B496" t="s">
+        <v>37</v>
+      </c>
+      <c r="C496" t="s">
+        <v>13</v>
+      </c>
+      <c r="D496" t="s">
+        <v>4</v>
+      </c>
+      <c r="E496">
+        <v>0</v>
+      </c>
+      <c r="F496">
+        <v>0</v>
+      </c>
+      <c r="G496" t="b">
+        <v>1</v>
+      </c>
+      <c r="H496">
+        <v>0</v>
+      </c>
+      <c r="I496">
+        <v>0</v>
+      </c>
+      <c r="J496">
+        <v>0</v>
+      </c>
+      <c r="K496">
+        <v>0</v>
+      </c>
+      <c r="L496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A497" s="2">
+        <v>45955</v>
+      </c>
+      <c r="B497" t="s">
+        <v>71</v>
+      </c>
+      <c r="C497" t="s">
+        <v>14</v>
+      </c>
+      <c r="D497" t="s">
+        <v>4</v>
+      </c>
+      <c r="E497">
+        <v>0</v>
+      </c>
+      <c r="F497">
+        <v>0</v>
+      </c>
+      <c r="G497" t="b">
+        <v>1</v>
+      </c>
+      <c r="H497">
+        <v>3</v>
+      </c>
+      <c r="I497">
+        <v>0</v>
+      </c>
+      <c r="J497">
+        <v>0</v>
+      </c>
+      <c r="K497">
+        <v>0</v>
+      </c>
+      <c r="L497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A498" s="2">
+        <v>45955</v>
+      </c>
+      <c r="B498" t="s">
+        <v>18</v>
+      </c>
+      <c r="C498" t="s">
+        <v>13</v>
+      </c>
+      <c r="D498" t="s">
+        <v>16</v>
+      </c>
+      <c r="E498">
+        <v>1</v>
+      </c>
+      <c r="F498">
+        <v>0</v>
+      </c>
+      <c r="G498" t="b">
+        <v>0</v>
+      </c>
+      <c r="H498">
+        <v>0</v>
+      </c>
+      <c r="I498">
+        <v>0</v>
+      </c>
+      <c r="J498">
+        <v>0</v>
+      </c>
+      <c r="K498">
+        <v>0</v>
+      </c>
+      <c r="L498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A499" s="2">
+        <v>45955</v>
+      </c>
+      <c r="B499" t="s">
+        <v>20</v>
+      </c>
+      <c r="C499" t="s">
+        <v>13</v>
+      </c>
+      <c r="D499" t="s">
+        <v>3</v>
+      </c>
+      <c r="E499">
+        <v>1</v>
+      </c>
+      <c r="F499">
+        <v>0</v>
+      </c>
+      <c r="G499" t="b">
+        <v>0</v>
+      </c>
+      <c r="H499">
+        <v>0</v>
+      </c>
+      <c r="I499">
+        <v>0</v>
+      </c>
+      <c r="J499">
+        <v>0</v>
+      </c>
+      <c r="K499">
+        <v>0</v>
+      </c>
+      <c r="L499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A500" s="2">
+        <v>45955</v>
+      </c>
+      <c r="B500" t="s">
+        <v>56</v>
+      </c>
+      <c r="C500" t="s">
+        <v>13</v>
+      </c>
+      <c r="D500" t="s">
+        <v>2</v>
+      </c>
+      <c r="E500">
+        <v>1</v>
+      </c>
+      <c r="F500">
+        <v>0</v>
+      </c>
+      <c r="G500" t="b">
+        <v>0</v>
+      </c>
+      <c r="H500">
+        <v>0</v>
+      </c>
+      <c r="I500">
+        <v>0</v>
+      </c>
+      <c r="J500">
+        <v>0</v>
+      </c>
+      <c r="K500">
+        <v>1</v>
+      </c>
+      <c r="L500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A501" s="2">
+        <v>45955</v>
+      </c>
+      <c r="B501" t="s">
+        <v>24</v>
+      </c>
+      <c r="C501" t="s">
+        <v>13</v>
+      </c>
+      <c r="D501" t="s">
+        <v>16</v>
+      </c>
+      <c r="E501">
+        <v>0</v>
+      </c>
+      <c r="F501">
+        <v>0</v>
+      </c>
+      <c r="G501" t="b">
+        <v>0</v>
+      </c>
+      <c r="H501">
+        <v>0</v>
+      </c>
+      <c r="I501">
+        <v>0</v>
+      </c>
+      <c r="J501">
+        <v>0</v>
+      </c>
+      <c r="K501">
+        <v>1</v>
+      </c>
+      <c r="L501">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupocoomeva-my.sharepoint.com/personal/nalgmarin_coomeva_com_co/Documents/2025/Personal/Legendarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2694" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5871E639-8A9E-4FD5-B961-2A587DB4711C}"/>
+  <xr:revisionPtr revIDLastSave="2834" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E19EB7E-3560-4A5D-B12F-23F0FB97FA32}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="84">
   <si>
     <t>jugador</t>
   </si>
@@ -1626,11 +1626,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L501"/>
+  <dimension ref="A1:L516"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A483" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A502" sqref="A502"/>
+      <pane ySplit="1" topLeftCell="A500" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B517" sqref="B517"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20687,6 +20687,576 @@
         <v>0</v>
       </c>
     </row>
+    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A502" s="2">
+        <v>45962</v>
+      </c>
+      <c r="B502" t="s">
+        <v>37</v>
+      </c>
+      <c r="C502" t="s">
+        <v>13</v>
+      </c>
+      <c r="D502" t="s">
+        <v>4</v>
+      </c>
+      <c r="E502">
+        <v>0</v>
+      </c>
+      <c r="F502">
+        <v>0</v>
+      </c>
+      <c r="G502" t="b">
+        <v>1</v>
+      </c>
+      <c r="H502">
+        <v>4</v>
+      </c>
+      <c r="I502">
+        <v>0</v>
+      </c>
+      <c r="J502">
+        <v>0</v>
+      </c>
+      <c r="K502">
+        <v>0</v>
+      </c>
+      <c r="L502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A503" s="2">
+        <v>45962</v>
+      </c>
+      <c r="B503" t="s">
+        <v>41</v>
+      </c>
+      <c r="C503" t="s">
+        <v>14</v>
+      </c>
+      <c r="D503" t="s">
+        <v>4</v>
+      </c>
+      <c r="E503">
+        <v>0</v>
+      </c>
+      <c r="F503">
+        <v>0</v>
+      </c>
+      <c r="G503" t="b">
+        <v>1</v>
+      </c>
+      <c r="H503">
+        <v>10</v>
+      </c>
+      <c r="I503">
+        <v>0</v>
+      </c>
+      <c r="J503">
+        <v>0</v>
+      </c>
+      <c r="K503">
+        <v>0</v>
+      </c>
+      <c r="L503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A504" s="2">
+        <v>45962</v>
+      </c>
+      <c r="B504" t="s">
+        <v>19</v>
+      </c>
+      <c r="C504" t="s">
+        <v>13</v>
+      </c>
+      <c r="D504" t="s">
+        <v>2</v>
+      </c>
+      <c r="E504">
+        <v>2</v>
+      </c>
+      <c r="F504">
+        <v>0</v>
+      </c>
+      <c r="G504" t="b">
+        <v>0</v>
+      </c>
+      <c r="H504">
+        <v>0</v>
+      </c>
+      <c r="I504">
+        <v>0</v>
+      </c>
+      <c r="J504">
+        <v>0</v>
+      </c>
+      <c r="K504">
+        <v>2</v>
+      </c>
+      <c r="L504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A505" s="2">
+        <v>45962</v>
+      </c>
+      <c r="B505" t="s">
+        <v>27</v>
+      </c>
+      <c r="C505" t="s">
+        <v>13</v>
+      </c>
+      <c r="D505" t="s">
+        <v>2</v>
+      </c>
+      <c r="E505">
+        <v>2</v>
+      </c>
+      <c r="F505">
+        <v>0</v>
+      </c>
+      <c r="G505" t="b">
+        <v>0</v>
+      </c>
+      <c r="H505">
+        <v>0</v>
+      </c>
+      <c r="I505">
+        <v>0</v>
+      </c>
+      <c r="J505">
+        <v>0</v>
+      </c>
+      <c r="K505">
+        <v>0</v>
+      </c>
+      <c r="L505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A506" s="2">
+        <v>45962</v>
+      </c>
+      <c r="B506" t="s">
+        <v>18</v>
+      </c>
+      <c r="C506" t="s">
+        <v>13</v>
+      </c>
+      <c r="D506" t="s">
+        <v>16</v>
+      </c>
+      <c r="E506">
+        <v>3</v>
+      </c>
+      <c r="F506">
+        <v>0</v>
+      </c>
+      <c r="G506" t="b">
+        <v>0</v>
+      </c>
+      <c r="H506">
+        <v>0</v>
+      </c>
+      <c r="I506">
+        <v>0</v>
+      </c>
+      <c r="J506">
+        <v>0</v>
+      </c>
+      <c r="K506">
+        <v>3</v>
+      </c>
+      <c r="L506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A507" s="2">
+        <v>45962</v>
+      </c>
+      <c r="B507" t="s">
+        <v>20</v>
+      </c>
+      <c r="C507" t="s">
+        <v>13</v>
+      </c>
+      <c r="D507" t="s">
+        <v>3</v>
+      </c>
+      <c r="E507">
+        <v>1</v>
+      </c>
+      <c r="F507">
+        <v>0</v>
+      </c>
+      <c r="G507" t="b">
+        <v>0</v>
+      </c>
+      <c r="H507">
+        <v>0</v>
+      </c>
+      <c r="I507">
+        <v>0</v>
+      </c>
+      <c r="J507">
+        <v>0</v>
+      </c>
+      <c r="K507">
+        <v>0</v>
+      </c>
+      <c r="L507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A508" s="2">
+        <v>45962</v>
+      </c>
+      <c r="B508" t="s">
+        <v>49</v>
+      </c>
+      <c r="C508" t="s">
+        <v>13</v>
+      </c>
+      <c r="D508" t="s">
+        <v>16</v>
+      </c>
+      <c r="E508">
+        <v>1</v>
+      </c>
+      <c r="F508">
+        <v>0</v>
+      </c>
+      <c r="G508" t="b">
+        <v>0</v>
+      </c>
+      <c r="H508">
+        <v>0</v>
+      </c>
+      <c r="I508">
+        <v>0</v>
+      </c>
+      <c r="J508">
+        <v>0</v>
+      </c>
+      <c r="K508">
+        <v>1</v>
+      </c>
+      <c r="L508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A509" s="2">
+        <v>45962</v>
+      </c>
+      <c r="B509" t="s">
+        <v>58</v>
+      </c>
+      <c r="C509" t="s">
+        <v>13</v>
+      </c>
+      <c r="D509" t="s">
+        <v>2</v>
+      </c>
+      <c r="E509">
+        <v>1</v>
+      </c>
+      <c r="F509">
+        <v>0</v>
+      </c>
+      <c r="G509" t="b">
+        <v>0</v>
+      </c>
+      <c r="H509">
+        <v>0</v>
+      </c>
+      <c r="I509">
+        <v>0</v>
+      </c>
+      <c r="J509">
+        <v>0</v>
+      </c>
+      <c r="K509">
+        <v>0</v>
+      </c>
+      <c r="L509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A510" s="2">
+        <v>45962</v>
+      </c>
+      <c r="B510" t="s">
+        <v>75</v>
+      </c>
+      <c r="C510" t="s">
+        <v>13</v>
+      </c>
+      <c r="D510" t="s">
+        <v>3</v>
+      </c>
+      <c r="E510">
+        <v>0</v>
+      </c>
+      <c r="F510">
+        <v>0</v>
+      </c>
+      <c r="G510" t="b">
+        <v>0</v>
+      </c>
+      <c r="H510">
+        <v>0</v>
+      </c>
+      <c r="I510">
+        <v>0</v>
+      </c>
+      <c r="J510">
+        <v>0</v>
+      </c>
+      <c r="K510">
+        <v>2</v>
+      </c>
+      <c r="L510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A511" s="2">
+        <v>45962</v>
+      </c>
+      <c r="B511" t="s">
+        <v>24</v>
+      </c>
+      <c r="C511" t="s">
+        <v>13</v>
+      </c>
+      <c r="D511" t="s">
+        <v>16</v>
+      </c>
+      <c r="E511">
+        <v>0</v>
+      </c>
+      <c r="F511">
+        <v>0</v>
+      </c>
+      <c r="G511" t="b">
+        <v>0</v>
+      </c>
+      <c r="H511">
+        <v>0</v>
+      </c>
+      <c r="I511">
+        <v>0</v>
+      </c>
+      <c r="J511">
+        <v>0</v>
+      </c>
+      <c r="K511">
+        <v>1</v>
+      </c>
+      <c r="L511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A512" s="2">
+        <v>45962</v>
+      </c>
+      <c r="B512" t="s">
+        <v>54</v>
+      </c>
+      <c r="C512" t="s">
+        <v>14</v>
+      </c>
+      <c r="D512" t="s">
+        <v>16</v>
+      </c>
+      <c r="E512">
+        <v>2</v>
+      </c>
+      <c r="F512">
+        <v>0</v>
+      </c>
+      <c r="G512" t="b">
+        <v>0</v>
+      </c>
+      <c r="H512">
+        <v>0</v>
+      </c>
+      <c r="I512">
+        <v>0</v>
+      </c>
+      <c r="J512">
+        <v>0</v>
+      </c>
+      <c r="K512">
+        <v>0</v>
+      </c>
+      <c r="L512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A513" s="2">
+        <v>45962</v>
+      </c>
+      <c r="B513" t="s">
+        <v>22</v>
+      </c>
+      <c r="C513" t="s">
+        <v>14</v>
+      </c>
+      <c r="D513" t="s">
+        <v>2</v>
+      </c>
+      <c r="E513">
+        <v>1</v>
+      </c>
+      <c r="F513">
+        <v>0</v>
+      </c>
+      <c r="G513" t="b">
+        <v>0</v>
+      </c>
+      <c r="H513">
+        <v>0</v>
+      </c>
+      <c r="I513">
+        <v>0</v>
+      </c>
+      <c r="J513">
+        <v>0</v>
+      </c>
+      <c r="K513">
+        <v>1</v>
+      </c>
+      <c r="L513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A514" s="2">
+        <v>45962</v>
+      </c>
+      <c r="B514" t="s">
+        <v>28</v>
+      </c>
+      <c r="C514" t="s">
+        <v>14</v>
+      </c>
+      <c r="D514" t="s">
+        <v>2</v>
+      </c>
+      <c r="E514">
+        <v>1</v>
+      </c>
+      <c r="F514">
+        <v>0</v>
+      </c>
+      <c r="G514" t="b">
+        <v>0</v>
+      </c>
+      <c r="H514">
+        <v>0</v>
+      </c>
+      <c r="I514">
+        <v>0</v>
+      </c>
+      <c r="J514">
+        <v>0</v>
+      </c>
+      <c r="K514">
+        <v>0</v>
+      </c>
+      <c r="L514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A515" s="2">
+        <v>45962</v>
+      </c>
+      <c r="B515" t="s">
+        <v>21</v>
+      </c>
+      <c r="C515" t="s">
+        <v>14</v>
+      </c>
+      <c r="D515" t="s">
+        <v>3</v>
+      </c>
+      <c r="E515">
+        <v>0</v>
+      </c>
+      <c r="F515">
+        <v>0</v>
+      </c>
+      <c r="G515" t="b">
+        <v>0</v>
+      </c>
+      <c r="H515">
+        <v>0</v>
+      </c>
+      <c r="I515">
+        <v>0</v>
+      </c>
+      <c r="J515">
+        <v>0</v>
+      </c>
+      <c r="K515">
+        <v>2</v>
+      </c>
+      <c r="L515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A516" s="2">
+        <v>45962</v>
+      </c>
+      <c r="B516" t="s">
+        <v>53</v>
+      </c>
+      <c r="C516" t="s">
+        <v>14</v>
+      </c>
+      <c r="D516" t="s">
+        <v>16</v>
+      </c>
+      <c r="E516">
+        <v>0</v>
+      </c>
+      <c r="F516">
+        <v>0</v>
+      </c>
+      <c r="G516" t="b">
+        <v>0</v>
+      </c>
+      <c r="H516">
+        <v>0</v>
+      </c>
+      <c r="I516">
+        <v>0</v>
+      </c>
+      <c r="J516">
+        <v>0</v>
+      </c>
+      <c r="K516">
+        <v>1</v>
+      </c>
+      <c r="L516">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupocoomeva-my.sharepoint.com/personal/nalgmarin_coomeva_com_co/Documents/2025/Personal/Legendarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2834" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E19EB7E-3560-4A5D-B12F-23F0FB97FA32}"/>
+  <xr:revisionPtr revIDLastSave="2949" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B95CB906-6D29-411D-AA0A-FF7771CE8523}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="84">
   <si>
     <t>jugador</t>
   </si>
@@ -1025,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,6 +1167,9 @@
       <c r="C10" s="2">
         <v>32882</v>
       </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1228,6 +1231,9 @@
       <c r="C15" s="2">
         <v>32887</v>
       </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1321,6 +1327,9 @@
       </c>
       <c r="C23" s="2">
         <v>32895</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1626,11 +1635,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L516"/>
+  <dimension ref="A1:L525"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A500" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B517" sqref="B517"/>
+      <pane ySplit="1" topLeftCell="A509" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A526" sqref="A526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21257,6 +21266,348 @@
         <v>0</v>
       </c>
     </row>
+    <row r="517" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A517" s="2">
+        <v>45969</v>
+      </c>
+      <c r="B517" t="s">
+        <v>82</v>
+      </c>
+      <c r="C517" t="s">
+        <v>13</v>
+      </c>
+      <c r="D517" t="s">
+        <v>4</v>
+      </c>
+      <c r="E517">
+        <v>0</v>
+      </c>
+      <c r="F517">
+        <v>0</v>
+      </c>
+      <c r="G517" t="b">
+        <v>1</v>
+      </c>
+      <c r="H517">
+        <v>2</v>
+      </c>
+      <c r="I517">
+        <v>0</v>
+      </c>
+      <c r="J517">
+        <v>0</v>
+      </c>
+      <c r="K517">
+        <v>0</v>
+      </c>
+      <c r="L517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A518" s="2">
+        <v>45969</v>
+      </c>
+      <c r="B518" t="s">
+        <v>33</v>
+      </c>
+      <c r="C518" t="s">
+        <v>14</v>
+      </c>
+      <c r="D518" t="s">
+        <v>4</v>
+      </c>
+      <c r="E518">
+        <v>0</v>
+      </c>
+      <c r="F518">
+        <v>0</v>
+      </c>
+      <c r="G518" t="b">
+        <v>1</v>
+      </c>
+      <c r="H518">
+        <v>5</v>
+      </c>
+      <c r="I518">
+        <v>0</v>
+      </c>
+      <c r="J518">
+        <v>0</v>
+      </c>
+      <c r="K518">
+        <v>0</v>
+      </c>
+      <c r="L518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A519" s="2">
+        <v>45969</v>
+      </c>
+      <c r="B519" t="s">
+        <v>54</v>
+      </c>
+      <c r="C519" t="s">
+        <v>13</v>
+      </c>
+      <c r="D519" t="s">
+        <v>16</v>
+      </c>
+      <c r="E519">
+        <v>1</v>
+      </c>
+      <c r="F519">
+        <v>0</v>
+      </c>
+      <c r="G519" t="b">
+        <v>0</v>
+      </c>
+      <c r="H519">
+        <v>0</v>
+      </c>
+      <c r="I519">
+        <v>1</v>
+      </c>
+      <c r="J519">
+        <v>0</v>
+      </c>
+      <c r="K519">
+        <v>0</v>
+      </c>
+      <c r="L519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A520" s="2">
+        <v>45969</v>
+      </c>
+      <c r="B520" t="s">
+        <v>27</v>
+      </c>
+      <c r="C520" t="s">
+        <v>13</v>
+      </c>
+      <c r="D520" t="s">
+        <v>2</v>
+      </c>
+      <c r="E520">
+        <v>1</v>
+      </c>
+      <c r="F520">
+        <v>0</v>
+      </c>
+      <c r="G520" t="b">
+        <v>0</v>
+      </c>
+      <c r="H520">
+        <v>0</v>
+      </c>
+      <c r="I520">
+        <v>0</v>
+      </c>
+      <c r="J520">
+        <v>0</v>
+      </c>
+      <c r="K520">
+        <v>0</v>
+      </c>
+      <c r="L520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A521" s="2">
+        <v>45969</v>
+      </c>
+      <c r="B521" t="s">
+        <v>18</v>
+      </c>
+      <c r="C521" t="s">
+        <v>14</v>
+      </c>
+      <c r="D521" t="s">
+        <v>16</v>
+      </c>
+      <c r="E521">
+        <v>2</v>
+      </c>
+      <c r="F521">
+        <v>0</v>
+      </c>
+      <c r="G521" t="b">
+        <v>0</v>
+      </c>
+      <c r="H521">
+        <v>0</v>
+      </c>
+      <c r="I521">
+        <v>0</v>
+      </c>
+      <c r="J521">
+        <v>0</v>
+      </c>
+      <c r="K521">
+        <v>1</v>
+      </c>
+      <c r="L521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A522" s="2">
+        <v>45969</v>
+      </c>
+      <c r="B522" t="s">
+        <v>56</v>
+      </c>
+      <c r="C522" t="s">
+        <v>14</v>
+      </c>
+      <c r="D522" t="s">
+        <v>2</v>
+      </c>
+      <c r="E522">
+        <v>0</v>
+      </c>
+      <c r="F522">
+        <v>0</v>
+      </c>
+      <c r="G522" t="b">
+        <v>0</v>
+      </c>
+      <c r="H522">
+        <v>0</v>
+      </c>
+      <c r="I522">
+        <v>0</v>
+      </c>
+      <c r="J522">
+        <v>0</v>
+      </c>
+      <c r="K522">
+        <v>1</v>
+      </c>
+      <c r="L522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A523" s="2">
+        <v>45969</v>
+      </c>
+      <c r="B523" t="s">
+        <v>28</v>
+      </c>
+      <c r="C523" t="s">
+        <v>14</v>
+      </c>
+      <c r="D523" t="s">
+        <v>2</v>
+      </c>
+      <c r="E523">
+        <v>2</v>
+      </c>
+      <c r="F523">
+        <v>0</v>
+      </c>
+      <c r="G523" t="b">
+        <v>0</v>
+      </c>
+      <c r="H523">
+        <v>0</v>
+      </c>
+      <c r="I523">
+        <v>0</v>
+      </c>
+      <c r="J523">
+        <v>0</v>
+      </c>
+      <c r="K523">
+        <v>0</v>
+      </c>
+      <c r="L523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A524" s="2">
+        <v>45969</v>
+      </c>
+      <c r="B524" t="s">
+        <v>34</v>
+      </c>
+      <c r="C524" t="s">
+        <v>14</v>
+      </c>
+      <c r="D524" t="s">
+        <v>3</v>
+      </c>
+      <c r="E524">
+        <v>1</v>
+      </c>
+      <c r="F524">
+        <v>0</v>
+      </c>
+      <c r="G524" t="b">
+        <v>0</v>
+      </c>
+      <c r="H524">
+        <v>0</v>
+      </c>
+      <c r="I524">
+        <v>0</v>
+      </c>
+      <c r="J524">
+        <v>0</v>
+      </c>
+      <c r="K524">
+        <v>0</v>
+      </c>
+      <c r="L524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A525" s="2">
+        <v>45969</v>
+      </c>
+      <c r="B525" t="s">
+        <v>24</v>
+      </c>
+      <c r="C525" t="s">
+        <v>14</v>
+      </c>
+      <c r="D525" t="s">
+        <v>16</v>
+      </c>
+      <c r="E525">
+        <v>0</v>
+      </c>
+      <c r="F525">
+        <v>0</v>
+      </c>
+      <c r="G525" t="b">
+        <v>0</v>
+      </c>
+      <c r="H525">
+        <v>0</v>
+      </c>
+      <c r="I525">
+        <v>0</v>
+      </c>
+      <c r="J525">
+        <v>0</v>
+      </c>
+      <c r="K525">
+        <v>1</v>
+      </c>
+      <c r="L525">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupocoomeva-my.sharepoint.com/personal/nalgmarin_coomeva_com_co/Documents/2025/Personal/Legendarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2949" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B95CB906-6D29-411D-AA0A-FF7771CE8523}"/>
+  <xr:revisionPtr revIDLastSave="3167" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D120D3A7-F3D0-42C8-ADA5-C691C7F1077A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="86">
   <si>
     <t>jugador</t>
   </si>
@@ -290,6 +290,12 @@
   <si>
     <t>Montaño</t>
   </si>
+  <si>
+    <t>primer_tiempo</t>
+  </si>
+  <si>
+    <t>segundo_tiempo</t>
+  </si>
 </sst>
 </file>
 
@@ -364,7 +370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -377,6 +383,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1026,7 +1035,7 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,6 +1204,9 @@
       <c r="C12" s="2">
         <v>32884</v>
       </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1428,6 +1440,9 @@
       <c r="C31" s="2">
         <v>32901</v>
       </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -1461,6 +1476,9 @@
       <c r="C34" s="2">
         <v>32904</v>
       </c>
+      <c r="D34">
+        <v>52</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -1562,6 +1580,9 @@
       </c>
       <c r="C43" s="2">
         <v>32913</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1635,11 +1656,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L525"/>
+  <dimension ref="A1:N540"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A509" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A526" sqref="A526"/>
+      <pane ySplit="1" topLeftCell="A524" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F543" sqref="F543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1656,9 +1677,10 @@
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -1695,8 +1717,14 @@
       <c r="L1" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45661</v>
       </c>
@@ -1734,7 +1762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45661</v>
       </c>
@@ -1772,7 +1800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45661</v>
       </c>
@@ -1810,7 +1838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45661</v>
       </c>
@@ -1847,8 +1875,14 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45661</v>
       </c>
@@ -1885,8 +1919,14 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45661</v>
       </c>
@@ -1923,8 +1963,14 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45661</v>
       </c>
@@ -1961,8 +2007,14 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45661</v>
       </c>
@@ -1999,8 +2051,14 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45663</v>
       </c>
@@ -2037,8 +2095,14 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45663</v>
       </c>
@@ -2075,8 +2139,14 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45663</v>
       </c>
@@ -2113,8 +2183,14 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45663</v>
       </c>
@@ -2151,8 +2227,14 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45663</v>
       </c>
@@ -2189,8 +2271,14 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45663</v>
       </c>
@@ -2227,8 +2315,14 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45663</v>
       </c>
@@ -2265,8 +2359,14 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45663</v>
       </c>
@@ -2303,8 +2403,14 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45663</v>
       </c>
@@ -2341,8 +2447,14 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45668</v>
       </c>
@@ -2379,8 +2491,14 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45668</v>
       </c>
@@ -2417,8 +2535,14 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45668</v>
       </c>
@@ -2455,8 +2579,14 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>45668</v>
       </c>
@@ -2493,8 +2623,14 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>45668</v>
       </c>
@@ -2531,8 +2667,14 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45668</v>
       </c>
@@ -2569,8 +2711,14 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>45668</v>
       </c>
@@ -2607,8 +2755,14 @@
       <c r="L25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>45668</v>
       </c>
@@ -2645,8 +2799,14 @@
       <c r="L26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45675</v>
       </c>
@@ -2683,8 +2843,14 @@
       <c r="L27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>45675</v>
       </c>
@@ -2721,8 +2887,14 @@
       <c r="L28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>45675</v>
       </c>
@@ -2759,8 +2931,14 @@
       <c r="L29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>45675</v>
       </c>
@@ -2797,8 +2975,14 @@
       <c r="L30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>45675</v>
       </c>
@@ -2835,8 +3019,14 @@
       <c r="L31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>45675</v>
       </c>
@@ -2873,8 +3063,14 @@
       <c r="L32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>45675</v>
       </c>
@@ -2911,8 +3107,14 @@
       <c r="L33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>45675</v>
       </c>
@@ -2949,8 +3151,14 @@
       <c r="L34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>45675</v>
       </c>
@@ -2987,8 +3195,14 @@
       <c r="L35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>45675</v>
       </c>
@@ -3025,8 +3239,14 @@
       <c r="L36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>45675</v>
       </c>
@@ -3063,8 +3283,14 @@
       <c r="L37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>45675</v>
       </c>
@@ -3101,8 +3327,14 @@
       <c r="L38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>45675</v>
       </c>
@@ -3139,8 +3371,14 @@
       <c r="L39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>45682</v>
       </c>
@@ -3177,8 +3415,14 @@
       <c r="L40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>45682</v>
       </c>
@@ -3215,8 +3459,14 @@
       <c r="L41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>45682</v>
       </c>
@@ -3253,8 +3503,14 @@
       <c r="L42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>45682</v>
       </c>
@@ -3291,8 +3547,14 @@
       <c r="L43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>45682</v>
       </c>
@@ -3329,8 +3591,14 @@
       <c r="L44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>45682</v>
       </c>
@@ -3367,8 +3635,14 @@
       <c r="L45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45682</v>
       </c>
@@ -3405,8 +3679,14 @@
       <c r="L46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45682</v>
       </c>
@@ -3443,8 +3723,14 @@
       <c r="L47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45689</v>
       </c>
@@ -3481,8 +3767,14 @@
       <c r="L48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>45689</v>
       </c>
@@ -3519,8 +3811,14 @@
       <c r="L49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>45689</v>
       </c>
@@ -3557,8 +3855,14 @@
       <c r="L50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>45689</v>
       </c>
@@ -3595,8 +3899,14 @@
       <c r="L51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>45689</v>
       </c>
@@ -3633,8 +3943,14 @@
       <c r="L52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>45689</v>
       </c>
@@ -3671,8 +3987,14 @@
       <c r="L53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>45689</v>
       </c>
@@ -3709,8 +4031,14 @@
       <c r="L54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>45696</v>
       </c>
@@ -3747,8 +4075,14 @@
       <c r="L55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>45696</v>
       </c>
@@ -3785,8 +4119,14 @@
       <c r="L56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>45696</v>
       </c>
@@ -3823,8 +4163,14 @@
       <c r="L57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>45696</v>
       </c>
@@ -3861,8 +4207,14 @@
       <c r="L58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>45696</v>
       </c>
@@ -3899,8 +4251,14 @@
       <c r="L59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>45696</v>
       </c>
@@ -3937,8 +4295,14 @@
       <c r="L60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>45696</v>
       </c>
@@ -3975,8 +4339,14 @@
       <c r="L61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>45703</v>
       </c>
@@ -4013,8 +4383,14 @@
       <c r="L62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>45703</v>
       </c>
@@ -4051,8 +4427,14 @@
       <c r="L63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>45703</v>
       </c>
@@ -4089,8 +4471,14 @@
       <c r="L64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>45703</v>
       </c>
@@ -4127,8 +4515,14 @@
       <c r="L65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>45703</v>
       </c>
@@ -4165,8 +4559,14 @@
       <c r="L66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>45703</v>
       </c>
@@ -4203,8 +4603,14 @@
       <c r="L67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>45703</v>
       </c>
@@ -4241,8 +4647,14 @@
       <c r="L68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>45703</v>
       </c>
@@ -4279,8 +4691,14 @@
       <c r="L69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>45703</v>
       </c>
@@ -4317,8 +4735,14 @@
       <c r="L70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>45703</v>
       </c>
@@ -4355,8 +4779,14 @@
       <c r="L71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>45710</v>
       </c>
@@ -4393,8 +4823,14 @@
       <c r="L72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>45710</v>
       </c>
@@ -4431,8 +4867,14 @@
       <c r="L73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>45710</v>
       </c>
@@ -4469,8 +4911,14 @@
       <c r="L74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>45710</v>
       </c>
@@ -4507,8 +4955,14 @@
       <c r="L75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>45710</v>
       </c>
@@ -4545,8 +4999,14 @@
       <c r="L76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>45710</v>
       </c>
@@ -4583,8 +5043,14 @@
       <c r="L77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>45710</v>
       </c>
@@ -4621,8 +5087,14 @@
       <c r="L78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>45710</v>
       </c>
@@ -4659,8 +5131,14 @@
       <c r="L79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>45710</v>
       </c>
@@ -4697,8 +5175,14 @@
       <c r="L80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>45710</v>
       </c>
@@ -4735,8 +5219,14 @@
       <c r="L81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>45710</v>
       </c>
@@ -4773,8 +5263,14 @@
       <c r="L82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>45710</v>
       </c>
@@ -4811,8 +5307,14 @@
       <c r="L83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>45717</v>
       </c>
@@ -4849,8 +5351,14 @@
       <c r="L84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>45717</v>
       </c>
@@ -4887,8 +5395,14 @@
       <c r="L85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>45717</v>
       </c>
@@ -4925,8 +5439,14 @@
       <c r="L86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>45717</v>
       </c>
@@ -4963,8 +5483,14 @@
       <c r="L87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>45717</v>
       </c>
@@ -5001,8 +5527,14 @@
       <c r="L88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>45717</v>
       </c>
@@ -5039,8 +5571,14 @@
       <c r="L89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>45717</v>
       </c>
@@ -5077,8 +5615,14 @@
       <c r="L90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>45717</v>
       </c>
@@ -5115,8 +5659,14 @@
       <c r="L91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>45724</v>
       </c>
@@ -5153,8 +5703,14 @@
       <c r="L92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>45724</v>
       </c>
@@ -5191,8 +5747,14 @@
       <c r="L93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>45724</v>
       </c>
@@ -5229,8 +5791,14 @@
       <c r="L94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>45724</v>
       </c>
@@ -5267,8 +5835,14 @@
       <c r="L95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>45724</v>
       </c>
@@ -5305,8 +5879,14 @@
       <c r="L96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>45724</v>
       </c>
@@ -5343,8 +5923,14 @@
       <c r="L97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>45724</v>
       </c>
@@ -5381,8 +5967,14 @@
       <c r="L98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>45724</v>
       </c>
@@ -5419,8 +6011,14 @@
       <c r="L99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>45724</v>
       </c>
@@ -5457,8 +6055,14 @@
       <c r="L100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>45724</v>
       </c>
@@ -5495,8 +6099,14 @@
       <c r="L101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>45731</v>
       </c>
@@ -5533,8 +6143,14 @@
       <c r="L102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>45731</v>
       </c>
@@ -5571,8 +6187,14 @@
       <c r="L103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>45731</v>
       </c>
@@ -5609,8 +6231,14 @@
       <c r="L104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>45731</v>
       </c>
@@ -5647,8 +6275,14 @@
       <c r="L105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>45731</v>
       </c>
@@ -5685,8 +6319,14 @@
       <c r="L106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>45731</v>
       </c>
@@ -5723,8 +6363,14 @@
       <c r="L107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>45731</v>
       </c>
@@ -5761,8 +6407,14 @@
       <c r="L108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>45731</v>
       </c>
@@ -5799,8 +6451,14 @@
       <c r="L109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>45731</v>
       </c>
@@ -5837,8 +6495,14 @@
       <c r="L110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>45731</v>
       </c>
@@ -5875,8 +6539,14 @@
       <c r="L111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>45731</v>
       </c>
@@ -5913,8 +6583,14 @@
       <c r="L112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>45738</v>
       </c>
@@ -5951,8 +6627,14 @@
       <c r="L113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>45738</v>
       </c>
@@ -5989,8 +6671,14 @@
       <c r="L114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>45738</v>
       </c>
@@ -6027,8 +6715,14 @@
       <c r="L115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>45738</v>
       </c>
@@ -6065,8 +6759,14 @@
       <c r="L116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>45738</v>
       </c>
@@ -6103,8 +6803,14 @@
       <c r="L117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>45738</v>
       </c>
@@ -6141,8 +6847,14 @@
       <c r="L118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>45738</v>
       </c>
@@ -6179,8 +6891,14 @@
       <c r="L119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>45738</v>
       </c>
@@ -6217,8 +6935,14 @@
       <c r="L120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>45738</v>
       </c>
@@ -6255,8 +6979,14 @@
       <c r="L121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>45738</v>
       </c>
@@ -6293,8 +7023,14 @@
       <c r="L122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>45738</v>
       </c>
@@ -6331,8 +7067,14 @@
       <c r="L123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>45738</v>
       </c>
@@ -6369,8 +7111,14 @@
       <c r="L124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>45740</v>
       </c>
@@ -6407,8 +7155,14 @@
       <c r="L125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>45740</v>
       </c>
@@ -6445,8 +7199,14 @@
       <c r="L126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>45740</v>
       </c>
@@ -6483,8 +7243,14 @@
       <c r="L127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>45740</v>
       </c>
@@ -6521,8 +7287,14 @@
       <c r="L128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>45740</v>
       </c>
@@ -6559,8 +7331,14 @@
       <c r="L129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>45740</v>
       </c>
@@ -6597,8 +7375,14 @@
       <c r="L130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>45740</v>
       </c>
@@ -6635,8 +7419,14 @@
       <c r="L131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>45740</v>
       </c>
@@ -6673,8 +7463,14 @@
       <c r="L132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>45740</v>
       </c>
@@ -6711,8 +7507,14 @@
       <c r="L133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>45740</v>
       </c>
@@ -6749,8 +7551,14 @@
       <c r="L134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>45740</v>
       </c>
@@ -6787,8 +7595,14 @@
       <c r="L135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>45745</v>
       </c>
@@ -6825,8 +7639,14 @@
       <c r="L136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>45745</v>
       </c>
@@ -6863,8 +7683,14 @@
       <c r="L137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>45745</v>
       </c>
@@ -6901,8 +7727,14 @@
       <c r="L138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>45745</v>
       </c>
@@ -6939,8 +7771,14 @@
       <c r="L139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>45745</v>
       </c>
@@ -6977,8 +7815,14 @@
       <c r="L140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>45745</v>
       </c>
@@ -7015,8 +7859,14 @@
       <c r="L141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>45745</v>
       </c>
@@ -7053,8 +7903,14 @@
       <c r="L142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>45745</v>
       </c>
@@ -7091,8 +7947,14 @@
       <c r="L143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>45745</v>
       </c>
@@ -7129,8 +7991,14 @@
       <c r="L144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>45745</v>
       </c>
@@ -7167,8 +8035,14 @@
       <c r="L145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>45745</v>
       </c>
@@ -7205,8 +8079,14 @@
       <c r="L146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>45745</v>
       </c>
@@ -7243,8 +8123,14 @@
       <c r="L147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>45745</v>
       </c>
@@ -7281,8 +8167,14 @@
       <c r="L148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>45745</v>
       </c>
@@ -7319,8 +8211,14 @@
       <c r="L149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>45745</v>
       </c>
@@ -7357,8 +8255,14 @@
       <c r="L150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>45745</v>
       </c>
@@ -7395,8 +8299,14 @@
       <c r="L151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>45745</v>
       </c>
@@ -7433,8 +8343,14 @@
       <c r="L152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>45745</v>
       </c>
@@ -7471,8 +8387,14 @@
       <c r="L153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>45745</v>
       </c>
@@ -7509,8 +8431,14 @@
       <c r="L154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>45745</v>
       </c>
@@ -7547,8 +8475,14 @@
       <c r="L155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>45745</v>
       </c>
@@ -7585,8 +8519,14 @@
       <c r="L156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>45745</v>
       </c>
@@ -7623,8 +8563,14 @@
       <c r="L157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>45745</v>
       </c>
@@ -7661,8 +8607,14 @@
       <c r="L158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>45745</v>
       </c>
@@ -7699,8 +8651,14 @@
       <c r="L159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>45745</v>
       </c>
@@ -7737,8 +8695,14 @@
       <c r="L160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>45745</v>
       </c>
@@ -7775,8 +8739,14 @@
       <c r="L161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>45745</v>
       </c>
@@ -7813,8 +8783,14 @@
       <c r="L162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>45745</v>
       </c>
@@ -7851,8 +8827,14 @@
       <c r="L163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>45745</v>
       </c>
@@ -7889,8 +8871,14 @@
       <c r="L164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>45745</v>
       </c>
@@ -7927,8 +8915,14 @@
       <c r="L165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>45745</v>
       </c>
@@ -7965,8 +8959,14 @@
       <c r="L166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>45752</v>
       </c>
@@ -8003,8 +9003,14 @@
       <c r="L167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>45752</v>
       </c>
@@ -8041,8 +9047,14 @@
       <c r="L168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>45752</v>
       </c>
@@ -8079,8 +9091,14 @@
       <c r="L169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>45752</v>
       </c>
@@ -8117,8 +9135,14 @@
       <c r="L170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>45752</v>
       </c>
@@ -8155,8 +9179,14 @@
       <c r="L171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>45752</v>
       </c>
@@ -8193,8 +9223,14 @@
       <c r="L172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>45752</v>
       </c>
@@ -8231,8 +9267,14 @@
       <c r="L173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>45752</v>
       </c>
@@ -8269,8 +9311,14 @@
       <c r="L174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>45752</v>
       </c>
@@ -8307,8 +9355,14 @@
       <c r="L175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>45752</v>
       </c>
@@ -8345,8 +9399,14 @@
       <c r="L176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>45752</v>
       </c>
@@ -8383,8 +9443,14 @@
       <c r="L177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>45752</v>
       </c>
@@ -8421,8 +9487,14 @@
       <c r="L178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>45752</v>
       </c>
@@ -8459,8 +9531,14 @@
       <c r="L179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>45752</v>
       </c>
@@ -8497,8 +9575,14 @@
       <c r="L180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>45752</v>
       </c>
@@ -8535,8 +9619,14 @@
       <c r="L181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>45759</v>
       </c>
@@ -8573,8 +9663,14 @@
       <c r="L182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M182">
+        <v>0</v>
+      </c>
+      <c r="N182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>45759</v>
       </c>
@@ -8611,8 +9707,14 @@
       <c r="L183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M183">
+        <v>0</v>
+      </c>
+      <c r="N183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>45759</v>
       </c>
@@ -8649,8 +9751,14 @@
       <c r="L184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>45759</v>
       </c>
@@ -8687,8 +9795,14 @@
       <c r="L185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M185">
+        <v>0</v>
+      </c>
+      <c r="N185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>45759</v>
       </c>
@@ -8725,8 +9839,14 @@
       <c r="L186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M186">
+        <v>0</v>
+      </c>
+      <c r="N186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>45759</v>
       </c>
@@ -8763,8 +9883,14 @@
       <c r="L187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>45759</v>
       </c>
@@ -8801,8 +9927,14 @@
       <c r="L188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>45759</v>
       </c>
@@ -8839,8 +9971,14 @@
       <c r="L189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>45759</v>
       </c>
@@ -8877,8 +10015,14 @@
       <c r="L190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M190">
+        <v>0</v>
+      </c>
+      <c r="N190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>45759</v>
       </c>
@@ -8915,8 +10059,14 @@
       <c r="L191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M191">
+        <v>0</v>
+      </c>
+      <c r="N191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>45759</v>
       </c>
@@ -8953,8 +10103,14 @@
       <c r="L192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M192">
+        <v>0</v>
+      </c>
+      <c r="N192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>45759</v>
       </c>
@@ -8991,8 +10147,14 @@
       <c r="L193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M193">
+        <v>0</v>
+      </c>
+      <c r="N193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>45759</v>
       </c>
@@ -9029,8 +10191,14 @@
       <c r="L194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M194">
+        <v>0</v>
+      </c>
+      <c r="N194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>45766</v>
       </c>
@@ -9067,8 +10235,14 @@
       <c r="L195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>45766</v>
       </c>
@@ -9105,8 +10279,14 @@
       <c r="L196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>45766</v>
       </c>
@@ -9143,8 +10323,14 @@
       <c r="L197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M197">
+        <v>0</v>
+      </c>
+      <c r="N197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>45766</v>
       </c>
@@ -9181,8 +10367,14 @@
       <c r="L198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M198">
+        <v>0</v>
+      </c>
+      <c r="N198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>45766</v>
       </c>
@@ -9219,8 +10411,14 @@
       <c r="L199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M199">
+        <v>0</v>
+      </c>
+      <c r="N199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>45766</v>
       </c>
@@ -9257,8 +10455,14 @@
       <c r="L200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M200">
+        <v>0</v>
+      </c>
+      <c r="N200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>45766</v>
       </c>
@@ -9295,8 +10499,14 @@
       <c r="L201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M201">
+        <v>0</v>
+      </c>
+      <c r="N201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>45766</v>
       </c>
@@ -9333,8 +10543,14 @@
       <c r="L202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M202">
+        <v>0</v>
+      </c>
+      <c r="N202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>45766</v>
       </c>
@@ -9371,8 +10587,14 @@
       <c r="L203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M203">
+        <v>0</v>
+      </c>
+      <c r="N203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>45766</v>
       </c>
@@ -9409,8 +10631,14 @@
       <c r="L204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M204">
+        <v>0</v>
+      </c>
+      <c r="N204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>45766</v>
       </c>
@@ -9447,8 +10675,14 @@
       <c r="L205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M205">
+        <v>0</v>
+      </c>
+      <c r="N205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>45766</v>
       </c>
@@ -9485,8 +10719,14 @@
       <c r="L206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M206">
+        <v>0</v>
+      </c>
+      <c r="N206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>45766</v>
       </c>
@@ -9523,8 +10763,14 @@
       <c r="L207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M207">
+        <v>0</v>
+      </c>
+      <c r="N207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>45766</v>
       </c>
@@ -9561,8 +10807,14 @@
       <c r="L208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M208">
+        <v>0</v>
+      </c>
+      <c r="N208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>45766</v>
       </c>
@@ -9599,8 +10851,14 @@
       <c r="L209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M209">
+        <v>0</v>
+      </c>
+      <c r="N209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>45766</v>
       </c>
@@ -9637,8 +10895,14 @@
       <c r="L210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M210">
+        <v>0</v>
+      </c>
+      <c r="N210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>45778</v>
       </c>
@@ -9675,8 +10939,14 @@
       <c r="L211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M211">
+        <v>0</v>
+      </c>
+      <c r="N211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>45778</v>
       </c>
@@ -9713,8 +10983,14 @@
       <c r="L212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M212">
+        <v>0</v>
+      </c>
+      <c r="N212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>45778</v>
       </c>
@@ -9751,8 +11027,14 @@
       <c r="L213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M213">
+        <v>0</v>
+      </c>
+      <c r="N213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>45778</v>
       </c>
@@ -9789,8 +11071,14 @@
       <c r="L214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M214">
+        <v>0</v>
+      </c>
+      <c r="N214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>45778</v>
       </c>
@@ -9827,8 +11115,14 @@
       <c r="L215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M215">
+        <v>0</v>
+      </c>
+      <c r="N215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>45778</v>
       </c>
@@ -9865,8 +11159,14 @@
       <c r="L216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M216">
+        <v>0</v>
+      </c>
+      <c r="N216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>45778</v>
       </c>
@@ -9903,8 +11203,14 @@
       <c r="L217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M217">
+        <v>0</v>
+      </c>
+      <c r="N217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>45778</v>
       </c>
@@ -9941,8 +11247,14 @@
       <c r="L218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M218">
+        <v>0</v>
+      </c>
+      <c r="N218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>45778</v>
       </c>
@@ -9979,8 +11291,14 @@
       <c r="L219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M219">
+        <v>0</v>
+      </c>
+      <c r="N219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>45778</v>
       </c>
@@ -10017,8 +11335,14 @@
       <c r="L220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M220">
+        <v>0</v>
+      </c>
+      <c r="N220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>45778</v>
       </c>
@@ -10055,8 +11379,14 @@
       <c r="L221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M221">
+        <v>0</v>
+      </c>
+      <c r="N221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>45778</v>
       </c>
@@ -10093,8 +11423,14 @@
       <c r="L222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>45780</v>
       </c>
@@ -10131,8 +11467,14 @@
       <c r="L223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>45780</v>
       </c>
@@ -10169,8 +11511,14 @@
       <c r="L224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>45780</v>
       </c>
@@ -10207,8 +11555,14 @@
       <c r="L225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>45780</v>
       </c>
@@ -10245,8 +11599,14 @@
       <c r="L226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>45780</v>
       </c>
@@ -10283,8 +11643,14 @@
       <c r="L227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>45780</v>
       </c>
@@ -10321,8 +11687,14 @@
       <c r="L228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>45780</v>
       </c>
@@ -10359,8 +11731,14 @@
       <c r="L229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>45787</v>
       </c>
@@ -10397,8 +11775,14 @@
       <c r="L230">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>45787</v>
       </c>
@@ -10435,8 +11819,14 @@
       <c r="L231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>45787</v>
       </c>
@@ -10473,8 +11863,14 @@
       <c r="L232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>45787</v>
       </c>
@@ -10511,8 +11907,14 @@
       <c r="L233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>45787</v>
       </c>
@@ -10549,8 +11951,14 @@
       <c r="L234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M234">
+        <v>0</v>
+      </c>
+      <c r="N234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>45787</v>
       </c>
@@ -10587,8 +11995,14 @@
       <c r="L235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M235">
+        <v>0</v>
+      </c>
+      <c r="N235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>45787</v>
       </c>
@@ -10625,8 +12039,14 @@
       <c r="L236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>45787</v>
       </c>
@@ -10663,8 +12083,14 @@
       <c r="L237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M237">
+        <v>0</v>
+      </c>
+      <c r="N237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>45787</v>
       </c>
@@ -10701,8 +12127,14 @@
       <c r="L238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M238">
+        <v>0</v>
+      </c>
+      <c r="N238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>45787</v>
       </c>
@@ -10739,8 +12171,14 @@
       <c r="L239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M239">
+        <v>0</v>
+      </c>
+      <c r="N239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>45787</v>
       </c>
@@ -10777,8 +12215,14 @@
       <c r="L240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M240">
+        <v>0</v>
+      </c>
+      <c r="N240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>45787</v>
       </c>
@@ -10815,8 +12259,14 @@
       <c r="L241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M241">
+        <v>0</v>
+      </c>
+      <c r="N241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>45801</v>
       </c>
@@ -10853,8 +12303,14 @@
       <c r="L242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M242">
+        <v>0</v>
+      </c>
+      <c r="N242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>45801</v>
       </c>
@@ -10891,8 +12347,14 @@
       <c r="L243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M243">
+        <v>0</v>
+      </c>
+      <c r="N243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>45801</v>
       </c>
@@ -10929,8 +12391,14 @@
       <c r="L244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M244">
+        <v>0</v>
+      </c>
+      <c r="N244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>45801</v>
       </c>
@@ -10967,8 +12435,14 @@
       <c r="L245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M245">
+        <v>0</v>
+      </c>
+      <c r="N245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>45801</v>
       </c>
@@ -11005,8 +12479,14 @@
       <c r="L246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M246">
+        <v>0</v>
+      </c>
+      <c r="N246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>45801</v>
       </c>
@@ -11043,8 +12523,14 @@
       <c r="L247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M247">
+        <v>0</v>
+      </c>
+      <c r="N247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>45801</v>
       </c>
@@ -11081,8 +12567,14 @@
       <c r="L248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M248">
+        <v>0</v>
+      </c>
+      <c r="N248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>45801</v>
       </c>
@@ -11119,8 +12611,14 @@
       <c r="L249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M249">
+        <v>0</v>
+      </c>
+      <c r="N249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>45801</v>
       </c>
@@ -11157,8 +12655,14 @@
       <c r="L250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M250">
+        <v>0</v>
+      </c>
+      <c r="N250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>45801</v>
       </c>
@@ -11195,8 +12699,14 @@
       <c r="L251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M251">
+        <v>0</v>
+      </c>
+      <c r="N251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>45801</v>
       </c>
@@ -11233,8 +12743,14 @@
       <c r="L252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M252">
+        <v>0</v>
+      </c>
+      <c r="N252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>45801</v>
       </c>
@@ -11271,8 +12787,14 @@
       <c r="L253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M253">
+        <v>0</v>
+      </c>
+      <c r="N253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>45801</v>
       </c>
@@ -11309,8 +12831,14 @@
       <c r="L254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M254">
+        <v>0</v>
+      </c>
+      <c r="N254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>45808</v>
       </c>
@@ -11347,8 +12875,14 @@
       <c r="L255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M255">
+        <v>0</v>
+      </c>
+      <c r="N255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>45808</v>
       </c>
@@ -11385,8 +12919,14 @@
       <c r="L256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M256">
+        <v>0</v>
+      </c>
+      <c r="N256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>45808</v>
       </c>
@@ -11423,8 +12963,14 @@
       <c r="L257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M257">
+        <v>0</v>
+      </c>
+      <c r="N257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>45808</v>
       </c>
@@ -11461,8 +13007,14 @@
       <c r="L258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M258">
+        <v>0</v>
+      </c>
+      <c r="N258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>45808</v>
       </c>
@@ -11499,8 +13051,14 @@
       <c r="L259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M259">
+        <v>0</v>
+      </c>
+      <c r="N259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>45808</v>
       </c>
@@ -11537,8 +13095,14 @@
       <c r="L260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M260">
+        <v>0</v>
+      </c>
+      <c r="N260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>45808</v>
       </c>
@@ -11575,8 +13139,14 @@
       <c r="L261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M261">
+        <v>0</v>
+      </c>
+      <c r="N261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>45808</v>
       </c>
@@ -11613,8 +13183,14 @@
       <c r="L262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M262">
+        <v>0</v>
+      </c>
+      <c r="N262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>45808</v>
       </c>
@@ -11651,8 +13227,14 @@
       <c r="L263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M263">
+        <v>0</v>
+      </c>
+      <c r="N263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>45808</v>
       </c>
@@ -11689,8 +13271,14 @@
       <c r="L264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M264">
+        <v>0</v>
+      </c>
+      <c r="N264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>45815</v>
       </c>
@@ -11727,8 +13315,14 @@
       <c r="L265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M265">
+        <v>0</v>
+      </c>
+      <c r="N265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>45815</v>
       </c>
@@ -11765,8 +13359,14 @@
       <c r="L266">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M266">
+        <v>0</v>
+      </c>
+      <c r="N266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>45815</v>
       </c>
@@ -11803,8 +13403,14 @@
       <c r="L267">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M267">
+        <v>0</v>
+      </c>
+      <c r="N267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>45815</v>
       </c>
@@ -11841,8 +13447,14 @@
       <c r="L268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M268">
+        <v>0</v>
+      </c>
+      <c r="N268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>45815</v>
       </c>
@@ -11879,8 +13491,14 @@
       <c r="L269">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M269">
+        <v>0</v>
+      </c>
+      <c r="N269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>45815</v>
       </c>
@@ -11917,8 +13535,14 @@
       <c r="L270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M270">
+        <v>0</v>
+      </c>
+      <c r="N270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>45815</v>
       </c>
@@ -11955,8 +13579,14 @@
       <c r="L271">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M271">
+        <v>0</v>
+      </c>
+      <c r="N271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>45815</v>
       </c>
@@ -11993,8 +13623,14 @@
       <c r="L272">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M272">
+        <v>0</v>
+      </c>
+      <c r="N272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>45815</v>
       </c>
@@ -12031,8 +13667,14 @@
       <c r="L273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M273">
+        <v>0</v>
+      </c>
+      <c r="N273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>45815</v>
       </c>
@@ -12069,8 +13711,14 @@
       <c r="L274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M274">
+        <v>0</v>
+      </c>
+      <c r="N274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>45815</v>
       </c>
@@ -12107,8 +13755,14 @@
       <c r="L275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M275">
+        <v>0</v>
+      </c>
+      <c r="N275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>45815</v>
       </c>
@@ -12145,8 +13799,14 @@
       <c r="L276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M276">
+        <v>0</v>
+      </c>
+      <c r="N276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>45822</v>
       </c>
@@ -12183,8 +13843,14 @@
       <c r="L277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M277">
+        <v>0</v>
+      </c>
+      <c r="N277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>45822</v>
       </c>
@@ -12221,8 +13887,14 @@
       <c r="L278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M278">
+        <v>0</v>
+      </c>
+      <c r="N278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>45822</v>
       </c>
@@ -12259,8 +13931,14 @@
       <c r="L279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M279">
+        <v>0</v>
+      </c>
+      <c r="N279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>45822</v>
       </c>
@@ -12297,8 +13975,14 @@
       <c r="L280">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M280">
+        <v>0</v>
+      </c>
+      <c r="N280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>45822</v>
       </c>
@@ -12335,8 +14019,14 @@
       <c r="L281">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M281">
+        <v>0</v>
+      </c>
+      <c r="N281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>45822</v>
       </c>
@@ -12373,8 +14063,14 @@
       <c r="L282">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M282">
+        <v>0</v>
+      </c>
+      <c r="N282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>45822</v>
       </c>
@@ -12411,8 +14107,14 @@
       <c r="L283">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M283">
+        <v>0</v>
+      </c>
+      <c r="N283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>45822</v>
       </c>
@@ -12449,8 +14151,14 @@
       <c r="L284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M284">
+        <v>0</v>
+      </c>
+      <c r="N284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>45822</v>
       </c>
@@ -12487,8 +14195,14 @@
       <c r="L285">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M285">
+        <v>0</v>
+      </c>
+      <c r="N285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>45822</v>
       </c>
@@ -12525,8 +14239,14 @@
       <c r="L286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M286">
+        <v>0</v>
+      </c>
+      <c r="N286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>45822</v>
       </c>
@@ -12563,8 +14283,14 @@
       <c r="L287">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M287">
+        <v>0</v>
+      </c>
+      <c r="N287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>45822</v>
       </c>
@@ -12601,8 +14327,14 @@
       <c r="L288">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M288">
+        <v>0</v>
+      </c>
+      <c r="N288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>45822</v>
       </c>
@@ -12639,8 +14371,14 @@
       <c r="L289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M289">
+        <v>0</v>
+      </c>
+      <c r="N289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>45822</v>
       </c>
@@ -12677,8 +14415,14 @@
       <c r="L290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M290">
+        <v>0</v>
+      </c>
+      <c r="N290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>45822</v>
       </c>
@@ -12715,8 +14459,14 @@
       <c r="L291">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M291">
+        <v>0</v>
+      </c>
+      <c r="N291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>45829</v>
       </c>
@@ -12753,8 +14503,14 @@
       <c r="L292">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M292">
+        <v>0</v>
+      </c>
+      <c r="N292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>45829</v>
       </c>
@@ -12791,8 +14547,14 @@
       <c r="L293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M293">
+        <v>0</v>
+      </c>
+      <c r="N293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>45829</v>
       </c>
@@ -12829,8 +14591,14 @@
       <c r="L294">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M294">
+        <v>0</v>
+      </c>
+      <c r="N294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>45829</v>
       </c>
@@ -12867,8 +14635,14 @@
       <c r="L295">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M295">
+        <v>0</v>
+      </c>
+      <c r="N295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>45829</v>
       </c>
@@ -12905,8 +14679,14 @@
       <c r="L296">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M296">
+        <v>0</v>
+      </c>
+      <c r="N296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>45829</v>
       </c>
@@ -12943,8 +14723,14 @@
       <c r="L297">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M297">
+        <v>0</v>
+      </c>
+      <c r="N297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>45829</v>
       </c>
@@ -12981,8 +14767,14 @@
       <c r="L298">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M298">
+        <v>0</v>
+      </c>
+      <c r="N298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>45829</v>
       </c>
@@ -13019,8 +14811,14 @@
       <c r="L299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M299">
+        <v>0</v>
+      </c>
+      <c r="N299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>45829</v>
       </c>
@@ -13057,8 +14855,14 @@
       <c r="L300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M300">
+        <v>0</v>
+      </c>
+      <c r="N300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>45829</v>
       </c>
@@ -13095,8 +14899,14 @@
       <c r="L301">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M301">
+        <v>0</v>
+      </c>
+      <c r="N301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>45829</v>
       </c>
@@ -13133,8 +14943,14 @@
       <c r="L302">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M302">
+        <v>0</v>
+      </c>
+      <c r="N302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>45829</v>
       </c>
@@ -13171,8 +14987,14 @@
       <c r="L303">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M303">
+        <v>0</v>
+      </c>
+      <c r="N303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>45836</v>
       </c>
@@ -13209,8 +15031,14 @@
       <c r="L304">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M304">
+        <v>0</v>
+      </c>
+      <c r="N304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>45836</v>
       </c>
@@ -13247,8 +15075,14 @@
       <c r="L305">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M305">
+        <v>0</v>
+      </c>
+      <c r="N305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>45836</v>
       </c>
@@ -13285,8 +15119,14 @@
       <c r="L306">
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M306">
+        <v>0</v>
+      </c>
+      <c r="N306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>45836</v>
       </c>
@@ -13323,8 +15163,14 @@
       <c r="L307">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M307">
+        <v>0</v>
+      </c>
+      <c r="N307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>45836</v>
       </c>
@@ -13361,8 +15207,14 @@
       <c r="L308">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M308">
+        <v>0</v>
+      </c>
+      <c r="N308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>45836</v>
       </c>
@@ -13399,8 +15251,14 @@
       <c r="L309">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M309">
+        <v>0</v>
+      </c>
+      <c r="N309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>45836</v>
       </c>
@@ -13437,8 +15295,14 @@
       <c r="L310">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M310">
+        <v>0</v>
+      </c>
+      <c r="N310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>45836</v>
       </c>
@@ -13475,8 +15339,14 @@
       <c r="L311">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M311">
+        <v>0</v>
+      </c>
+      <c r="N311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>45836</v>
       </c>
@@ -13513,8 +15383,14 @@
       <c r="L312">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M312">
+        <v>0</v>
+      </c>
+      <c r="N312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>45836</v>
       </c>
@@ -13551,8 +15427,14 @@
       <c r="L313">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M313">
+        <v>0</v>
+      </c>
+      <c r="N313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>45836</v>
       </c>
@@ -13589,8 +15471,14 @@
       <c r="L314">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M314">
+        <v>0</v>
+      </c>
+      <c r="N314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>45836</v>
       </c>
@@ -13627,8 +15515,14 @@
       <c r="L315">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M315">
+        <v>0</v>
+      </c>
+      <c r="N315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>45836</v>
       </c>
@@ -13665,8 +15559,14 @@
       <c r="L316">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M316">
+        <v>0</v>
+      </c>
+      <c r="N316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>45836</v>
       </c>
@@ -13703,8 +15603,14 @@
       <c r="L317">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M317">
+        <v>0</v>
+      </c>
+      <c r="N317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>45836</v>
       </c>
@@ -13741,8 +15647,14 @@
       <c r="L318">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M318">
+        <v>0</v>
+      </c>
+      <c r="N318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>45843</v>
       </c>
@@ -13779,8 +15691,14 @@
       <c r="L319">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M319">
+        <v>0</v>
+      </c>
+      <c r="N319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>45843</v>
       </c>
@@ -13817,8 +15735,14 @@
       <c r="L320">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M320">
+        <v>0</v>
+      </c>
+      <c r="N320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>45843</v>
       </c>
@@ -13855,8 +15779,14 @@
       <c r="L321">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M321">
+        <v>0</v>
+      </c>
+      <c r="N321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>45843</v>
       </c>
@@ -13893,8 +15823,14 @@
       <c r="L322">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M322">
+        <v>0</v>
+      </c>
+      <c r="N322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>45843</v>
       </c>
@@ -13931,8 +15867,14 @@
       <c r="L323">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M323">
+        <v>0</v>
+      </c>
+      <c r="N323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>45843</v>
       </c>
@@ -13969,8 +15911,14 @@
       <c r="L324">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M324">
+        <v>0</v>
+      </c>
+      <c r="N324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>45843</v>
       </c>
@@ -14007,8 +15955,14 @@
       <c r="L325">
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M325">
+        <v>0</v>
+      </c>
+      <c r="N325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>45843</v>
       </c>
@@ -14045,8 +15999,14 @@
       <c r="L326">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M326">
+        <v>0</v>
+      </c>
+      <c r="N326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>45843</v>
       </c>
@@ -14083,8 +16043,14 @@
       <c r="L327">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M327">
+        <v>0</v>
+      </c>
+      <c r="N327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>45843</v>
       </c>
@@ -14121,8 +16087,14 @@
       <c r="L328">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M328">
+        <v>0</v>
+      </c>
+      <c r="N328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>45843</v>
       </c>
@@ -14159,8 +16131,14 @@
       <c r="L329">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M329">
+        <v>0</v>
+      </c>
+      <c r="N329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>45843</v>
       </c>
@@ -14197,8 +16175,14 @@
       <c r="L330">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M330">
+        <v>0</v>
+      </c>
+      <c r="N330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>45843</v>
       </c>
@@ -14235,8 +16219,14 @@
       <c r="L331">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M331">
+        <v>0</v>
+      </c>
+      <c r="N331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>45850</v>
       </c>
@@ -14273,8 +16263,14 @@
       <c r="L332">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M332">
+        <v>0</v>
+      </c>
+      <c r="N332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>45850</v>
       </c>
@@ -14311,8 +16307,14 @@
       <c r="L333">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M333">
+        <v>0</v>
+      </c>
+      <c r="N333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>45850</v>
       </c>
@@ -14349,8 +16351,14 @@
       <c r="L334">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M334">
+        <v>0</v>
+      </c>
+      <c r="N334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>45850</v>
       </c>
@@ -14387,8 +16395,14 @@
       <c r="L335">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M335">
+        <v>0</v>
+      </c>
+      <c r="N335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>45850</v>
       </c>
@@ -14425,8 +16439,14 @@
       <c r="L336">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M336">
+        <v>0</v>
+      </c>
+      <c r="N336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>45850</v>
       </c>
@@ -14463,8 +16483,14 @@
       <c r="L337">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M337">
+        <v>0</v>
+      </c>
+      <c r="N337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>45850</v>
       </c>
@@ -14501,8 +16527,14 @@
       <c r="L338">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M338">
+        <v>0</v>
+      </c>
+      <c r="N338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>45850</v>
       </c>
@@ -14539,8 +16571,14 @@
       <c r="L339">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M339">
+        <v>0</v>
+      </c>
+      <c r="N339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>45850</v>
       </c>
@@ -14577,8 +16615,14 @@
       <c r="L340">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M340">
+        <v>0</v>
+      </c>
+      <c r="N340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>45850</v>
       </c>
@@ -14615,8 +16659,14 @@
       <c r="L341">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M341">
+        <v>0</v>
+      </c>
+      <c r="N341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>45857</v>
       </c>
@@ -14653,8 +16703,14 @@
       <c r="L342">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M342">
+        <v>0</v>
+      </c>
+      <c r="N342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>45857</v>
       </c>
@@ -14691,8 +16747,14 @@
       <c r="L343">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M343">
+        <v>0</v>
+      </c>
+      <c r="N343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>45857</v>
       </c>
@@ -14729,8 +16791,14 @@
       <c r="L344">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M344">
+        <v>0</v>
+      </c>
+      <c r="N344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>45857</v>
       </c>
@@ -14767,8 +16835,14 @@
       <c r="L345">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M345">
+        <v>0</v>
+      </c>
+      <c r="N345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>45857</v>
       </c>
@@ -14805,8 +16879,14 @@
       <c r="L346">
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M346">
+        <v>0</v>
+      </c>
+      <c r="N346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>45857</v>
       </c>
@@ -14843,8 +16923,14 @@
       <c r="L347">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M347">
+        <v>0</v>
+      </c>
+      <c r="N347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>45857</v>
       </c>
@@ -14881,8 +16967,14 @@
       <c r="L348">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M348">
+        <v>0</v>
+      </c>
+      <c r="N348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>45857</v>
       </c>
@@ -14919,8 +17011,14 @@
       <c r="L349">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M349">
+        <v>0</v>
+      </c>
+      <c r="N349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>45857</v>
       </c>
@@ -14957,8 +17055,14 @@
       <c r="L350">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M350">
+        <v>0</v>
+      </c>
+      <c r="N350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>45864</v>
       </c>
@@ -14995,8 +17099,14 @@
       <c r="L351">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M351">
+        <v>0</v>
+      </c>
+      <c r="N351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>45864</v>
       </c>
@@ -15033,8 +17143,14 @@
       <c r="L352">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M352">
+        <v>0</v>
+      </c>
+      <c r="N352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>45864</v>
       </c>
@@ -15071,8 +17187,14 @@
       <c r="L353">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M353">
+        <v>0</v>
+      </c>
+      <c r="N353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>45864</v>
       </c>
@@ -15109,8 +17231,14 @@
       <c r="L354">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M354">
+        <v>0</v>
+      </c>
+      <c r="N354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>45864</v>
       </c>
@@ -15147,8 +17275,14 @@
       <c r="L355">
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M355">
+        <v>0</v>
+      </c>
+      <c r="N355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>45864</v>
       </c>
@@ -15185,8 +17319,14 @@
       <c r="L356">
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M356">
+        <v>0</v>
+      </c>
+      <c r="N356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>45864</v>
       </c>
@@ -15223,8 +17363,14 @@
       <c r="L357">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M357">
+        <v>0</v>
+      </c>
+      <c r="N357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>45864</v>
       </c>
@@ -15261,8 +17407,14 @@
       <c r="L358">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M358">
+        <v>0</v>
+      </c>
+      <c r="N358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>45864</v>
       </c>
@@ -15299,8 +17451,14 @@
       <c r="L359">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M359">
+        <v>0</v>
+      </c>
+      <c r="N359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>45864</v>
       </c>
@@ -15337,8 +17495,14 @@
       <c r="L360">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M360">
+        <v>0</v>
+      </c>
+      <c r="N360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>45871</v>
       </c>
@@ -15375,8 +17539,14 @@
       <c r="L361">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M361">
+        <v>0</v>
+      </c>
+      <c r="N361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>45871</v>
       </c>
@@ -15413,8 +17583,14 @@
       <c r="L362">
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M362">
+        <v>0</v>
+      </c>
+      <c r="N362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>45871</v>
       </c>
@@ -15451,8 +17627,14 @@
       <c r="L363">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M363">
+        <v>0</v>
+      </c>
+      <c r="N363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>45871</v>
       </c>
@@ -15489,8 +17671,14 @@
       <c r="L364">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M364">
+        <v>0</v>
+      </c>
+      <c r="N364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>45871</v>
       </c>
@@ -15527,8 +17715,14 @@
       <c r="L365">
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M365">
+        <v>0</v>
+      </c>
+      <c r="N365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>45871</v>
       </c>
@@ -15565,8 +17759,14 @@
       <c r="L366">
         <v>0</v>
       </c>
-    </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M366">
+        <v>0</v>
+      </c>
+      <c r="N366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
         <v>45871</v>
       </c>
@@ -15603,8 +17803,14 @@
       <c r="L367">
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M367">
+        <v>0</v>
+      </c>
+      <c r="N367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
         <v>45871</v>
       </c>
@@ -15641,8 +17847,14 @@
       <c r="L368">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M368">
+        <v>0</v>
+      </c>
+      <c r="N368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
         <v>45871</v>
       </c>
@@ -15679,8 +17891,14 @@
       <c r="L369">
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M369">
+        <v>0</v>
+      </c>
+      <c r="N369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
         <v>45871</v>
       </c>
@@ -15717,8 +17935,14 @@
       <c r="L370">
         <v>0</v>
       </c>
-    </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M370">
+        <v>0</v>
+      </c>
+      <c r="N370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
         <v>45871</v>
       </c>
@@ -15755,8 +17979,14 @@
       <c r="L371">
         <v>0</v>
       </c>
-    </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M371">
+        <v>0</v>
+      </c>
+      <c r="N371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
         <v>45871</v>
       </c>
@@ -15793,8 +18023,14 @@
       <c r="L372">
         <v>0</v>
       </c>
-    </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M372">
+        <v>0</v>
+      </c>
+      <c r="N372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
         <v>45878</v>
       </c>
@@ -15831,8 +18067,14 @@
       <c r="L373">
         <v>0</v>
       </c>
-    </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M373">
+        <v>0</v>
+      </c>
+      <c r="N373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>45878</v>
       </c>
@@ -15869,8 +18111,14 @@
       <c r="L374">
         <v>0</v>
       </c>
-    </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M374">
+        <v>0</v>
+      </c>
+      <c r="N374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>45878</v>
       </c>
@@ -15907,8 +18155,14 @@
       <c r="L375">
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M375">
+        <v>0</v>
+      </c>
+      <c r="N375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
         <v>45878</v>
       </c>
@@ -15945,8 +18199,14 @@
       <c r="L376">
         <v>0</v>
       </c>
-    </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M376">
+        <v>0</v>
+      </c>
+      <c r="N376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
         <v>45878</v>
       </c>
@@ -15983,8 +18243,14 @@
       <c r="L377">
         <v>0</v>
       </c>
-    </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M377">
+        <v>0</v>
+      </c>
+      <c r="N377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
         <v>45878</v>
       </c>
@@ -16021,8 +18287,14 @@
       <c r="L378">
         <v>0</v>
       </c>
-    </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M378">
+        <v>0</v>
+      </c>
+      <c r="N378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
         <v>45878</v>
       </c>
@@ -16059,8 +18331,14 @@
       <c r="L379">
         <v>0</v>
       </c>
-    </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M379">
+        <v>0</v>
+      </c>
+      <c r="N379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
         <v>45878</v>
       </c>
@@ -16097,8 +18375,14 @@
       <c r="L380">
         <v>0</v>
       </c>
-    </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M380">
+        <v>0</v>
+      </c>
+      <c r="N380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
         <v>45885</v>
       </c>
@@ -16135,8 +18419,14 @@
       <c r="L381">
         <v>0</v>
       </c>
-    </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M381">
+        <v>0</v>
+      </c>
+      <c r="N381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
         <v>45885</v>
       </c>
@@ -16173,8 +18463,14 @@
       <c r="L382">
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M382">
+        <v>0</v>
+      </c>
+      <c r="N382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
         <v>45885</v>
       </c>
@@ -16211,8 +18507,14 @@
       <c r="L383">
         <v>0</v>
       </c>
-    </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M383">
+        <v>0</v>
+      </c>
+      <c r="N383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
         <v>45885</v>
       </c>
@@ -16249,8 +18551,14 @@
       <c r="L384">
         <v>0</v>
       </c>
-    </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M384">
+        <v>0</v>
+      </c>
+      <c r="N384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
         <v>45885</v>
       </c>
@@ -16287,8 +18595,14 @@
       <c r="L385">
         <v>0</v>
       </c>
-    </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M385">
+        <v>0</v>
+      </c>
+      <c r="N385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
         <v>45885</v>
       </c>
@@ -16325,8 +18639,14 @@
       <c r="L386">
         <v>0</v>
       </c>
-    </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M386">
+        <v>0</v>
+      </c>
+      <c r="N386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
         <v>45885</v>
       </c>
@@ -16363,8 +18683,14 @@
       <c r="L387">
         <v>0</v>
       </c>
-    </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M387">
+        <v>0</v>
+      </c>
+      <c r="N387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
         <v>45885</v>
       </c>
@@ -16401,8 +18727,14 @@
       <c r="L388">
         <v>0</v>
       </c>
-    </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M388">
+        <v>0</v>
+      </c>
+      <c r="N388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A389" s="2">
         <v>45885</v>
       </c>
@@ -16439,8 +18771,14 @@
       <c r="L389">
         <v>0</v>
       </c>
-    </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M389">
+        <v>0</v>
+      </c>
+      <c r="N389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
         <v>45885</v>
       </c>
@@ -16477,8 +18815,14 @@
       <c r="L390">
         <v>0</v>
       </c>
-    </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M390">
+        <v>0</v>
+      </c>
+      <c r="N390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
         <v>45885</v>
       </c>
@@ -16515,8 +18859,14 @@
       <c r="L391">
         <v>0</v>
       </c>
-    </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M391">
+        <v>0</v>
+      </c>
+      <c r="N391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
         <v>45885</v>
       </c>
@@ -16553,8 +18903,14 @@
       <c r="L392">
         <v>0</v>
       </c>
-    </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M392">
+        <v>0</v>
+      </c>
+      <c r="N392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
         <v>45892</v>
       </c>
@@ -16591,8 +18947,14 @@
       <c r="L393">
         <v>0</v>
       </c>
-    </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M393">
+        <v>0</v>
+      </c>
+      <c r="N393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
         <v>45892</v>
       </c>
@@ -16629,8 +18991,14 @@
       <c r="L394">
         <v>0</v>
       </c>
-    </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M394">
+        <v>0</v>
+      </c>
+      <c r="N394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
         <v>45892</v>
       </c>
@@ -16667,8 +19035,14 @@
       <c r="L395">
         <v>0</v>
       </c>
-    </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M395">
+        <v>0</v>
+      </c>
+      <c r="N395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
         <v>45892</v>
       </c>
@@ -16705,8 +19079,14 @@
       <c r="L396">
         <v>0</v>
       </c>
-    </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M396">
+        <v>0</v>
+      </c>
+      <c r="N396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
         <v>45892</v>
       </c>
@@ -16743,8 +19123,14 @@
       <c r="L397">
         <v>0</v>
       </c>
-    </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M397">
+        <v>0</v>
+      </c>
+      <c r="N397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
         <v>45892</v>
       </c>
@@ -16781,8 +19167,14 @@
       <c r="L398">
         <v>0</v>
       </c>
-    </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M398">
+        <v>0</v>
+      </c>
+      <c r="N398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
         <v>45892</v>
       </c>
@@ -16819,8 +19211,14 @@
       <c r="L399">
         <v>0</v>
       </c>
-    </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M399">
+        <v>0</v>
+      </c>
+      <c r="N399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
         <v>45892</v>
       </c>
@@ -16857,8 +19255,14 @@
       <c r="L400">
         <v>0</v>
       </c>
-    </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M400">
+        <v>0</v>
+      </c>
+      <c r="N400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
         <v>45892</v>
       </c>
@@ -16895,8 +19299,14 @@
       <c r="L401">
         <v>0</v>
       </c>
-    </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M401">
+        <v>0</v>
+      </c>
+      <c r="N401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
         <v>45892</v>
       </c>
@@ -16933,8 +19343,14 @@
       <c r="L402">
         <v>0</v>
       </c>
-    </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M402">
+        <v>0</v>
+      </c>
+      <c r="N402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A403" s="2">
         <v>45899</v>
       </c>
@@ -16971,8 +19387,14 @@
       <c r="L403">
         <v>0</v>
       </c>
-    </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M403">
+        <v>0</v>
+      </c>
+      <c r="N403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A404" s="2">
         <v>45899</v>
       </c>
@@ -17009,8 +19431,14 @@
       <c r="L404">
         <v>0</v>
       </c>
-    </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M404">
+        <v>0</v>
+      </c>
+      <c r="N404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A405" s="2">
         <v>45899</v>
       </c>
@@ -17047,8 +19475,14 @@
       <c r="L405">
         <v>0</v>
       </c>
-    </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M405">
+        <v>0</v>
+      </c>
+      <c r="N405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A406" s="2">
         <v>45899</v>
       </c>
@@ -17085,8 +19519,14 @@
       <c r="L406">
         <v>0</v>
       </c>
-    </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M406">
+        <v>0</v>
+      </c>
+      <c r="N406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A407" s="2">
         <v>45899</v>
       </c>
@@ -17123,8 +19563,14 @@
       <c r="L407">
         <v>0</v>
       </c>
-    </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M407">
+        <v>0</v>
+      </c>
+      <c r="N407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A408" s="2">
         <v>45899</v>
       </c>
@@ -17161,8 +19607,14 @@
       <c r="L408">
         <v>0</v>
       </c>
-    </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M408">
+        <v>0</v>
+      </c>
+      <c r="N408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A409" s="2">
         <v>45899</v>
       </c>
@@ -17199,8 +19651,14 @@
       <c r="L409">
         <v>0</v>
       </c>
-    </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M409">
+        <v>0</v>
+      </c>
+      <c r="N409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A410" s="2">
         <v>45899</v>
       </c>
@@ -17237,8 +19695,14 @@
       <c r="L410">
         <v>0</v>
       </c>
-    </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M410">
+        <v>0</v>
+      </c>
+      <c r="N410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A411" s="2">
         <v>45899</v>
       </c>
@@ -17275,8 +19739,14 @@
       <c r="L411">
         <v>0</v>
       </c>
-    </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M411">
+        <v>0</v>
+      </c>
+      <c r="N411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A412" s="2">
         <v>45899</v>
       </c>
@@ -17313,8 +19783,14 @@
       <c r="L412">
         <v>0</v>
       </c>
-    </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M412">
+        <v>0</v>
+      </c>
+      <c r="N412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A413" s="2">
         <v>45899</v>
       </c>
@@ -17351,8 +19827,14 @@
       <c r="L413">
         <v>0</v>
       </c>
-    </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M413">
+        <v>0</v>
+      </c>
+      <c r="N413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A414" s="2">
         <v>45899</v>
       </c>
@@ -17389,8 +19871,14 @@
       <c r="L414">
         <v>0</v>
       </c>
-    </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M414">
+        <v>0</v>
+      </c>
+      <c r="N414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A415" s="2">
         <v>45899</v>
       </c>
@@ -17427,8 +19915,14 @@
       <c r="L415">
         <v>0</v>
       </c>
-    </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M415">
+        <v>0</v>
+      </c>
+      <c r="N415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A416" s="2">
         <v>45906</v>
       </c>
@@ -17465,8 +19959,14 @@
       <c r="L416">
         <v>0</v>
       </c>
-    </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M416">
+        <v>0</v>
+      </c>
+      <c r="N416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A417" s="2">
         <v>45906</v>
       </c>
@@ -17503,8 +20003,14 @@
       <c r="L417">
         <v>0</v>
       </c>
-    </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M417">
+        <v>0</v>
+      </c>
+      <c r="N417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A418" s="2">
         <v>45906</v>
       </c>
@@ -17541,8 +20047,14 @@
       <c r="L418">
         <v>0</v>
       </c>
-    </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M418">
+        <v>0</v>
+      </c>
+      <c r="N418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A419" s="2">
         <v>45906</v>
       </c>
@@ -17579,8 +20091,14 @@
       <c r="L419">
         <v>0</v>
       </c>
-    </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M419">
+        <v>0</v>
+      </c>
+      <c r="N419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A420" s="2">
         <v>45906</v>
       </c>
@@ -17617,8 +20135,14 @@
       <c r="L420">
         <v>0</v>
       </c>
-    </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M420">
+        <v>0</v>
+      </c>
+      <c r="N420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A421" s="2">
         <v>45906</v>
       </c>
@@ -17655,8 +20179,14 @@
       <c r="L421">
         <v>0</v>
       </c>
-    </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M421">
+        <v>0</v>
+      </c>
+      <c r="N421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A422" s="2">
         <v>45906</v>
       </c>
@@ -17693,8 +20223,14 @@
       <c r="L422">
         <v>0</v>
       </c>
-    </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M422">
+        <v>0</v>
+      </c>
+      <c r="N422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A423" s="2">
         <v>45906</v>
       </c>
@@ -17731,8 +20267,14 @@
       <c r="L423">
         <v>0</v>
       </c>
-    </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M423">
+        <v>0</v>
+      </c>
+      <c r="N423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A424" s="2">
         <v>45906</v>
       </c>
@@ -17769,8 +20311,14 @@
       <c r="L424">
         <v>0</v>
       </c>
-    </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M424">
+        <v>0</v>
+      </c>
+      <c r="N424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A425" s="2">
         <v>45906</v>
       </c>
@@ -17807,8 +20355,14 @@
       <c r="L425">
         <v>0</v>
       </c>
-    </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M425">
+        <v>0</v>
+      </c>
+      <c r="N425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A426" s="2">
         <v>45906</v>
       </c>
@@ -17845,8 +20399,14 @@
       <c r="L426">
         <v>0</v>
       </c>
-    </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M426">
+        <v>0</v>
+      </c>
+      <c r="N426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A427" s="2">
         <v>45906</v>
       </c>
@@ -17883,8 +20443,14 @@
       <c r="L427">
         <v>0</v>
       </c>
-    </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M427">
+        <v>0</v>
+      </c>
+      <c r="N427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A428" s="2">
         <v>45906</v>
       </c>
@@ -17921,8 +20487,14 @@
       <c r="L428">
         <v>0</v>
       </c>
-    </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M428">
+        <v>0</v>
+      </c>
+      <c r="N428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A429" s="2">
         <v>45913</v>
       </c>
@@ -17959,8 +20531,14 @@
       <c r="L429">
         <v>0</v>
       </c>
-    </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M429">
+        <v>0</v>
+      </c>
+      <c r="N429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A430" s="2">
         <v>45913</v>
       </c>
@@ -17997,8 +20575,14 @@
       <c r="L430">
         <v>0</v>
       </c>
-    </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M430">
+        <v>0</v>
+      </c>
+      <c r="N430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A431" s="2">
         <v>45913</v>
       </c>
@@ -18035,8 +20619,14 @@
       <c r="L431">
         <v>0</v>
       </c>
-    </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M431">
+        <v>0</v>
+      </c>
+      <c r="N431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A432" s="2">
         <v>45913</v>
       </c>
@@ -18073,8 +20663,14 @@
       <c r="L432">
         <v>0</v>
       </c>
-    </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M432">
+        <v>0</v>
+      </c>
+      <c r="N432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A433" s="2">
         <v>45913</v>
       </c>
@@ -18111,8 +20707,14 @@
       <c r="L433">
         <v>0</v>
       </c>
-    </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M433">
+        <v>0</v>
+      </c>
+      <c r="N433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A434" s="2">
         <v>45913</v>
       </c>
@@ -18149,8 +20751,14 @@
       <c r="L434">
         <v>0</v>
       </c>
-    </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M434">
+        <v>0</v>
+      </c>
+      <c r="N434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A435" s="2">
         <v>45913</v>
       </c>
@@ -18187,8 +20795,14 @@
       <c r="L435">
         <v>0</v>
       </c>
-    </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M435">
+        <v>0</v>
+      </c>
+      <c r="N435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A436" s="2">
         <v>45913</v>
       </c>
@@ -18225,8 +20839,14 @@
       <c r="L436">
         <v>0</v>
       </c>
-    </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M436">
+        <v>0</v>
+      </c>
+      <c r="N436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A437" s="2">
         <v>45913</v>
       </c>
@@ -18263,8 +20883,14 @@
       <c r="L437">
         <v>0</v>
       </c>
-    </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M437">
+        <v>0</v>
+      </c>
+      <c r="N437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A438" s="2">
         <v>45913</v>
       </c>
@@ -18301,8 +20927,14 @@
       <c r="L438">
         <v>0</v>
       </c>
-    </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M438">
+        <v>0</v>
+      </c>
+      <c r="N438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A439" s="2">
         <v>45913</v>
       </c>
@@ -18339,8 +20971,14 @@
       <c r="L439">
         <v>0</v>
       </c>
-    </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M439">
+        <v>0</v>
+      </c>
+      <c r="N439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A440" s="2">
         <v>45913</v>
       </c>
@@ -18377,8 +21015,14 @@
       <c r="L440">
         <v>0</v>
       </c>
-    </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M440">
+        <v>0</v>
+      </c>
+      <c r="N440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A441" s="2">
         <v>45913</v>
       </c>
@@ -18415,8 +21059,14 @@
       <c r="L441">
         <v>0</v>
       </c>
-    </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M441">
+        <v>0</v>
+      </c>
+      <c r="N441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A442" s="2">
         <v>45913</v>
       </c>
@@ -18453,8 +21103,14 @@
       <c r="L442">
         <v>0</v>
       </c>
-    </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M442">
+        <v>0</v>
+      </c>
+      <c r="N442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A443" s="2">
         <v>45913</v>
       </c>
@@ -18491,8 +21147,14 @@
       <c r="L443">
         <v>0</v>
       </c>
-    </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M443">
+        <v>0</v>
+      </c>
+      <c r="N443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A444" s="2">
         <v>45927</v>
       </c>
@@ -18529,8 +21191,14 @@
       <c r="L444">
         <v>0</v>
       </c>
-    </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M444">
+        <v>0</v>
+      </c>
+      <c r="N444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A445" s="2">
         <v>45927</v>
       </c>
@@ -18567,8 +21235,14 @@
       <c r="L445">
         <v>0</v>
       </c>
-    </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M445">
+        <v>0</v>
+      </c>
+      <c r="N445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A446" s="2">
         <v>45927</v>
       </c>
@@ -18605,8 +21279,14 @@
       <c r="L446">
         <v>0</v>
       </c>
-    </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M446">
+        <v>0</v>
+      </c>
+      <c r="N446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A447" s="2">
         <v>45927</v>
       </c>
@@ -18643,8 +21323,14 @@
       <c r="L447">
         <v>0</v>
       </c>
-    </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M447">
+        <v>0</v>
+      </c>
+      <c r="N447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A448" s="2">
         <v>45927</v>
       </c>
@@ -18681,8 +21367,14 @@
       <c r="L448">
         <v>0</v>
       </c>
-    </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M448">
+        <v>0</v>
+      </c>
+      <c r="N448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A449" s="2">
         <v>45927</v>
       </c>
@@ -18719,8 +21411,14 @@
       <c r="L449">
         <v>0</v>
       </c>
-    </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M449">
+        <v>0</v>
+      </c>
+      <c r="N449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A450" s="2">
         <v>45927</v>
       </c>
@@ -18757,8 +21455,14 @@
       <c r="L450">
         <v>0</v>
       </c>
-    </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M450">
+        <v>0</v>
+      </c>
+      <c r="N450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A451" s="2">
         <v>45927</v>
       </c>
@@ -18795,8 +21499,14 @@
       <c r="L451">
         <v>0</v>
       </c>
-    </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M451">
+        <v>0</v>
+      </c>
+      <c r="N451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A452" s="2">
         <v>45927</v>
       </c>
@@ -18833,8 +21543,14 @@
       <c r="L452">
         <v>0</v>
       </c>
-    </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M452">
+        <v>0</v>
+      </c>
+      <c r="N452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A453" s="2">
         <v>45927</v>
       </c>
@@ -18871,8 +21587,14 @@
       <c r="L453">
         <v>0</v>
       </c>
-    </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M453">
+        <v>0</v>
+      </c>
+      <c r="N453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A454" s="2">
         <v>45927</v>
       </c>
@@ -18909,8 +21631,14 @@
       <c r="L454">
         <v>0</v>
       </c>
-    </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M454">
+        <v>0</v>
+      </c>
+      <c r="N454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A455" s="2">
         <v>45927</v>
       </c>
@@ -18947,8 +21675,14 @@
       <c r="L455">
         <v>0</v>
       </c>
-    </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M455">
+        <v>0</v>
+      </c>
+      <c r="N455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A456" s="2">
         <v>45934</v>
       </c>
@@ -18985,8 +21719,14 @@
       <c r="L456">
         <v>0</v>
       </c>
-    </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M456">
+        <v>0</v>
+      </c>
+      <c r="N456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A457" s="2">
         <v>45934</v>
       </c>
@@ -19023,8 +21763,14 @@
       <c r="L457">
         <v>0</v>
       </c>
-    </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M457">
+        <v>0</v>
+      </c>
+      <c r="N457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A458" s="2">
         <v>45934</v>
       </c>
@@ -19061,8 +21807,14 @@
       <c r="L458">
         <v>0</v>
       </c>
-    </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M458">
+        <v>0</v>
+      </c>
+      <c r="N458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A459" s="2">
         <v>45934</v>
       </c>
@@ -19099,8 +21851,14 @@
       <c r="L459">
         <v>0</v>
       </c>
-    </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M459">
+        <v>0</v>
+      </c>
+      <c r="N459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A460" s="2">
         <v>45934</v>
       </c>
@@ -19137,8 +21895,14 @@
       <c r="L460">
         <v>0</v>
       </c>
-    </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M460">
+        <v>0</v>
+      </c>
+      <c r="N460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A461" s="2">
         <v>45934</v>
       </c>
@@ -19175,8 +21939,14 @@
       <c r="L461">
         <v>0</v>
       </c>
-    </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M461">
+        <v>0</v>
+      </c>
+      <c r="N461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A462" s="2">
         <v>45934</v>
       </c>
@@ -19213,8 +21983,14 @@
       <c r="L462">
         <v>0</v>
       </c>
-    </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M462">
+        <v>0</v>
+      </c>
+      <c r="N462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A463" s="2">
         <v>45934</v>
       </c>
@@ -19251,8 +22027,14 @@
       <c r="L463">
         <v>0</v>
       </c>
-    </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M463">
+        <v>0</v>
+      </c>
+      <c r="N463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A464" s="2">
         <v>45934</v>
       </c>
@@ -19289,8 +22071,14 @@
       <c r="L464">
         <v>0</v>
       </c>
-    </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M464">
+        <v>0</v>
+      </c>
+      <c r="N464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A465" s="2">
         <v>45934</v>
       </c>
@@ -19327,8 +22115,14 @@
       <c r="L465">
         <v>0</v>
       </c>
-    </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M465">
+        <v>0</v>
+      </c>
+      <c r="N465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A466" s="2">
         <v>45934</v>
       </c>
@@ -19365,8 +22159,14 @@
       <c r="L466">
         <v>0</v>
       </c>
-    </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M466">
+        <v>0</v>
+      </c>
+      <c r="N466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A467" s="2">
         <v>45934</v>
       </c>
@@ -19403,8 +22203,14 @@
       <c r="L467">
         <v>0</v>
       </c>
-    </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M467">
+        <v>0</v>
+      </c>
+      <c r="N467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A468" s="2">
         <v>45934</v>
       </c>
@@ -19441,8 +22247,14 @@
       <c r="L468">
         <v>0</v>
       </c>
-    </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M468">
+        <v>0</v>
+      </c>
+      <c r="N468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A469" s="2">
         <v>45934</v>
       </c>
@@ -19479,8 +22291,14 @@
       <c r="L469">
         <v>0</v>
       </c>
-    </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M469">
+        <v>0</v>
+      </c>
+      <c r="N469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A470" s="2">
         <v>45934</v>
       </c>
@@ -19517,8 +22335,14 @@
       <c r="L470">
         <v>0</v>
       </c>
-    </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M470">
+        <v>0</v>
+      </c>
+      <c r="N470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A471" s="2">
         <v>45941</v>
       </c>
@@ -19555,8 +22379,14 @@
       <c r="L471">
         <v>0</v>
       </c>
-    </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M471">
+        <v>0</v>
+      </c>
+      <c r="N471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A472" s="2">
         <v>45941</v>
       </c>
@@ -19593,8 +22423,14 @@
       <c r="L472">
         <v>0</v>
       </c>
-    </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M472">
+        <v>0</v>
+      </c>
+      <c r="N472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A473" s="2">
         <v>45941</v>
       </c>
@@ -19631,8 +22467,14 @@
       <c r="L473">
         <v>0</v>
       </c>
-    </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M473">
+        <v>0</v>
+      </c>
+      <c r="N473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A474" s="2">
         <v>45941</v>
       </c>
@@ -19669,8 +22511,14 @@
       <c r="L474">
         <v>0</v>
       </c>
-    </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M474">
+        <v>0</v>
+      </c>
+      <c r="N474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A475" s="2">
         <v>45941</v>
       </c>
@@ -19707,8 +22555,14 @@
       <c r="L475">
         <v>0</v>
       </c>
-    </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M475">
+        <v>0</v>
+      </c>
+      <c r="N475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A476" s="2">
         <v>45941</v>
       </c>
@@ -19745,8 +22599,14 @@
       <c r="L476">
         <v>0</v>
       </c>
-    </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M476">
+        <v>0</v>
+      </c>
+      <c r="N476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A477" s="2">
         <v>45941</v>
       </c>
@@ -19783,8 +22643,14 @@
       <c r="L477">
         <v>0</v>
       </c>
-    </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M477">
+        <v>0</v>
+      </c>
+      <c r="N477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A478" s="2">
         <v>45941</v>
       </c>
@@ -19821,8 +22687,14 @@
       <c r="L478">
         <v>0</v>
       </c>
-    </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M478">
+        <v>0</v>
+      </c>
+      <c r="N478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A479" s="2">
         <v>45941</v>
       </c>
@@ -19859,8 +22731,14 @@
       <c r="L479">
         <v>0</v>
       </c>
-    </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M479">
+        <v>0</v>
+      </c>
+      <c r="N479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A480" s="2">
         <v>45941</v>
       </c>
@@ -19897,8 +22775,14 @@
       <c r="L480">
         <v>0</v>
       </c>
-    </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M480">
+        <v>0</v>
+      </c>
+      <c r="N480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A481" s="2">
         <v>45941</v>
       </c>
@@ -19935,8 +22819,14 @@
       <c r="L481">
         <v>0</v>
       </c>
-    </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M481">
+        <v>0</v>
+      </c>
+      <c r="N481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A482" s="2">
         <v>45941</v>
       </c>
@@ -19973,8 +22863,14 @@
       <c r="L482">
         <v>0</v>
       </c>
-    </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M482">
+        <v>0</v>
+      </c>
+      <c r="N482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A483" s="2">
         <v>45941</v>
       </c>
@@ -20011,8 +22907,14 @@
       <c r="L483">
         <v>0</v>
       </c>
-    </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M483">
+        <v>0</v>
+      </c>
+      <c r="N483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A484" s="2">
         <v>45941</v>
       </c>
@@ -20049,8 +22951,14 @@
       <c r="L484">
         <v>0</v>
       </c>
-    </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M484">
+        <v>0</v>
+      </c>
+      <c r="N484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A485" s="2">
         <v>45948</v>
       </c>
@@ -20087,8 +22995,14 @@
       <c r="L485">
         <v>0</v>
       </c>
-    </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M485">
+        <v>0</v>
+      </c>
+      <c r="N485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A486" s="2">
         <v>45948</v>
       </c>
@@ -20125,8 +23039,14 @@
       <c r="L486">
         <v>0</v>
       </c>
-    </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M486">
+        <v>0</v>
+      </c>
+      <c r="N486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A487" s="2">
         <v>45948</v>
       </c>
@@ -20163,8 +23083,14 @@
       <c r="L487">
         <v>0</v>
       </c>
-    </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M487">
+        <v>0</v>
+      </c>
+      <c r="N487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A488" s="2">
         <v>45948</v>
       </c>
@@ -20201,8 +23127,14 @@
       <c r="L488">
         <v>0</v>
       </c>
-    </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M488">
+        <v>0</v>
+      </c>
+      <c r="N488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A489" s="2">
         <v>45948</v>
       </c>
@@ -20239,8 +23171,14 @@
       <c r="L489">
         <v>0</v>
       </c>
-    </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M489">
+        <v>0</v>
+      </c>
+      <c r="N489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A490" s="2">
         <v>45948</v>
       </c>
@@ -20277,8 +23215,14 @@
       <c r="L490">
         <v>0</v>
       </c>
-    </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M490">
+        <v>0</v>
+      </c>
+      <c r="N490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A491" s="2">
         <v>45948</v>
       </c>
@@ -20315,8 +23259,14 @@
       <c r="L491">
         <v>0</v>
       </c>
-    </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M491">
+        <v>0</v>
+      </c>
+      <c r="N491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A492" s="2">
         <v>45948</v>
       </c>
@@ -20353,8 +23303,14 @@
       <c r="L492">
         <v>0</v>
       </c>
-    </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M492">
+        <v>0</v>
+      </c>
+      <c r="N492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A493" s="2">
         <v>45948</v>
       </c>
@@ -20391,8 +23347,14 @@
       <c r="L493">
         <v>0</v>
       </c>
-    </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M493">
+        <v>0</v>
+      </c>
+      <c r="N493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A494" s="2">
         <v>45948</v>
       </c>
@@ -20429,8 +23391,14 @@
       <c r="L494">
         <v>0</v>
       </c>
-    </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M494">
+        <v>0</v>
+      </c>
+      <c r="N494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A495" s="2">
         <v>45948</v>
       </c>
@@ -20467,8 +23435,14 @@
       <c r="L495">
         <v>0</v>
       </c>
-    </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M495">
+        <v>0</v>
+      </c>
+      <c r="N495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A496" s="2">
         <v>45955</v>
       </c>
@@ -20505,8 +23479,14 @@
       <c r="L496">
         <v>0</v>
       </c>
-    </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M496">
+        <v>0</v>
+      </c>
+      <c r="N496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A497" s="2">
         <v>45955</v>
       </c>
@@ -20543,8 +23523,14 @@
       <c r="L497">
         <v>0</v>
       </c>
-    </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M497">
+        <v>0</v>
+      </c>
+      <c r="N497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A498" s="2">
         <v>45955</v>
       </c>
@@ -20581,8 +23567,14 @@
       <c r="L498">
         <v>0</v>
       </c>
-    </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M498">
+        <v>0</v>
+      </c>
+      <c r="N498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A499" s="2">
         <v>45955</v>
       </c>
@@ -20619,8 +23611,14 @@
       <c r="L499">
         <v>0</v>
       </c>
-    </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M499">
+        <v>0</v>
+      </c>
+      <c r="N499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A500" s="2">
         <v>45955</v>
       </c>
@@ -20657,8 +23655,14 @@
       <c r="L500">
         <v>0</v>
       </c>
-    </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M500">
+        <v>0</v>
+      </c>
+      <c r="N500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A501" s="2">
         <v>45955</v>
       </c>
@@ -20695,8 +23699,14 @@
       <c r="L501">
         <v>0</v>
       </c>
-    </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M501">
+        <v>0</v>
+      </c>
+      <c r="N501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A502" s="2">
         <v>45962</v>
       </c>
@@ -20733,8 +23743,14 @@
       <c r="L502">
         <v>0</v>
       </c>
-    </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M502">
+        <v>0</v>
+      </c>
+      <c r="N502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A503" s="2">
         <v>45962</v>
       </c>
@@ -20771,8 +23787,14 @@
       <c r="L503">
         <v>0</v>
       </c>
-    </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M503">
+        <v>0</v>
+      </c>
+      <c r="N503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A504" s="2">
         <v>45962</v>
       </c>
@@ -20809,8 +23831,14 @@
       <c r="L504">
         <v>0</v>
       </c>
-    </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M504">
+        <v>0</v>
+      </c>
+      <c r="N504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A505" s="2">
         <v>45962</v>
       </c>
@@ -20847,8 +23875,14 @@
       <c r="L505">
         <v>0</v>
       </c>
-    </row>
-    <row r="506" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M505">
+        <v>0</v>
+      </c>
+      <c r="N505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A506" s="2">
         <v>45962</v>
       </c>
@@ -20885,8 +23919,14 @@
       <c r="L506">
         <v>0</v>
       </c>
-    </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M506">
+        <v>0</v>
+      </c>
+      <c r="N506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A507" s="2">
         <v>45962</v>
       </c>
@@ -20923,8 +23963,14 @@
       <c r="L507">
         <v>0</v>
       </c>
-    </row>
-    <row r="508" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M507">
+        <v>0</v>
+      </c>
+      <c r="N507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A508" s="2">
         <v>45962</v>
       </c>
@@ -20961,8 +24007,14 @@
       <c r="L508">
         <v>0</v>
       </c>
-    </row>
-    <row r="509" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M508">
+        <v>0</v>
+      </c>
+      <c r="N508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A509" s="2">
         <v>45962</v>
       </c>
@@ -20999,8 +24051,14 @@
       <c r="L509">
         <v>0</v>
       </c>
-    </row>
-    <row r="510" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M509">
+        <v>0</v>
+      </c>
+      <c r="N509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A510" s="2">
         <v>45962</v>
       </c>
@@ -21037,8 +24095,14 @@
       <c r="L510">
         <v>0</v>
       </c>
-    </row>
-    <row r="511" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M510">
+        <v>0</v>
+      </c>
+      <c r="N510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A511" s="2">
         <v>45962</v>
       </c>
@@ -21075,8 +24139,14 @@
       <c r="L511">
         <v>0</v>
       </c>
-    </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M511">
+        <v>0</v>
+      </c>
+      <c r="N511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A512" s="2">
         <v>45962</v>
       </c>
@@ -21113,8 +24183,14 @@
       <c r="L512">
         <v>0</v>
       </c>
-    </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M512">
+        <v>0</v>
+      </c>
+      <c r="N512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A513" s="2">
         <v>45962</v>
       </c>
@@ -21151,8 +24227,14 @@
       <c r="L513">
         <v>0</v>
       </c>
-    </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M513">
+        <v>0</v>
+      </c>
+      <c r="N513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A514" s="2">
         <v>45962</v>
       </c>
@@ -21189,8 +24271,14 @@
       <c r="L514">
         <v>0</v>
       </c>
-    </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M514">
+        <v>0</v>
+      </c>
+      <c r="N514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A515" s="2">
         <v>45962</v>
       </c>
@@ -21227,8 +24315,14 @@
       <c r="L515">
         <v>0</v>
       </c>
-    </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M515">
+        <v>0</v>
+      </c>
+      <c r="N515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A516" s="2">
         <v>45962</v>
       </c>
@@ -21265,8 +24359,14 @@
       <c r="L516">
         <v>0</v>
       </c>
-    </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M516">
+        <v>0</v>
+      </c>
+      <c r="N516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A517" s="2">
         <v>45969</v>
       </c>
@@ -21303,8 +24403,14 @@
       <c r="L517">
         <v>0</v>
       </c>
-    </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M517">
+        <v>0</v>
+      </c>
+      <c r="N517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A518" s="2">
         <v>45969</v>
       </c>
@@ -21341,8 +24447,14 @@
       <c r="L518">
         <v>0</v>
       </c>
-    </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M518">
+        <v>0</v>
+      </c>
+      <c r="N518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A519" s="2">
         <v>45969</v>
       </c>
@@ -21379,8 +24491,14 @@
       <c r="L519">
         <v>0</v>
       </c>
-    </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M519">
+        <v>0</v>
+      </c>
+      <c r="N519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A520" s="2">
         <v>45969</v>
       </c>
@@ -21417,8 +24535,14 @@
       <c r="L520">
         <v>0</v>
       </c>
-    </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M520">
+        <v>0</v>
+      </c>
+      <c r="N520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A521" s="2">
         <v>45969</v>
       </c>
@@ -21455,8 +24579,14 @@
       <c r="L521">
         <v>0</v>
       </c>
-    </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M521">
+        <v>0</v>
+      </c>
+      <c r="N521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A522" s="2">
         <v>45969</v>
       </c>
@@ -21493,8 +24623,14 @@
       <c r="L522">
         <v>0</v>
       </c>
-    </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M522">
+        <v>0</v>
+      </c>
+      <c r="N522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A523" s="2">
         <v>45969</v>
       </c>
@@ -21531,8 +24667,14 @@
       <c r="L523">
         <v>0</v>
       </c>
-    </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M523">
+        <v>0</v>
+      </c>
+      <c r="N523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A524" s="2">
         <v>45969</v>
       </c>
@@ -21569,8 +24711,14 @@
       <c r="L524">
         <v>0</v>
       </c>
-    </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M524">
+        <v>0</v>
+      </c>
+      <c r="N524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A525" s="2">
         <v>45969</v>
       </c>
@@ -21596,7 +24744,7 @@
         <v>0</v>
       </c>
       <c r="I525">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J525">
         <v>0</v>
@@ -21605,6 +24753,672 @@
         <v>1</v>
       </c>
       <c r="L525">
+        <v>0</v>
+      </c>
+      <c r="M525">
+        <v>0</v>
+      </c>
+      <c r="N525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A526" s="2">
+        <v>45969</v>
+      </c>
+      <c r="B526" t="s">
+        <v>25</v>
+      </c>
+      <c r="C526" t="s">
+        <v>14</v>
+      </c>
+      <c r="D526" t="s">
+        <v>3</v>
+      </c>
+      <c r="E526">
+        <v>0</v>
+      </c>
+      <c r="F526">
+        <v>0</v>
+      </c>
+      <c r="G526" t="b">
+        <v>0</v>
+      </c>
+      <c r="H526">
+        <v>0</v>
+      </c>
+      <c r="I526">
+        <v>1</v>
+      </c>
+      <c r="J526">
+        <v>0</v>
+      </c>
+      <c r="K526">
+        <v>0</v>
+      </c>
+      <c r="L526">
+        <v>0</v>
+      </c>
+      <c r="M526">
+        <v>0</v>
+      </c>
+      <c r="N526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A527" s="2">
+        <v>45976</v>
+      </c>
+      <c r="B527" t="s">
+        <v>37</v>
+      </c>
+      <c r="C527" t="s">
+        <v>14</v>
+      </c>
+      <c r="D527" t="s">
+        <v>4</v>
+      </c>
+      <c r="E527">
+        <v>0</v>
+      </c>
+      <c r="F527">
+        <v>0</v>
+      </c>
+      <c r="G527" t="b">
+        <v>1</v>
+      </c>
+      <c r="H527">
+        <v>7</v>
+      </c>
+      <c r="I527">
+        <v>0</v>
+      </c>
+      <c r="J527">
+        <v>0</v>
+      </c>
+      <c r="K527">
+        <v>0</v>
+      </c>
+      <c r="L527">
+        <v>0</v>
+      </c>
+      <c r="M527">
+        <v>0</v>
+      </c>
+      <c r="N527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A528" s="2">
+        <v>45976</v>
+      </c>
+      <c r="B528" t="s">
+        <v>33</v>
+      </c>
+      <c r="C528" t="s">
+        <v>13</v>
+      </c>
+      <c r="D528" t="s">
+        <v>4</v>
+      </c>
+      <c r="E528">
+        <v>0</v>
+      </c>
+      <c r="F528">
+        <v>0</v>
+      </c>
+      <c r="G528" t="b">
+        <v>1</v>
+      </c>
+      <c r="H528">
+        <v>4</v>
+      </c>
+      <c r="I528">
+        <v>0</v>
+      </c>
+      <c r="J528">
+        <v>0</v>
+      </c>
+      <c r="K528">
+        <v>0</v>
+      </c>
+      <c r="L528">
+        <v>0</v>
+      </c>
+      <c r="M528">
+        <v>0</v>
+      </c>
+      <c r="N528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A529" s="2">
+        <v>45976</v>
+      </c>
+      <c r="B529" t="s">
+        <v>22</v>
+      </c>
+      <c r="C529" t="s">
+        <v>13</v>
+      </c>
+      <c r="D529" t="s">
+        <v>2</v>
+      </c>
+      <c r="E529">
+        <v>1</v>
+      </c>
+      <c r="F529">
+        <v>0</v>
+      </c>
+      <c r="G529" t="b">
+        <v>0</v>
+      </c>
+      <c r="H529">
+        <v>0</v>
+      </c>
+      <c r="I529">
+        <v>1</v>
+      </c>
+      <c r="J529">
+        <v>0</v>
+      </c>
+      <c r="K529">
+        <v>1</v>
+      </c>
+      <c r="L529">
+        <v>0</v>
+      </c>
+      <c r="M529">
+        <v>1</v>
+      </c>
+      <c r="N529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A530" s="2">
+        <v>45976</v>
+      </c>
+      <c r="B530" t="s">
+        <v>15</v>
+      </c>
+      <c r="C530" t="s">
+        <v>13</v>
+      </c>
+      <c r="D530" t="s">
+        <v>16</v>
+      </c>
+      <c r="E530">
+        <v>3</v>
+      </c>
+      <c r="F530">
+        <v>0</v>
+      </c>
+      <c r="G530" t="b">
+        <v>0</v>
+      </c>
+      <c r="H530">
+        <v>0</v>
+      </c>
+      <c r="I530">
+        <v>0</v>
+      </c>
+      <c r="J530">
+        <v>0</v>
+      </c>
+      <c r="K530">
+        <v>0</v>
+      </c>
+      <c r="L530">
+        <v>0</v>
+      </c>
+      <c r="M530">
+        <v>1</v>
+      </c>
+      <c r="N530">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="531" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A531" s="2">
+        <v>45976</v>
+      </c>
+      <c r="B531" t="s">
+        <v>54</v>
+      </c>
+      <c r="C531" t="s">
+        <v>13</v>
+      </c>
+      <c r="D531" t="s">
+        <v>16</v>
+      </c>
+      <c r="E531">
+        <v>3</v>
+      </c>
+      <c r="F531">
+        <v>0</v>
+      </c>
+      <c r="G531" t="b">
+        <v>0</v>
+      </c>
+      <c r="H531">
+        <v>0</v>
+      </c>
+      <c r="I531">
+        <v>0</v>
+      </c>
+      <c r="J531">
+        <v>0</v>
+      </c>
+      <c r="K531">
+        <v>0</v>
+      </c>
+      <c r="L531">
+        <v>0</v>
+      </c>
+      <c r="M531">
+        <v>2</v>
+      </c>
+      <c r="N531">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A532" s="2">
+        <v>45976</v>
+      </c>
+      <c r="B532" t="s">
+        <v>40</v>
+      </c>
+      <c r="C532" t="s">
+        <v>13</v>
+      </c>
+      <c r="D532" t="s">
+        <v>16</v>
+      </c>
+      <c r="E532">
+        <v>0</v>
+      </c>
+      <c r="F532">
+        <v>0</v>
+      </c>
+      <c r="G532" t="b">
+        <v>0</v>
+      </c>
+      <c r="H532">
+        <v>0</v>
+      </c>
+      <c r="I532">
+        <v>0</v>
+      </c>
+      <c r="J532">
+        <v>0</v>
+      </c>
+      <c r="K532">
+        <v>2</v>
+      </c>
+      <c r="L532">
+        <v>0</v>
+      </c>
+      <c r="M532">
+        <v>0</v>
+      </c>
+      <c r="N532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A533" s="2">
+        <v>45976</v>
+      </c>
+      <c r="B533" t="s">
+        <v>56</v>
+      </c>
+      <c r="C533" t="s">
+        <v>13</v>
+      </c>
+      <c r="D533" t="s">
+        <v>2</v>
+      </c>
+      <c r="E533">
+        <v>0</v>
+      </c>
+      <c r="F533">
+        <v>0</v>
+      </c>
+      <c r="G533" t="b">
+        <v>0</v>
+      </c>
+      <c r="H533">
+        <v>0</v>
+      </c>
+      <c r="I533">
+        <v>0</v>
+      </c>
+      <c r="J533">
+        <v>0</v>
+      </c>
+      <c r="K533">
+        <v>1</v>
+      </c>
+      <c r="L533">
+        <v>0</v>
+      </c>
+      <c r="M533">
+        <v>0</v>
+      </c>
+      <c r="N533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A534" s="2">
+        <v>45976</v>
+      </c>
+      <c r="B534" t="s">
+        <v>19</v>
+      </c>
+      <c r="C534" t="s">
+        <v>14</v>
+      </c>
+      <c r="D534" t="s">
+        <v>2</v>
+      </c>
+      <c r="E534">
+        <v>2</v>
+      </c>
+      <c r="F534">
+        <v>0</v>
+      </c>
+      <c r="G534" t="b">
+        <v>0</v>
+      </c>
+      <c r="H534">
+        <v>0</v>
+      </c>
+      <c r="I534">
+        <v>0</v>
+      </c>
+      <c r="J534">
+        <v>0</v>
+      </c>
+      <c r="K534">
+        <v>1</v>
+      </c>
+      <c r="L534">
+        <v>0</v>
+      </c>
+      <c r="M534">
+        <v>1</v>
+      </c>
+      <c r="N534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A535" s="2">
+        <v>45976</v>
+      </c>
+      <c r="B535" t="s">
+        <v>18</v>
+      </c>
+      <c r="C535" t="s">
+        <v>14</v>
+      </c>
+      <c r="D535" t="s">
+        <v>16</v>
+      </c>
+      <c r="E535">
+        <v>1</v>
+      </c>
+      <c r="F535">
+        <v>0</v>
+      </c>
+      <c r="G535" t="b">
+        <v>0</v>
+      </c>
+      <c r="H535">
+        <v>0</v>
+      </c>
+      <c r="I535">
+        <v>0</v>
+      </c>
+      <c r="J535">
+        <v>0</v>
+      </c>
+      <c r="K535">
+        <v>2</v>
+      </c>
+      <c r="L535">
+        <v>0</v>
+      </c>
+      <c r="M535">
+        <v>1</v>
+      </c>
+      <c r="N535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A536" s="2">
+        <v>45976</v>
+      </c>
+      <c r="B536" t="s">
+        <v>58</v>
+      </c>
+      <c r="C536" t="s">
+        <v>14</v>
+      </c>
+      <c r="D536" t="s">
+        <v>2</v>
+      </c>
+      <c r="E536">
+        <v>1</v>
+      </c>
+      <c r="F536">
+        <v>0</v>
+      </c>
+      <c r="G536" t="b">
+        <v>0</v>
+      </c>
+      <c r="H536">
+        <v>0</v>
+      </c>
+      <c r="I536">
+        <v>0</v>
+      </c>
+      <c r="J536">
+        <v>0</v>
+      </c>
+      <c r="K536">
+        <v>1</v>
+      </c>
+      <c r="L536">
+        <v>0</v>
+      </c>
+      <c r="M536">
+        <v>0</v>
+      </c>
+      <c r="N536">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A537" s="2">
+        <v>45976</v>
+      </c>
+      <c r="B537" t="s">
+        <v>51</v>
+      </c>
+      <c r="C537" t="s">
+        <v>14</v>
+      </c>
+      <c r="D537" t="s">
+        <v>16</v>
+      </c>
+      <c r="E537">
+        <v>0</v>
+      </c>
+      <c r="F537">
+        <v>0</v>
+      </c>
+      <c r="G537" t="b">
+        <v>0</v>
+      </c>
+      <c r="H537">
+        <v>0</v>
+      </c>
+      <c r="I537">
+        <v>1</v>
+      </c>
+      <c r="J537">
+        <v>0</v>
+      </c>
+      <c r="K537">
+        <v>1</v>
+      </c>
+      <c r="L537">
+        <v>0</v>
+      </c>
+      <c r="M537">
+        <v>0</v>
+      </c>
+      <c r="N537">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A538" s="2">
+        <v>45976</v>
+      </c>
+      <c r="B538" t="s">
+        <v>24</v>
+      </c>
+      <c r="C538" t="s">
+        <v>14</v>
+      </c>
+      <c r="D538" t="s">
+        <v>16</v>
+      </c>
+      <c r="E538">
+        <v>0</v>
+      </c>
+      <c r="F538">
+        <v>0</v>
+      </c>
+      <c r="G538" t="b">
+        <v>0</v>
+      </c>
+      <c r="H538">
+        <v>0</v>
+      </c>
+      <c r="I538">
+        <v>2</v>
+      </c>
+      <c r="J538">
+        <v>1</v>
+      </c>
+      <c r="K538">
+        <v>0</v>
+      </c>
+      <c r="L538">
+        <v>0</v>
+      </c>
+      <c r="M538">
+        <v>0</v>
+      </c>
+      <c r="N538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A539" s="2">
+        <v>45976</v>
+      </c>
+      <c r="B539" t="s">
+        <v>75</v>
+      </c>
+      <c r="C539" t="s">
+        <v>14</v>
+      </c>
+      <c r="D539" t="s">
+        <v>3</v>
+      </c>
+      <c r="E539">
+        <v>0</v>
+      </c>
+      <c r="F539">
+        <v>0</v>
+      </c>
+      <c r="G539" t="b">
+        <v>0</v>
+      </c>
+      <c r="H539">
+        <v>0</v>
+      </c>
+      <c r="I539">
+        <v>1</v>
+      </c>
+      <c r="J539">
+        <v>0</v>
+      </c>
+      <c r="K539">
+        <v>0</v>
+      </c>
+      <c r="L539">
+        <v>0</v>
+      </c>
+      <c r="M539">
+        <v>0</v>
+      </c>
+      <c r="N539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A540" s="2">
+        <v>45976</v>
+      </c>
+      <c r="B540" t="s">
+        <v>43</v>
+      </c>
+      <c r="C540" t="s">
+        <v>14</v>
+      </c>
+      <c r="D540" t="s">
+        <v>16</v>
+      </c>
+      <c r="E540">
+        <v>0</v>
+      </c>
+      <c r="F540">
+        <v>0</v>
+      </c>
+      <c r="G540" t="b">
+        <v>0</v>
+      </c>
+      <c r="H540">
+        <v>0</v>
+      </c>
+      <c r="I540">
+        <v>1</v>
+      </c>
+      <c r="J540">
+        <v>0</v>
+      </c>
+      <c r="K540">
+        <v>0</v>
+      </c>
+      <c r="L540">
+        <v>0</v>
+      </c>
+      <c r="M540">
+        <v>0</v>
+      </c>
+      <c r="N540">
         <v>0</v>
       </c>
     </row>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupocoomeva-my.sharepoint.com/personal/nalgmarin_coomeva_com_co/Documents/2025/Personal/Legendarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3167" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D120D3A7-F3D0-42C8-ADA5-C691C7F1077A}"/>
+  <xr:revisionPtr revIDLastSave="3334" documentId="8_{7117CBA5-888E-42AB-A2CA-F41248655E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE1A68C3-D584-495B-9A18-FB9927F743F3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="86">
   <si>
     <t>jugador</t>
   </si>
@@ -301,7 +301,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,6 +321,21 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -370,22 +385,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1035,7 +1054,7 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,7 +1075,7 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1293,7 +1312,7 @@
       <c r="C19" s="2">
         <v>32891</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1656,71 +1675,72 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N540"/>
+  <dimension ref="A1:N551"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A524" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F543" sqref="F543"/>
+      <pane ySplit="1" topLeftCell="A545" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A554" sqref="A554"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="7" t="s">
         <v>85</v>
       </c>
     </row>
@@ -25420,6 +25440,490 @@
       </c>
       <c r="N540">
         <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A541" s="2">
+        <v>45983</v>
+      </c>
+      <c r="B541" t="s">
+        <v>82</v>
+      </c>
+      <c r="C541" t="s">
+        <v>14</v>
+      </c>
+      <c r="D541" t="s">
+        <v>4</v>
+      </c>
+      <c r="E541">
+        <v>0</v>
+      </c>
+      <c r="F541">
+        <v>0</v>
+      </c>
+      <c r="G541" t="b">
+        <v>1</v>
+      </c>
+      <c r="H541">
+        <v>0</v>
+      </c>
+      <c r="I541">
+        <v>0</v>
+      </c>
+      <c r="J541">
+        <v>0</v>
+      </c>
+      <c r="K541">
+        <v>0</v>
+      </c>
+      <c r="L541">
+        <v>0</v>
+      </c>
+      <c r="M541">
+        <v>0</v>
+      </c>
+      <c r="N541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A542" s="2">
+        <v>45983</v>
+      </c>
+      <c r="B542" t="s">
+        <v>54</v>
+      </c>
+      <c r="C542" t="s">
+        <v>14</v>
+      </c>
+      <c r="D542" t="s">
+        <v>4</v>
+      </c>
+      <c r="E542">
+        <v>0</v>
+      </c>
+      <c r="F542">
+        <v>0</v>
+      </c>
+      <c r="G542" t="b">
+        <v>1</v>
+      </c>
+      <c r="H542">
+        <v>5</v>
+      </c>
+      <c r="I542">
+        <v>0</v>
+      </c>
+      <c r="J542">
+        <v>0</v>
+      </c>
+      <c r="K542">
+        <v>0</v>
+      </c>
+      <c r="L542">
+        <v>0</v>
+      </c>
+      <c r="M542">
+        <v>0</v>
+      </c>
+      <c r="N542">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A543" s="2">
+        <v>45983</v>
+      </c>
+      <c r="B543" t="s">
+        <v>37</v>
+      </c>
+      <c r="C543" t="s">
+        <v>13</v>
+      </c>
+      <c r="D543" t="s">
+        <v>4</v>
+      </c>
+      <c r="E543">
+        <v>0</v>
+      </c>
+      <c r="F543">
+        <v>0</v>
+      </c>
+      <c r="G543" t="b">
+        <v>1</v>
+      </c>
+      <c r="H543">
+        <v>5</v>
+      </c>
+      <c r="I543">
+        <v>0</v>
+      </c>
+      <c r="J543">
+        <v>0</v>
+      </c>
+      <c r="K543">
+        <v>0</v>
+      </c>
+      <c r="L543">
+        <v>0</v>
+      </c>
+      <c r="M543">
+        <v>0</v>
+      </c>
+      <c r="N543">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A544" s="2">
+        <v>45983</v>
+      </c>
+      <c r="B544" t="s">
+        <v>75</v>
+      </c>
+      <c r="C544" t="s">
+        <v>13</v>
+      </c>
+      <c r="D544" t="s">
+        <v>3</v>
+      </c>
+      <c r="E544">
+        <v>1</v>
+      </c>
+      <c r="F544">
+        <v>0</v>
+      </c>
+      <c r="G544" t="b">
+        <v>0</v>
+      </c>
+      <c r="H544">
+        <v>0</v>
+      </c>
+      <c r="I544">
+        <v>0</v>
+      </c>
+      <c r="J544">
+        <v>0</v>
+      </c>
+      <c r="K544">
+        <v>0</v>
+      </c>
+      <c r="L544">
+        <v>0</v>
+      </c>
+      <c r="M544">
+        <v>0</v>
+      </c>
+      <c r="N544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A545" s="2">
+        <v>45983</v>
+      </c>
+      <c r="B545" t="s">
+        <v>15</v>
+      </c>
+      <c r="C545" t="s">
+        <v>13</v>
+      </c>
+      <c r="D545" t="s">
+        <v>16</v>
+      </c>
+      <c r="E545">
+        <v>3</v>
+      </c>
+      <c r="F545">
+        <v>0</v>
+      </c>
+      <c r="G545" t="b">
+        <v>0</v>
+      </c>
+      <c r="H545">
+        <v>0</v>
+      </c>
+      <c r="I545">
+        <v>0</v>
+      </c>
+      <c r="J545">
+        <v>0</v>
+      </c>
+      <c r="K545">
+        <v>0</v>
+      </c>
+      <c r="L545">
+        <v>0</v>
+      </c>
+      <c r="M545">
+        <v>0</v>
+      </c>
+      <c r="N545">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="546" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A546" s="2">
+        <v>45983</v>
+      </c>
+      <c r="B546" t="s">
+        <v>58</v>
+      </c>
+      <c r="C546" t="s">
+        <v>13</v>
+      </c>
+      <c r="D546" t="s">
+        <v>2</v>
+      </c>
+      <c r="E546">
+        <v>1</v>
+      </c>
+      <c r="F546">
+        <v>0</v>
+      </c>
+      <c r="G546" t="b">
+        <v>0</v>
+      </c>
+      <c r="H546">
+        <v>0</v>
+      </c>
+      <c r="I546">
+        <v>0</v>
+      </c>
+      <c r="J546">
+        <v>0</v>
+      </c>
+      <c r="K546">
+        <v>2</v>
+      </c>
+      <c r="L546">
+        <v>0</v>
+      </c>
+      <c r="M546">
+        <v>0</v>
+      </c>
+      <c r="N546">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A547" s="2">
+        <v>45983</v>
+      </c>
+      <c r="B547" t="s">
+        <v>51</v>
+      </c>
+      <c r="C547" t="s">
+        <v>13</v>
+      </c>
+      <c r="D547" t="s">
+        <v>16</v>
+      </c>
+      <c r="E547">
+        <v>0</v>
+      </c>
+      <c r="F547">
+        <v>0</v>
+      </c>
+      <c r="G547" t="b">
+        <v>0</v>
+      </c>
+      <c r="H547">
+        <v>0</v>
+      </c>
+      <c r="I547">
+        <v>0</v>
+      </c>
+      <c r="J547">
+        <v>0</v>
+      </c>
+      <c r="K547">
+        <v>1</v>
+      </c>
+      <c r="L547">
+        <v>0</v>
+      </c>
+      <c r="M547">
+        <v>0</v>
+      </c>
+      <c r="N547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A548" s="2">
+        <v>45983</v>
+      </c>
+      <c r="B548" t="s">
+        <v>79</v>
+      </c>
+      <c r="C548" t="s">
+        <v>13</v>
+      </c>
+      <c r="D548" t="s">
+        <v>3</v>
+      </c>
+      <c r="E548">
+        <v>0</v>
+      </c>
+      <c r="F548">
+        <v>0</v>
+      </c>
+      <c r="G548" t="b">
+        <v>0</v>
+      </c>
+      <c r="H548">
+        <v>0</v>
+      </c>
+      <c r="I548">
+        <v>0</v>
+      </c>
+      <c r="J548">
+        <v>0</v>
+      </c>
+      <c r="K548">
+        <v>2</v>
+      </c>
+      <c r="L548">
+        <v>0</v>
+      </c>
+      <c r="M548">
+        <v>0</v>
+      </c>
+      <c r="N548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A549" s="2">
+        <v>45983</v>
+      </c>
+      <c r="B549" t="s">
+        <v>56</v>
+      </c>
+      <c r="C549" t="s">
+        <v>14</v>
+      </c>
+      <c r="D549" t="s">
+        <v>2</v>
+      </c>
+      <c r="E549">
+        <v>1</v>
+      </c>
+      <c r="F549">
+        <v>0</v>
+      </c>
+      <c r="G549" t="b">
+        <v>0</v>
+      </c>
+      <c r="H549">
+        <v>0</v>
+      </c>
+      <c r="I549">
+        <v>0</v>
+      </c>
+      <c r="J549">
+        <v>0</v>
+      </c>
+      <c r="K549">
+        <v>0</v>
+      </c>
+      <c r="L549">
+        <v>0</v>
+      </c>
+      <c r="M549">
+        <v>1</v>
+      </c>
+      <c r="N549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A550" s="2">
+        <v>45983</v>
+      </c>
+      <c r="B550" t="s">
+        <v>28</v>
+      </c>
+      <c r="C550" t="s">
+        <v>14</v>
+      </c>
+      <c r="D550" t="s">
+        <v>2</v>
+      </c>
+      <c r="E550">
+        <v>2</v>
+      </c>
+      <c r="F550">
+        <v>0</v>
+      </c>
+      <c r="G550" t="b">
+        <v>0</v>
+      </c>
+      <c r="H550">
+        <v>0</v>
+      </c>
+      <c r="I550">
+        <v>0</v>
+      </c>
+      <c r="J550">
+        <v>0</v>
+      </c>
+      <c r="K550">
+        <v>2</v>
+      </c>
+      <c r="L550">
+        <v>0</v>
+      </c>
+      <c r="M550">
+        <v>1</v>
+      </c>
+      <c r="N550">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A551" s="2">
+        <v>45983</v>
+      </c>
+      <c r="B551" t="s">
+        <v>22</v>
+      </c>
+      <c r="C551" t="s">
+        <v>14</v>
+      </c>
+      <c r="D551" t="s">
+        <v>2</v>
+      </c>
+      <c r="E551">
+        <v>2</v>
+      </c>
+      <c r="F551">
+        <v>0</v>
+      </c>
+      <c r="G551" t="b">
+        <v>0</v>
+      </c>
+      <c r="H551">
+        <v>0</v>
+      </c>
+      <c r="I551">
+        <v>0</v>
+      </c>
+      <c r="J551">
+        <v>0</v>
+      </c>
+      <c r="K551">
+        <v>2</v>
+      </c>
+      <c r="L551">
+        <v>0</v>
+      </c>
+      <c r="M551">
+        <v>0</v>
+      </c>
+      <c r="N551">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
